--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E96288-8E00-4E48-A105-73CDFFD4501B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61ADD9-25B5-E74D-A31B-0CBCE579B373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="256">
   <si>
     <t>A</t>
   </si>
@@ -128,253 +128,678 @@
     <t>Jose Luis Vaca Ramos</t>
   </si>
   <si>
-    <t xml:space="preserve">Israel Espinosa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lola Ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilda Sanchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srturo Monroy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayra Ortega </t>
-  </si>
-  <si>
-    <t>Erika Gaitan</t>
-  </si>
-  <si>
-    <t>Angelica Tinoco</t>
-  </si>
-  <si>
-    <t>Miriam Roldan</t>
-  </si>
-  <si>
-    <t>Beatriz Sanders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yudith Ramirez </t>
-  </si>
-  <si>
-    <t>Alejandra Guzman</t>
-  </si>
-  <si>
-    <t>Sugeil Macias</t>
-  </si>
-  <si>
-    <t>Rodrigo de Lacerna</t>
-  </si>
-  <si>
-    <t>Alfredo Martinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Arceo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maja Moguel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandra Silva Santisteban </t>
-  </si>
-  <si>
-    <t>Lucero Yanin Contreras Landeros</t>
-  </si>
-  <si>
-    <t>Maribel Guerra Flores</t>
-  </si>
-  <si>
-    <t>Rogelio Villegas</t>
-  </si>
-  <si>
-    <t>Teresa Ling</t>
-  </si>
-  <si>
-    <t>Gabriela Casta√±eda</t>
-  </si>
-  <si>
-    <t>Alfonso Gonzalez Iriondo</t>
-  </si>
-  <si>
-    <t>Pamela Ascenci√≥n</t>
-  </si>
-  <si>
-    <t>Cindy Chavira</t>
-  </si>
-  <si>
-    <t>Nashieli Simancas Ortiz</t>
-  </si>
-  <si>
-    <t>Roberto Valdez</t>
-  </si>
-  <si>
-    <t>Alejandra Fajer</t>
-  </si>
-  <si>
-    <t>Nashieli Simancas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carlos salda√±a </t>
-  </si>
-  <si>
-    <t>espinosa21am@gmail.com</t>
-  </si>
-  <si>
-    <t>ramirezlola@hotmail.com</t>
-  </si>
-  <si>
-    <t>Morahika@hotmail.com</t>
-  </si>
-  <si>
-    <t>arturo.monroy76@hotmail.com</t>
-  </si>
-  <si>
-    <t>doctoramay@hotmail.com</t>
-  </si>
-  <si>
-    <t>lady09lora@gmail.com</t>
-  </si>
-  <si>
-    <t>mario.consulos@outlook.com</t>
-  </si>
-  <si>
-    <t>iktona20@hotmail.com</t>
-  </si>
-  <si>
-    <t>sandersb33@hotmail.com</t>
-  </si>
-  <si>
-    <t>yudithrmpliego@gmail.com</t>
-  </si>
-  <si>
-    <t>wera_guzman@hotmail.com</t>
-  </si>
-  <si>
-    <t>sugeil.macias@hotmail.com</t>
-  </si>
-  <si>
-    <t>rodelase@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>oderflaelbueno@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jos.arceo@gmail.com</t>
-  </si>
-  <si>
-    <t>majamoguel@gmail.com</t>
-  </si>
-  <si>
-    <t>Asilva1811@hormail.com</t>
-  </si>
-  <si>
-    <t>yanin.contreras25@gmail.com</t>
-  </si>
-  <si>
-    <t>thoscana@hotmail.com</t>
-  </si>
-  <si>
-    <t>rogelio86v@gmail.com</t>
-  </si>
-  <si>
-    <t>anahi587@icloud.com</t>
-  </si>
-  <si>
-    <t>gcastaneda14@hotmail.com</t>
-  </si>
-  <si>
-    <t>adeharo@hotmail.com</t>
-  </si>
-  <si>
-    <t>giradic25@hotmail.com</t>
-  </si>
-  <si>
-    <t>cychav@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>nashsim@hotmail.com</t>
-  </si>
-  <si>
-    <t>rvaldezgarcia.1990@gmail.com</t>
-  </si>
-  <si>
-    <t>ale_fajer@hotmail.com</t>
-  </si>
-  <si>
-    <t>carsaltelefonia@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envi√≥ mail de presentaci√≥n y cotizaci√≥n del 205B</t>
-  </si>
-  <si>
-    <t>Asesor inmobiliaria, contacto por Whats App.</t>
-  </si>
-  <si>
-    <t>Viene el domingo.</t>
-  </si>
-  <si>
-    <t>Comenta lo visitara pr√≥ximamente con sus hermanas. Ya estaba registrada con nombre Sra. Susana Olvera y Gina Olvera 20/09/19</t>
-  </si>
-  <si>
-    <t>Entra buz√≥n se  le envia informaci√≥n general por mail</t>
-  </si>
-  <si>
-    <t>Se le dio informaci√≥n general del proyecto y cotizaciones 205B y 301C</t>
-  </si>
-  <si>
-    <t>Es corredora, traera clientes.</t>
-  </si>
-  <si>
-    <t>Se le dio informaci√≥n general del proyecto y cotizaciones PH05A y PH04C.</t>
-  </si>
-  <si>
-    <t>Se le dio informaci√≥n general del proyecto y cotizaciones PH03B.</t>
-  </si>
-  <si>
-    <t>Se le envi√≥ presentacion digital de proyecto y cotizaci√≥n del 205B.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Entra buz√≥m se le env√≠a informaci√≥n general por mail</t>
-  </si>
-  <si>
-    <t>Ya estaba registrada en la fecha 27/08/2019. Interesada en el departamento 202A.</t>
-  </si>
-  <si>
-    <t>Se le envia informaci√≥n de 2 y 3 recamaras por Whats app y mail.</t>
-  </si>
-  <si>
-    <t>Solicito informaci√≥n general, qued√≥ de visitarnos en los pr√≥ximos d√≠as.</t>
-  </si>
-  <si>
-    <t>Solicita informaci√≥n general del proyecto y cotizaci√≥n departamento 205B</t>
-  </si>
-  <si>
-    <t>Informaci√≥n del proyecto y cotizaci√≥n departamento 205B</t>
-  </si>
-  <si>
-    <t>Dejo sus datos, dijo que regresaba.</t>
-  </si>
-  <si>
-    <t>Solicito informaci√≥n del proyecto y cotizaci√≥n departamento 205B</t>
-  </si>
-  <si>
-    <t>Llamo de Tennessee, solicito informaci√≥n del proyecto y cotizaci√≥n departamento 403B.</t>
-  </si>
-  <si>
-    <t>Solicit√≥ informes por whatsaap, se le envi√≥ presentaci√≥n y cotizaci√≥n del 205B y 403C, Tine un tope de 7 millones.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Entra buzon se envia informaci√≥n general por mail</t>
-  </si>
-  <si>
-    <t>Solicit√≥ informes por whatsaap, pero solo tiene $5M.</t>
-  </si>
-  <si>
-    <t>Se le envi√≥ mail de presentaci√≥n y cotizaci√≥n del 205B.
-Seguimiento</t>
+    <t>2020-03-08 16:57:12</t>
+  </si>
+  <si>
+    <t>2020-03-08 13:19:40</t>
+  </si>
+  <si>
+    <t>2020-03-08 12:43:30</t>
+  </si>
+  <si>
+    <t>2020-03-08 12:19:37</t>
+  </si>
+  <si>
+    <t>2020-03-08 07:52:40</t>
+  </si>
+  <si>
+    <t>2020-03-07 21:17:16</t>
+  </si>
+  <si>
+    <t>2020-03-07 20:02:11</t>
+  </si>
+  <si>
+    <t>2020-03-07 17:12:47</t>
+  </si>
+  <si>
+    <t>2020-03-07 11:39:31</t>
+  </si>
+  <si>
+    <t>2020-03-06 23:28:25</t>
+  </si>
+  <si>
+    <t>2020-03-06 19:46:35</t>
+  </si>
+  <si>
+    <t>2020-03-06 16:50:13</t>
+  </si>
+  <si>
+    <t>2020-03-06 16:48:45</t>
+  </si>
+  <si>
+    <t>2020-03-06 14:03:04</t>
+  </si>
+  <si>
+    <t>2020-03-06 13:48:45</t>
+  </si>
+  <si>
+    <t>2020-03-06 12:40:27</t>
+  </si>
+  <si>
+    <t>2020-03-06 09:13:07</t>
+  </si>
+  <si>
+    <t>2020-03-05 23:43:08</t>
+  </si>
+  <si>
+    <t>2020-03-05 22:40:29</t>
+  </si>
+  <si>
+    <t>2020-03-05 21:34:30</t>
+  </si>
+  <si>
+    <t>2020-03-05 21:16:12</t>
+  </si>
+  <si>
+    <t>2020-03-05 16:15:32</t>
+  </si>
+  <si>
+    <t>2020-03-05 12:00:47</t>
+  </si>
+  <si>
+    <t>2020-03-05 11:56:49</t>
+  </si>
+  <si>
+    <t>2020-03-05 11:43:57</t>
+  </si>
+  <si>
+    <t>2020-03-05 10:31:38</t>
+  </si>
+  <si>
+    <t>2020-03-04 15:54:30</t>
+  </si>
+  <si>
+    <t>2020-03-04 15:41:34</t>
+  </si>
+  <si>
+    <t>2020-03-04 14:07:51</t>
+  </si>
+  <si>
+    <t>2020-03-04 11:34:31</t>
+  </si>
+  <si>
+    <t>2020-03-04 11:00:02</t>
+  </si>
+  <si>
+    <t>2020-03-04 08:29:03</t>
+  </si>
+  <si>
+    <t>2020-03-04 00:21:15</t>
+  </si>
+  <si>
+    <t>2020-03-03 23:35:39</t>
+  </si>
+  <si>
+    <t>2020-03-03 19:08:40</t>
+  </si>
+  <si>
+    <t>2020-03-03 18:56:13</t>
+  </si>
+  <si>
+    <t>2020-03-03 17:18:19</t>
+  </si>
+  <si>
+    <t>2020-03-03 16:47:20</t>
+  </si>
+  <si>
+    <t>2020-03-03 16:18:58</t>
+  </si>
+  <si>
+    <t>2020-03-03 14:25:33</t>
+  </si>
+  <si>
+    <t>2020-03-03 13:36:21</t>
+  </si>
+  <si>
+    <t>2020-03-03 12:32:50</t>
+  </si>
+  <si>
+    <t>2020-03-03 12:13:39</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:59:04</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:59:02</t>
+  </si>
+  <si>
+    <t>2020-03-02 22:47:27</t>
+  </si>
+  <si>
+    <t>2020-03-02 21:27:18</t>
+  </si>
+  <si>
+    <t>2020-03-02 17:24:19</t>
+  </si>
+  <si>
+    <t>2020-03-02 16:23:21</t>
+  </si>
+  <si>
+    <t>2020-03-02 15:59:19</t>
+  </si>
+  <si>
+    <t>2020-03-02 15:39:11</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:11:49</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:11:47</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:11:46</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:11:19</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:10:40</t>
+  </si>
+  <si>
+    <t>2020-03-02 13:55:30</t>
+  </si>
+  <si>
+    <t>2020-03-02 13:54:13</t>
+  </si>
+  <si>
+    <t>2020-03-02 13:15:06</t>
+  </si>
+  <si>
+    <t>2020-03-01 17:07:58</t>
+  </si>
+  <si>
+    <t>2020-03-01 16:55:09</t>
+  </si>
+  <si>
+    <t>2020-03-01 16:52:01</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Laura Alverdi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Barba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ady Srdán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilda Jimenez Sosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaby Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Aurelio Velasco Palacios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Guillermo Chávez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Polakoff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Jarque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elsa Tovar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abigail Villegas </t>
+  </si>
+  <si>
+    <t>Ana Hernandez Miranda</t>
+  </si>
+  <si>
+    <t>Alejandro Martinez Castañeda</t>
+  </si>
+  <si>
+    <t>Griselda Montoya</t>
+  </si>
+  <si>
+    <t>Sr Rodolfo Linares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dante Edgar nuñez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel  Cuellar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joanna Pv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morusa Muñoz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dora Cortes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERNANDO Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kharina Hernandez </t>
+  </si>
+  <si>
+    <t>Jose Ignacio Llano</t>
+  </si>
+  <si>
+    <t>Misael Herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamile Cabrera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lili Murillo Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcela Dolores Aguado Sanchez </t>
+  </si>
+  <si>
+    <t>Rosario Sanchez Oropeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalia Cordova A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ines Elvira Mariño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">juan pablo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">America Hernandez Abrego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Elena Escobedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A A Ram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lazaro falcon torres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Cortes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo García Cisneros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jair Tonathiu Pérez Anguiano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena Muñoz </t>
+  </si>
+  <si>
+    <t>Luis Carpintero</t>
+  </si>
+  <si>
+    <t>Sarae Garcia</t>
+  </si>
+  <si>
+    <t>Sergio Gomez</t>
+  </si>
+  <si>
+    <t>Julian Jean Lattes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz villaseñor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar maldonado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoana Pastrana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Alvarez </t>
+  </si>
+  <si>
+    <t>Victor Martinez Valdivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Christian Hill </t>
+  </si>
+  <si>
+    <t>Marco Briceño Garcia Carrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Saldaña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karla Arteaga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Teresa sanabria huerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zayra Bracamontes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergi Duran </t>
+  </si>
+  <si>
+    <t>Daniel Junco</t>
+  </si>
+  <si>
+    <t>Juan Manuel Segovia Jimenez</t>
+  </si>
+  <si>
+    <t>Estephania Orti Ortiz</t>
+  </si>
+  <si>
+    <t>Paulina Perez</t>
+  </si>
+  <si>
+    <t>Beatriz Salazar</t>
+  </si>
+  <si>
+    <t>aalverdi.laura@gmail.com</t>
+  </si>
+  <si>
+    <t>barbaandy@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>adyabuelita@hotmail.com</t>
+  </si>
+  <si>
+    <t>hhilj@hotmail.com</t>
+  </si>
+  <si>
+    <t>Magabyke@hotmail.com</t>
+  </si>
+  <si>
+    <t>mavelpa@hotmail.com</t>
+  </si>
+  <si>
+    <t>gchavezmx@gmail.com</t>
+  </si>
+  <si>
+    <t>ospol@hotmail.com</t>
+  </si>
+  <si>
+    <t>laujarque@yahoo.com</t>
+  </si>
+  <si>
+    <t>elsatovar@hormail.com</t>
+  </si>
+  <si>
+    <t>Abi.villegasr@gmail.com</t>
+  </si>
+  <si>
+    <t>rosanhmir@hotmail.com</t>
+  </si>
+  <si>
+    <t>a.martinez@corporarivomusa.com</t>
+  </si>
+  <si>
+    <t>griselda.montoyavalenzuela@hotmail.com</t>
+  </si>
+  <si>
+    <t>grlinaresg@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>dantedga@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>Milagroyutopia@hotmail.com</t>
+  </si>
+  <si>
+    <t>joncpa@hotmail.com</t>
+  </si>
+  <si>
+    <t>morusamunoz@hotmail.com</t>
+  </si>
+  <si>
+    <t>doracortes@gmail.com</t>
+  </si>
+  <si>
+    <t>fernyrh@yahoo.com</t>
+  </si>
+  <si>
+    <t>kharina.hernandez@kantar.com</t>
+  </si>
+  <si>
+    <t>verechilano@hotmail.com</t>
+  </si>
+  <si>
+    <t>misa24nh@gmail.com</t>
+  </si>
+  <si>
+    <t>yacz68@hotmail.com</t>
+  </si>
+  <si>
+    <t>lyly_10@live.com.mx</t>
+  </si>
+  <si>
+    <t>agapetos10@hotmail.com</t>
+  </si>
+  <si>
+    <t>ro.oro.peza@gmail.com</t>
+  </si>
+  <si>
+    <t>hidaliacordova@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>ineval_59@icloud.com</t>
+  </si>
+  <si>
+    <t>jpvargas@caesc.org</t>
+  </si>
+  <si>
+    <t>americahdzab@hotmail.com</t>
+  </si>
+  <si>
+    <t>sandrae_escobedo@hotmail.com</t>
+  </si>
+  <si>
+    <t>A_alaniz00@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>lazarofalcon58@gmail.com</t>
+  </si>
+  <si>
+    <t>alex83jc@gmail.com</t>
+  </si>
+  <si>
+    <t>Hugo.garal@yahoo.com</t>
+  </si>
+  <si>
+    <t>jalikuir@gmail.com</t>
+  </si>
+  <si>
+    <t>lorena_mugnoz@hotmail.com</t>
+  </si>
+  <si>
+    <t>lcarpinteroh@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>sarae.garcia.martinez@hotmail.com</t>
+  </si>
+  <si>
+    <t>zavaguser@hotmail.com</t>
+  </si>
+  <si>
+    <t>jujulattes@gmail.com</t>
+  </si>
+  <si>
+    <t>betty1villasenor@live.com</t>
+  </si>
+  <si>
+    <t>al501891@hotmail.com</t>
+  </si>
+  <si>
+    <t>ylpa31@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>dac9492@hotmail.com</t>
+  </si>
+  <si>
+    <t>victormtz@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>agua.scott@gmail.com</t>
+  </si>
+  <si>
+    <t>marco.ernestob@yahoo.com</t>
+  </si>
+  <si>
+    <t>saldananancy617@gmail.com</t>
+  </si>
+  <si>
+    <t>karla_arteaga@me.com</t>
+  </si>
+  <si>
+    <t>maritere.sanabria1984@gmail.com</t>
+  </si>
+  <si>
+    <t>pinedafraev@gmail.com</t>
+  </si>
+  <si>
+    <t>zayrabracamontes@hotmail.com</t>
+  </si>
+  <si>
+    <t>sergi_duran@hotmail.es</t>
+  </si>
+  <si>
+    <t>daniel_junco@hotmail.com</t>
+  </si>
+  <si>
+    <t>juansegovia@caliente.com</t>
+  </si>
+  <si>
+    <t>estephania.ortiz@gmail.com</t>
+  </si>
+  <si>
+    <t>paupau.sanmiguel@gmail.com</t>
+  </si>
+  <si>
+    <t>lbsm74@hotmail.com</t>
+  </si>
+  <si>
+    <t>yanina@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le dio información depto. 202A.</t>
+  </si>
+  <si>
+    <t>Hablo de Tijuana. Solicito informes PH 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Esta registrada el 27/09/2018.
+Comenta se comunicara para hacer cita y venir con su esposo.</t>
+  </si>
+  <si>
+    <t>Visitó showroom, comenta esta buscando opciones para su hija. Deja unicamente correo y solicita se le envíe información de 2 y 3 recámaras.</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información por mail.</t>
+  </si>
+  <si>
+    <t>Se le envió mail de presentación y cotización del 205B 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>Contacto via WhatsApp.</t>
+  </si>
+  <si>
+    <t>Nos contacto vía WhatsApp 24/Feb/20, no me había proporcionado sus datos hasta el dia de hoy, se le da seguimiento.</t>
+  </si>
+  <si>
+    <t>Se le envió mail de presentación y cotización del 205B. Seguimiento</t>
+  </si>
+  <si>
+    <t>Solicitó información de 2 y 3 recamaras via mail</t>
+  </si>
+  <si>
+    <t>Telefono no disponible se le envia información general por mail.</t>
+  </si>
+  <si>
+    <t>Se le envía información de 3 recamaras por whats</t>
+  </si>
+  <si>
+    <t>Está buscando en renta</t>
+  </si>
+  <si>
+    <t>Ya había solicitado informes en Septiembre, se le envió nuevamente información de 2 y 3 recamaras, se le invita a conocer el Departamento muestra</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información por mail</t>
+  </si>
+  <si>
+    <t>Se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras. 205B y 403C. Seguimiento.</t>
+  </si>
+  <si>
+    <t>Nos visitó. Se le dio información del proyecto y se llevo cotización departamento 205B.</t>
+  </si>
+  <si>
+    <t>Ya había llamado 11/10/2018. Solicita presentación digital del proyecto, se envía información. Se le dará seguimiento.</t>
+  </si>
+  <si>
+    <t>Ya había llamado 11/10/2018.
+Solicita presentación digital del proyecto, se envia información. Se le dará seguimiento.</t>
+  </si>
+  <si>
+    <t>Se llevó información general y cotización departamento 205B.</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto trae $3,000,000</t>
+  </si>
+  <si>
+    <t>Se le envió información por mail y por whats de 2 recamaras mas family.</t>
+  </si>
+  <si>
+    <t>Se llevo cotizaciones 202A, 307A, 207B y 408A.</t>
+  </si>
+  <si>
+    <t>No dejo telefono de le envía informacion por mail</t>
+  </si>
+  <si>
+    <t>Le gusto el departamento 209A.Van  revisar su crédito hipotecario con Inbursa vino con su esposa.</t>
+  </si>
+  <si>
+    <t>Telefono falso se le envía información por mail.</t>
+  </si>
+  <si>
+    <t>Vino con su hermana Brenda el 01 de marzo 2020. revisaraán su crédito son empleadas de Banorte.</t>
+  </si>
+  <si>
+    <t>Si se llama Evelyn si es su telefono no es su mail y ella no pidio informes</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto trae $3,000,000 de pesos</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información general por mail y whats</t>
+  </si>
+  <si>
+    <t>Se le dio información departamento 202A.</t>
+  </si>
+  <si>
+    <t>Se le dio información departamento 202A. Vino con su esposa y dos hijos.</t>
+  </si>
+  <si>
+    <t>Se llevo cotización del 307A lo quiere como inversión.</t>
+  </si>
+  <si>
+    <t>Se llevo cotizacion del 202A son de Guadalajara traen bajo presupuesto</t>
+  </si>
+  <si>
+    <t>Lamarle el miercoles se llevo cotizaciones de GHO1C GH04A 502A PHO2A 501A 504C</t>
+  </si>
+  <si>
+    <t>Se le envuo informacilón por whats de 3 recámaras</t>
   </si>
 </sst>
 </file>
@@ -384,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -436,6 +861,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
       <family val="2"/>
@@ -525,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,9 +996,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,13 +1049,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,13 +1127,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>12758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1045,10 +1471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L235"/>
+  <dimension ref="A4:L266"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1544,7 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="5"/>
@@ -1134,139 +1560,147 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="35">
-        <v>30</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="C20" s="34">
+        <v>62</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <v>0</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="E21" s="34" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="E21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="35">
-        <v>1</v>
+      <c r="F21" s="34">
+        <v>2</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="E22" s="34" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="E22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="35">
-        <v>25</v>
+      <c r="F22" s="34">
+        <v>46</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="E23" s="34" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="E23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="35">
-        <v>4</v>
+      <c r="F23" s="34">
+        <v>14</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="12"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="35">
-        <v>21</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="C25" s="34">
+        <v>29</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="35">
-        <v>10</v>
+      <c r="F25" s="34">
+        <v>22</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="35">
-        <v>9</v>
-      </c>
-      <c r="E26" s="34" t="s">
+      <c r="C26" s="34">
+        <v>34</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="35">
-        <v>20</v>
+      <c r="F26" s="34">
+        <v>19</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="E27" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="34">
+        <v>20</v>
+      </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="E28" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="34">
+        <v>1</v>
+      </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
+      <c r="B30" s="31"/>
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="5"/>
@@ -1307,635 +1741,623 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="39">
-        <v>43890.868043981478</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="B34" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="38" t="s">
-        <v>32</v>
+      <c r="F34" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="G34" s="40">
-        <v>5539888712</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="38"/>
+        <v>5511479537</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" s="40"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="39">
-        <v>43890.846226851849</v>
-      </c>
-      <c r="D35" s="18" t="s">
+      <c r="B35" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>33</v>
+      <c r="E35" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="G35" s="40">
-        <v>6121409097</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="38"/>
+        <v>5554381502</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="40"/>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="39">
-        <v>43890.357858796298</v>
-      </c>
-      <c r="D36" s="18" t="s">
+      <c r="B36" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>34</v>
+      <c r="F36" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="G36" s="40">
-        <v>5564979896</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" s="38"/>
+        <v>2871224723</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="40"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="39">
-        <v>43889.921944444446</v>
-      </c>
-      <c r="D37" s="18" t="s">
+      <c r="B37" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="38" t="s">
-        <v>35</v>
+      <c r="F37" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="G37" s="40">
-        <v>5517310534</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="38"/>
+        <v>5519779370</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="40"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="39">
-        <v>43889.881886574076</v>
-      </c>
-      <c r="D38" s="18" t="s">
+      <c r="B38" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="38" t="s">
-        <v>36</v>
+      <c r="F38" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="G38" s="40">
-        <v>5539798345</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="38"/>
+        <v>6691603624</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="40"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="39">
-        <v>43889.721932870372</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>37</v>
+      <c r="E39" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="G39" s="40">
-        <v>6562168412</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>91</v>
-      </c>
+        <v>8332387831</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="40"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="39">
-        <v>43889.720879629633</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="B40" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>38</v>
+      <c r="E40" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="G40" s="40">
-        <v>5554071466</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>92</v>
-      </c>
+        <v>5562889005</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="40"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="39">
-        <v>43889.615613425929</v>
-      </c>
-      <c r="D41" s="18" t="s">
+      <c r="B41" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>39</v>
+      <c r="E41" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="G41" s="40">
-        <v>5532034372</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+        <v>5561137429</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="40"/>
+    </row>
+    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="39">
-        <v>43889.614722222221</v>
-      </c>
-      <c r="D42" s="18" t="s">
+      <c r="B42" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>40</v>
+      <c r="E42" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="G42" s="40">
-        <v>5512841187</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+        <v>5554359461</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="39">
-        <v>43889.541967592595</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="38" t="s">
-        <v>41</v>
+      <c r="F43" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="G43" s="40">
-        <v>8712439382</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>95</v>
-      </c>
+        <v>5532324490</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="40"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="39">
-        <v>43889.516412037039</v>
-      </c>
-      <c r="D44" s="18" t="s">
+      <c r="B44" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>42</v>
+      <c r="E44" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="G44" s="40">
-        <v>3311565069</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="I44" s="38" t="s">
-        <v>96</v>
-      </c>
+        <v>6563414141</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="40"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="39">
-        <v>43889.429664351854</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="B45" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="38" t="s">
-        <v>43</v>
+      <c r="F45" s="40" t="s">
+        <v>107</v>
       </c>
       <c r="G45" s="40">
-        <v>5555362414</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>97</v>
+        <v>5563171655</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="39">
-        <v>43889.429097222222</v>
-      </c>
-      <c r="D46" s="18" t="s">
+      <c r="B46" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="38" t="s">
-        <v>44</v>
+      <c r="F46" s="40" t="s">
+        <v>108</v>
       </c>
       <c r="G46" s="40">
-        <v>30967694</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="38" t="s">
-        <v>98</v>
+        <v>6643312076</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="39">
-        <v>43889.428587962961</v>
-      </c>
-      <c r="D47" s="18" t="s">
+      <c r="C47" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>45</v>
+      <c r="F47" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="G47" s="40">
-        <v>5518193939</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>99</v>
+        <v>5529479783</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="39">
-        <v>43889.302083333336</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="38" t="s">
+      <c r="C48" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="40">
-        <v>2281778477</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>100</v>
+      <c r="D48" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="39">
-        <v>43889.00304398148</v>
-      </c>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="38" t="s">
-        <v>47</v>
+      <c r="F49" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="G49" s="40">
-        <v>5523037247</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="38"/>
+        <v>5561702187</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="39">
-        <v>43887.958333333336</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="38" t="s">
+      <c r="B50" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>48</v>
+      <c r="F50" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="G50" s="40">
-        <v>5560142537</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>101</v>
+        <v>8444274514</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="39">
-        <v>43887.613298611112</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="38" t="s">
+      <c r="C51" s="40" t="s">
         <v>49</v>
       </c>
+      <c r="D51" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="G51" s="40">
-        <v>5544043597</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>102</v>
+        <v>5522984174</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="39">
-        <v>43887.498483796298</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="B52" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>50</v>
+      <c r="E52" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="G52" s="40">
-        <v>5537183022</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>103</v>
+        <v>5517547665</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="39">
-        <v>43886.712500000001</v>
-      </c>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" s="40">
-        <v>5567959796</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>104</v>
+      <c r="E53" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="39">
-        <v>43886.639456018522</v>
-      </c>
-      <c r="D54" s="18" t="s">
+      <c r="C54" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>105</v>
+      <c r="E54" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="40">
+        <v>7023289443</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="39">
-        <v>43886.638344907406</v>
-      </c>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>53</v>
+      <c r="E55" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>117</v>
       </c>
       <c r="G55" s="40">
-        <v>5583641010</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="I55" s="38" t="s">
-        <v>106</v>
+        <v>41476200</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>224</v>
       </c>
       <c r="J55" s="12"/>
     </row>
@@ -1943,710 +2365,1251 @@
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="39">
-        <v>43886.62332175926</v>
-      </c>
-      <c r="D56" s="18" t="s">
+      <c r="C56" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>107</v>
+      <c r="F56" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="40">
+        <v>5591996518</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="39">
-        <v>43886.576967592591</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="40"/>
-      <c r="H57" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>108</v>
+      <c r="F57" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="40">
+        <v>3313311813</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="39">
-        <v>43886.54078703704</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="C58" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>56</v>
+      <c r="E58" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="G58" s="40">
-        <v>9014154145</v>
-      </c>
-      <c r="H58" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>109</v>
+        <v>7711000205</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="39">
-        <v>43886.497118055559</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="C59" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="38" t="s">
-        <v>57</v>
+      <c r="E59" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="G59" s="40">
-        <v>5536418288</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>110</v>
+        <v>4921216671</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="39">
-        <v>43886.49628472222</v>
-      </c>
-      <c r="D60" s="18" t="s">
+      <c r="C60" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>58</v>
+      <c r="E60" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="G60" s="40">
-        <v>5536418288</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="I60" s="38" t="s">
-        <v>111</v>
+        <v>8443503245</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="39">
-        <v>43886.495185185187</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="38" t="s">
+      <c r="B61" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="38" t="s">
-        <v>59</v>
+      <c r="F61" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="G61" s="40">
-        <v>5513841432</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>112</v>
+        <v>5531333806</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="I61" s="40" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="39">
-        <v>43885.771423611113</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="38" t="s">
+      <c r="C62" s="40" t="s">
         <v>60</v>
       </c>
+      <c r="D62" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="G62" s="40">
-        <v>5578887754</v>
-      </c>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
+        <v>5583300456</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="40">
+        <v>5532338644</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="40">
+        <v>5545355638</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>32</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G65" s="40">
+        <v>4969624407</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="40">
+        <v>5527730533</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="39">
-        <v>43884.46292824074</v>
-      </c>
-      <c r="D63" s="18" t="s">
+      <c r="C67" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E67" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F67" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="40">
+        <v>5555064531</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="40">
+        <v>6641502200</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="I69" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="40">
+        <v>8159122570</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>38</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="40">
+        <v>5539961081</v>
+      </c>
+      <c r="H71" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I71" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>39</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="40">
+        <v>5561755625</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I72" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>40</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="40">
+        <v>5518671612</v>
+      </c>
+      <c r="H73" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="I73" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="40">
+        <v>5554060760</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="I74" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G75" s="40">
+        <v>5532307582</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="I75" s="40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="40">
+        <v>5530806634</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I76" s="40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="40">
+        <v>5522957429</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I77" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="40">
+        <v>5520862698</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="40">
+        <v>7221568063</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I79" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>47</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G80" s="40">
+        <v>5527021272</v>
+      </c>
+      <c r="H80" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I80" s="40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>48</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="40">
+        <v>5513339142</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>49</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F82" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I82" s="40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>50</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G83" s="40">
+        <v>5585322005</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="I83" s="40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>51</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G84" s="40">
+        <v>55555555</v>
+      </c>
+      <c r="H84" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I84" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>52</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G85" s="40">
+        <v>5585337611</v>
+      </c>
+      <c r="H85" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I85" s="40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>53</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G86" s="40">
+        <v>2222935893</v>
+      </c>
+      <c r="H86" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I86" s="40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>54</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G87" s="40">
+        <v>5611771752</v>
+      </c>
+      <c r="H87" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I87" s="40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>55</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G88" s="40">
+        <v>5532429275</v>
+      </c>
+      <c r="H88" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="I88" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>56</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G89" s="40">
+        <v>5560667726</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I89" s="40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>57</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G90" s="40">
+        <v>5514747876</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="I90" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>58</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I91" s="40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>59</v>
+      </c>
+      <c r="B92" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G92" s="40">
+        <v>5514514252</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I92" s="40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>60</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="I93" s="40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>61</v>
       </c>
-      <c r="G63" s="40">
-        <v>5591939084</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="I63" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="12"/>
-    </row>
-    <row r="65" spans="2:12" ht="16" x14ac:dyDescent="0.25">
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="12"/>
-    </row>
-    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="37" t="s">
+      <c r="B94" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I94" s="40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>62</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="I95" s="40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="B96" s="38"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="12"/>
-    </row>
-    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="22"/>
-    </row>
-    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="22"/>
-    </row>
-    <row r="69" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="23" t="s">
+      <c r="C97" s="19"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C100" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="22"/>
-    </row>
-    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="23" t="s">
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C101" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="22"/>
-    </row>
-    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="23" t="s">
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C102" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="22"/>
-    </row>
-    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="23" t="s">
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C103" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="22"/>
-    </row>
-    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="22"/>
-    </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-    </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-    </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-    </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-    </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-    </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-    </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-    </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-    </row>
-    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-    </row>
-    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-    </row>
-    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-    </row>
-    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-    </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-    </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-    </row>
-    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-    </row>
-    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-    </row>
-    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-    </row>
-    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-    </row>
-    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-    </row>
-    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="6"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="30"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
@@ -2656,9 +3619,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
@@ -2668,9 +3629,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
@@ -2709,7 +3668,9 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
+      <c r="B109" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -2733,13 +3694,14 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-      <c r="I111" s="6"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
@@ -2776,7 +3738,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
+      <c r="J114" s="3"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
     </row>
@@ -4197,19 +5159,391 @@
       <c r="L232" s="6"/>
     </row>
     <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
     </row>
     <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="6"/>
+      <c r="I234" s="6"/>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
     </row>
     <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+    </row>
+    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+    </row>
+    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+    </row>
+    <row r="257" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+    </row>
+    <row r="259" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+    </row>
+    <row r="260" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+    </row>
+    <row r="261" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+    </row>
+    <row r="262" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+    </row>
+    <row r="263" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+    </row>
+    <row r="264" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J264" s="6"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="6"/>
+    </row>
+    <row r="265" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J265" s="6"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="6"/>
+    </row>
+    <row r="266" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C61ADD9-25B5-E74D-A31B-0CBCE579B373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC6F81-1856-2F4B-81BE-2F97BF5B8039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
   </si>
   <si>
-    <t>23 - 29 de Febrero del 2020</t>
-  </si>
-  <si>
     <t>Gerardo Campuzano Tirado</t>
   </si>
   <si>
@@ -800,6 +797,9 @@
   </si>
   <si>
     <t>Se le envuo informacilón por whats de 3 recámaras</t>
+  </si>
+  <si>
+    <t>01 - 08 de Marzo del 2020</t>
   </si>
 </sst>
 </file>
@@ -1076,13 +1076,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>57467</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>552132</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1105,16 +1105,18 @@
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="1016000"/>
-          <a:ext cx="2565400" cy="1282700"/>
+          <a:off x="1162367" y="1016000"/>
+          <a:ext cx="2501265" cy="1282700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,7 +1152,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1473,8 +1475,8 @@
   </sheetPr>
   <dimension ref="A4:L266"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1531,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1626,7 +1628,7 @@
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="34">
         <v>29</v>
@@ -1643,7 +1645,7 @@
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="34">
         <v>34</v>
@@ -1662,7 +1664,7 @@
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="E27" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="34">
         <v>20</v>
@@ -1675,7 +1677,7 @@
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="E28" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="34">
         <v>1</v>
@@ -1746,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>32</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>3</v>
@@ -1758,13 +1760,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="40">
         <v>5511479537</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I34" s="40"/>
       <c r="J34" s="12"/>
@@ -1774,25 +1776,25 @@
         <v>2</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" s="40">
         <v>5554381502</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I35" s="40"/>
       <c r="J35" s="12"/>
@@ -1802,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>3</v>
@@ -1814,13 +1816,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="40">
         <v>2871224723</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="12"/>
@@ -1830,10 +1832,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>3</v>
@@ -1842,13 +1844,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="40">
         <v>5519779370</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="12"/>
@@ -1858,10 +1860,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>3</v>
@@ -1870,13 +1872,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="40">
         <v>6691603624</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I38" s="40"/>
       <c r="J38" s="12"/>
@@ -1886,10 +1888,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>3</v>
@@ -1898,13 +1900,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G39" s="40">
         <v>8332387831</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I39" s="40"/>
       <c r="J39" s="12"/>
@@ -1914,10 +1916,10 @@
         <v>7</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>3</v>
@@ -1926,13 +1928,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G40" s="40">
         <v>5562889005</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="12"/>
@@ -1942,25 +1944,25 @@
         <v>8</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G41" s="40">
         <v>5561137429</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I41" s="40"/>
     </row>
@@ -1969,25 +1971,25 @@
         <v>9</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42" s="40">
         <v>5554359461</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I42" s="40"/>
     </row>
@@ -1996,10 +1998,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>5</v>
@@ -2008,13 +2010,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G43" s="40">
         <v>5532324490</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="40"/>
     </row>
@@ -2023,10 +2025,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>3</v>
@@ -2035,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G44" s="40">
         <v>6563414141</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I44" s="40"/>
     </row>
@@ -2050,10 +2052,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>3</v>
@@ -2062,16 +2064,16 @@
         <v>14</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G45" s="40">
         <v>5563171655</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,10 +2081,10 @@
         <v>13</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>3</v>
@@ -2091,16 +2093,16 @@
         <v>14</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46" s="40">
         <v>6643312076</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I46" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2108,10 +2110,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>3</v>
@@ -2120,16 +2122,16 @@
         <v>14</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" s="40">
         <v>5529479783</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,10 +2139,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>2</v>
@@ -2149,14 +2151,14 @@
         <v>14</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,10 +2166,10 @@
         <v>16</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>5</v>
@@ -2176,16 +2178,16 @@
         <v>13</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G49" s="40">
         <v>5561702187</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,10 +2195,10 @@
         <v>17</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>3</v>
@@ -2205,16 +2207,16 @@
         <v>13</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G50" s="40">
         <v>8444274514</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,10 +2224,10 @@
         <v>18</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>3</v>
@@ -2234,16 +2236,16 @@
         <v>13</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G51" s="40">
         <v>5522984174</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I51" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,10 +2253,10 @@
         <v>19</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>3</v>
@@ -2263,16 +2265,16 @@
         <v>13</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G52" s="40">
         <v>5517547665</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,26 +2282,26 @@
         <v>20</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,28 +2309,28 @@
         <v>21</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="40">
         <v>7023289443</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I54" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,28 +2338,28 @@
         <v>22</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G55" s="40">
         <v>41476200</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J55" s="12"/>
     </row>
@@ -2366,10 +2368,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>3</v>
@@ -2378,16 +2380,16 @@
         <v>14</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G56" s="40">
         <v>5591996518</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I56" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,10 +2397,10 @@
         <v>24</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>3</v>
@@ -2407,16 +2409,16 @@
         <v>14</v>
       </c>
       <c r="F57" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G57" s="40">
         <v>3313311813</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I57" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,10 +2426,10 @@
         <v>25</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>3</v>
@@ -2436,16 +2438,16 @@
         <v>13</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G58" s="40">
         <v>7711000205</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I58" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,10 +2455,10 @@
         <v>26</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>3</v>
@@ -2465,16 +2467,16 @@
         <v>13</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" s="40">
         <v>4921216671</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I59" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,10 +2484,10 @@
         <v>27</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>3</v>
@@ -2494,16 +2496,16 @@
         <v>13</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G60" s="40">
         <v>8443503245</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,10 +2513,10 @@
         <v>28</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>5</v>
@@ -2523,16 +2525,16 @@
         <v>14</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G61" s="40">
         <v>5531333806</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,10 +2542,10 @@
         <v>29</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>3</v>
@@ -2552,16 +2554,16 @@
         <v>13</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G62" s="40">
         <v>5583300456</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2569,28 +2571,28 @@
         <v>30</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G63" s="40">
         <v>5532338644</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I63" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2598,28 +2600,28 @@
         <v>31</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G64" s="40">
         <v>5545355638</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I64" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2627,10 +2629,10 @@
         <v>32</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>5</v>
@@ -2639,16 +2641,16 @@
         <v>13</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G65" s="40">
         <v>4969624407</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I65" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,10 +2658,10 @@
         <v>33</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>5</v>
@@ -2668,16 +2670,16 @@
         <v>13</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G66" s="40">
         <v>5527730533</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2685,10 +2687,10 @@
         <v>34</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>3</v>
@@ -2697,16 +2699,16 @@
         <v>13</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G67" s="40">
         <v>5555064531</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I67" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2714,10 +2716,10 @@
         <v>35</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>3</v>
@@ -2726,16 +2728,16 @@
         <v>13</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G68" s="40">
         <v>6641502200</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I68" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,26 +2745,26 @@
         <v>36</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G69" s="40"/>
       <c r="H69" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I69" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2770,10 +2772,10 @@
         <v>37</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>3</v>
@@ -2782,16 +2784,16 @@
         <v>13</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G70" s="40">
         <v>8159122570</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2799,28 +2801,28 @@
         <v>38</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G71" s="40">
         <v>5539961081</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I71" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2828,28 +2830,28 @@
         <v>39</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="40">
         <v>5561755625</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I72" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,10 +2859,10 @@
         <v>40</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>2</v>
@@ -2869,16 +2871,16 @@
         <v>14</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G73" s="40">
         <v>5518671612</v>
       </c>
       <c r="H73" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I73" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2886,10 +2888,10 @@
         <v>41</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>3</v>
@@ -2898,16 +2900,16 @@
         <v>14</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G74" s="40">
         <v>5554060760</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,10 +2917,10 @@
         <v>42</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>3</v>
@@ -2927,16 +2929,16 @@
         <v>14</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G75" s="40">
         <v>5532307582</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2944,10 +2946,10 @@
         <v>43</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>3</v>
@@ -2956,16 +2958,16 @@
         <v>14</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G76" s="40">
         <v>5530806634</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2973,28 +2975,28 @@
         <v>44</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G77" s="40">
         <v>5522957429</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3002,28 +3004,28 @@
         <v>45</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G78" s="40">
         <v>5520862698</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3031,10 +3033,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>5</v>
@@ -3043,16 +3045,16 @@
         <v>13</v>
       </c>
       <c r="F79" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G79" s="40">
         <v>7221568063</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I79" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3060,28 +3062,28 @@
         <v>47</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G80" s="40">
         <v>5527021272</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I80" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3089,10 +3091,10 @@
         <v>48</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>5</v>
@@ -3101,16 +3103,16 @@
         <v>14</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G81" s="40">
         <v>5513339142</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I81" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3118,26 +3120,26 @@
         <v>49</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F82" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G82" s="40"/>
       <c r="H82" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I82" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3145,10 +3147,10 @@
         <v>50</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>3</v>
@@ -3157,16 +3159,16 @@
         <v>14</v>
       </c>
       <c r="F83" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G83" s="40">
         <v>5585322005</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I83" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,28 +3176,28 @@
         <v>51</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F84" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G84" s="40">
         <v>55555555</v>
       </c>
       <c r="H84" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I84" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3203,28 +3205,28 @@
         <v>52</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G85" s="40">
         <v>5585337611</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,28 +3234,28 @@
         <v>53</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F86" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G86" s="40">
         <v>2222935893</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,28 +3263,28 @@
         <v>54</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G87" s="40">
         <v>5611771752</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3290,28 +3292,28 @@
         <v>55</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G88" s="40">
         <v>5532429275</v>
       </c>
       <c r="H88" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I88" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3319,28 +3321,28 @@
         <v>56</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G89" s="40">
         <v>5560667726</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I89" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3348,10 +3350,10 @@
         <v>57</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="39" t="s">
         <v>3</v>
@@ -3360,16 +3362,16 @@
         <v>14</v>
       </c>
       <c r="F90" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G90" s="40">
         <v>5514747876</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3377,10 +3379,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="39" t="s">
         <v>3</v>
@@ -3389,14 +3391,14 @@
         <v>14</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G91" s="40"/>
       <c r="H91" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I91" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3404,10 +3406,10 @@
         <v>59</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="39" t="s">
         <v>3</v>
@@ -3416,16 +3418,16 @@
         <v>14</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G92" s="40">
         <v>5514514252</v>
       </c>
       <c r="H92" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I92" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,10 +3435,10 @@
         <v>60</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="39" t="s">
         <v>3</v>
@@ -3445,14 +3447,14 @@
         <v>14</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G93" s="40"/>
       <c r="H93" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I93" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3460,10 +3462,10 @@
         <v>61</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="39" t="s">
         <v>3</v>
@@ -3472,14 +3474,14 @@
         <v>14</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G94" s="40"/>
       <c r="H94" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I94" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -3487,10 +3489,10 @@
         <v>62</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="39" t="s">
         <v>3</v>
@@ -3501,10 +3503,10 @@
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
       <c r="H95" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I95" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.25">

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC6F81-1856-2F4B-81BE-2F97BF5B8039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4B378-CEA4-5343-A854-C30C8A9E3950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="215">
   <si>
     <t>A</t>
   </si>
@@ -125,681 +125,561 @@
     <t>Jose Luis Vaca Ramos</t>
   </si>
   <si>
-    <t>2020-03-08 16:57:12</t>
-  </si>
-  <si>
-    <t>2020-03-08 13:19:40</t>
-  </si>
-  <si>
-    <t>2020-03-08 12:43:30</t>
-  </si>
-  <si>
-    <t>2020-03-08 12:19:37</t>
-  </si>
-  <si>
-    <t>2020-03-08 07:52:40</t>
-  </si>
-  <si>
-    <t>2020-03-07 21:17:16</t>
-  </si>
-  <si>
-    <t>2020-03-07 20:02:11</t>
-  </si>
-  <si>
-    <t>2020-03-07 17:12:47</t>
-  </si>
-  <si>
-    <t>2020-03-07 11:39:31</t>
-  </si>
-  <si>
-    <t>2020-03-06 23:28:25</t>
-  </si>
-  <si>
-    <t>2020-03-06 19:46:35</t>
-  </si>
-  <si>
-    <t>2020-03-06 16:50:13</t>
-  </si>
-  <si>
-    <t>2020-03-06 16:48:45</t>
-  </si>
-  <si>
-    <t>2020-03-06 14:03:04</t>
-  </si>
-  <si>
-    <t>2020-03-06 13:48:45</t>
-  </si>
-  <si>
-    <t>2020-03-06 12:40:27</t>
-  </si>
-  <si>
-    <t>2020-03-06 09:13:07</t>
-  </si>
-  <si>
-    <t>2020-03-05 23:43:08</t>
-  </si>
-  <si>
-    <t>2020-03-05 22:40:29</t>
-  </si>
-  <si>
-    <t>2020-03-05 21:34:30</t>
-  </si>
-  <si>
-    <t>2020-03-05 21:16:12</t>
-  </si>
-  <si>
-    <t>2020-03-05 16:15:32</t>
-  </si>
-  <si>
-    <t>2020-03-05 12:00:47</t>
-  </si>
-  <si>
-    <t>2020-03-05 11:56:49</t>
-  </si>
-  <si>
-    <t>2020-03-05 11:43:57</t>
-  </si>
-  <si>
-    <t>2020-03-05 10:31:38</t>
-  </si>
-  <si>
-    <t>2020-03-04 15:54:30</t>
-  </si>
-  <si>
-    <t>2020-03-04 15:41:34</t>
-  </si>
-  <si>
-    <t>2020-03-04 14:07:51</t>
-  </si>
-  <si>
-    <t>2020-03-04 11:34:31</t>
-  </si>
-  <si>
-    <t>2020-03-04 11:00:02</t>
-  </si>
-  <si>
-    <t>2020-03-04 08:29:03</t>
-  </si>
-  <si>
-    <t>2020-03-04 00:21:15</t>
-  </si>
-  <si>
-    <t>2020-03-03 23:35:39</t>
-  </si>
-  <si>
-    <t>2020-03-03 19:08:40</t>
-  </si>
-  <si>
-    <t>2020-03-03 18:56:13</t>
-  </si>
-  <si>
-    <t>2020-03-03 17:18:19</t>
-  </si>
-  <si>
-    <t>2020-03-03 16:47:20</t>
-  </si>
-  <si>
-    <t>2020-03-03 16:18:58</t>
-  </si>
-  <si>
-    <t>2020-03-03 14:25:33</t>
-  </si>
-  <si>
-    <t>2020-03-03 13:36:21</t>
-  </si>
-  <si>
-    <t>2020-03-03 12:32:50</t>
-  </si>
-  <si>
-    <t>2020-03-03 12:13:39</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:59:04</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:59:02</t>
-  </si>
-  <si>
-    <t>2020-03-02 22:47:27</t>
-  </si>
-  <si>
-    <t>2020-03-02 21:27:18</t>
-  </si>
-  <si>
-    <t>2020-03-02 17:24:19</t>
-  </si>
-  <si>
-    <t>2020-03-02 16:23:21</t>
-  </si>
-  <si>
-    <t>2020-03-02 15:59:19</t>
-  </si>
-  <si>
-    <t>2020-03-02 15:39:11</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:11:49</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:11:47</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:11:46</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:11:19</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:10:40</t>
-  </si>
-  <si>
-    <t>2020-03-02 13:55:30</t>
-  </si>
-  <si>
-    <t>2020-03-02 13:54:13</t>
-  </si>
-  <si>
-    <t>2020-03-02 13:15:06</t>
-  </si>
-  <si>
-    <t>2020-03-01 17:07:58</t>
-  </si>
-  <si>
-    <t>2020-03-01 16:55:09</t>
-  </si>
-  <si>
-    <t>2020-03-01 16:52:01</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Messenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Laura Alverdi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Barba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ady Srdán </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilda Jimenez Sosa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaby Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Aurelio Velasco Palacios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">J Guillermo Chávez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Polakoff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Jarque </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elsa Tovar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abigail Villegas </t>
-  </si>
-  <si>
-    <t>Ana Hernandez Miranda</t>
-  </si>
-  <si>
-    <t>Alejandro Martinez Castañeda</t>
-  </si>
-  <si>
-    <t>Griselda Montoya</t>
-  </si>
-  <si>
-    <t>Sr Rodolfo Linares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dante Edgar nuñez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel  Cuellar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joanna Pv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morusa Muñoz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dora Cortes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERNANDO Hernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kharina Hernandez </t>
-  </si>
-  <si>
-    <t>Jose Ignacio Llano</t>
-  </si>
-  <si>
-    <t>Misael Herrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamile Cabrera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lili Murillo Hernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela Dolores Aguado Sanchez </t>
-  </si>
-  <si>
-    <t>Rosario Sanchez Oropeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidalia Cordova A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ines Elvira Mariño </t>
-  </si>
-  <si>
-    <t xml:space="preserve">juan pablo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">America Hernandez Abrego </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Elena Escobedo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A A Ram </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lazaro falcon torres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Cortes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo García Cisneros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jair Tonathiu Pérez Anguiano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorena Muñoz </t>
-  </si>
-  <si>
-    <t>Luis Carpintero</t>
-  </si>
-  <si>
-    <t>Sarae Garcia</t>
-  </si>
-  <si>
-    <t>Sergio Gomez</t>
-  </si>
-  <si>
-    <t>Julian Jean Lattes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz villaseñor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar maldonado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoana Pastrana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniela Alvarez </t>
-  </si>
-  <si>
-    <t>Victor Martinez Valdivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott Christian Hill </t>
-  </si>
-  <si>
-    <t>Marco Briceño Garcia Carrillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy Saldaña </t>
-  </si>
-  <si>
-    <t xml:space="preserve">karla Arteaga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Teresa sanabria huerta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelyn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zayra Bracamontes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergi Duran </t>
-  </si>
-  <si>
-    <t>Daniel Junco</t>
-  </si>
-  <si>
-    <t>Juan Manuel Segovia Jimenez</t>
-  </si>
-  <si>
-    <t>Estephania Orti Ortiz</t>
-  </si>
-  <si>
-    <t>Paulina Perez</t>
-  </si>
-  <si>
-    <t>Beatriz Salazar</t>
-  </si>
-  <si>
-    <t>aalverdi.laura@gmail.com</t>
-  </si>
-  <si>
-    <t>barbaandy@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>adyabuelita@hotmail.com</t>
-  </si>
-  <si>
-    <t>hhilj@hotmail.com</t>
-  </si>
-  <si>
-    <t>Magabyke@hotmail.com</t>
-  </si>
-  <si>
-    <t>mavelpa@hotmail.com</t>
-  </si>
-  <si>
-    <t>gchavezmx@gmail.com</t>
-  </si>
-  <si>
-    <t>ospol@hotmail.com</t>
-  </si>
-  <si>
-    <t>laujarque@yahoo.com</t>
-  </si>
-  <si>
-    <t>elsatovar@hormail.com</t>
-  </si>
-  <si>
-    <t>Abi.villegasr@gmail.com</t>
-  </si>
-  <si>
-    <t>rosanhmir@hotmail.com</t>
-  </si>
-  <si>
-    <t>a.martinez@corporarivomusa.com</t>
-  </si>
-  <si>
-    <t>griselda.montoyavalenzuela@hotmail.com</t>
-  </si>
-  <si>
-    <t>grlinaresg@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>dantedga@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>Milagroyutopia@hotmail.com</t>
-  </si>
-  <si>
-    <t>joncpa@hotmail.com</t>
-  </si>
-  <si>
-    <t>morusamunoz@hotmail.com</t>
-  </si>
-  <si>
-    <t>doracortes@gmail.com</t>
-  </si>
-  <si>
-    <t>fernyrh@yahoo.com</t>
-  </si>
-  <si>
-    <t>kharina.hernandez@kantar.com</t>
-  </si>
-  <si>
-    <t>verechilano@hotmail.com</t>
-  </si>
-  <si>
-    <t>misa24nh@gmail.com</t>
-  </si>
-  <si>
-    <t>yacz68@hotmail.com</t>
-  </si>
-  <si>
-    <t>lyly_10@live.com.mx</t>
-  </si>
-  <si>
-    <t>agapetos10@hotmail.com</t>
-  </si>
-  <si>
-    <t>ro.oro.peza@gmail.com</t>
-  </si>
-  <si>
-    <t>hidaliacordova@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>ineval_59@icloud.com</t>
-  </si>
-  <si>
-    <t>jpvargas@caesc.org</t>
-  </si>
-  <si>
-    <t>americahdzab@hotmail.com</t>
-  </si>
-  <si>
-    <t>sandrae_escobedo@hotmail.com</t>
-  </si>
-  <si>
-    <t>A_alaniz00@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>lazarofalcon58@gmail.com</t>
-  </si>
-  <si>
-    <t>alex83jc@gmail.com</t>
-  </si>
-  <si>
-    <t>Hugo.garal@yahoo.com</t>
-  </si>
-  <si>
-    <t>jalikuir@gmail.com</t>
-  </si>
-  <si>
-    <t>lorena_mugnoz@hotmail.com</t>
-  </si>
-  <si>
-    <t>lcarpinteroh@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>sarae.garcia.martinez@hotmail.com</t>
-  </si>
-  <si>
-    <t>zavaguser@hotmail.com</t>
-  </si>
-  <si>
-    <t>jujulattes@gmail.com</t>
-  </si>
-  <si>
-    <t>betty1villasenor@live.com</t>
-  </si>
-  <si>
-    <t>al501891@hotmail.com</t>
-  </si>
-  <si>
-    <t>ylpa31@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>dac9492@hotmail.com</t>
-  </si>
-  <si>
-    <t>victormtz@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>agua.scott@gmail.com</t>
-  </si>
-  <si>
-    <t>marco.ernestob@yahoo.com</t>
-  </si>
-  <si>
-    <t>saldananancy617@gmail.com</t>
-  </si>
-  <si>
-    <t>karla_arteaga@me.com</t>
-  </si>
-  <si>
-    <t>maritere.sanabria1984@gmail.com</t>
-  </si>
-  <si>
-    <t>pinedafraev@gmail.com</t>
-  </si>
-  <si>
-    <t>zayrabracamontes@hotmail.com</t>
-  </si>
-  <si>
-    <t>sergi_duran@hotmail.es</t>
-  </si>
-  <si>
-    <t>daniel_junco@hotmail.com</t>
-  </si>
-  <si>
-    <t>juansegovia@caliente.com</t>
-  </si>
-  <si>
-    <t>estephania.ortiz@gmail.com</t>
-  </si>
-  <si>
-    <t>paupau.sanmiguel@gmail.com</t>
-  </si>
-  <si>
-    <t>lbsm74@hotmail.com</t>
-  </si>
-  <si>
-    <t>yanina@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le dio información depto. 202A.</t>
-  </si>
-  <si>
-    <t>Hablo de Tijuana. Solicito informes PH 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Esta registrada el 27/09/2018.
-Comenta se comunicara para hacer cita y venir con su esposo.</t>
-  </si>
-  <si>
-    <t>Visitó showroom, comenta esta buscando opciones para su hija. Deja unicamente correo y solicita se le envíe información de 2 y 3 recámaras.</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información por mail.</t>
-  </si>
-  <si>
-    <t>Se le envió mail de presentación y cotización del 205B 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>Contacto via WhatsApp.</t>
-  </si>
-  <si>
-    <t>Nos contacto vía WhatsApp 24/Feb/20, no me había proporcionado sus datos hasta el dia de hoy, se le da seguimiento.</t>
-  </si>
-  <si>
-    <t>Se le envió mail de presentación y cotización del 205B. Seguimiento</t>
-  </si>
-  <si>
-    <t>Solicitó información de 2 y 3 recamaras via mail</t>
-  </si>
-  <si>
-    <t>Telefono no disponible se le envia información general por mail.</t>
-  </si>
-  <si>
-    <t>Se le envía información de 3 recamaras por whats</t>
-  </si>
-  <si>
-    <t>Está buscando en renta</t>
-  </si>
-  <si>
-    <t>Ya había solicitado informes en Septiembre, se le envió nuevamente información de 2 y 3 recamaras, se le invita a conocer el Departamento muestra</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información por mail</t>
-  </si>
-  <si>
-    <t>Se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras. 205B y 403C. Seguimiento.</t>
-  </si>
-  <si>
-    <t>Nos visitó. Se le dio información del proyecto y se llevo cotización departamento 205B.</t>
-  </si>
-  <si>
-    <t>Ya había llamado 11/10/2018. Solicita presentación digital del proyecto, se envía información. Se le dará seguimiento.</t>
-  </si>
-  <si>
-    <t>Ya había llamado 11/10/2018.
-Solicita presentación digital del proyecto, se envia información. Se le dará seguimiento.</t>
-  </si>
-  <si>
-    <t>Se llevó información general y cotización departamento 205B.</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $3,000,000</t>
-  </si>
-  <si>
-    <t>Se le envió información por mail y por whats de 2 recamaras mas family.</t>
-  </si>
-  <si>
-    <t>Se llevo cotizaciones 202A, 307A, 207B y 408A.</t>
-  </si>
-  <si>
-    <t>No dejo telefono de le envía informacion por mail</t>
-  </si>
-  <si>
-    <t>Le gusto el departamento 209A.Van  revisar su crédito hipotecario con Inbursa vino con su esposa.</t>
-  </si>
-  <si>
-    <t>Telefono falso se le envía información por mail.</t>
-  </si>
-  <si>
-    <t>Vino con su hermana Brenda el 01 de marzo 2020. revisaraán su crédito son empleadas de Banorte.</t>
-  </si>
-  <si>
-    <t>Si se llama Evelyn si es su telefono no es su mail y ella no pidio informes</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $3,000,000 de pesos</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información general por mail y whats</t>
-  </si>
-  <si>
-    <t>Se le dio información departamento 202A.</t>
-  </si>
-  <si>
-    <t>Se le dio información departamento 202A. Vino con su esposa y dos hijos.</t>
-  </si>
-  <si>
-    <t>Se llevo cotización del 307A lo quiere como inversión.</t>
-  </si>
-  <si>
-    <t>Se llevo cotizacion del 202A son de Guadalajara traen bajo presupuesto</t>
-  </si>
-  <si>
-    <t>Lamarle el miercoles se llevo cotizaciones de GHO1C GH04A 502A PHO2A 501A 504C</t>
-  </si>
-  <si>
-    <t>Se le envuo informacilón por whats de 3 recámaras</t>
-  </si>
-  <si>
-    <t>01 - 08 de Marzo del 2020</t>
+    <t>2020-03-15 17:03:41</t>
+  </si>
+  <si>
+    <t>2020-03-14 20:38:03</t>
+  </si>
+  <si>
+    <t>2020-03-14 18:13:11</t>
+  </si>
+  <si>
+    <t>2020-03-14 11:22:23</t>
+  </si>
+  <si>
+    <t>2020-03-14 10:07:26</t>
+  </si>
+  <si>
+    <t>2020-03-13 21:13:06</t>
+  </si>
+  <si>
+    <t>2020-03-13 19:21:22</t>
+  </si>
+  <si>
+    <t>2020-03-13 19:16:10</t>
+  </si>
+  <si>
+    <t>2020-03-13 18:49:56</t>
+  </si>
+  <si>
+    <t>2020-03-13 07:00:53</t>
+  </si>
+  <si>
+    <t>2020-03-13 00:41:33</t>
+  </si>
+  <si>
+    <t>2020-03-12 23:38:46</t>
+  </si>
+  <si>
+    <t>2020-03-12 17:42:01</t>
+  </si>
+  <si>
+    <t>2020-03-12 16:36:53</t>
+  </si>
+  <si>
+    <t>2020-03-12 16:29:05</t>
+  </si>
+  <si>
+    <t>2020-03-12 16:26:20</t>
+  </si>
+  <si>
+    <t>2020-03-12 16:21:08</t>
+  </si>
+  <si>
+    <t>2020-03-12 15:25:09</t>
+  </si>
+  <si>
+    <t>2020-03-12 13:44:00</t>
+  </si>
+  <si>
+    <t>2020-03-12 13:29:33</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:23:14</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:48:50</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:48:48</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:48:47</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:48:46</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:48:45</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:48:44</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:44:10</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:44:09</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:44:01</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:43:59</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:43:58</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:43:57</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:43:56</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:43:55</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:42:56</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:41:23</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:40:18</t>
+  </si>
+  <si>
+    <t>2020-03-12 11:39:34</t>
+  </si>
+  <si>
+    <t>2020-03-10 15:09:08</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:59:56</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:57:58</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:45:04</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:43:34</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:38:43</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:33:08</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:29:29</t>
+  </si>
+  <si>
+    <t>2020-03-10 14:27:07</t>
+  </si>
+  <si>
+    <t>2020-03-10 13:48:19</t>
+  </si>
+  <si>
+    <t>2020-03-09 17:46:27</t>
+  </si>
+  <si>
+    <t>2020-03-09 15:40:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Frias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor Vázquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mireya Araceli Treviño Castillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena Palacios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marilu San Gal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thaleski Mendieta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina Ftes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marcos t briceno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul Arezes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilia Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Antonio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena Juárez Mata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Burelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">laura coronado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Torres Valdez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Linares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Tavares Dávila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gómez Hernández Kevin Acxel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresita Miranda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Aguero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viridiana Moreno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo G  Moreno F </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araceli Ramírez Pichardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEONOR GARZON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Peña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Sánchez Aguilar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa Natalia Rojas Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">karen lopez ortiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oswaldo Frías </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiliano Vieyra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda Raquel Ramirez Montero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sus Andrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Thomas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connie Ortiz Rebolledo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marcos gomez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Ortega </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Isaac Farret </t>
+  </si>
+  <si>
+    <t>Luis Enrique Manuel Robles</t>
+  </si>
+  <si>
+    <t>Susana Nuñez</t>
+  </si>
+  <si>
+    <t>Cynthia Llanos</t>
+  </si>
+  <si>
+    <t>José Arroyo</t>
+  </si>
+  <si>
+    <t>José Ramón Reyes</t>
+  </si>
+  <si>
+    <t>Aaron Eduardo Hernández López</t>
+  </si>
+  <si>
+    <t>Sra. Olivia Mendez</t>
+  </si>
+  <si>
+    <t>Christian Vázquez</t>
+  </si>
+  <si>
+    <t>Enrique Rocha Guizar</t>
+  </si>
+  <si>
+    <t>Arturo Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricio Baroni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura gonzalez </t>
+  </si>
+  <si>
+    <t>jesusdanielfrias@gmail.com</t>
+  </si>
+  <si>
+    <t>florvc00@gmail.com</t>
+  </si>
+  <si>
+    <t>mireya.trevino62@gmail.com</t>
+  </si>
+  <si>
+    <t>Mechetnov@hotmail.com</t>
+  </si>
+  <si>
+    <t>maberilus@gmail.com</t>
+  </si>
+  <si>
+    <t>thalemendieta_96@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cris90@gmail.com</t>
+  </si>
+  <si>
+    <t>mbricenor@hotmail.com</t>
+  </si>
+  <si>
+    <t>raul.arezes@gmail.com</t>
+  </si>
+  <si>
+    <t>liloji68@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>jafacio@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>viajesmagicosmundomaya@gmail.com</t>
+  </si>
+  <si>
+    <t>xburelo@ymail.com</t>
+  </si>
+  <si>
+    <t>stivaliz5@hotmail.com</t>
+  </si>
+  <si>
+    <t>de_coronado@hotmail.com</t>
+  </si>
+  <si>
+    <t>alberto89tv@hotmail.com</t>
+  </si>
+  <si>
+    <t>mario.linares@softtek.com</t>
+  </si>
+  <si>
+    <t>yaimaenamorado1984@gmail.com</t>
+  </si>
+  <si>
+    <t>hecseraza@hotmail.com</t>
+  </si>
+  <si>
+    <t>andrea@easybroker.com</t>
+  </si>
+  <si>
+    <t>acxenandez@gmail.com</t>
+  </si>
+  <si>
+    <t>teremiranda2016@gmail.com</t>
+  </si>
+  <si>
+    <t>gaguero87@hotmail.com</t>
+  </si>
+  <si>
+    <t>yuxviridiana@hormail.com</t>
+  </si>
+  <si>
+    <t>pablocrecerem@gmail.com</t>
+  </si>
+  <si>
+    <t>araceliirp@hotmail.com</t>
+  </si>
+  <si>
+    <t>coordinacionlink@gmail.com</t>
+  </si>
+  <si>
+    <t>nancy.pena.g19@gmail.com</t>
+  </si>
+  <si>
+    <t>sa.carlossanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>natrolo29@hotmail.com</t>
+  </si>
+  <si>
+    <t>kdlo1928@outlook.com</t>
+  </si>
+  <si>
+    <t>oswaldofc@me.com</t>
+  </si>
+  <si>
+    <t>hikaru1383uwu@gmail.com</t>
+  </si>
+  <si>
+    <t>montero3003@hotmail.com</t>
+  </si>
+  <si>
+    <t>andradesusy@hotmail.com</t>
+  </si>
+  <si>
+    <t>athomas@thomasinvestments.net</t>
+  </si>
+  <si>
+    <t>carlosaldama_f4@hotmail.com</t>
+  </si>
+  <si>
+    <t>corebolledo8@gmail.com</t>
+  </si>
+  <si>
+    <t>inversur2016@outlook.es</t>
+  </si>
+  <si>
+    <t>jandres.oc@gmail.com</t>
+  </si>
+  <si>
+    <t>Isaarafa7@gmail.com</t>
+  </si>
+  <si>
+    <t>orfe.de.jupiter@gmail.com</t>
+  </si>
+  <si>
+    <t>tallerdiagonal.arq@gmail.com</t>
+  </si>
+  <si>
+    <t>cllmex@yahoo.com</t>
+  </si>
+  <si>
+    <t>jose.arroyo@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>alvashapachuca@hotmail.com</t>
+  </si>
+  <si>
+    <t>aaronator@icloud.com</t>
+  </si>
+  <si>
+    <t>bijouxjoyeria@hotmail.com</t>
+  </si>
+  <si>
+    <t>christian_vaz@yahoo.com</t>
+  </si>
+  <si>
+    <t>mexergo@gmail.com</t>
+  </si>
+  <si>
+    <t>acruz.isem@hotmail.com</t>
+  </si>
+  <si>
+    <t>mauriciobaroni@gmail.com</t>
+  </si>
+  <si>
+    <t>lagueragg@hotmail.com</t>
+  </si>
+  <si>
+    <t>TELÉFONO EQUIVOCADO</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón, se le envía mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>BUSCA EN RENTA</t>
+  </si>
+  <si>
+    <t>Busca dos recamaras, se le envió el 205B y me dice que si esta interesada ella se reporta.</t>
+  </si>
+  <si>
+    <t>Dejo teléfono equivocado</t>
+  </si>
+  <si>
+    <t>Esta en una junta,que le llame el martes.
+Seguimieno</t>
+  </si>
+  <si>
+    <t>No dejo teléfono, se le envió mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t>Teléfono equivocado</t>
+  </si>
+  <si>
+    <t>Bajo presupuesto $2M</t>
+  </si>
+  <si>
+    <t>Busca 3 recamaras y quiere venir prox. jueves o fin de semana. 
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca 3 recamaras, se le envió el 403C, estaba en una reunión me pidió que le llame el martes.</t>
+  </si>
+  <si>
+    <t>Busca 2 recamaras, se le envió 205B.</t>
+  </si>
+  <si>
+    <t>Me contesto pero estaba muy ocupada, solicitó se le llame próximo martes</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envía mail de presentación.
+seguimiento</t>
+  </si>
+  <si>
+    <t>Esta buscando para ella y su marido, busca depa de 2 recamaras. quiere venir al depa muestra. Seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotización.</t>
+  </si>
+  <si>
+    <t>Mail con información de 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Envío información via mail de 2 recamaras.</t>
+  </si>
+  <si>
+    <t>Departamento 202A, Hablarle en medio mes.</t>
+  </si>
+  <si>
+    <t>307A y 408A</t>
+  </si>
+  <si>
+    <t>Vio Departamento muestra 307A y 205B</t>
+  </si>
+  <si>
+    <t>Vino en camaro es para su hijo, está viendo opciones 307A y 206B</t>
+  </si>
+  <si>
+    <t>Visto el depa muestra y se llevo cotización del 205B</t>
+  </si>
+  <si>
+    <t>Busca preventa entrega en 2022</t>
+  </si>
+  <si>
+    <t>Visitó showroom. Fuera de presupuesto</t>
+  </si>
+  <si>
+    <t>Cliente de Whataap, solicito info general.
+Seguimiento por whatsaap.</t>
+  </si>
+  <si>
+    <t>El telefono no existe se envía información por mail</t>
+  </si>
+  <si>
+    <t>El telefono no existe se envia información por mail.</t>
+  </si>
+  <si>
+    <t>09 - 13 de Marzo del 2020</t>
   </si>
 </sst>
 </file>
@@ -1129,13 +1009,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>12758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1473,17 +1353,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L266"/>
+  <dimension ref="A4:L258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1531,7 +1411,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1566,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="34">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>21</v>
@@ -1598,7 +1478,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="34">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1611,7 +1491,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="34">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1631,13 +1511,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="34">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1648,13 +1528,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="34">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1664,10 +1544,10 @@
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="E27" s="33" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F27" s="34">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1676,12 +1556,8 @@
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
-      <c r="E28" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="34">
-        <v>1</v>
-      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
@@ -1751,83 +1627,86 @@
         <v>30</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="G34" s="40">
-        <v>5511479537</v>
+        <v>5554370831</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="I34" s="40"/>
-      <c r="J34" s="12"/>
+        <v>179</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G35" s="40">
-        <v>5554381502</v>
+        <v>5554322339</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="G36" s="40">
-        <v>2871224723</v>
+        <v>5537319425</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -1835,55 +1714,57 @@
         <v>30</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="G37" s="40">
-        <v>5519779370</v>
+        <v>5531299573</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G38" s="40">
-        <v>6691603624</v>
+        <v>55102726</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
@@ -1891,109 +1772,115 @@
         <v>29</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="G39" s="40">
-        <v>8332387831</v>
+        <v>7711436972</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="G40" s="40">
-        <v>5562889005</v>
+        <v>5553871197</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G41" s="40">
-        <v>5561137429</v>
+        <v>5556879063</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I41" s="40"/>
-    </row>
-    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G42" s="40">
-        <v>5554359461</v>
+        <v>5559818765</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="I42" s="40"/>
-    </row>
-    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
@@ -2001,34 +1888,36 @@
         <v>30</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G43" s="40">
-        <v>5532324490</v>
+        <v>5516127682</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="40"/>
+        <v>174</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>3</v>
@@ -2037,43 +1926,45 @@
         <v>13</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G44" s="40">
-        <v>6563414141</v>
+        <v>5554322845</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" s="40"/>
+        <v>170</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G45" s="40">
-        <v>5563171655</v>
+        <v>5516537126</v>
       </c>
       <c r="H45" s="40" t="s">
         <v>167</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2081,28 +1972,28 @@
         <v>13</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G46" s="40">
-        <v>6643312076</v>
+        <v>7471308659</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I46" s="40" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,26 +2004,27 @@
         <v>29</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G47" s="40">
-        <v>5529479783</v>
+        <v>5548844608</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>220</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -2142,92 +2034,90 @@
         <v>29</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="40"/>
+        <v>110</v>
+      </c>
+      <c r="G48" s="40">
+        <v>5529612677</v>
+      </c>
       <c r="H48" s="40" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G49" s="40">
-        <v>5561702187</v>
+        <v>5563991010</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>111</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F50" s="40"/>
       <c r="G50" s="40">
-        <v>8444274514</v>
+        <v>5541900220</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="I50" s="40"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>3</v>
@@ -2236,27 +2126,25 @@
         <v>13</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G51" s="40">
-        <v>5522984174</v>
+        <v>7223500182</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="I51" s="40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="I51" s="40"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>3</v>
@@ -2265,105 +2153,98 @@
         <v>13</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G52" s="40">
-        <v>5517547665</v>
+        <v>6241007791</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="I52" s="40"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="40"/>
+        <v>90</v>
+      </c>
+      <c r="G53" s="40">
+        <v>9383887701</v>
+      </c>
       <c r="H53" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I53" s="40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="I53" s="40"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G54" s="40">
-        <v>7023289443</v>
+        <v>5529222084</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="I54" s="40"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F55" s="40" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G55" s="40">
-        <v>41476200</v>
+        <v>7711960951</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I55" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="I55" s="40"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>23</v>
       </c>
@@ -2371,28 +2252,26 @@
         <v>29</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="G56" s="40">
-        <v>5591996518</v>
+        <v>5531037851</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="I56" s="40"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -2400,28 +2279,26 @@
         <v>29</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="40" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="G57" s="40">
-        <v>3313311813</v>
+        <v>1240569</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="I57" s="40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="I57" s="40"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
@@ -2429,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>3</v>
@@ -2438,19 +2315,17 @@
         <v>13</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="G58" s="40">
-        <v>7711000205</v>
+        <v>2223405504</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="I58" s="40"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
@@ -2458,36 +2333,34 @@
         <v>29</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G59" s="40">
-        <v>4921216671</v>
+        <v>7474986426</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I59" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="I59" s="40"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>3</v>
@@ -2496,19 +2369,17 @@
         <v>13</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G60" s="40">
-        <v>8443503245</v>
+        <v>8120007393</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="I60" s="40"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
@@ -2516,28 +2387,28 @@
         <v>30</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G61" s="40">
-        <v>5531333806</v>
+        <v>5651335948</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
@@ -2545,28 +2416,28 @@
         <v>30</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G62" s="40">
-        <v>5583300456</v>
+        <v>51970001414</v>
       </c>
       <c r="H62" s="40" t="s">
         <v>184</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
@@ -2574,54 +2445,54 @@
         <v>30</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G63" s="40">
-        <v>5532338644</v>
+        <v>5529810278</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I63" s="40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G64" s="40">
-        <v>5545355638</v>
+        <v>9514933422</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="I64" s="40" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,28 +2500,28 @@
         <v>32</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G65" s="40">
-        <v>4969624407</v>
+        <v>5525592732</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I65" s="40" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2658,28 +2529,28 @@
         <v>33</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G66" s="40">
-        <v>5527730533</v>
+        <v>5515033657</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2690,25 +2561,25 @@
         <v>29</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G67" s="40">
-        <v>5555064531</v>
+        <v>5537370370</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I67" s="40" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2719,25 +2590,25 @@
         <v>29</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G68" s="40">
-        <v>6641502200</v>
+        <v>5540948404</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="I68" s="40" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2748,23 +2619,25 @@
         <v>29</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" s="40"/>
+        <v>112</v>
+      </c>
+      <c r="G69" s="40">
+        <v>4448505834</v>
+      </c>
       <c r="H69" s="40" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="I69" s="40" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,25 +2648,25 @@
         <v>29</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="G70" s="40">
-        <v>8159122570</v>
+        <v>5569161692</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2804,25 +2677,25 @@
         <v>29</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D71" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="G71" s="40">
-        <v>5539961081</v>
+        <v>5561452819</v>
       </c>
       <c r="H71" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="I71" s="40" t="s">
         <v>193</v>
-      </c>
-      <c r="I71" s="40" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2833,25 +2706,25 @@
         <v>29</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="G72" s="40">
-        <v>5561755625</v>
+        <v>5522993163</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="I72" s="40" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2862,25 +2735,23 @@
         <v>29</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D73" s="39" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" s="40">
-        <v>5518671612</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G73" s="40"/>
       <c r="H73" s="40" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="I73" s="40" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2891,25 +2762,25 @@
         <v>29</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="G74" s="40">
-        <v>5554060760</v>
+        <v>5585276502</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2920,25 +2791,25 @@
         <v>29</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G75" s="40">
-        <v>5532307582</v>
+        <v>5554044703</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2949,25 +2820,25 @@
         <v>29</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D76" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="G76" s="40">
-        <v>5530806634</v>
+        <v>5539880508</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2978,25 +2849,25 @@
         <v>29</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="G77" s="40">
-        <v>5522957429</v>
+        <v>7772737027</v>
       </c>
       <c r="H77" s="40" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,25 +2878,25 @@
         <v>29</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="G78" s="40">
-        <v>5520862698</v>
+        <v>5528748209</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,28 +2904,26 @@
         <v>46</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>140</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F79" s="40"/>
       <c r="G79" s="40">
-        <v>7221568063</v>
+        <v>552757284655</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="I79" s="40" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3062,556 +2931,410 @@
         <v>47</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>141</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F80" s="40"/>
       <c r="G80" s="40">
-        <v>5527021272</v>
+        <v>5564352310</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="I80" s="40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>48</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="G81" s="40">
-        <v>5513339142</v>
+        <v>5520710249</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="I81" s="40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>49</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F82" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G82" s="40"/>
+        <v>97</v>
+      </c>
+      <c r="G82" s="40">
+        <v>5510128183</v>
+      </c>
       <c r="H82" s="40" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="I82" s="40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>50</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F83" s="40" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G83" s="40">
-        <v>5585322005</v>
+        <v>5520825650</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="I83" s="40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>51</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F84" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="40">
+        <v>5532216016</v>
+      </c>
+      <c r="H84" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G84" s="40">
-        <v>55555555</v>
-      </c>
-      <c r="H84" s="40" t="s">
-        <v>206</v>
-      </c>
       <c r="I84" s="40" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>52</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="G85" s="40">
-        <v>5585337611</v>
+        <v>5516868221</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>53</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F86" s="40" t="s">
-        <v>147</v>
-      </c>
       <c r="G86" s="40">
-        <v>2222935893</v>
+        <v>5554535453</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>54</v>
-      </c>
-      <c r="B87" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+    </row>
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="B88" s="38"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="G87" s="40">
-        <v>5611771752</v>
-      </c>
-      <c r="H87" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I87" s="40" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>55</v>
-      </c>
-      <c r="B88" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="G88" s="40">
-        <v>5532429275</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="I88" s="40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>56</v>
-      </c>
-      <c r="B89" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G89" s="40">
-        <v>5560667726</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="I89" s="40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>57</v>
-      </c>
-      <c r="B90" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="G90" s="40">
-        <v>5514747876</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="I90" s="40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>58</v>
-      </c>
-      <c r="B91" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D91" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="I91" s="40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>59</v>
-      </c>
-      <c r="B92" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D92" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="G92" s="40">
-        <v>5514514252</v>
-      </c>
-      <c r="H92" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="I92" s="40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>60</v>
-      </c>
-      <c r="B93" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D93" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="I93" s="40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>61</v>
-      </c>
-      <c r="B94" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="I94" s="40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>62</v>
-      </c>
-      <c r="B95" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D95" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="I95" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="B96" s="38"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="12"/>
-    </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="12"/>
+      <c r="C95" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="21"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="21"/>
-    </row>
-    <row r="100" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="21"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="21"/>
+      <c r="B101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
     </row>
     <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="21"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
     </row>
     <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="21"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
     </row>
     <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
@@ -3621,7 +3344,9 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="21"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
     </row>
     <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
@@ -3631,7 +3356,9 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="21"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
     </row>
     <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
@@ -3641,7 +3368,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="J106" s="3"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
     </row>
@@ -3670,9 +3397,7 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -3696,14 +3421,13 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="3"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="6"/>
+      <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
@@ -3740,7 +3464,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
     </row>
@@ -5437,117 +5161,24 @@
       <c r="L255" s="6"/>
     </row>
     <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="6"/>
-      <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
       <c r="L256" s="6"/>
     </row>
-    <row r="257" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="6"/>
-      <c r="I257" s="6"/>
+    <row r="257" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
     </row>
-    <row r="258" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="6"/>
-      <c r="I258" s="6"/>
+    <row r="258" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
       <c r="L258" s="6"/>
     </row>
-    <row r="259" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="6"/>
-      <c r="I259" s="6"/>
-      <c r="J259" s="6"/>
-      <c r="K259" s="6"/>
-      <c r="L259" s="6"/>
-    </row>
-    <row r="260" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="6"/>
-      <c r="I260" s="6"/>
-      <c r="J260" s="6"/>
-      <c r="K260" s="6"/>
-      <c r="L260" s="6"/>
-    </row>
-    <row r="261" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="6"/>
-      <c r="I261" s="6"/>
-      <c r="J261" s="6"/>
-      <c r="K261" s="6"/>
-      <c r="L261" s="6"/>
-    </row>
-    <row r="262" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="5"/>
-      <c r="G262" s="6"/>
-      <c r="I262" s="6"/>
-      <c r="J262" s="6"/>
-      <c r="K262" s="6"/>
-      <c r="L262" s="6"/>
-    </row>
-    <row r="263" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="6"/>
-      <c r="I263" s="6"/>
-      <c r="J263" s="6"/>
-      <c r="K263" s="6"/>
-      <c r="L263" s="6"/>
-    </row>
-    <row r="264" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J264" s="6"/>
-      <c r="K264" s="6"/>
-      <c r="L264" s="6"/>
-    </row>
-    <row r="265" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J265" s="6"/>
-      <c r="K265" s="6"/>
-      <c r="L265" s="6"/>
-    </row>
-    <row r="266" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J266" s="6"/>
-      <c r="K266" s="6"/>
-      <c r="L266" s="6"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A86">
+    <sortCondition ref="A34"/>
+  </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4B378-CEA4-5343-A854-C30C8A9E3950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350ADA60-482B-3442-92B2-21292B4CAC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="202">
   <si>
     <t>A</t>
   </si>
@@ -128,558 +128,515 @@
     <t>Google</t>
   </si>
   <si>
-    <t>2020-03-15 17:03:41</t>
-  </si>
-  <si>
-    <t>2020-03-14 20:38:03</t>
-  </si>
-  <si>
-    <t>2020-03-14 18:13:11</t>
-  </si>
-  <si>
-    <t>2020-03-14 11:22:23</t>
-  </si>
-  <si>
-    <t>2020-03-14 10:07:26</t>
-  </si>
-  <si>
-    <t>2020-03-13 21:13:06</t>
-  </si>
-  <si>
-    <t>2020-03-13 19:21:22</t>
-  </si>
-  <si>
-    <t>2020-03-13 19:16:10</t>
-  </si>
-  <si>
-    <t>2020-03-13 18:49:56</t>
-  </si>
-  <si>
-    <t>2020-03-13 07:00:53</t>
-  </si>
-  <si>
-    <t>2020-03-13 00:41:33</t>
-  </si>
-  <si>
-    <t>2020-03-12 23:38:46</t>
-  </si>
-  <si>
-    <t>2020-03-12 17:42:01</t>
-  </si>
-  <si>
-    <t>2020-03-12 16:36:53</t>
-  </si>
-  <si>
-    <t>2020-03-12 16:29:05</t>
-  </si>
-  <si>
-    <t>2020-03-12 16:26:20</t>
-  </si>
-  <si>
-    <t>2020-03-12 16:21:08</t>
-  </si>
-  <si>
-    <t>2020-03-12 15:25:09</t>
-  </si>
-  <si>
-    <t>2020-03-12 13:44:00</t>
-  </si>
-  <si>
-    <t>2020-03-12 13:29:33</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:23:14</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:48:50</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:48:48</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:48:47</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:48:46</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:48:45</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:48:44</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:44:10</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:44:09</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:44:01</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:43:59</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:43:58</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:43:57</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:43:56</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:43:55</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:42:56</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:41:23</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:40:18</t>
-  </si>
-  <si>
-    <t>2020-03-12 11:39:34</t>
-  </si>
-  <si>
-    <t>2020-03-10 15:09:08</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:59:56</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:57:58</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:45:04</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:43:34</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:38:43</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:33:08</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:29:29</t>
-  </si>
-  <si>
-    <t>2020-03-10 14:27:07</t>
-  </si>
-  <si>
-    <t>2020-03-10 13:48:19</t>
-  </si>
-  <si>
-    <t>2020-03-09 17:46:27</t>
-  </si>
-  <si>
-    <t>2020-03-09 15:40:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Frias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Vázquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mireya Araceli Treviño Castillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elena Palacios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marilu San Gal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thaleski Mendieta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristina Ftes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcos t briceno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raul Arezes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilia Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Antonio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorena Juárez Mata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Burelo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">laura coronado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto Torres Valdez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario Linares </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Tavares Dávila </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gómez Hernández Kevin Acxel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teresita Miranda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Aguero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viridiana Moreno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo G  Moreno F </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araceli Ramírez Pichardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEONOR GARZON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy Peña </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Sánchez Aguilar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosa Natalia Rojas Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">karen lopez ortiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oswaldo Frías </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emiliano Vieyra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brenda Raquel Ramirez Montero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sus Andrade </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Thomas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connie Ortiz Rebolledo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">marcos gomez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Ortega </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Isaac Farret </t>
-  </si>
-  <si>
-    <t>Luis Enrique Manuel Robles</t>
-  </si>
-  <si>
-    <t>Susana Nuñez</t>
-  </si>
-  <si>
-    <t>Cynthia Llanos</t>
-  </si>
-  <si>
-    <t>José Arroyo</t>
-  </si>
-  <si>
-    <t>José Ramón Reyes</t>
-  </si>
-  <si>
-    <t>Aaron Eduardo Hernández López</t>
-  </si>
-  <si>
-    <t>Sra. Olivia Mendez</t>
-  </si>
-  <si>
-    <t>Christian Vázquez</t>
-  </si>
-  <si>
-    <t>Enrique Rocha Guizar</t>
-  </si>
-  <si>
-    <t>Arturo Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Baroni </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura gonzalez </t>
-  </si>
-  <si>
-    <t>jesusdanielfrias@gmail.com</t>
-  </si>
-  <si>
-    <t>florvc00@gmail.com</t>
-  </si>
-  <si>
-    <t>mireya.trevino62@gmail.com</t>
-  </si>
-  <si>
-    <t>Mechetnov@hotmail.com</t>
-  </si>
-  <si>
-    <t>maberilus@gmail.com</t>
-  </si>
-  <si>
-    <t>thalemendieta_96@hotmail.com</t>
-  </si>
-  <si>
-    <t>Cris90@gmail.com</t>
-  </si>
-  <si>
-    <t>mbricenor@hotmail.com</t>
-  </si>
-  <si>
-    <t>raul.arezes@gmail.com</t>
-  </si>
-  <si>
-    <t>liloji68@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>jafacio@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>viajesmagicosmundomaya@gmail.com</t>
-  </si>
-  <si>
-    <t>xburelo@ymail.com</t>
-  </si>
-  <si>
-    <t>stivaliz5@hotmail.com</t>
-  </si>
-  <si>
-    <t>de_coronado@hotmail.com</t>
-  </si>
-  <si>
-    <t>alberto89tv@hotmail.com</t>
-  </si>
-  <si>
-    <t>mario.linares@softtek.com</t>
-  </si>
-  <si>
-    <t>yaimaenamorado1984@gmail.com</t>
-  </si>
-  <si>
-    <t>hecseraza@hotmail.com</t>
-  </si>
-  <si>
-    <t>andrea@easybroker.com</t>
-  </si>
-  <si>
-    <t>acxenandez@gmail.com</t>
-  </si>
-  <si>
-    <t>teremiranda2016@gmail.com</t>
-  </si>
-  <si>
-    <t>gaguero87@hotmail.com</t>
-  </si>
-  <si>
-    <t>yuxviridiana@hormail.com</t>
-  </si>
-  <si>
-    <t>pablocrecerem@gmail.com</t>
-  </si>
-  <si>
-    <t>araceliirp@hotmail.com</t>
-  </si>
-  <si>
-    <t>coordinacionlink@gmail.com</t>
-  </si>
-  <si>
-    <t>nancy.pena.g19@gmail.com</t>
-  </si>
-  <si>
-    <t>sa.carlossanchez@gmail.com</t>
-  </si>
-  <si>
-    <t>natrolo29@hotmail.com</t>
-  </si>
-  <si>
-    <t>kdlo1928@outlook.com</t>
-  </si>
-  <si>
-    <t>oswaldofc@me.com</t>
-  </si>
-  <si>
-    <t>hikaru1383uwu@gmail.com</t>
-  </si>
-  <si>
-    <t>montero3003@hotmail.com</t>
-  </si>
-  <si>
-    <t>andradesusy@hotmail.com</t>
-  </si>
-  <si>
-    <t>athomas@thomasinvestments.net</t>
-  </si>
-  <si>
-    <t>carlosaldama_f4@hotmail.com</t>
-  </si>
-  <si>
-    <t>corebolledo8@gmail.com</t>
-  </si>
-  <si>
-    <t>inversur2016@outlook.es</t>
-  </si>
-  <si>
-    <t>jandres.oc@gmail.com</t>
-  </si>
-  <si>
-    <t>Isaarafa7@gmail.com</t>
-  </si>
-  <si>
-    <t>orfe.de.jupiter@gmail.com</t>
-  </si>
-  <si>
-    <t>tallerdiagonal.arq@gmail.com</t>
-  </si>
-  <si>
-    <t>cllmex@yahoo.com</t>
-  </si>
-  <si>
-    <t>jose.arroyo@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>alvashapachuca@hotmail.com</t>
-  </si>
-  <si>
-    <t>aaronator@icloud.com</t>
-  </si>
-  <si>
-    <t>bijouxjoyeria@hotmail.com</t>
-  </si>
-  <si>
-    <t>christian_vaz@yahoo.com</t>
-  </si>
-  <si>
-    <t>mexergo@gmail.com</t>
-  </si>
-  <si>
-    <t>acruz.isem@hotmail.com</t>
-  </si>
-  <si>
-    <t>mauriciobaroni@gmail.com</t>
-  </si>
-  <si>
-    <t>lagueragg@hotmail.com</t>
-  </si>
-  <si>
-    <t>TELÉFONO EQUIVOCADO</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón, se le envía mail de presentación.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>BUSCA EN RENTA</t>
-  </si>
-  <si>
-    <t>Busca dos recamaras, se le envió el 205B y me dice que si esta interesada ella se reporta.</t>
-  </si>
-  <si>
-    <t>Dejo teléfono equivocado</t>
-  </si>
-  <si>
-    <t>Esta en una junta,que le llame el martes.
-Seguimieno</t>
-  </si>
-  <si>
-    <t>No dejo teléfono, se le envió mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t>Teléfono equivocado</t>
-  </si>
-  <si>
-    <t>Bajo presupuesto $2M</t>
-  </si>
-  <si>
-    <t>Busca 3 recamaras y quiere venir prox. jueves o fin de semana. 
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Busca 3 recamaras, se le envió el 403C, estaba en una reunión me pidió que le llame el martes.</t>
-  </si>
-  <si>
-    <t>Busca 2 recamaras, se le envió 205B.</t>
-  </si>
-  <si>
-    <t>Me contesto pero estaba muy ocupada, solicitó se le llame próximo martes</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envía mail de presentación.
-seguimiento</t>
-  </si>
-  <si>
-    <t>Esta buscando para ella y su marido, busca depa de 2 recamaras. quiere venir al depa muestra. Seguimiento</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotización.</t>
-  </si>
-  <si>
-    <t>Mail con información de 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Envío información via mail de 2 recamaras.</t>
-  </si>
-  <si>
-    <t>Departamento 202A, Hablarle en medio mes.</t>
-  </si>
-  <si>
-    <t>307A y 408A</t>
-  </si>
-  <si>
-    <t>Vio Departamento muestra 307A y 205B</t>
-  </si>
-  <si>
-    <t>Vino en camaro es para su hijo, está viendo opciones 307A y 206B</t>
-  </si>
-  <si>
-    <t>Visto el depa muestra y se llevo cotización del 205B</t>
-  </si>
-  <si>
-    <t>Busca preventa entrega en 2022</t>
-  </si>
-  <si>
-    <t>Visitó showroom. Fuera de presupuesto</t>
-  </si>
-  <si>
-    <t>Cliente de Whataap, solicito info general.
-Seguimiento por whatsaap.</t>
-  </si>
-  <si>
-    <t>El telefono no existe se envía información por mail</t>
-  </si>
-  <si>
-    <t>El telefono no existe se envia información por mail.</t>
-  </si>
-  <si>
-    <t>09 - 13 de Marzo del 2020</t>
+    <t>2020-03-22 15:50:38</t>
+  </si>
+  <si>
+    <t>2020-03-22 08:31:05</t>
+  </si>
+  <si>
+    <t>2020-03-22 06:30:12</t>
+  </si>
+  <si>
+    <t>2020-03-21 16:01:46</t>
+  </si>
+  <si>
+    <t>2020-03-21 15:56:47</t>
+  </si>
+  <si>
+    <t>2020-03-21 13:30:01</t>
+  </si>
+  <si>
+    <t>2020-03-20 12:47:06</t>
+  </si>
+  <si>
+    <t>2020-03-20 12:15:00</t>
+  </si>
+  <si>
+    <t>2020-03-20 10:18:28</t>
+  </si>
+  <si>
+    <t>2020-03-20 08:52:19</t>
+  </si>
+  <si>
+    <t>2020-03-20 07:51:51</t>
+  </si>
+  <si>
+    <t>2020-03-20 04:03:59</t>
+  </si>
+  <si>
+    <t>2020-03-19 23:46:26</t>
+  </si>
+  <si>
+    <t>2020-03-19 20:26:04</t>
+  </si>
+  <si>
+    <t>2020-03-19 15:16:40</t>
+  </si>
+  <si>
+    <t>2020-03-19 09:23:05</t>
+  </si>
+  <si>
+    <t>2020-03-19 08:34:33</t>
+  </si>
+  <si>
+    <t>2020-03-19 08:13:47</t>
+  </si>
+  <si>
+    <t>2020-03-19 08:01:13</t>
+  </si>
+  <si>
+    <t>2020-03-19 07:45:08</t>
+  </si>
+  <si>
+    <t>2020-03-19 07:17:08</t>
+  </si>
+  <si>
+    <t>2020-03-18 21:21:23</t>
+  </si>
+  <si>
+    <t>2020-03-18 20:10:38</t>
+  </si>
+  <si>
+    <t>2020-03-18 19:37:06</t>
+  </si>
+  <si>
+    <t>2020-03-18 18:58:48</t>
+  </si>
+  <si>
+    <t>2020-03-18 06:55:40</t>
+  </si>
+  <si>
+    <t>2020-03-17 19:16:49</t>
+  </si>
+  <si>
+    <t>2020-03-17 19:02:06</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:50:06</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:45:38</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:42:30</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:36:25</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:35:19</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:34:12</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:22:26</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:19:54</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:18:01</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:06:22</t>
+  </si>
+  <si>
+    <t>2020-03-17 15:42:53</t>
+  </si>
+  <si>
+    <t>2020-03-16 22:30:02</t>
+  </si>
+  <si>
+    <t>2020-03-16 17:14:38</t>
+  </si>
+  <si>
+    <t>2020-03-16 17:00:06</t>
+  </si>
+  <si>
+    <t>2020-03-16 10:34:03</t>
+  </si>
+  <si>
+    <t>2020-03-16 10:25:06</t>
+  </si>
+  <si>
+    <t>2020-03-16 01:40:47</t>
+  </si>
+  <si>
+    <t>2020-03-16 00:24:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAURA YAÑEZ HERNANDEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Josue Aliaga Coaquira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Alonso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis enrique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena Tello Robles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Lozada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Maria Gomez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertha González H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Martínez Marquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Elena Larios Segura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tannia Renée </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metato Grish </t>
+  </si>
+  <si>
+    <t>Gabriela Soto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria Alvarez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Castañeda Salinas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Barcelata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leandro castaño rojas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lore Paty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caro Aguilar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jani Arri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">miguel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yazareth Isabel Gallegos Huerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">César Augusto Aureoles García </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Diaz Huerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolanda Gonzalez Vargas </t>
+  </si>
+  <si>
+    <t>Hector Paez Garcia</t>
+  </si>
+  <si>
+    <t>Fernanda Gonzalez</t>
+  </si>
+  <si>
+    <t>Dulce González</t>
+  </si>
+  <si>
+    <t>Hugo Idelson</t>
+  </si>
+  <si>
+    <t>Rebeca Ceciliano</t>
+  </si>
+  <si>
+    <t>Omar Blanco</t>
+  </si>
+  <si>
+    <t>German García Salas</t>
+  </si>
+  <si>
+    <t>Maria Luisa Manzo</t>
+  </si>
+  <si>
+    <t>Zoraya Libien Maldonado</t>
+  </si>
+  <si>
+    <t>Aida Fuentes</t>
+  </si>
+  <si>
+    <t>Gianluca De Glli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exie Moscoso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Lei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena Carlos Rodriguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saul Santiago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Juan Solis Granados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Huerta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Cabrera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Rosado </t>
+  </si>
+  <si>
+    <t>lyez621@gmail.com</t>
+  </si>
+  <si>
+    <t>pauljosue1997@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisjaf@hotmail.com</t>
+  </si>
+  <si>
+    <t>lorenagarrido20@gmail.com</t>
+  </si>
+  <si>
+    <t>luiscecua@gmail.com</t>
+  </si>
+  <si>
+    <t>ltello@artexinternacional.com</t>
+  </si>
+  <si>
+    <t>oscar.lozada01@gmail.com</t>
+  </si>
+  <si>
+    <t>test@newweb.com</t>
+  </si>
+  <si>
+    <t>ppgomezm@hotmail.com</t>
+  </si>
+  <si>
+    <t>bertharlenagh@hotmail.com</t>
+  </si>
+  <si>
+    <t>gabrielamtzmarquez@gmail.com</t>
+  </si>
+  <si>
+    <t>melarios1@hotmail.com</t>
+  </si>
+  <si>
+    <t>tann1a@live.com.mx</t>
+  </si>
+  <si>
+    <t>Metato_grish@hotmail.com</t>
+  </si>
+  <si>
+    <t>sotoavilag@gmail.com</t>
+  </si>
+  <si>
+    <t>galvarezmtz@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>graphic.gcs@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrobe@gmail.com</t>
+  </si>
+  <si>
+    <t>leandrokastano@gmail.com</t>
+  </si>
+  <si>
+    <t>Lorepaty13@gmail.com</t>
+  </si>
+  <si>
+    <t>Carolina.aguilar15@gmail.com</t>
+  </si>
+  <si>
+    <t>janiarriaga@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mg-5@hotmail.com</t>
+  </si>
+  <si>
+    <t>yazzgallegos@gmail.com</t>
+  </si>
+  <si>
+    <t>caureole@bancomext.gob.mx</t>
+  </si>
+  <si>
+    <t>adh_sol@hotmail.com</t>
+  </si>
+  <si>
+    <t>jolie_yoli@yahoo.com</t>
+  </si>
+  <si>
+    <t>hpaezgarcia@gmail.com</t>
+  </si>
+  <si>
+    <t>ma_fernanda_g@hotmail.com</t>
+  </si>
+  <si>
+    <t>dulcegonzalez.inv@gmail.com</t>
+  </si>
+  <si>
+    <t>hridelson@hotmail.com</t>
+  </si>
+  <si>
+    <t>rebecaceciliano@msn.com</t>
+  </si>
+  <si>
+    <t>omar.digital@hotmail.com</t>
+  </si>
+  <si>
+    <t>gg.salas@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>lmmanzop@gmail.com</t>
+  </si>
+  <si>
+    <t>zorayalibien@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>aidafuentesg@yahoo.com</t>
+  </si>
+  <si>
+    <t>gianly1722@gmail.com</t>
+  </si>
+  <si>
+    <t>exiemoscoso49@gmail.com</t>
+  </si>
+  <si>
+    <t>chefeduardo2@gmail.com</t>
+  </si>
+  <si>
+    <t>carlosrodriguezelena127@gmail.com</t>
+  </si>
+  <si>
+    <t>saulglezc@hotmail.com</t>
+  </si>
+  <si>
+    <t>jj.solis.ing@gmail.com</t>
+  </si>
+  <si>
+    <t>martin.huerta.rmz@gmail.com</t>
+  </si>
+  <si>
+    <t>Luis.cabee@gmail.com</t>
+  </si>
+  <si>
+    <t>martinrosado79@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>El telefono no existe se evía infoermación general por mail</t>
+  </si>
+  <si>
+    <t>Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto $4,700.000</t>
+  </si>
+  <si>
+    <t>Buscaba Renta pero que le mande infornación del depto mas barato via whats</t>
+  </si>
+  <si>
+    <t>Se le envía información general por mail. no contesta llamadas</t>
+  </si>
+  <si>
+    <t>Se le envió mail de presentación y cotizaciones del departamento 205B y 403C.</t>
+  </si>
+  <si>
+    <t>No dejo telefono se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Entra buzón le envío información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta le envío información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta le envie información general por mail.</t>
+  </si>
+  <si>
+    <t>Se le envió información de 2 y 3 recamaras a su correo.</t>
+  </si>
+  <si>
+    <t>Se le dio información departamentos PH08C, 03B, 05A, GH02B, 03B y 306B.</t>
+  </si>
+  <si>
+    <t>Se le envia información departamentos de 2 recamaras.</t>
+  </si>
+  <si>
+    <t>Solicitó información General GH01C Le gusto el departamento muestra necesita vender su departamento</t>
+  </si>
+  <si>
+    <t>GH01B GH03B PH01C En cuanto venda su departamento me contacta para venir nuevamente</t>
+  </si>
+  <si>
+    <t>307A GH01B 202A Es mamá de Daniela Alvarez</t>
+  </si>
+  <si>
+    <t>Informes del 309A 506A 510A llegó en moto</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto</t>
+  </si>
+  <si>
+    <t>Quiere de 3 recámaras viene a otra cita el miércoles 18 de marzo a la 1:30 PM</t>
+  </si>
+  <si>
+    <t>Solicita información departamentos de 2 recamaras.</t>
+  </si>
+  <si>
+    <t>Solicito informes generales y no pudo esperar a que la atendiera.</t>
+  </si>
+  <si>
+    <t>Visito showroom.
+Solicita información del proyecto, es Italiano.</t>
+  </si>
+  <si>
+    <t>Se le envió mal de presentación con cotizaciones de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>No contesta se le envia información por mail</t>
+  </si>
+  <si>
+    <t>El teléfono no existe se le envía información por mail</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>Se le envía información General por mail</t>
+  </si>
+  <si>
+    <t>Se le envía información de 2 y 3 recámaras</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información por mail</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información por maIL</t>
+  </si>
+  <si>
+    <t>16 - 22 de Marzo del 2020</t>
   </si>
 </sst>
 </file>
@@ -836,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,6 +891,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,13 +967,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>12758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1353,10 +1311,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L258"/>
+  <dimension ref="A4:L252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1324,8 @@
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="132.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
@@ -1411,7 +1370,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1446,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="34">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>21</v>
@@ -1465,7 +1424,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1478,7 +1437,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="34">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1491,7 +1450,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="34">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1511,13 +1470,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="34">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1528,13 +1487,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1547,7 +1506,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="34">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1623,347 +1582,347 @@
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>76</v>
+      <c r="B34" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="40">
-        <v>5554370831</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>207</v>
+      <c r="F34" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" s="41">
+        <v>7225719699</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>51</v>
+      <c r="B35" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>61</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" s="40">
-        <v>5554322339</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>189</v>
+      <c r="E35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="41">
+        <v>5580218018</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>80</v>
+      <c r="B36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="40">
-        <v>5537319425</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>211</v>
+      <c r="F36" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="41">
+        <v>5548772701</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>78</v>
+      <c r="B37" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G37" s="40">
-        <v>5531299573</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>209</v>
+      <c r="E37" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="41">
+        <v>4422474006</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>77</v>
+      <c r="C38" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="40">
-        <v>55102726</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>208</v>
+      <c r="E38" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="41">
+        <v>4493627557</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="40" t="s">
-        <v>75</v>
+      <c r="C39" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="40">
-        <v>7711436972</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>206</v>
+      <c r="E39" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="41">
+        <v>5541880118</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>74</v>
+      <c r="B40" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="40">
-        <v>5553871197</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>205</v>
+      <c r="E40" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="41">
+        <v>5512882609</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>73</v>
+      <c r="B41" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="40">
-        <v>5556879063</v>
-      </c>
-      <c r="H41" s="40" t="s">
+      <c r="E41" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="41">
+        <v>5579601202</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>72</v>
+      <c r="B42" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="40">
-        <v>5559818765</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>203</v>
+      <c r="E42" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="41">
+        <v>5516502701</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>71</v>
+      <c r="B43" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" s="40">
-        <v>5516127682</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>202</v>
+      <c r="E43" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="41">
+        <v>5541422250</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>67</v>
+      <c r="B44" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="40">
-        <v>5554322845</v>
-      </c>
-      <c r="H44" s="40" t="s">
+      <c r="F44" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="41">
+        <v>8115361106</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="41" t="s">
         <v>170</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>65</v>
+      <c r="B45" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="40">
-        <v>5516537126</v>
-      </c>
-      <c r="H45" s="40" t="s">
+      <c r="F45" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="41">
+        <v>9332625221</v>
+      </c>
+      <c r="H45" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="41" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1971,58 +1930,58 @@
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>64</v>
+      <c r="C46" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G46" s="40">
-        <v>7471308659</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>197</v>
+      <c r="F46" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="41">
+        <v>9831541046</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="40" t="s">
-        <v>62</v>
+      <c r="C47" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="40">
-        <v>5548844608</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>196</v>
+      <c r="F47" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="41">
+        <v>7225295093</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -2030,1218 +1989,1121 @@
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="40" t="s">
-        <v>61</v>
+      <c r="C48" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G48" s="40">
-        <v>5529612677</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>195</v>
+      <c r="F48" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="41">
+        <v>5525040941</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="40" t="s">
-        <v>55</v>
+      <c r="C49" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="40">
-        <v>5563991010</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I49" s="40" t="s">
-        <v>191</v>
+      <c r="F49" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="41">
+        <v>525543543073</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="40" t="s">
-        <v>45</v>
+      <c r="C50" s="41" t="s">
+        <v>33</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40">
-        <v>5541900220</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="I50" s="40"/>
+      <c r="E50" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="41">
+        <v>944764036</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="40" t="s">
-        <v>41</v>
+      <c r="C51" s="41" t="s">
+        <v>34</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="40">
-        <v>7223500182</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="I51" s="40"/>
+      <c r="E51" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="41">
+        <v>5536557908</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="40" t="s">
-        <v>40</v>
+      <c r="C52" s="41" t="s">
+        <v>35</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="40">
-        <v>6241007791</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="I52" s="40"/>
+      <c r="E52" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" s="41">
+        <v>5536638830</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="40" t="s">
-        <v>39</v>
+      <c r="C53" s="41" t="s">
+        <v>36</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="40">
-        <v>9383887701</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I53" s="40"/>
+      <c r="F53" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="41">
+        <v>5521874503</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="40" t="s">
-        <v>38</v>
+      <c r="C54" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="40">
-        <v>5529222084</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I54" s="40"/>
+      <c r="E54" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="41">
+        <v>5555068891</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="40" t="s">
-        <v>37</v>
+      <c r="C55" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="40">
-        <v>7711960951</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55" s="40"/>
+      <c r="F55" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="41">
+        <v>5518632918</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>36</v>
+      <c r="B56" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="40">
-        <v>5531037851</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="I56" s="40"/>
+      <c r="E56" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="41">
+        <v>6441400261</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="40" t="s">
-        <v>35</v>
+      <c r="C57" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G57" s="40">
-        <v>1240569</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I57" s="40"/>
+      <c r="E57" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="41">
+        <v>5523488342</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="40" t="s">
-        <v>34</v>
+      <c r="C58" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="40">
-        <v>2223405504</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="I58" s="40"/>
+      <c r="E58" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="41">
+        <v>5576675638</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="40" t="s">
-        <v>33</v>
+      <c r="C59" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" s="40">
-        <v>7474986426</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="I59" s="40"/>
+      <c r="E59" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="41">
+        <v>5559693256</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>32</v>
+      <c r="B60" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" s="40">
-        <v>8120007393</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I60" s="40"/>
+      <c r="E60" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="41">
+        <v>5523791061</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" s="41" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="40" t="s">
-        <v>82</v>
+      <c r="C61" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="40">
-        <v>5651335948</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I61" s="40" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="41">
+        <v>5522995417</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="41" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="40" t="s">
-        <v>81</v>
+      <c r="C62" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G62" s="40">
-        <v>51970001414</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="I62" s="40" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="41">
+        <v>5573922574</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="41" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="40" t="s">
-        <v>79</v>
+      <c r="C63" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="40">
-        <v>5529810278</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="I63" s="40" t="s">
-        <v>210</v>
+      <c r="F63" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="41">
+        <v>5554555236</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>70</v>
+      <c r="B64" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64" s="40">
-        <v>9514933422</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="I64" s="40" t="s">
-        <v>201</v>
+        <v>3</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="41">
+        <v>7222394143</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
-      <c r="B65" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>69</v>
+      <c r="B65" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="40">
-        <v>5525592732</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>201</v>
+      <c r="E65" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="41">
+        <v>5554099889</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>33</v>
       </c>
-      <c r="B66" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>68</v>
+      <c r="B66" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G66" s="40">
-        <v>5515033657</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>201</v>
+      <c r="E66" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="41">
+        <v>3531382453</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>34</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>66</v>
+      <c r="B67" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G67" s="40">
-        <v>5537370370</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I67" s="40" t="s">
-        <v>199</v>
+      <c r="F67" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="41">
+        <v>5540585062</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>66</v>
+      <c r="B68" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>54</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G68" s="40">
-        <v>5540948404</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>187</v>
+      <c r="E68" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="41">
+        <v>5552165014</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>36</v>
       </c>
-      <c r="B69" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>63</v>
+      <c r="B69" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="40">
-        <v>4448505834</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="I69" s="40" t="s">
-        <v>187</v>
+      <c r="E69" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G69" s="41">
+        <v>5554316999</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37</v>
       </c>
-      <c r="B70" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>60</v>
+      <c r="B70" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G70" s="40">
-        <v>5569161692</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="I70" s="40" t="s">
-        <v>194</v>
+      <c r="E70" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" s="41">
+        <v>526122145322</v>
+      </c>
+      <c r="H70" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="I70" s="41" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>38</v>
       </c>
-      <c r="B71" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>59</v>
+      <c r="B71" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G71" s="40">
-        <v>5561452819</v>
-      </c>
-      <c r="H71" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="I71" s="40" t="s">
-        <v>193</v>
+      <c r="E71" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="41">
+        <v>5519346976</v>
+      </c>
+      <c r="H71" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="I71" s="41" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>39</v>
       </c>
-      <c r="B72" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>58</v>
+      <c r="B72" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G72" s="40">
-        <v>5522993163</v>
-      </c>
-      <c r="H72" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I72" s="40" t="s">
-        <v>187</v>
+      <c r="E72" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" s="41">
+        <v>3317732766</v>
+      </c>
+      <c r="H72" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I72" s="41" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>57</v>
+      <c r="B73" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="I73" s="40" t="s">
-        <v>192</v>
+      <c r="E73" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="41">
+        <v>9511565972</v>
+      </c>
+      <c r="H73" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I73" s="41" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="40" t="s">
-        <v>56</v>
+      <c r="C74" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="40" t="s">
+      <c r="E74" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G74" s="40">
-        <v>5585276502</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="I74" s="40" t="s">
-        <v>187</v>
-      </c>
+      <c r="F74" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="41">
+        <v>4422199285</v>
+      </c>
+      <c r="H74" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I74" s="41"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>54</v>
+      <c r="B75" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>39</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G75" s="40">
-        <v>5554044703</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="I75" s="40" t="s">
-        <v>190</v>
+      <c r="E75" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="41">
+        <v>5555555555</v>
+      </c>
+      <c r="H75" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I75" s="41" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>54</v>
+      <c r="B76" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G76" s="40">
-        <v>5539880508</v>
-      </c>
-      <c r="H76" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I76" s="40" t="s">
-        <v>187</v>
+      <c r="F76" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" s="41" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44</v>
       </c>
-      <c r="B77" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>53</v>
+      <c r="B77" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="40" t="s">
+      <c r="E77" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="40">
-        <v>7772737027</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>187</v>
+      <c r="G77" s="41">
+        <v>5519529785</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="I77" s="41" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45</v>
       </c>
-      <c r="B78" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>52</v>
+      <c r="B78" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G78" s="40">
-        <v>5528748209</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>187</v>
+      <c r="F78" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" s="41">
+        <v>5512954877</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>46</v>
       </c>
-      <c r="B79" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>50</v>
+      <c r="B79" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40">
-        <v>552757284655</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I79" s="40" t="s">
-        <v>187</v>
+      <c r="F79" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" s="41">
+        <v>5510695988</v>
+      </c>
+      <c r="H79" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" s="41" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>47</v>
-      </c>
-      <c r="B80" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="39" t="s">
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+    </row>
+    <row r="82" spans="2:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="B82" s="38"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40">
-        <v>5564352310</v>
-      </c>
-      <c r="H80" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="I80" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>48</v>
-      </c>
-      <c r="B81" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="40">
-        <v>5520710249</v>
-      </c>
-      <c r="H81" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="I81" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>49</v>
-      </c>
-      <c r="B82" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="40">
-        <v>5510128183</v>
-      </c>
-      <c r="H82" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I82" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>50</v>
-      </c>
-      <c r="B83" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" s="40">
-        <v>5520825650</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I83" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>51</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D84" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" s="40">
-        <v>5532216016</v>
-      </c>
-      <c r="H84" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I84" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>52</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" s="40">
-        <v>5516868221</v>
-      </c>
-      <c r="H85" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="I85" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>53</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G86" s="40">
-        <v>5554535453</v>
-      </c>
-      <c r="H86" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="I86" s="40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-    </row>
-    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.25">
-      <c r="B88" s="38"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="12"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="12"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="12"/>
+      <c r="C89" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="I90" s="6"/>
       <c r="J90" s="21"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="12"/>
+    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="I91" s="6"/>
       <c r="J91" s="21"/>
     </row>
-    <row r="92" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="24"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="21"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="21"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="21"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" s="24"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="30"/>
+    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3249,17 +3111,22 @@
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="21"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
     </row>
     <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="21"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
@@ -3293,14 +3160,12 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="3"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -3324,14 +3189,13 @@
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="3"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
+      <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -3368,7 +3232,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="3"/>
+      <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
     </row>
@@ -5089,94 +4953,22 @@
       <c r="L249" s="6"/>
     </row>
     <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="6"/>
-      <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
     </row>
     <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="6"/>
-      <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
     </row>
     <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="6"/>
-      <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
     </row>
-    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="6"/>
-      <c r="I253" s="6"/>
-      <c r="J253" s="6"/>
-      <c r="K253" s="6"/>
-      <c r="L253" s="6"/>
-    </row>
-    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="6"/>
-      <c r="I254" s="6"/>
-      <c r="J254" s="6"/>
-      <c r="K254" s="6"/>
-      <c r="L254" s="6"/>
-    </row>
-    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="6"/>
-      <c r="I255" s="6"/>
-      <c r="J255" s="6"/>
-      <c r="K255" s="6"/>
-      <c r="L255" s="6"/>
-    </row>
-    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J256" s="6"/>
-      <c r="K256" s="6"/>
-      <c r="L256" s="6"/>
-    </row>
-    <row r="257" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J257" s="6"/>
-      <c r="K257" s="6"/>
-      <c r="L257" s="6"/>
-    </row>
-    <row r="258" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J258" s="6"/>
-      <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A86">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A79">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350ADA60-482B-3442-92B2-21292B4CAC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A8C52-1E25-CD4A-B824-E6E29D6E07D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="185">
   <si>
     <t>A</t>
   </si>
@@ -128,515 +128,475 @@
     <t>Google</t>
   </si>
   <si>
-    <t>2020-03-22 15:50:38</t>
-  </si>
-  <si>
-    <t>2020-03-22 08:31:05</t>
-  </si>
-  <si>
-    <t>2020-03-22 06:30:12</t>
-  </si>
-  <si>
-    <t>2020-03-21 16:01:46</t>
-  </si>
-  <si>
-    <t>2020-03-21 15:56:47</t>
-  </si>
-  <si>
-    <t>2020-03-21 13:30:01</t>
-  </si>
-  <si>
-    <t>2020-03-20 12:47:06</t>
-  </si>
-  <si>
-    <t>2020-03-20 12:15:00</t>
-  </si>
-  <si>
-    <t>2020-03-20 10:18:28</t>
-  </si>
-  <si>
-    <t>2020-03-20 08:52:19</t>
-  </si>
-  <si>
-    <t>2020-03-20 07:51:51</t>
-  </si>
-  <si>
-    <t>2020-03-20 04:03:59</t>
-  </si>
-  <si>
-    <t>2020-03-19 23:46:26</t>
-  </si>
-  <si>
-    <t>2020-03-19 20:26:04</t>
-  </si>
-  <si>
-    <t>2020-03-19 15:16:40</t>
-  </si>
-  <si>
-    <t>2020-03-19 09:23:05</t>
-  </si>
-  <si>
-    <t>2020-03-19 08:34:33</t>
-  </si>
-  <si>
-    <t>2020-03-19 08:13:47</t>
-  </si>
-  <si>
-    <t>2020-03-19 08:01:13</t>
-  </si>
-  <si>
-    <t>2020-03-19 07:45:08</t>
-  </si>
-  <si>
-    <t>2020-03-19 07:17:08</t>
-  </si>
-  <si>
-    <t>2020-03-18 21:21:23</t>
-  </si>
-  <si>
-    <t>2020-03-18 20:10:38</t>
-  </si>
-  <si>
-    <t>2020-03-18 19:37:06</t>
-  </si>
-  <si>
-    <t>2020-03-18 18:58:48</t>
-  </si>
-  <si>
-    <t>2020-03-18 06:55:40</t>
-  </si>
-  <si>
-    <t>2020-03-17 19:16:49</t>
-  </si>
-  <si>
-    <t>2020-03-17 19:02:06</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:50:06</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:45:38</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:42:30</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:36:25</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:35:19</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:34:12</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:22:26</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:19:54</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:18:01</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:06:22</t>
-  </si>
-  <si>
-    <t>2020-03-17 15:42:53</t>
-  </si>
-  <si>
-    <t>2020-03-16 22:30:02</t>
-  </si>
-  <si>
-    <t>2020-03-16 17:14:38</t>
-  </si>
-  <si>
-    <t>2020-03-16 17:00:06</t>
-  </si>
-  <si>
-    <t>2020-03-16 10:34:03</t>
-  </si>
-  <si>
-    <t>2020-03-16 10:25:06</t>
-  </si>
-  <si>
-    <t>2020-03-16 01:40:47</t>
-  </si>
-  <si>
-    <t>2020-03-16 00:24:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAURA YAÑEZ HERNANDEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Josue Aliaga Coaquira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Alonso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorena Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis enrique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorena Tello Robles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Lozada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Maria Gomez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertha González H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Martínez Marquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Elena Larios Segura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tannia Renée </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metato Grish </t>
-  </si>
-  <si>
-    <t>Gabriela Soto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloria Alvarez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Castañeda Salinas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Barcelata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leandro castaño rojas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lore Paty </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caro Aguilar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jani Arri </t>
-  </si>
-  <si>
-    <t xml:space="preserve">miguel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yazareth Isabel Gallegos Huerta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Augusto Aureoles García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto Diaz Huerta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolanda Gonzalez Vargas </t>
-  </si>
-  <si>
-    <t>Hector Paez Garcia</t>
-  </si>
-  <si>
-    <t>Fernanda Gonzalez</t>
-  </si>
-  <si>
-    <t>Dulce González</t>
-  </si>
-  <si>
-    <t>Hugo Idelson</t>
-  </si>
-  <si>
-    <t>Rebeca Ceciliano</t>
-  </si>
-  <si>
-    <t>Omar Blanco</t>
-  </si>
-  <si>
-    <t>German García Salas</t>
-  </si>
-  <si>
-    <t>Maria Luisa Manzo</t>
-  </si>
-  <si>
-    <t>Zoraya Libien Maldonado</t>
-  </si>
-  <si>
-    <t>Aida Fuentes</t>
-  </si>
-  <si>
-    <t>Gianluca De Glli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exie Moscoso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Lei </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elena Carlos Rodriguez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saul Santiago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Juan Solis Granados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Huerta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Cabrera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Rosado </t>
-  </si>
-  <si>
-    <t>lyez621@gmail.com</t>
-  </si>
-  <si>
-    <t>pauljosue1997@gmail.com</t>
-  </si>
-  <si>
-    <t>chrisjaf@hotmail.com</t>
-  </si>
-  <si>
-    <t>lorenagarrido20@gmail.com</t>
-  </si>
-  <si>
-    <t>luiscecua@gmail.com</t>
-  </si>
-  <si>
-    <t>ltello@artexinternacional.com</t>
-  </si>
-  <si>
-    <t>oscar.lozada01@gmail.com</t>
-  </si>
-  <si>
-    <t>test@newweb.com</t>
-  </si>
-  <si>
-    <t>ppgomezm@hotmail.com</t>
-  </si>
-  <si>
-    <t>bertharlenagh@hotmail.com</t>
-  </si>
-  <si>
-    <t>gabrielamtzmarquez@gmail.com</t>
-  </si>
-  <si>
-    <t>melarios1@hotmail.com</t>
-  </si>
-  <si>
-    <t>tann1a@live.com.mx</t>
-  </si>
-  <si>
-    <t>Metato_grish@hotmail.com</t>
-  </si>
-  <si>
-    <t>sotoavilag@gmail.com</t>
-  </si>
-  <si>
-    <t>galvarezmtz@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>graphic.gcs@gmail.com</t>
-  </si>
-  <si>
-    <t>rodrobe@gmail.com</t>
-  </si>
-  <si>
-    <t>leandrokastano@gmail.com</t>
-  </si>
-  <si>
-    <t>Lorepaty13@gmail.com</t>
-  </si>
-  <si>
-    <t>Carolina.aguilar15@gmail.com</t>
-  </si>
-  <si>
-    <t>janiarriaga@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mg-5@hotmail.com</t>
-  </si>
-  <si>
-    <t>yazzgallegos@gmail.com</t>
-  </si>
-  <si>
-    <t>caureole@bancomext.gob.mx</t>
-  </si>
-  <si>
-    <t>adh_sol@hotmail.com</t>
-  </si>
-  <si>
-    <t>jolie_yoli@yahoo.com</t>
-  </si>
-  <si>
-    <t>hpaezgarcia@gmail.com</t>
-  </si>
-  <si>
-    <t>ma_fernanda_g@hotmail.com</t>
-  </si>
-  <si>
-    <t>dulcegonzalez.inv@gmail.com</t>
-  </si>
-  <si>
-    <t>hridelson@hotmail.com</t>
-  </si>
-  <si>
-    <t>rebecaceciliano@msn.com</t>
-  </si>
-  <si>
-    <t>omar.digital@hotmail.com</t>
-  </si>
-  <si>
-    <t>gg.salas@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>lmmanzop@gmail.com</t>
-  </si>
-  <si>
-    <t>zorayalibien@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>aidafuentesg@yahoo.com</t>
-  </si>
-  <si>
-    <t>gianly1722@gmail.com</t>
-  </si>
-  <si>
-    <t>exiemoscoso49@gmail.com</t>
-  </si>
-  <si>
-    <t>chefeduardo2@gmail.com</t>
-  </si>
-  <si>
-    <t>carlosrodriguezelena127@gmail.com</t>
-  </si>
-  <si>
-    <t>saulglezc@hotmail.com</t>
-  </si>
-  <si>
-    <t>jj.solis.ing@gmail.com</t>
-  </si>
-  <si>
-    <t>martin.huerta.rmz@gmail.com</t>
-  </si>
-  <si>
-    <t>Luis.cabee@gmail.com</t>
-  </si>
-  <si>
-    <t>martinrosado79@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>El telefono no existe se evía infoermación general por mail</t>
-  </si>
-  <si>
-    <t>Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto $4,700.000</t>
-  </si>
-  <si>
-    <t>Buscaba Renta pero que le mande infornación del depto mas barato via whats</t>
-  </si>
-  <si>
-    <t>Se le envía información general por mail. no contesta llamadas</t>
-  </si>
-  <si>
-    <t>Se le envió mail de presentación y cotizaciones del departamento 205B y 403C.</t>
-  </si>
-  <si>
-    <t>No dejo telefono se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Entra buzón le envío información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta le envío información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta le envie información general por mail.</t>
-  </si>
-  <si>
-    <t>Se le envió información de 2 y 3 recamaras a su correo.</t>
-  </si>
-  <si>
-    <t>Se le dio información departamentos PH08C, 03B, 05A, GH02B, 03B y 306B.</t>
-  </si>
-  <si>
-    <t>Se le envia información departamentos de 2 recamaras.</t>
-  </si>
-  <si>
-    <t>Solicitó información General GH01C Le gusto el departamento muestra necesita vender su departamento</t>
-  </si>
-  <si>
-    <t>GH01B GH03B PH01C En cuanto venda su departamento me contacta para venir nuevamente</t>
-  </si>
-  <si>
-    <t>307A GH01B 202A Es mamá de Daniela Alvarez</t>
-  </si>
-  <si>
-    <t>Informes del 309A 506A 510A llegó en moto</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto</t>
-  </si>
-  <si>
-    <t>Quiere de 3 recámaras viene a otra cita el miércoles 18 de marzo a la 1:30 PM</t>
-  </si>
-  <si>
-    <t>Solicita información departamentos de 2 recamaras.</t>
-  </si>
-  <si>
-    <t>Solicito informes generales y no pudo esperar a que la atendiera.</t>
-  </si>
-  <si>
-    <t>Visito showroom.
-Solicita información del proyecto, es Italiano.</t>
-  </si>
-  <si>
-    <t>Se le envió mal de presentación con cotizaciones de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>No contesta se le envia información por mail</t>
-  </si>
-  <si>
-    <t>El teléfono no existe se le envía información por mail</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>Se le envía información General por mail</t>
-  </si>
-  <si>
-    <t>Se le envía información de 2 y 3 recámaras</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información por mail</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información por maIL</t>
-  </si>
-  <si>
-    <t>16 - 22 de Marzo del 2020</t>
+    <t>2020-03-29 14:25:11</t>
+  </si>
+  <si>
+    <t>2020-03-29 10:41:34</t>
+  </si>
+  <si>
+    <t>2020-03-29 10:05:22</t>
+  </si>
+  <si>
+    <t>2020-03-29 09:52:34</t>
+  </si>
+  <si>
+    <t>2020-03-29 09:25:49</t>
+  </si>
+  <si>
+    <t>2020-03-29 02:40:53</t>
+  </si>
+  <si>
+    <t>2020-03-28 19:25:35</t>
+  </si>
+  <si>
+    <t>2020-03-28 16:41:52</t>
+  </si>
+  <si>
+    <t>2020-03-28 09:55:17</t>
+  </si>
+  <si>
+    <t>2020-03-28 00:52:25</t>
+  </si>
+  <si>
+    <t>2020-03-27 20:21:53</t>
+  </si>
+  <si>
+    <t>2020-03-27 17:08:00</t>
+  </si>
+  <si>
+    <t>2020-03-27 16:43:45</t>
+  </si>
+  <si>
+    <t>2020-03-27 11:49:48</t>
+  </si>
+  <si>
+    <t>2020-03-27 07:21:41</t>
+  </si>
+  <si>
+    <t>2020-03-27 05:10:15</t>
+  </si>
+  <si>
+    <t>2020-03-26 22:08:06</t>
+  </si>
+  <si>
+    <t>2020-03-26 19:29:20</t>
+  </si>
+  <si>
+    <t>2020-03-26 19:03:42</t>
+  </si>
+  <si>
+    <t>2020-03-26 18:11:52</t>
+  </si>
+  <si>
+    <t>2020-03-26 18:04:15</t>
+  </si>
+  <si>
+    <t>2020-03-26 17:43:08</t>
+  </si>
+  <si>
+    <t>2020-03-26 17:43:05</t>
+  </si>
+  <si>
+    <t>2020-03-26 15:41:11</t>
+  </si>
+  <si>
+    <t>2020-03-26 09:58:38</t>
+  </si>
+  <si>
+    <t>2020-03-26 00:50:46</t>
+  </si>
+  <si>
+    <t>2020-03-25 18:47:30</t>
+  </si>
+  <si>
+    <t>2020-03-25 18:20:02</t>
+  </si>
+  <si>
+    <t>2020-03-25 12:24:26</t>
+  </si>
+  <si>
+    <t>2020-03-25 11:52:51</t>
+  </si>
+  <si>
+    <t>2020-03-25 10:30:03</t>
+  </si>
+  <si>
+    <t>2020-03-25 10:01:39</t>
+  </si>
+  <si>
+    <t>2020-03-25 09:22:11</t>
+  </si>
+  <si>
+    <t>2020-03-25 07:31:09</t>
+  </si>
+  <si>
+    <t>2020-03-24 22:11:06</t>
+  </si>
+  <si>
+    <t>2020-03-24 10:33:03</t>
+  </si>
+  <si>
+    <t>2020-03-24 08:22:45</t>
+  </si>
+  <si>
+    <t>2020-03-23 23:28:43</t>
+  </si>
+  <si>
+    <t>2020-03-23 19:46:51</t>
+  </si>
+  <si>
+    <t>2020-03-23 11:52:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny HeRod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agustin Gallegos Huicochea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aleandra menzi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Edith Buenrostro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique Fonseca López </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Resa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahomi Aramburo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arantxa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lourdes Ramieez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melysa sanders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susana Vargas Velazquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Irene CAMACHO LOPEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastián David Badillo Campos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayra Andrea Ortiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katia Castelo Múzquiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carla Otero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso Solís </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Muñoz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvia Miranda </t>
+  </si>
+  <si>
+    <t>Raul Sosa</t>
+  </si>
+  <si>
+    <t>Adriana Lomeli Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo Estefan Salazar Martinez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Orozco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecilia Romero Martinez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Luisa Haces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika </t>
+  </si>
+  <si>
+    <t>Hortensia Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernesto Pulido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dennis Dominic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascual Sanchez torres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricio Ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth Castillo Reyes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Eduardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandrina Sepulveda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelica Isabel Adame Benitez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARINA CHACON BADILLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucero Peralta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose  luis  Medrano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nataly </t>
+  </si>
+  <si>
+    <t>madi_hr@hotmail.com</t>
+  </si>
+  <si>
+    <t>agustin.gallegosh@gmail.com</t>
+  </si>
+  <si>
+    <t>aleandramenzi@hotmail.com</t>
+  </si>
+  <si>
+    <t>claudiaedith_1984@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>enrique.fonseca@gmail.com</t>
+  </si>
+  <si>
+    <t>rodresa@gmail.com</t>
+  </si>
+  <si>
+    <t>aramburonahomi965@gmail.com</t>
+  </si>
+  <si>
+    <t>arantxacantero@hotmail.com</t>
+  </si>
+  <si>
+    <t>adriana_r4@hotmail.com</t>
+  </si>
+  <si>
+    <t>melysamarquezz@hotmail.com</t>
+  </si>
+  <si>
+    <t>susosita@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>lisjav27@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>camposbadillo777@gmail.com</t>
+  </si>
+  <si>
+    <t>mayra_aortiz@hotmail.com</t>
+  </si>
+  <si>
+    <t>kcmuzquiz@gmail.com</t>
+  </si>
+  <si>
+    <t>zul250301@hotmail.com</t>
+  </si>
+  <si>
+    <t>solis.alfonso@gmail.com</t>
+  </si>
+  <si>
+    <t>hectorm@pasiondelcielo.com.mx</t>
+  </si>
+  <si>
+    <t>silviamiranda70@gmail.com</t>
+  </si>
+  <si>
+    <t>raul_sosa69@hotmail.com</t>
+  </si>
+  <si>
+    <t>adhi_3112@hotmail.com</t>
+  </si>
+  <si>
+    <t>menomartinez506@gmail.com</t>
+  </si>
+  <si>
+    <t>jorgeorozco33@hotmail.com</t>
+  </si>
+  <si>
+    <t>cecilia2017@hotmail.com</t>
+  </si>
+  <si>
+    <t>marialuisabcn@yahoo.com</t>
+  </si>
+  <si>
+    <t>erikamercado16@gmail.com</t>
+  </si>
+  <si>
+    <t>hflores@acfi.com</t>
+  </si>
+  <si>
+    <t>ernestoassad17@gmail.com</t>
+  </si>
+  <si>
+    <t>yeudielmex@hotmail.com</t>
+  </si>
+  <si>
+    <t>pst551012@icloud.com</t>
+  </si>
+  <si>
+    <t>maugarces2@hotmail.com</t>
+  </si>
+  <si>
+    <t>eliizabeth_castiillo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Lic.edgargonzalezr@gmail.com</t>
+  </si>
+  <si>
+    <t>sepulvedaalejandrina@gmail.com</t>
+  </si>
+  <si>
+    <t>luzenelarte@hotmail.com</t>
+  </si>
+  <si>
+    <t>karina.chaconba@gmail.com</t>
+  </si>
+  <si>
+    <t>luali_pico1@hotmail.com</t>
+  </si>
+  <si>
+    <t>joseluismedranorojas2@gmail.com</t>
+  </si>
+  <si>
+    <t>adrmarti@yahoo.com</t>
+  </si>
+  <si>
+    <t>nicole.vargas1198@gmail.com</t>
+  </si>
+  <si>
+    <t>Entra Buzón de voz, se le envía información por mail</t>
+  </si>
+  <si>
+    <t>Se le envmía información de 2 y 3 recamaras por mail</t>
+  </si>
+  <si>
+    <t>No contesta se le envíia información general por mail</t>
+  </si>
+  <si>
+    <t>Busca departamento en renta amueblado.</t>
+  </si>
+  <si>
+    <t>Entra buzon se ele envía ionfoermación general por mail</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. mail de presentación. Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra buzón  Se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta, entraa buzón. se le envió mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Teléfono equivocado, se le envió mail de presentación.</t>
+  </si>
+  <si>
+    <t>NO contesta, entra buzón. se le envió mail informativo.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca departamentos de 2 y 3 recamaras. Se le envia cotización 205B y 403C.</t>
+  </si>
+  <si>
+    <t>Busca de entrega inmedita le urege cambiarse este mes.</t>
+  </si>
+  <si>
+    <t>Busca de 3 recamaras, se le envió el 403C.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera, se le envio mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Me dice que esta ocupada haciendo home oficce Solicitó de 2 y 3 recamaras, no sabe que presupuesto. se le envió el 205B y 403C</t>
+  </si>
+  <si>
+    <t>No dejo teléfono, se le envió mail de presentación y 205B y 403C.
+Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t>Se le envía información general por mail y por whatas</t>
+  </si>
+  <si>
+    <t>Entra buzón se envía información por mail y por whatas</t>
+  </si>
+  <si>
+    <t>Se le envía información de 3 recamaras por mail y por whats</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información de 2 y 3 recamaras por mail y por whats</t>
+  </si>
+  <si>
+    <t>Solicitó información de 2 y 3 recámaras solo por correo</t>
+  </si>
+  <si>
+    <t>No contesta se le contacta vía whats App espero respuesta</t>
+  </si>
+  <si>
+    <t>Se le envía información por whats y por mail.</t>
+  </si>
+  <si>
+    <t>Solicita información de 3 recamaras se le envía por whatas</t>
+  </si>
+  <si>
+    <t>El número no contesta se le envía información por mail y por whats</t>
+  </si>
+  <si>
+    <t>Busca de 2 y 3 recamaras, no me dió presupuesto. se le envió el 205B y 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca de 2 o 3 recamaras, se le envió el 205B y 403C. no sabe el presupuesto.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca entrega inmediata</t>
+  </si>
+  <si>
+    <t>Busca depa de mas de 120 m2. y tiene hasta $7M.
+202A y 203C
+Seguimiento</t>
+  </si>
+  <si>
+    <t>No dejo teléfono, se le envió mail de presentación.
+Seguimiento por correo</t>
+  </si>
+  <si>
+    <t>23 - 29 de Marzo del 2020</t>
   </si>
 </sst>
 </file>
@@ -646,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -698,12 +658,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
       <family val="2"/>
@@ -793,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,7 +844,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -967,14 +920,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>12758</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1314,7 +1267,7 @@
   <dimension ref="A4:L252"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1279,7 @@
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="2" customWidth="1"/>
     <col min="9" max="9" width="132.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
@@ -1370,7 +1323,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1405,7 +1358,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="34">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>21</v>
@@ -1424,7 +1377,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1437,7 +1390,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="34">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1450,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1470,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
@@ -1487,13 +1440,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="34">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1506,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1582,260 +1535,260 @@
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>69</v>
+      <c r="C34" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="41">
-        <v>7225719699</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>192</v>
+      <c r="E34" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="40">
+        <v>5574610168</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>61</v>
+      <c r="B35" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="41">
-        <v>5580218018</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>184</v>
+      <c r="E35" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="40">
+        <v>5617392607</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>62</v>
+      <c r="B36" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="41">
-        <v>5548772701</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>185</v>
+      <c r="E36" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="40">
+        <v>5522713760</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="41" t="s">
-        <v>40</v>
+      <c r="C37" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="41">
-        <v>4422474006</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>172</v>
+        <v>2</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="40">
+        <v>5512901189</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>42</v>
+      <c r="C38" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="41">
-        <v>4493627557</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="41" t="s">
-        <v>172</v>
+        <v>2</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="40">
+        <v>7221817760</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>47</v>
+      <c r="B39" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="41">
-        <v>5541880118</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="I39" s="41" t="s">
-        <v>176</v>
+      <c r="F39" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="40">
+        <v>5554041489</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>51</v>
+      <c r="B40" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="41">
-        <v>5512882609</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>176</v>
+      <c r="F40" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="40">
+        <v>522287540700</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>52</v>
+      <c r="B41" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="41">
-        <v>5579601202</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>176</v>
+      <c r="F41" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="40">
+        <v>5519484659</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>58</v>
+      <c r="B42" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="41" t="s">
+      <c r="F42" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="41">
-        <v>5516502701</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I42" s="41" t="s">
+      <c r="G42" s="40">
+        <v>5584007362</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="40" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1843,145 +1796,131 @@
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>70</v>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="41">
-        <v>5541422250</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="I43" s="41" t="s">
-        <v>193</v>
-      </c>
+      <c r="F43" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="40">
+        <v>5529195469</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="40"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>38</v>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="41">
-        <v>8115361106</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>170</v>
-      </c>
+      <c r="F44" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="40">
+        <v>5550501983</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="40"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>75</v>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="41">
-        <v>9332625221</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>198</v>
-      </c>
+      <c r="F45" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="40">
+        <v>5513749735</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="40"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>44</v>
+      <c r="C46" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="41">
-        <v>9831541046</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>172</v>
+      <c r="F46" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>48</v>
+      <c r="C47" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="41">
-        <v>7225295093</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" s="41" t="s">
-        <v>176</v>
+      <c r="F47" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="40">
+        <v>5525610262</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>179</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -1989,1048 +1928,909 @@
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="41" t="s">
-        <v>49</v>
+      <c r="C48" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="41">
-        <v>5525040941</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>176</v>
+      <c r="F48" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="40">
+        <v>5532224627</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="41" t="s">
-        <v>50</v>
+      <c r="C49" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="41">
-        <v>525543543073</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="I49" s="41" t="s">
-        <v>176</v>
+      <c r="F49" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="41" t="s">
-        <v>33</v>
+      <c r="C50" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="41">
-        <v>944764036</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>170</v>
+      <c r="F50" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="40">
+        <v>5578029997</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="41" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="41">
-        <v>5536557908</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>170</v>
-      </c>
+      <c r="F51" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="40">
+        <v>5551432951</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" s="40"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>35</v>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" s="41">
-        <v>5536638830</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>170</v>
-      </c>
+      <c r="F52" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="40">
+        <v>5528569180</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" s="40"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>36</v>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="41">
-        <v>5521874503</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>170</v>
-      </c>
+      <c r="F53" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="40"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>37</v>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="41">
-        <v>5555068891</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I54" s="41" t="s">
-        <v>170</v>
-      </c>
+      <c r="F54" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="40">
+        <v>5514731412</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="40"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>57</v>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="41">
-        <v>5518632918</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>181</v>
-      </c>
+      <c r="F55" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="40">
+        <v>5551366154</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" s="40"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>74</v>
+      <c r="C56" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="41">
-        <v>6441400261</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>197</v>
+      <c r="E56" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="40">
+        <v>5537971244</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>46</v>
+      <c r="C57" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G57" s="41">
-        <v>5523488342</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>172</v>
+        <v>5</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="40">
+        <v>5591963897</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="41" t="s">
-        <v>59</v>
+      <c r="C58" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="41">
-        <v>5576675638</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="I58" s="41" t="s">
-        <v>182</v>
+        <v>5</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="40">
+        <v>5537178857</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="41" t="s">
-        <v>68</v>
+      <c r="C59" s="40" t="s">
+        <v>48</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="41">
-        <v>5559693256</v>
-      </c>
-      <c r="H59" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="40">
+        <v>5555033317</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="40" t="s">
         <v>160</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>60</v>
+      <c r="B60" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G60" s="41">
-        <v>5523791061</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="I60" s="41" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="40">
+        <v>5514087177</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>63</v>
+      <c r="B61" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61" s="41">
-        <v>5522995417</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="I61" s="41" t="s">
-        <v>186</v>
+        <v>5</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="40">
+        <v>4492251391</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>64</v>
+      <c r="B62" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="41">
-        <v>5573922574</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="I62" s="41" t="s">
-        <v>187</v>
+        <v>5</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" s="40">
+        <v>3323380871</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>66</v>
+      <c r="B63" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G63" s="41">
-        <v>5554555236</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="I63" s="41" t="s">
-        <v>189</v>
+        <v>5</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="40">
+        <v>5527069080</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="41" t="s">
-        <v>67</v>
+      <c r="C64" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" s="41">
-        <v>7222394143</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="I64" s="41" t="s">
-        <v>190</v>
+        <v>5</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="40">
+        <v>5559651496</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="41" t="s">
-        <v>41</v>
+      <c r="C65" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" s="41">
-        <v>5554099889</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>173</v>
+      <c r="F65" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="40">
+        <v>6522133316</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>33</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="41" t="s">
-        <v>43</v>
+      <c r="C66" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="41" t="s">
+      <c r="E66" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="41">
-        <v>3531382453</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="I66" s="41" t="s">
-        <v>174</v>
+      <c r="F66" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" s="40">
+        <v>5519050547</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>34</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="41" t="s">
-        <v>45</v>
+      <c r="C67" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" s="41">
-        <v>5540585062</v>
-      </c>
-      <c r="H67" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" s="41" t="s">
-        <v>175</v>
+      <c r="F67" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="40">
+        <v>5554013972</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35</v>
       </c>
-      <c r="B68" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>54</v>
+      <c r="B68" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="41">
-        <v>5552165014</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>178</v>
+      <c r="E68" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="40">
+        <v>55985367</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>36</v>
       </c>
-      <c r="B69" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>71</v>
+      <c r="B69" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="G69" s="41">
-        <v>5554316999</v>
-      </c>
-      <c r="H69" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="I69" s="41" t="s">
-        <v>194</v>
+      <c r="E69" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="40">
+        <v>5532251147</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="41" t="s">
-        <v>72</v>
+      <c r="C70" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G70" s="41">
-        <v>526122145322</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="I70" s="41" t="s">
-        <v>195</v>
+      <c r="E70" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" s="40">
+        <v>5514519892</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>38</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="41" t="s">
-        <v>73</v>
+      <c r="C71" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="41">
-        <v>5519346976</v>
-      </c>
-      <c r="H71" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="I71" s="41" t="s">
-        <v>196</v>
+      <c r="E71" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="40">
+        <v>5591392582</v>
+      </c>
+      <c r="H71" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I71" s="40" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>39</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="41" t="s">
-        <v>76</v>
+      <c r="C72" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G72" s="41">
-        <v>3317732766</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="I72" s="41" t="s">
-        <v>199</v>
+      <c r="E72" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="40">
+        <v>5512883590</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72" s="40" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="41" t="s">
-        <v>77</v>
+      <c r="C73" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="G73" s="41">
-        <v>9511565972</v>
-      </c>
-      <c r="H73" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="I73" s="41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>41</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="39" t="s">
+      <c r="E73" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" s="40">
+        <v>5512573486</v>
+      </c>
+      <c r="H73" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="38"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" s="41">
-        <v>4422199285</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="I74" s="41"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>42</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" s="41">
-        <v>5555555555</v>
-      </c>
-      <c r="H75" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="I75" s="41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>43</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="I76" s="41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>44</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" s="41">
-        <v>5519529785</v>
-      </c>
-      <c r="H77" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="I77" s="41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>45</v>
-      </c>
-      <c r="B78" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" s="41">
-        <v>5512954877</v>
-      </c>
-      <c r="H78" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="I78" s="41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>46</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="G79" s="41">
-        <v>5510695988</v>
-      </c>
-      <c r="H79" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="I79" s="41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-    </row>
-    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
+      <c r="C81" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:12" ht="16" x14ac:dyDescent="0.25">
-      <c r="B82" s="38"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="12"/>
-    </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="12"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="12"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="12"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="12"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="I86" s="6"/>
       <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="12"/>
+      <c r="B87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="12"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="6"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
       <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3090,9 +2890,7 @@
       <c r="L94" s="6"/>
     </row>
     <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -3116,14 +2914,13 @@
       <c r="L96" s="6"/>
     </row>
     <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="3"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -4857,97 +4654,41 @@
       <c r="L241" s="6"/>
     </row>
     <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="6"/>
-      <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
     </row>
     <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="6"/>
-      <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
     <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="6"/>
-      <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
     <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="6"/>
-      <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
     <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="6"/>
-      <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
     <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="6"/>
-      <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
     <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="6"/>
-      <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
     </row>
     <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="6"/>
-      <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
@@ -4968,7 +4709,7 @@
       <c r="L252" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A79">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A73">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A8C52-1E25-CD4A-B824-E6E29D6E07D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEEEAC9-1892-E44B-BE75-5FB03FB67D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28260" yWindow="460" windowWidth="33200" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
   <si>
     <t>A</t>
   </si>
@@ -128,475 +128,425 @@
     <t>Google</t>
   </si>
   <si>
-    <t>2020-03-29 14:25:11</t>
-  </si>
-  <si>
-    <t>2020-03-29 10:41:34</t>
-  </si>
-  <si>
-    <t>2020-03-29 10:05:22</t>
-  </si>
-  <si>
-    <t>2020-03-29 09:52:34</t>
-  </si>
-  <si>
-    <t>2020-03-29 09:25:49</t>
-  </si>
-  <si>
-    <t>2020-03-29 02:40:53</t>
-  </si>
-  <si>
-    <t>2020-03-28 19:25:35</t>
-  </si>
-  <si>
-    <t>2020-03-28 16:41:52</t>
-  </si>
-  <si>
-    <t>2020-03-28 09:55:17</t>
-  </si>
-  <si>
-    <t>2020-03-28 00:52:25</t>
-  </si>
-  <si>
-    <t>2020-03-27 20:21:53</t>
-  </si>
-  <si>
-    <t>2020-03-27 17:08:00</t>
-  </si>
-  <si>
-    <t>2020-03-27 16:43:45</t>
-  </si>
-  <si>
-    <t>2020-03-27 11:49:48</t>
-  </si>
-  <si>
-    <t>2020-03-27 07:21:41</t>
-  </si>
-  <si>
-    <t>2020-03-27 05:10:15</t>
-  </si>
-  <si>
-    <t>2020-03-26 22:08:06</t>
-  </si>
-  <si>
-    <t>2020-03-26 19:29:20</t>
-  </si>
-  <si>
-    <t>2020-03-26 19:03:42</t>
-  </si>
-  <si>
-    <t>2020-03-26 18:11:52</t>
-  </si>
-  <si>
-    <t>2020-03-26 18:04:15</t>
-  </si>
-  <si>
-    <t>2020-03-26 17:43:08</t>
-  </si>
-  <si>
-    <t>2020-03-26 17:43:05</t>
-  </si>
-  <si>
-    <t>2020-03-26 15:41:11</t>
-  </si>
-  <si>
-    <t>2020-03-26 09:58:38</t>
-  </si>
-  <si>
-    <t>2020-03-26 00:50:46</t>
-  </si>
-  <si>
-    <t>2020-03-25 18:47:30</t>
-  </si>
-  <si>
-    <t>2020-03-25 18:20:02</t>
-  </si>
-  <si>
-    <t>2020-03-25 12:24:26</t>
-  </si>
-  <si>
-    <t>2020-03-25 11:52:51</t>
-  </si>
-  <si>
-    <t>2020-03-25 10:30:03</t>
-  </si>
-  <si>
-    <t>2020-03-25 10:01:39</t>
-  </si>
-  <si>
-    <t>2020-03-25 09:22:11</t>
-  </si>
-  <si>
-    <t>2020-03-25 07:31:09</t>
-  </si>
-  <si>
-    <t>2020-03-24 22:11:06</t>
-  </si>
-  <si>
-    <t>2020-03-24 10:33:03</t>
-  </si>
-  <si>
-    <t>2020-03-24 08:22:45</t>
-  </si>
-  <si>
-    <t>2020-03-23 23:28:43</t>
-  </si>
-  <si>
-    <t>2020-03-23 19:46:51</t>
-  </si>
-  <si>
-    <t>2020-03-23 11:52:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenny HeRod </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustin Gallegos Huicochea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aleandra menzi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Edith Buenrostro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique Fonseca López </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Resa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahomi Aramburo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arantxa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lourdes Ramieez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melysa sanders </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susana Vargas Velazquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Irene CAMACHO LOPEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián David Badillo Campos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayra Andrea Ortiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katia Castelo Múzquiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carla Otero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfonso Solís </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector Muñoz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvia Miranda </t>
-  </si>
-  <si>
-    <t>Raul Sosa</t>
-  </si>
-  <si>
-    <t>Adriana Lomeli Hernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo Estefan Salazar Martinez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Orozco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cecilia Romero Martinez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Luisa Haces </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erika </t>
-  </si>
-  <si>
-    <t>Hortensia Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernesto Pulido </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dennis Dominic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pascual Sanchez torres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth Castillo Reyes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edgar Eduardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandrina Sepulveda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelica Isabel Adame Benitez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARINA CHACON BADILLO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucero Peralta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose  luis  Medrano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nataly </t>
-  </si>
-  <si>
-    <t>madi_hr@hotmail.com</t>
-  </si>
-  <si>
-    <t>agustin.gallegosh@gmail.com</t>
-  </si>
-  <si>
-    <t>aleandramenzi@hotmail.com</t>
-  </si>
-  <si>
-    <t>claudiaedith_1984@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>enrique.fonseca@gmail.com</t>
-  </si>
-  <si>
-    <t>rodresa@gmail.com</t>
-  </si>
-  <si>
-    <t>aramburonahomi965@gmail.com</t>
-  </si>
-  <si>
-    <t>arantxacantero@hotmail.com</t>
-  </si>
-  <si>
-    <t>adriana_r4@hotmail.com</t>
-  </si>
-  <si>
-    <t>melysamarquezz@hotmail.com</t>
-  </si>
-  <si>
-    <t>susosita@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>lisjav27@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>camposbadillo777@gmail.com</t>
-  </si>
-  <si>
-    <t>mayra_aortiz@hotmail.com</t>
-  </si>
-  <si>
-    <t>kcmuzquiz@gmail.com</t>
-  </si>
-  <si>
-    <t>zul250301@hotmail.com</t>
-  </si>
-  <si>
-    <t>solis.alfonso@gmail.com</t>
-  </si>
-  <si>
-    <t>hectorm@pasiondelcielo.com.mx</t>
-  </si>
-  <si>
-    <t>silviamiranda70@gmail.com</t>
-  </si>
-  <si>
-    <t>raul_sosa69@hotmail.com</t>
-  </si>
-  <si>
-    <t>adhi_3112@hotmail.com</t>
-  </si>
-  <si>
-    <t>menomartinez506@gmail.com</t>
-  </si>
-  <si>
-    <t>jorgeorozco33@hotmail.com</t>
-  </si>
-  <si>
-    <t>cecilia2017@hotmail.com</t>
-  </si>
-  <si>
-    <t>marialuisabcn@yahoo.com</t>
-  </si>
-  <si>
-    <t>erikamercado16@gmail.com</t>
-  </si>
-  <si>
-    <t>hflores@acfi.com</t>
-  </si>
-  <si>
-    <t>ernestoassad17@gmail.com</t>
-  </si>
-  <si>
-    <t>yeudielmex@hotmail.com</t>
-  </si>
-  <si>
-    <t>pst551012@icloud.com</t>
-  </si>
-  <si>
-    <t>maugarces2@hotmail.com</t>
-  </si>
-  <si>
-    <t>eliizabeth_castiillo@hotmail.com</t>
-  </si>
-  <si>
-    <t>Lic.edgargonzalezr@gmail.com</t>
-  </si>
-  <si>
-    <t>sepulvedaalejandrina@gmail.com</t>
-  </si>
-  <si>
-    <t>luzenelarte@hotmail.com</t>
-  </si>
-  <si>
-    <t>karina.chaconba@gmail.com</t>
-  </si>
-  <si>
-    <t>luali_pico1@hotmail.com</t>
-  </si>
-  <si>
-    <t>joseluismedranorojas2@gmail.com</t>
-  </si>
-  <si>
-    <t>adrmarti@yahoo.com</t>
-  </si>
-  <si>
-    <t>nicole.vargas1198@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra Buzón de voz, se le envía información por mail</t>
-  </si>
-  <si>
-    <t>Se le envmía información de 2 y 3 recamaras por mail</t>
-  </si>
-  <si>
-    <t>No contesta se le envíia información general por mail</t>
-  </si>
-  <si>
-    <t>Busca departamento en renta amueblado.</t>
-  </si>
-  <si>
-    <t>Entra buzon se ele envía ionfoermación general por mail</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. mail de presentación. Seguimiento</t>
-  </si>
-  <si>
-    <t>Entra buzón  Se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. mail de presentación.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>No contesta, entraa buzón. se le envió mail de presentación.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Teléfono equivocado, se le envió mail de presentación.</t>
-  </si>
-  <si>
-    <t>NO contesta, entra buzón. se le envió mail informativo.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Busca departamentos de 2 y 3 recamaras. Se le envia cotización 205B y 403C.</t>
-  </si>
-  <si>
-    <t>Busca de entrega inmedita le urege cambiarse este mes.</t>
-  </si>
-  <si>
-    <t>Busca de 3 recamaras, se le envió el 403C.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón, se le envió mail de presentación.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envio mail de presentación.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Me dice que esta ocupada haciendo home oficce Solicitó de 2 y 3 recamaras, no sabe que presupuesto. se le envió el 205B y 403C</t>
-  </si>
-  <si>
-    <t>No dejo teléfono, se le envió mail de presentación y 205B y 403C.
-Seguimiento por mail.</t>
-  </si>
-  <si>
-    <t>Se le envía información general por mail y por whatas</t>
-  </si>
-  <si>
-    <t>Entra buzón se envía información por mail y por whatas</t>
-  </si>
-  <si>
-    <t>Se le envía información de 3 recamaras por mail y por whats</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información de 2 y 3 recamaras por mail y por whats</t>
-  </si>
-  <si>
-    <t>Solicitó información de 2 y 3 recámaras solo por correo</t>
-  </si>
-  <si>
-    <t>No contesta se le contacta vía whats App espero respuesta</t>
-  </si>
-  <si>
-    <t>Se le envía información por whats y por mail.</t>
-  </si>
-  <si>
-    <t>Solicita información de 3 recamaras se le envía por whatas</t>
-  </si>
-  <si>
-    <t>El número no contesta se le envía información por mail y por whats</t>
-  </si>
-  <si>
-    <t>Busca de 2 y 3 recamaras, no me dió presupuesto. se le envió el 205B y 403C.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Busca de 2 o 3 recamaras, se le envió el 205B y 403C. no sabe el presupuesto.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Busca entrega inmediata</t>
-  </si>
-  <si>
-    <t>Busca depa de mas de 120 m2. y tiene hasta $7M.
-202A y 203C
-Seguimiento</t>
-  </si>
-  <si>
-    <t>No dejo teléfono, se le envió mail de presentación.
-Seguimiento por correo</t>
-  </si>
-  <si>
-    <t>23 - 29 de Marzo del 2020</t>
+    <t>Belora Abadi Husny</t>
+  </si>
+  <si>
+    <t>2020-04-05 17:01:46</t>
+  </si>
+  <si>
+    <t>2020-04-05 12:08:02</t>
+  </si>
+  <si>
+    <t>2020-04-05 07:11:59</t>
+  </si>
+  <si>
+    <t>2020-04-05 00:36:14</t>
+  </si>
+  <si>
+    <t>2020-04-05 00:05:27</t>
+  </si>
+  <si>
+    <t>2020-04-04 23:26:18</t>
+  </si>
+  <si>
+    <t>2020-04-04 23:22:27</t>
+  </si>
+  <si>
+    <t>2020-04-04 23:09:00</t>
+  </si>
+  <si>
+    <t>2020-04-04 23:07:49</t>
+  </si>
+  <si>
+    <t>2020-04-04 20:55:21</t>
+  </si>
+  <si>
+    <t>2020-04-04 20:50:56</t>
+  </si>
+  <si>
+    <t>2020-04-03 17:02:38</t>
+  </si>
+  <si>
+    <t>2020-04-03 12:07:35</t>
+  </si>
+  <si>
+    <t>2020-04-02 01:16:13</t>
+  </si>
+  <si>
+    <t>2020-04-01 12:38:36</t>
+  </si>
+  <si>
+    <t>2020-03-31 20:46:58</t>
+  </si>
+  <si>
+    <t>2020-03-31 13:03:13</t>
+  </si>
+  <si>
+    <t>2020-03-31 08:34:10</t>
+  </si>
+  <si>
+    <t>2020-03-31 07:17:33</t>
+  </si>
+  <si>
+    <t>2020-03-31 07:03:28</t>
+  </si>
+  <si>
+    <t>2020-03-31 00:28:27</t>
+  </si>
+  <si>
+    <t>2020-03-30 21:59:11</t>
+  </si>
+  <si>
+    <t>2020-03-30 21:04:15</t>
+  </si>
+  <si>
+    <t>2020-03-30 18:58:32</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:59:45</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:57:47</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:54:10</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:20:15</t>
+  </si>
+  <si>
+    <t>2020-03-30 13:16:27</t>
+  </si>
+  <si>
+    <t>2020-03-30 13:16:26</t>
+  </si>
+  <si>
+    <t>2020-03-30 13:13:30</t>
+  </si>
+  <si>
+    <t>2020-03-30 13:13:29</t>
+  </si>
+  <si>
+    <t>2020-03-30 13:13:28</t>
+  </si>
+  <si>
+    <t>2020-03-30 09:37:48</t>
+  </si>
+  <si>
+    <t>2020-03-30 02:24:45</t>
+  </si>
+  <si>
+    <t>Lamudi</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Fenimore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETICIA GARCIA DOMINGUEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria Mora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaby Sanz </t>
+  </si>
+  <si>
+    <t>Valeria Lopez</t>
+  </si>
+  <si>
+    <t>Lorena Garcia De Leon</t>
+  </si>
+  <si>
+    <t>Cinthia Janet Herver</t>
+  </si>
+  <si>
+    <t>Fco Herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indira Felix </t>
+  </si>
+  <si>
+    <t>Juan Sebastián Cornejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSANA LUCERO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armando Medina Negrete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica Cruces Guerra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abi Rg </t>
+  </si>
+  <si>
+    <t>Luz Gonzalez Gutierrez</t>
+  </si>
+  <si>
+    <t>Lilian Arista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doris Rodríguez Jacobo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Martinez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yajaira Mejia </t>
+  </si>
+  <si>
+    <t>Ana Paula Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hernan Stia </t>
+  </si>
+  <si>
+    <t>Jesus Salvador Abundiz</t>
+  </si>
+  <si>
+    <t>Annie Mora</t>
+  </si>
+  <si>
+    <t>Graciela Rodriguez</t>
+  </si>
+  <si>
+    <t>Lourdes Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolanda Nieves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abril Rayon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamela Labastida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefano Candia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yair Robledo García </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAOLA CHAVEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Gonzales </t>
+  </si>
+  <si>
+    <t>03512672833</t>
+  </si>
+  <si>
+    <t>cancunkingriccardo@verizon.net</t>
+  </si>
+  <si>
+    <t>legardom@hotmail.com</t>
+  </si>
+  <si>
+    <t>andrea_lemery@yahio.com</t>
+  </si>
+  <si>
+    <t>valmora24@hotmail.com</t>
+  </si>
+  <si>
+    <t>gabysanzluna@hotmail.com</t>
+  </si>
+  <si>
+    <t>vla86@hotmail.com</t>
+  </si>
+  <si>
+    <t>lorena_garciadeleon@hotmaill.com</t>
+  </si>
+  <si>
+    <t>hervercinthia@gmail.com</t>
+  </si>
+  <si>
+    <t>V@d.com</t>
+  </si>
+  <si>
+    <t>masmenita_d@hotmail.com</t>
+  </si>
+  <si>
+    <t>matadorcornejo@me.com</t>
+  </si>
+  <si>
+    <t>schunkell@gmail.com</t>
+  </si>
+  <si>
+    <t>urito_miura@hitmail.com</t>
+  </si>
+  <si>
+    <t>jezz_guerra@hotmail.com</t>
+  </si>
+  <si>
+    <t>abiramirez605@gmail.com</t>
+  </si>
+  <si>
+    <t>ihouse1.luz@outlook.com</t>
+  </si>
+  <si>
+    <t>lilianarista.la@gmail.com</t>
+  </si>
+  <si>
+    <t>doralil69@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Dangelino83@gmail.com</t>
+  </si>
+  <si>
+    <t>yajairai13@hotmail.com</t>
+  </si>
+  <si>
+    <t>Aixopih@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hernan.stia@gmail.com</t>
+  </si>
+  <si>
+    <t>lic.salvador.abundiz@hotmail.com</t>
+  </si>
+  <si>
+    <t>sradiaz@gmail.com</t>
+  </si>
+  <si>
+    <t>anniem@gmail.com</t>
+  </si>
+  <si>
+    <t>gracielar@gmail.com</t>
+  </si>
+  <si>
+    <t>lgarcia@gmail.com</t>
+  </si>
+  <si>
+    <t>ivanerique@gmail.com</t>
+  </si>
+  <si>
+    <t>yolanda_nr@hotmail.com</t>
+  </si>
+  <si>
+    <t>abril_rayon@hotmail.com</t>
+  </si>
+  <si>
+    <t>pam_0608@hotmail.com</t>
+  </si>
+  <si>
+    <t>stefano_c_r@hotmail.com</t>
+  </si>
+  <si>
+    <t>yair.robledo@outlook.com</t>
+  </si>
+  <si>
+    <t>p.chavez.delasota@gmail.com</t>
+  </si>
+  <si>
+    <t>mauriciobaber@gmail.com</t>
+  </si>
+  <si>
+    <t>Bajo presupuesto trae $4,000,000</t>
+  </si>
+  <si>
+    <t>Teléfono equivocado, se le envió mail de presentación. Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t>No dejó teléfono se envía información general por mail</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envía mail de presentación y Seguimiento, se le llamará mas tarde.</t>
+  </si>
+  <si>
+    <t>No dejó teléfono se envía información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta, se le envía mail de presentación. Seguimiento</t>
+  </si>
+  <si>
+    <t>Le llamé trae presupuesto de $1,500,000</t>
+  </si>
+  <si>
+    <t>NO contesta, entra buzón, se le llamará mas tarde. Se le envía mail de presentación.</t>
+  </si>
+  <si>
+    <t>El número telefónico no existe se envía información general por mail</t>
+  </si>
+  <si>
+    <t>Se envía información general por mail no dejo teléfono</t>
+  </si>
+  <si>
+    <t>Teléfono equivocado, se le envía mail de presentación. Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t>Se le envía información general por mail no dejo teléfono</t>
+  </si>
+  <si>
+    <t>No contesta, se le envió mail de presentación. Seguimieto</t>
+  </si>
+  <si>
+    <t>Se envía información general por mail, no dejo teléfono</t>
+  </si>
+  <si>
+    <t>Es corredora, se le envia información general. Traerá clientes.</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
+  </si>
+  <si>
+    <t>Se le envia informacion de 3 recamaras mas estudio por whats</t>
+  </si>
+  <si>
+    <t>Se le envio información de departamentos de 2 recamaras por whats</t>
+  </si>
+  <si>
+    <t>Numero telefónico equivocado. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
+  </si>
+  <si>
+    <t>Se le envío información general por mail.</t>
+  </si>
+  <si>
+    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
+Se le envia información departamentos de 2 y 3 recamaras. No quiso dar su correo. Fuera de presupuesto.</t>
+  </si>
+  <si>
+    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
+No contesta. Estamos esperando nos envíe mail para darle información.</t>
+  </si>
+  <si>
+    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
+No contesta, estamos esperando envíe su mail por whatsaap.</t>
+  </si>
+  <si>
+    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
+No contesta, estamos esperando su envíe mail para contactarla</t>
+  </si>
+  <si>
+    <t>Dejó un teléfono equivocado. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.</t>
+  </si>
+  <si>
+    <t>No dejo numero telefónico. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
+  </si>
+  <si>
+    <t>Sin telefono de envía infoemación genela por mail con ejemplos de cotizaciones de 2 y 3 recmacaras</t>
+  </si>
+  <si>
+    <t>No deja telefono se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>Dejo un no. telefónico equivocado. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento por mail</t>
+  </si>
+  <si>
+    <t>30 de Marzo - 05 de Abril del 2020</t>
   </si>
 </sst>
 </file>
@@ -606,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -658,6 +608,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
       <family val="2"/>
@@ -747,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,11 +796,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,13 +882,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1264,10 +1226,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L252"/>
+  <dimension ref="A4:L247"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1241,7 @@
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30" style="2" customWidth="1"/>
     <col min="9" max="9" width="132.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
@@ -1323,7 +1285,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1358,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="34">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>21</v>
@@ -1377,7 +1339,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1390,7 +1352,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="34">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1403,7 +1365,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="34">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1429,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1440,26 +1402,30 @@
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
       <c r="E27" s="33" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="34">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1468,16 +1434,24 @@
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
+      <c r="E28" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="34">
+        <v>2</v>
+      </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="34">
+        <v>3</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
@@ -1535,392 +1509,400 @@
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="40">
-        <v>5574610168</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>165</v>
-      </c>
+      <c r="C34" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="39">
+        <v>9984023652</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="39"/>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="40">
-        <v>5617392607</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>181</v>
+      <c r="B35" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="39">
+        <v>5512306133</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="40">
-        <v>5522713760</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>182</v>
+      <c r="B36" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="39">
+        <v>2225637113</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="40">
-        <v>5512901189</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>163</v>
+      <c r="B37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="40">
-        <v>7221817760</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>164</v>
+      <c r="C38" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="39">
+        <v>5539999853</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="40" t="s">
+      <c r="B39" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="40">
-        <v>5554041489</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>154</v>
+      <c r="F39" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="39">
+        <v>5539838714</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="40" t="s">
+      <c r="B40" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="40">
-        <v>522287540700</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>172</v>
+      <c r="F40" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="39">
+        <v>5535272737</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="40" t="s">
+      <c r="B41" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="40">
-        <v>5519484659</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>174</v>
+      <c r="F41" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="39">
+        <v>5528998193</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="40">
-        <v>5584007362</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>176</v>
+      <c r="B42" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="39">
+        <v>555554329344</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="40">
-        <v>5529195469</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="40"/>
+      <c r="B43" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="40">
-        <v>5550501983</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" s="40"/>
+      <c r="B44" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="39">
+        <v>5555438292</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="40">
-        <v>5513749735</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="40"/>
+      <c r="B45" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="39">
+        <v>68812090</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="40" t="s">
+      <c r="C46" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>169</v>
+      <c r="F46" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="40" t="s">
+      <c r="C47" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="40">
-        <v>5525610262</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>179</v>
+      <c r="F47" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="39">
+        <v>5519345909</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -1928,838 +1910,750 @@
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="40" t="s">
+      <c r="C48" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="40">
-        <v>5532224627</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>180</v>
+      <c r="F48" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="39">
+        <v>999999999</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="40" t="s">
+      <c r="B49" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" s="40" t="s">
-        <v>183</v>
+      <c r="G49" s="39">
+        <v>5520041176</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="40" t="s">
+      <c r="C50" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="40">
-        <v>5578029997</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>177</v>
+      <c r="F50" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="40" t="s">
+      <c r="B51" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="40">
-        <v>5551432951</v>
-      </c>
-      <c r="H51" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" s="40"/>
+      <c r="F51" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="40" t="s">
+      <c r="B52" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="40">
-        <v>5528569180</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" s="40"/>
+      <c r="F52" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="39">
+        <v>9212039935</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="40" t="s">
+      <c r="B53" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="I53" s="40"/>
+      <c r="F53" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="40" t="s">
+      <c r="B54" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54" s="40">
-        <v>5514731412</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="I54" s="40"/>
+      <c r="F54" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="40" t="s">
+      <c r="B55" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" s="40">
-        <v>5551366154</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="40"/>
+      <c r="F55" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="40">
-        <v>5537971244</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>170</v>
+      <c r="C56" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="39">
+        <v>550825750</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="39" t="s">
+      <c r="B57" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" s="40">
-        <v>5591963897</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I57" s="40" t="s">
-        <v>157</v>
+      <c r="E57" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="39" t="s">
+      <c r="C58" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G58" s="40">
-        <v>5537178857</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>159</v>
+      <c r="E58" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="39">
+        <v>5521067798</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="39" t="s">
+      <c r="C59" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="40">
-        <v>5555033317</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="40" t="s">
-        <v>160</v>
+      <c r="E59" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="39">
+        <v>5564803192</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="39" t="s">
+      <c r="C60" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" s="40">
-        <v>5514087177</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>161</v>
+      <c r="E60" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="39">
+        <v>5614047954</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="39" t="s">
+      <c r="B61" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" s="40">
-        <v>4492251391</v>
-      </c>
-      <c r="H61" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I61" s="40" t="s">
-        <v>162</v>
+      <c r="E61" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="39">
+        <v>5516485722</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="40" t="s">
+      <c r="B62" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G62" s="40">
-        <v>3323380871</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62" s="40" t="s">
-        <v>167</v>
+      <c r="E62" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G62" s="39">
+        <v>5565648654</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="40" t="s">
+      <c r="B63" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="39" t="s">
+      <c r="D63" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="G63" s="40">
-        <v>5527069080</v>
-      </c>
-      <c r="H63" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I63" s="40" t="s">
-        <v>168</v>
+      <c r="E63" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39">
+        <v>7775000512</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="39" t="s">
+      <c r="C64" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" s="40">
-        <v>5559651496</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="I64" s="40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="39">
+        <v>8116678790</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
-      <c r="B65" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="39" t="s">
+      <c r="B65" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="40">
-        <v>6522133316</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>33</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="39" t="s">
+      <c r="C66" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" s="40">
-        <v>5519050547</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>34</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="39" t="s">
+      <c r="B67" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" s="40">
-        <v>5554013972</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="I67" s="40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="39">
+        <v>5541408938</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="39" t="s">
+      <c r="C68" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" s="40">
-        <v>55985367</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>36</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="39" t="s">
+      <c r="E68" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="39">
+        <v>5215511111111</v>
+      </c>
+      <c r="H68" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" s="39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="41"/>
+    </row>
+    <row r="70" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" s="40">
-        <v>5532251147</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="I69" s="40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>37</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" s="40">
-        <v>5514519892</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I70" s="40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>38</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" s="40">
-        <v>5591392582</v>
-      </c>
-      <c r="H71" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="I71" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>39</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G72" s="40">
-        <v>5512883590</v>
-      </c>
-      <c r="H72" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="I72" s="40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>40</v>
-      </c>
-      <c r="B73" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="40">
-        <v>5512573486</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="I73" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="38"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="12"/>
-    </row>
-    <row r="75" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="12"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="12"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="12"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="12"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="12"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="23" t="s">
+      <c r="C76" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="2:12" ht="16" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="I82" s="6"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
@@ -2769,15 +2663,17 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="I83" s="6"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="3"/>
       <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2790,7 +2686,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="21"/>
     </row>
-    <row r="86" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2801,16 +2697,16 @@
       <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="21"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
@@ -2820,18 +2716,21 @@
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="21"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="21"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
     </row>
     <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
@@ -2841,7 +2740,9 @@
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="21"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
@@ -2851,7 +2752,9 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="21"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
@@ -2897,7 +2800,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="3"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
     </row>
@@ -2957,7 +2860,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
     </row>
@@ -4594,122 +4497,62 @@
       <c r="L236" s="6"/>
     </row>
     <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="6"/>
-      <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
     </row>
     <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="6"/>
-      <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
     </row>
     <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="6"/>
-      <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
     </row>
     <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="6"/>
-      <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
-    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="6"/>
-      <c r="I241" s="6"/>
+    <row r="241" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
     </row>
-    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
     </row>
-    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
-    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
-    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
-    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
-    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
-    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J248" s="6"/>
-      <c r="K248" s="6"/>
-      <c r="L248" s="6"/>
-    </row>
-    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J249" s="6"/>
-      <c r="K249" s="6"/>
-      <c r="L249" s="6"/>
-    </row>
-    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J250" s="6"/>
-      <c r="K250" s="6"/>
-      <c r="L250" s="6"/>
-    </row>
-    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J251" s="6"/>
-      <c r="K251" s="6"/>
-      <c r="L251" s="6"/>
-    </row>
-    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J252" s="6"/>
-      <c r="K252" s="6"/>
-      <c r="L252" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A68">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEEEAC9-1892-E44B-BE75-5FB03FB67D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACDF93E-26F0-3B41-B6F5-84390725D3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28260" yWindow="460" windowWidth="33200" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="226">
   <si>
     <t>A</t>
   </si>
@@ -128,425 +128,597 @@
     <t>Google</t>
   </si>
   <si>
-    <t>Belora Abadi Husny</t>
-  </si>
-  <si>
-    <t>2020-04-05 17:01:46</t>
-  </si>
-  <si>
-    <t>2020-04-05 12:08:02</t>
-  </si>
-  <si>
-    <t>2020-04-05 07:11:59</t>
-  </si>
-  <si>
-    <t>2020-04-05 00:36:14</t>
-  </si>
-  <si>
-    <t>2020-04-05 00:05:27</t>
-  </si>
-  <si>
-    <t>2020-04-04 23:26:18</t>
-  </si>
-  <si>
-    <t>2020-04-04 23:22:27</t>
-  </si>
-  <si>
-    <t>2020-04-04 23:09:00</t>
-  </si>
-  <si>
-    <t>2020-04-04 23:07:49</t>
-  </si>
-  <si>
-    <t>2020-04-04 20:55:21</t>
-  </si>
-  <si>
-    <t>2020-04-04 20:50:56</t>
-  </si>
-  <si>
-    <t>2020-04-03 17:02:38</t>
-  </si>
-  <si>
-    <t>2020-04-03 12:07:35</t>
-  </si>
-  <si>
-    <t>2020-04-02 01:16:13</t>
-  </si>
-  <si>
-    <t>2020-04-01 12:38:36</t>
-  </si>
-  <si>
-    <t>2020-03-31 20:46:58</t>
-  </si>
-  <si>
-    <t>2020-03-31 13:03:13</t>
-  </si>
-  <si>
-    <t>2020-03-31 08:34:10</t>
-  </si>
-  <si>
-    <t>2020-03-31 07:17:33</t>
-  </si>
-  <si>
-    <t>2020-03-31 07:03:28</t>
-  </si>
-  <si>
-    <t>2020-03-31 00:28:27</t>
-  </si>
-  <si>
-    <t>2020-03-30 21:59:11</t>
-  </si>
-  <si>
-    <t>2020-03-30 21:04:15</t>
-  </si>
-  <si>
-    <t>2020-03-30 18:58:32</t>
-  </si>
-  <si>
-    <t>2020-03-30 14:59:45</t>
-  </si>
-  <si>
-    <t>2020-03-30 14:57:47</t>
-  </si>
-  <si>
-    <t>2020-03-30 14:54:10</t>
-  </si>
-  <si>
-    <t>2020-03-30 14:20:15</t>
-  </si>
-  <si>
-    <t>2020-03-30 13:16:27</t>
-  </si>
-  <si>
-    <t>2020-03-30 13:16:26</t>
-  </si>
-  <si>
-    <t>2020-03-30 13:13:30</t>
-  </si>
-  <si>
-    <t>2020-03-30 13:13:29</t>
-  </si>
-  <si>
-    <t>2020-03-30 13:13:28</t>
-  </si>
-  <si>
-    <t>2020-03-30 09:37:48</t>
-  </si>
-  <si>
-    <t>2020-03-30 02:24:45</t>
-  </si>
-  <si>
     <t>Lamudi</t>
   </si>
   <si>
     <t>Messenger</t>
   </si>
   <si>
-    <t xml:space="preserve">Richard Fenimore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETICIA GARCIA DOMINGUEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeria Mora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaby Sanz </t>
-  </si>
-  <si>
-    <t>Valeria Lopez</t>
-  </si>
-  <si>
-    <t>Lorena Garcia De Leon</t>
-  </si>
-  <si>
-    <t>Cinthia Janet Herver</t>
-  </si>
-  <si>
-    <t>Fco Herrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indira Felix </t>
-  </si>
-  <si>
-    <t>Juan Sebastián Cornejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUSANA LUCERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armando Medina Negrete </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica Cruces Guerra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abi Rg </t>
-  </si>
-  <si>
-    <t>Luz Gonzalez Gutierrez</t>
-  </si>
-  <si>
-    <t>Lilian Arista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doris Rodríguez Jacobo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Martinez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yajaira Mejia </t>
-  </si>
-  <si>
-    <t>Ana Paula Hernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hernan Stia </t>
-  </si>
-  <si>
-    <t>Jesus Salvador Abundiz</t>
-  </si>
-  <si>
-    <t>Annie Mora</t>
-  </si>
-  <si>
-    <t>Graciela Rodriguez</t>
-  </si>
-  <si>
-    <t>Lourdes Garcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolanda Nieves </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abril Rayon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamela Labastida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefano Candia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yair Robledo García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAOLA CHAVEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Gonzales </t>
-  </si>
-  <si>
-    <t>03512672833</t>
-  </si>
-  <si>
-    <t>cancunkingriccardo@verizon.net</t>
-  </si>
-  <si>
-    <t>legardom@hotmail.com</t>
-  </si>
-  <si>
-    <t>andrea_lemery@yahio.com</t>
-  </si>
-  <si>
-    <t>valmora24@hotmail.com</t>
-  </si>
-  <si>
-    <t>gabysanzluna@hotmail.com</t>
-  </si>
-  <si>
-    <t>vla86@hotmail.com</t>
-  </si>
-  <si>
-    <t>lorena_garciadeleon@hotmaill.com</t>
-  </si>
-  <si>
-    <t>hervercinthia@gmail.com</t>
-  </si>
-  <si>
-    <t>V@d.com</t>
-  </si>
-  <si>
-    <t>masmenita_d@hotmail.com</t>
-  </si>
-  <si>
-    <t>matadorcornejo@me.com</t>
-  </si>
-  <si>
-    <t>schunkell@gmail.com</t>
-  </si>
-  <si>
-    <t>urito_miura@hitmail.com</t>
-  </si>
-  <si>
-    <t>jezz_guerra@hotmail.com</t>
-  </si>
-  <si>
-    <t>abiramirez605@gmail.com</t>
-  </si>
-  <si>
-    <t>ihouse1.luz@outlook.com</t>
-  </si>
-  <si>
-    <t>lilianarista.la@gmail.com</t>
-  </si>
-  <si>
-    <t>doralil69@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Dangelino83@gmail.com</t>
-  </si>
-  <si>
-    <t>yajairai13@hotmail.com</t>
-  </si>
-  <si>
-    <t>Aixopih@hotmail.com</t>
-  </si>
-  <si>
-    <t>Hernan.stia@gmail.com</t>
-  </si>
-  <si>
-    <t>lic.salvador.abundiz@hotmail.com</t>
-  </si>
-  <si>
-    <t>sradiaz@gmail.com</t>
-  </si>
-  <si>
-    <t>anniem@gmail.com</t>
-  </si>
-  <si>
-    <t>gracielar@gmail.com</t>
-  </si>
-  <si>
-    <t>lgarcia@gmail.com</t>
-  </si>
-  <si>
-    <t>ivanerique@gmail.com</t>
-  </si>
-  <si>
-    <t>yolanda_nr@hotmail.com</t>
-  </si>
-  <si>
-    <t>abril_rayon@hotmail.com</t>
-  </si>
-  <si>
-    <t>pam_0608@hotmail.com</t>
-  </si>
-  <si>
-    <t>stefano_c_r@hotmail.com</t>
-  </si>
-  <si>
-    <t>yair.robledo@outlook.com</t>
-  </si>
-  <si>
-    <t>p.chavez.delasota@gmail.com</t>
-  </si>
-  <si>
-    <t>mauriciobaber@gmail.com</t>
-  </si>
-  <si>
-    <t>Bajo presupuesto trae $4,000,000</t>
-  </si>
-  <si>
-    <t>Teléfono equivocado, se le envió mail de presentación. Seguimiento por mail.</t>
-  </si>
-  <si>
-    <t>No dejó teléfono se envía información general por mail</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envía mail de presentación y Seguimiento, se le llamará mas tarde.</t>
-  </si>
-  <si>
-    <t>No dejó teléfono se envía información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta, se le envía mail de presentación. Seguimiento</t>
-  </si>
-  <si>
-    <t>Le llamé trae presupuesto de $1,500,000</t>
-  </si>
-  <si>
-    <t>NO contesta, entra buzón, se le llamará mas tarde. Se le envía mail de presentación.</t>
-  </si>
-  <si>
-    <t>El número telefónico no existe se envía información general por mail</t>
-  </si>
-  <si>
-    <t>Se envía información general por mail no dejo teléfono</t>
-  </si>
-  <si>
-    <t>Teléfono equivocado, se le envía mail de presentación. Seguimiento por mail.</t>
-  </si>
-  <si>
-    <t>Se le envía información general por mail no dejo teléfono</t>
-  </si>
-  <si>
-    <t>No contesta, se le envió mail de presentación. Seguimieto</t>
-  </si>
-  <si>
-    <t>Se envía información general por mail, no dejo teléfono</t>
-  </si>
-  <si>
-    <t>Es corredora, se le envia información general. Traerá clientes.</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
-  </si>
-  <si>
-    <t>Se le envia informacion de 3 recamaras mas estudio por whats</t>
-  </si>
-  <si>
-    <t>Se le envio información de departamentos de 2 recamaras por whats</t>
-  </si>
-  <si>
-    <t>Numero telefónico equivocado. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
-  </si>
-  <si>
-    <t>Se le envío información general por mail.</t>
-  </si>
-  <si>
-    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
-Se le envia información departamentos de 2 y 3 recamaras. No quiso dar su correo. Fuera de presupuesto.</t>
-  </si>
-  <si>
-    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
-No contesta. Estamos esperando nos envíe mail para darle información.</t>
-  </si>
-  <si>
-    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
-No contesta, estamos esperando envíe su mail por whatsaap.</t>
-  </si>
-  <si>
-    <t>Se le asigna un correo provisional ya que kiper no permite su registro sin este dato.
-No contesta, estamos esperando su envíe mail para contactarla</t>
-  </si>
-  <si>
-    <t>Dejó un teléfono equivocado. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>No dejo numero telefónico. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento</t>
-  </si>
-  <si>
-    <t>Sin telefono de envía infoemación genela por mail con ejemplos de cotizaciones de 2 y 3 recmacaras</t>
-  </si>
-  <si>
-    <t>No deja telefono se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>Dejo un no. telefónico equivocado. Se le envió mail de presentación y cotización del 205B y 403C, Seguimiento por mail</t>
-  </si>
-  <si>
-    <t>30 de Marzo - 05 de Abril del 2020</t>
+    <t>Alejandra Campos García</t>
+  </si>
+  <si>
+    <t>2020-04-12 14:55:52</t>
+  </si>
+  <si>
+    <t>2020-04-12 14:31:36</t>
+  </si>
+  <si>
+    <t>2020-04-12 13:15:30</t>
+  </si>
+  <si>
+    <t>2020-04-12 02:50:53</t>
+  </si>
+  <si>
+    <t>2020-04-11 23:29:04</t>
+  </si>
+  <si>
+    <t>2020-04-11 22:14:41</t>
+  </si>
+  <si>
+    <t>2020-04-11 21:38:57</t>
+  </si>
+  <si>
+    <t>2020-04-11 19:43:22</t>
+  </si>
+  <si>
+    <t>2020-04-11 17:30:37</t>
+  </si>
+  <si>
+    <t>2020-04-11 16:17:07</t>
+  </si>
+  <si>
+    <t>2020-04-11 11:54:37</t>
+  </si>
+  <si>
+    <t>2020-04-11 09:43:49</t>
+  </si>
+  <si>
+    <t>2020-04-11 01:23:05</t>
+  </si>
+  <si>
+    <t>2020-04-11 00:08:14</t>
+  </si>
+  <si>
+    <t>2020-04-10 20:26:28</t>
+  </si>
+  <si>
+    <t>2020-04-10 17:27:36</t>
+  </si>
+  <si>
+    <t>2020-04-10 15:57:17</t>
+  </si>
+  <si>
+    <t>2020-04-10 10:05:13</t>
+  </si>
+  <si>
+    <t>2020-04-10 10:02:24</t>
+  </si>
+  <si>
+    <t>2020-04-10 03:24:03</t>
+  </si>
+  <si>
+    <t>2020-04-10 01:57:52</t>
+  </si>
+  <si>
+    <t>2020-04-09 23:31:16</t>
+  </si>
+  <si>
+    <t>2020-04-09 15:21:43</t>
+  </si>
+  <si>
+    <t>2020-04-09 13:51:03</t>
+  </si>
+  <si>
+    <t>2020-04-09 13:41:45</t>
+  </si>
+  <si>
+    <t>2020-04-09 12:18:11</t>
+  </si>
+  <si>
+    <t>2020-04-09 11:02:51</t>
+  </si>
+  <si>
+    <t>2020-04-09 10:56:53</t>
+  </si>
+  <si>
+    <t>2020-04-09 10:33:30</t>
+  </si>
+  <si>
+    <t>2020-04-09 10:06:54</t>
+  </si>
+  <si>
+    <t>2020-04-08 23:29:38</t>
+  </si>
+  <si>
+    <t>2020-04-08 17:05:44</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:19:58</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:00:53</t>
+  </si>
+  <si>
+    <t>2020-04-08 08:50:56</t>
+  </si>
+  <si>
+    <t>2020-04-08 02:09:21</t>
+  </si>
+  <si>
+    <t>2020-04-07 20:10:13</t>
+  </si>
+  <si>
+    <t>2020-04-07 16:03:01</t>
+  </si>
+  <si>
+    <t>2020-04-07 12:30:01</t>
+  </si>
+  <si>
+    <t>2020-04-07 09:24:24</t>
+  </si>
+  <si>
+    <t>2020-04-07 02:40:25</t>
+  </si>
+  <si>
+    <t>2020-04-06 23:27:38</t>
+  </si>
+  <si>
+    <t>2020-04-06 20:12:25</t>
+  </si>
+  <si>
+    <t>2020-04-06 16:01:42</t>
+  </si>
+  <si>
+    <t>2020-04-06 13:44:26</t>
+  </si>
+  <si>
+    <t>2020-04-06 11:20:14</t>
+  </si>
+  <si>
+    <t>2020-04-06 02:25:37</t>
+  </si>
+  <si>
+    <t>2020-04-06 02:03:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zayani Pantoja Alcantar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilberto Salas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Tirado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heriberto Flores Vazquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaryCar Becrril </t>
+  </si>
+  <si>
+    <t xml:space="preserve">China SG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos tomás </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Cesar Tepale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique López </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnulfo Perez Uzeta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando González </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Guti Locken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar Ortiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura iran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Jonathan Martínez Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaí Mota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA EUGENIA GUILLEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Martínez Hernández </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel bolivar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Luis Oliveros Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miriam Rg </t>
+  </si>
+  <si>
+    <t>Valeria Torres Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika Hernandez Jimenez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander </t>
+  </si>
+  <si>
+    <t>Ricardo Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeanette tapia flores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geraldin Mendoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noemi Gomez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Marin Zurita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haméd Sahíd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Guerrero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alejandro mendoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria Núñez Peralta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo Sanchez Mendez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Carrillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia Bernardini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeshua Rosiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itzia Torres Alarcón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mónica Romero </t>
+  </si>
+  <si>
+    <t>zayapantoja@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sandycasal@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>andrea.glz95@hotmail.com</t>
+  </si>
+  <si>
+    <t>pacon9201@gmail.com</t>
+  </si>
+  <si>
+    <t>gsalas@nev.mx</t>
+  </si>
+  <si>
+    <t>juanc.tiradoc@gmail.com</t>
+  </si>
+  <si>
+    <t>heribertoflores1@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>mary.blen@hotmail.com</t>
+  </si>
+  <si>
+    <t>anaid.gilda@gmail.com</t>
+  </si>
+  <si>
+    <t>carlostomasramos@icloud.com</t>
+  </si>
+  <si>
+    <t>cctepale@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>enrilole@gmail.com</t>
+  </si>
+  <si>
+    <t>em_gar_her@live.com.mx</t>
+  </si>
+  <si>
+    <t>adrianmendezsoto@hotmail.com</t>
+  </si>
+  <si>
+    <t>arpeuz@yahoo.com</t>
+  </si>
+  <si>
+    <t>fernandogs63@gmail.com</t>
+  </si>
+  <si>
+    <t>aguriwrrws@zegna.com</t>
+  </si>
+  <si>
+    <t>p.martinezdavila02@gmail.com</t>
+  </si>
+  <si>
+    <t>Chinoac21@gmail.com</t>
+  </si>
+  <si>
+    <t>wiwi.esp.ls@gmail.com</t>
+  </si>
+  <si>
+    <t>jounasmtz@gmail.com</t>
+  </si>
+  <si>
+    <t>natytellez-1994@hotmail.com</t>
+  </si>
+  <si>
+    <t>sinaimotacatayjuan@gmail.com</t>
+  </si>
+  <si>
+    <t>PAMINORIEGA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>eva.enturia@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>mhzjorge@gmail.com</t>
+  </si>
+  <si>
+    <t>mibolivarc@gmail.com</t>
+  </si>
+  <si>
+    <t>joseoliveros@uriel.edu.mx</t>
+  </si>
+  <si>
+    <t>lic.miriamrosado@gmail.com</t>
+  </si>
+  <si>
+    <t>valeria.torres.rmz@outlook.com</t>
+  </si>
+  <si>
+    <t>ehernandezj@invex.com</t>
+  </si>
+  <si>
+    <t>alexandernavarroperez@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardo.rivera@begrand.mx</t>
+  </si>
+  <si>
+    <t>jeantf03@gmail.com</t>
+  </si>
+  <si>
+    <t>Gerii2309@hotmail.com</t>
+  </si>
+  <si>
+    <t>yth@gmail.com</t>
+  </si>
+  <si>
+    <t>Marinjavier@yahoo.com</t>
+  </si>
+  <si>
+    <t>sahid_m@hotmail.com</t>
+  </si>
+  <si>
+    <t>gvbeatriz59@gmail.com</t>
+  </si>
+  <si>
+    <t>planeacion15@gmail.com</t>
+  </si>
+  <si>
+    <t>valerianpkarate@gmail.com</t>
+  </si>
+  <si>
+    <t>erikterve@icloud.com</t>
+  </si>
+  <si>
+    <t>gsanmen13@gmail.com</t>
+  </si>
+  <si>
+    <t>draxon17@gmail.com</t>
+  </si>
+  <si>
+    <t>virber@hotmail.com</t>
+  </si>
+  <si>
+    <t>jmr.designer@hotmail.com</t>
+  </si>
+  <si>
+    <t>itziammaria@gmail.com</t>
+  </si>
+  <si>
+    <t>monromero20@gmail.com</t>
+  </si>
+  <si>
+    <t>Se equivocó creia que el proyecto estaba en Guadalajara</t>
+  </si>
+  <si>
+    <t>Trae presupuesto de $3,000,000 de pesos</t>
+  </si>
+  <si>
+    <t>Teléfono y e-mail equivocado. Me contestó y me dice que tomaron sus datos sin su permiso.</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información general por whats y por mail.</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto trae $3,500.000 de pesos</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón. Se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>No contesta, se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>El teléfono que dejó solo cuenta con servicio para navegar en internet, se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>No toma llamadas, le envie whats y mail con información general del proyecto.</t>
+  </si>
+  <si>
+    <t>Tiene presupuesto bajo $4M pero solicito información general y cotización del 205B</t>
+  </si>
+  <si>
+    <t>Teléfono equivocado. Se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Numero no disponible, se envía información general por mail</t>
+  </si>
+  <si>
+    <t>El telefono no existe se le envía información general  por mail</t>
+  </si>
+  <si>
+    <t>Busca 3 recamaras, no quiso dar presupuesto, se le envía 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra buzón se le envia mensaje por whats e información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón a la primera,se le envía mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca en renta, pero solicito cotización del 205B</t>
+  </si>
+  <si>
+    <t>Esta buscando en renta</t>
+  </si>
+  <si>
+    <t>Es corredora y esta buscando para su hijo Rodrigo Velázquez Guillen y le interesa el PH03C. Se le envía cotización.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra siempre buzon se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Busca de 2 y 3 recamaras. no me dijo presupuesto. Se le envió cotización del 205B y 403C</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Me contesta y cuelga. no logro comunicarme con el cliente.
+Se le envía mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Solicita información de 3 recamaras, esta empezando a ver</t>
+  </si>
+  <si>
+    <t>Envié cotización de PH3A y PH1C y rango de precios de deptos</t>
+  </si>
+  <si>
+    <t>Trae presupuesto hasta $5,000,000 peso que le mande información</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo $3.4M</t>
+  </si>
+  <si>
+    <t>Es corredor, traerá clientes.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón se le envía mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Trae presupuesto de $4,000,000 sin embardo quiere que le mande información de 2 recamaras para verlo</t>
+  </si>
+  <si>
+    <t>Dejó teléfono equivocado, se le envió mail de presentación. 
+Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t>Busca de 2 y 3 recamaras para inversión.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra buzón se le envía información por mail</t>
+  </si>
+  <si>
+    <t>Entra buzón. Se le envía mail de presentación.
+SEguimiento</t>
+  </si>
+  <si>
+    <t>Número no disponible se envia información general por mail</t>
+  </si>
+  <si>
+    <t>No dejó telefono. Se le envió mail de presentación. Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t>Entra buzón, se leenió mail de presentación. Seguimiento</t>
+  </si>
+  <si>
+    <t>El teléfono está incorrecto, se le envía información general de 2 y 3 recamaras por mail.</t>
+  </si>
+  <si>
+    <t>No contesta. Mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Solicita información de departamentos de 3 recamaras se envia por whats</t>
+  </si>
+  <si>
+    <t>No dejó teléfono, se le envía mail de presentación.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Solicitó información de departamentos de 2 recámaras, información enviada por whats</t>
+  </si>
+  <si>
+    <t>Busca de tres recamaras y me dice que tiene $3m. pero que de cualquier forma le envíe la cotización del 205B</t>
+  </si>
+  <si>
+    <t>06 - 12 de Abril del 2020</t>
+  </si>
+  <si>
+    <t>Se envía presentación digital y cotización del 205B</t>
+  </si>
+  <si>
+    <t>No deja teléfono se envía información por mail</t>
   </si>
 </sst>
 </file>
@@ -882,13 +1054,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1226,10 +1398,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L247"/>
+  <dimension ref="A4:L261"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1457,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1320,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="34">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>21</v>
@@ -1352,7 +1524,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="34">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1365,7 +1537,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="34">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1385,13 +1557,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1402,13 +1574,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="34">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1416,7 +1588,7 @@
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" s="34">
         <v>1</v>
@@ -1425,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1435,10 +1607,10 @@
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="E28" s="33" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F28" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1447,10 +1619,10 @@
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="E29" s="33" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F29" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1513,7 +1685,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>3</v>
@@ -1522,25 +1694,27 @@
         <v>13</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G34" s="39">
-        <v>9984023652</v>
+        <v>5535665869</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>3</v>
@@ -1549,16 +1723,16 @@
         <v>13</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G35" s="39">
-        <v>5512306133</v>
+        <v>5545136440</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>53</v>
@@ -1578,16 +1752,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G36" s="39">
-        <v>2225637113</v>
+        <v>4433457580</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,26 +1769,28 @@
         <v>4</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="39"/>
+        <v>111</v>
+      </c>
+      <c r="G37" s="39">
+        <v>5513105111</v>
+      </c>
       <c r="H37" s="39" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1622,28 +1798,28 @@
         <v>5</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="G38" s="39">
-        <v>5539999853</v>
+        <v>5534665530</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1651,28 +1827,28 @@
         <v>6</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="G39" s="39">
-        <v>5539838714</v>
+        <v>5543610396</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1680,28 +1856,28 @@
         <v>7</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="G40" s="39">
-        <v>5535272737</v>
+        <v>3314178186</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,28 +1885,28 @@
         <v>8</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="G41" s="39">
-        <v>5528998193</v>
+        <v>5528532883</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,25 +1917,25 @@
         <v>29</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G42" s="39">
-        <v>555554329344</v>
+        <v>5578913325</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,25 +1946,25 @@
         <v>29</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="G43" s="39">
+        <v>5579076952</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,25 +1975,25 @@
         <v>29</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G44" s="39">
-        <v>5555438292</v>
+        <v>5520659177</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1825,28 +2001,28 @@
         <v>12</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="G45" s="39">
-        <v>68812090</v>
+        <v>5568875495</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,26 +2030,28 @@
         <v>13</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>64</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="G46" s="39">
+        <v>8117910498</v>
+      </c>
       <c r="H46" s="39" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,28 +2059,28 @@
         <v>14</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G47" s="39">
-        <v>5519345909</v>
+        <v>5512888554</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -1911,28 +2089,26 @@
         <v>15</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G48" s="39">
-        <v>999999999</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G48" s="39"/>
       <c r="H48" s="39" t="s">
         <v>139</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1940,28 +2116,28 @@
         <v>16</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G49" s="39">
-        <v>5520041176</v>
+        <v>6142157084</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1969,26 +2145,28 @@
         <v>17</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="39"/>
+        <v>90</v>
+      </c>
+      <c r="G50" s="39">
+        <v>7224158435</v>
+      </c>
       <c r="H50" s="39" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1996,26 +2174,28 @@
         <v>18</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="G51" s="39">
+        <v>5519004553</v>
+      </c>
       <c r="H51" s="39" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,28 +2203,28 @@
         <v>19</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G52" s="39">
-        <v>9212039935</v>
+        <v>5528620367</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,26 +2232,28 @@
         <v>20</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="39"/>
+        <v>99</v>
+      </c>
+      <c r="G53" s="39">
+        <v>5537337373</v>
+      </c>
       <c r="H53" s="39" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,26 +2261,28 @@
         <v>21</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" s="39"/>
+        <v>114</v>
+      </c>
+      <c r="G54" s="39">
+        <v>5554019873</v>
+      </c>
       <c r="H54" s="39" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2106,26 +2290,28 @@
         <v>22</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" s="39"/>
+        <v>116</v>
+      </c>
+      <c r="G55" s="39">
+        <v>5525611447</v>
+      </c>
       <c r="H55" s="39" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2133,28 +2319,28 @@
         <v>23</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="G56" s="39">
-        <v>550825750</v>
+        <v>553466554</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,26 +2348,28 @@
         <v>24</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="39"/>
+        <v>119</v>
+      </c>
+      <c r="G57" s="39">
+        <v>5544487681</v>
+      </c>
       <c r="H57" s="39" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,25 +2380,25 @@
         <v>29</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="G58" s="39">
-        <v>5521067798</v>
+        <v>5525590602</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2221,25 +2409,25 @@
         <v>29</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="G59" s="39">
-        <v>5564803192</v>
+        <v>5533108080</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2250,25 +2438,25 @@
         <v>29</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="G60" s="39">
-        <v>5614047954</v>
+        <v>5514399159</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2279,25 +2467,25 @@
         <v>30</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G61" s="39">
-        <v>5516485722</v>
+        <v>3314118246</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,25 +2496,25 @@
         <v>30</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G62" s="39">
-        <v>5565648654</v>
+        <v>5523945289</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2337,23 +2525,25 @@
         <v>30</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="G63" s="39">
-        <v>7775000512</v>
+        <v>5547831625</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2364,55 +2554,57 @@
         <v>30</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G64" s="39">
-        <v>8116678790</v>
+        <v>5527379917</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F65" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="G65" s="39"/>
+      <c r="G65" s="39">
+        <v>5549403963</v>
+      </c>
       <c r="H65" s="39" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>33</v>
       </c>
@@ -2420,34 +2612,36 @@
         <v>30</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D66" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="39"/>
+        <v>100</v>
+      </c>
+      <c r="G66" s="39">
+        <v>984567890</v>
+      </c>
       <c r="H66" s="39" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>34</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>5</v>
@@ -2456,27 +2650,27 @@
         <v>13</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G67" s="39">
-        <v>5541408938</v>
+        <v>5520807149</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D68" s="38" t="s">
         <v>5</v>
@@ -2485,266 +2679,500 @@
         <v>13</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="G68" s="39">
-        <v>5215511111111</v>
+        <v>5534330708</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="I68" s="39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="G69" s="39">
+        <v>5549406742</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G70" s="39">
+        <v>6682302763</v>
+      </c>
+      <c r="H70" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>38</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="39">
+        <v>9933839643</v>
+      </c>
+      <c r="H71" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I71" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>39</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="39">
+        <v>5528369143</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>40</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" s="39">
+        <v>4772740950</v>
+      </c>
+      <c r="H73" s="39" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="39"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="41"/>
-    </row>
-    <row r="70" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="36" t="s">
+      <c r="I73" s="39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="39">
+        <v>9982607326</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="I76" s="39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="39">
+        <v>5525115818</v>
+      </c>
+      <c r="H77" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I77" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="39">
+        <v>5526845542</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="39">
+        <v>6647427716</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I79" s="39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>47</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80" s="39">
+        <v>5521359499</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I80" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>48</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="39">
+        <v>5543374357</v>
+      </c>
+      <c r="H81" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" s="39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="39"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="41"/>
+    </row>
+    <row r="83" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="39"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="12"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="12"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="12"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="22" t="s">
+      <c r="C84" s="19"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C87" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="12"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="22" t="s">
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C88" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="12"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="22" t="s">
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="12"/>
-    </row>
-    <row r="76" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="B76" s="22" t="s">
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B90" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C90" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="21"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="21"/>
-    </row>
-    <row r="81" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="21"/>
-    </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="21"/>
-    </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="21"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="21"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="21"/>
-    </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="21"/>
-    </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-    </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-    </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-    </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="30"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-    </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2752,11 +3180,8 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-    </row>
-    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2764,11 +3189,8 @@
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-    </row>
-    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2776,11 +3198,9 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-    </row>
-    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2788,11 +3208,9 @@
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-    </row>
-    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2800,21 +3218,19 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-    </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
@@ -2824,21 +3240,18 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
@@ -2848,9 +3261,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
@@ -2860,9 +3271,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
@@ -2968,7 +3377,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
       <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
+      <c r="J109" s="3"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
     </row>
@@ -4497,62 +4906,230 @@
       <c r="L236" s="6"/>
     </row>
     <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
     </row>
     <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
     </row>
     <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
     </row>
     <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
-    <row r="241" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
     </row>
-    <row r="242" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
     </row>
-    <row r="243" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
-    <row r="244" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
-    <row r="245" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
-    <row r="246" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
-    <row r="247" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="6"/>
+      <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
+    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+    </row>
+    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+    </row>
+    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+    </row>
+    <row r="257" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+    </row>
+    <row r="259" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+    </row>
+    <row r="260" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+    </row>
+    <row r="261" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:A81">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACDF93E-26F0-3B41-B6F5-84390725D3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF26C910-87D1-104D-9351-4A9276728217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27480" yWindow="460" windowWidth="34720" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="192">
   <si>
     <t>A</t>
   </si>
@@ -137,588 +137,484 @@
     <t>Alejandra Campos García</t>
   </si>
   <si>
-    <t>2020-04-12 14:55:52</t>
-  </si>
-  <si>
-    <t>2020-04-12 14:31:36</t>
-  </si>
-  <si>
-    <t>2020-04-12 13:15:30</t>
-  </si>
-  <si>
-    <t>2020-04-12 02:50:53</t>
-  </si>
-  <si>
-    <t>2020-04-11 23:29:04</t>
-  </si>
-  <si>
-    <t>2020-04-11 22:14:41</t>
-  </si>
-  <si>
-    <t>2020-04-11 21:38:57</t>
-  </si>
-  <si>
-    <t>2020-04-11 19:43:22</t>
-  </si>
-  <si>
-    <t>2020-04-11 17:30:37</t>
-  </si>
-  <si>
-    <t>2020-04-11 16:17:07</t>
-  </si>
-  <si>
-    <t>2020-04-11 11:54:37</t>
-  </si>
-  <si>
-    <t>2020-04-11 09:43:49</t>
-  </si>
-  <si>
-    <t>2020-04-11 01:23:05</t>
-  </si>
-  <si>
-    <t>2020-04-11 00:08:14</t>
-  </si>
-  <si>
-    <t>2020-04-10 20:26:28</t>
-  </si>
-  <si>
-    <t>2020-04-10 17:27:36</t>
-  </si>
-  <si>
-    <t>2020-04-10 15:57:17</t>
-  </si>
-  <si>
-    <t>2020-04-10 10:05:13</t>
-  </si>
-  <si>
-    <t>2020-04-10 10:02:24</t>
-  </si>
-  <si>
-    <t>2020-04-10 03:24:03</t>
-  </si>
-  <si>
-    <t>2020-04-10 01:57:52</t>
-  </si>
-  <si>
-    <t>2020-04-09 23:31:16</t>
-  </si>
-  <si>
-    <t>2020-04-09 15:21:43</t>
-  </si>
-  <si>
-    <t>2020-04-09 13:51:03</t>
-  </si>
-  <si>
-    <t>2020-04-09 13:41:45</t>
-  </si>
-  <si>
-    <t>2020-04-09 12:18:11</t>
-  </si>
-  <si>
-    <t>2020-04-09 11:02:51</t>
-  </si>
-  <si>
-    <t>2020-04-09 10:56:53</t>
-  </si>
-  <si>
-    <t>2020-04-09 10:33:30</t>
-  </si>
-  <si>
-    <t>2020-04-09 10:06:54</t>
-  </si>
-  <si>
-    <t>2020-04-08 23:29:38</t>
-  </si>
-  <si>
-    <t>2020-04-08 17:05:44</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:19:58</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:00:53</t>
-  </si>
-  <si>
-    <t>2020-04-08 08:50:56</t>
-  </si>
-  <si>
-    <t>2020-04-08 02:09:21</t>
-  </si>
-  <si>
-    <t>2020-04-07 20:10:13</t>
-  </si>
-  <si>
-    <t>2020-04-07 16:03:01</t>
-  </si>
-  <si>
-    <t>2020-04-07 12:30:01</t>
-  </si>
-  <si>
-    <t>2020-04-07 09:24:24</t>
-  </si>
-  <si>
-    <t>2020-04-07 02:40:25</t>
-  </si>
-  <si>
-    <t>2020-04-06 23:27:38</t>
-  </si>
-  <si>
-    <t>2020-04-06 20:12:25</t>
-  </si>
-  <si>
-    <t>2020-04-06 16:01:42</t>
-  </si>
-  <si>
-    <t>2020-04-06 13:44:26</t>
-  </si>
-  <si>
-    <t>2020-04-06 11:20:14</t>
-  </si>
-  <si>
-    <t>2020-04-06 02:25:37</t>
-  </si>
-  <si>
-    <t>2020-04-06 02:03:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zayani Pantoja Alcantar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Hernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilberto Salas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos Tirado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heriberto Flores Vazquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaryCar Becrril </t>
-  </si>
-  <si>
-    <t xml:space="preserve">China SG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos tomás </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Cesar Tepale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique López </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnulfo Perez Uzeta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando González </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Guti Locken </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omar Ortiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura iran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Jonathan Martínez Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaí Mota </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA EUGENIA GUILLEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Martínez Hernández </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel bolivar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Luis Oliveros Garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miriam Rg </t>
-  </si>
-  <si>
-    <t>Valeria Torres Ramirez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erika Hernandez Jimenez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander </t>
-  </si>
-  <si>
-    <t>Ricardo Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeanette tapia flores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geraldin Mendoza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noemi Gomez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier Marin Zurita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haméd Sahíd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Guerrero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">alejandro mendoza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeria Núñez Peralta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erika </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo Sanchez Mendez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio Carrillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia Bernardini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeshua Rosiles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itzia Torres Alarcón </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mónica Romero </t>
-  </si>
-  <si>
-    <t>zayapantoja@hotmail.com</t>
-  </si>
-  <si>
-    <t>Sandycasal@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>andrea.glz95@hotmail.com</t>
-  </si>
-  <si>
-    <t>pacon9201@gmail.com</t>
-  </si>
-  <si>
-    <t>gsalas@nev.mx</t>
-  </si>
-  <si>
-    <t>juanc.tiradoc@gmail.com</t>
-  </si>
-  <si>
-    <t>heribertoflores1@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>mary.blen@hotmail.com</t>
-  </si>
-  <si>
-    <t>anaid.gilda@gmail.com</t>
-  </si>
-  <si>
-    <t>carlostomasramos@icloud.com</t>
-  </si>
-  <si>
-    <t>cctepale@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>enrilole@gmail.com</t>
-  </si>
-  <si>
-    <t>em_gar_her@live.com.mx</t>
-  </si>
-  <si>
-    <t>adrianmendezsoto@hotmail.com</t>
-  </si>
-  <si>
-    <t>arpeuz@yahoo.com</t>
-  </si>
-  <si>
-    <t>fernandogs63@gmail.com</t>
-  </si>
-  <si>
-    <t>aguriwrrws@zegna.com</t>
-  </si>
-  <si>
-    <t>p.martinezdavila02@gmail.com</t>
-  </si>
-  <si>
-    <t>Chinoac21@gmail.com</t>
-  </si>
-  <si>
-    <t>wiwi.esp.ls@gmail.com</t>
-  </si>
-  <si>
-    <t>jounasmtz@gmail.com</t>
-  </si>
-  <si>
-    <t>natytellez-1994@hotmail.com</t>
-  </si>
-  <si>
-    <t>sinaimotacatayjuan@gmail.com</t>
-  </si>
-  <si>
-    <t>PAMINORIEGA@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>eva.enturia@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>mhzjorge@gmail.com</t>
-  </si>
-  <si>
-    <t>mibolivarc@gmail.com</t>
-  </si>
-  <si>
-    <t>joseoliveros@uriel.edu.mx</t>
-  </si>
-  <si>
-    <t>lic.miriamrosado@gmail.com</t>
-  </si>
-  <si>
-    <t>valeria.torres.rmz@outlook.com</t>
-  </si>
-  <si>
-    <t>ehernandezj@invex.com</t>
-  </si>
-  <si>
-    <t>alexandernavarroperez@gmail.com</t>
-  </si>
-  <si>
-    <t>ricardo.rivera@begrand.mx</t>
-  </si>
-  <si>
-    <t>jeantf03@gmail.com</t>
-  </si>
-  <si>
-    <t>Gerii2309@hotmail.com</t>
-  </si>
-  <si>
-    <t>yth@gmail.com</t>
-  </si>
-  <si>
-    <t>Marinjavier@yahoo.com</t>
-  </si>
-  <si>
-    <t>sahid_m@hotmail.com</t>
-  </si>
-  <si>
-    <t>gvbeatriz59@gmail.com</t>
-  </si>
-  <si>
-    <t>planeacion15@gmail.com</t>
-  </si>
-  <si>
-    <t>valerianpkarate@gmail.com</t>
-  </si>
-  <si>
-    <t>erikterve@icloud.com</t>
-  </si>
-  <si>
-    <t>gsanmen13@gmail.com</t>
-  </si>
-  <si>
-    <t>draxon17@gmail.com</t>
-  </si>
-  <si>
-    <t>virber@hotmail.com</t>
-  </si>
-  <si>
-    <t>jmr.designer@hotmail.com</t>
-  </si>
-  <si>
-    <t>itziammaria@gmail.com</t>
-  </si>
-  <si>
-    <t>monromero20@gmail.com</t>
-  </si>
-  <si>
-    <t>Se equivocó creia que el proyecto estaba en Guadalajara</t>
-  </si>
-  <si>
-    <t>Trae presupuesto de $3,000,000 de pesos</t>
-  </si>
-  <si>
-    <t>Teléfono y e-mail equivocado. Me contestó y me dice que tomaron sus datos sin su permiso.</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información general por whats y por mail.</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón, se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $3,500.000 de pesos</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón. Se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>No contesta, se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>El teléfono que dejó solo cuenta con servicio para navegar en internet, se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>No toma llamadas, le envie whats y mail con información general del proyecto.</t>
-  </si>
-  <si>
-    <t>Tiene presupuesto bajo $4M pero solicito información general y cotización del 205B</t>
-  </si>
-  <si>
-    <t>Teléfono equivocado. Se le envió mail de presentación y cotización de departamentos de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Numero no disponible, se envía información general por mail</t>
-  </si>
-  <si>
-    <t>El telefono no existe se le envía información general  por mail</t>
-  </si>
-  <si>
-    <t>Busca 3 recamaras, no quiso dar presupuesto, se le envía 403C.
+    <t>2020-04-19 17:33:40</t>
+  </si>
+  <si>
+    <t>2020-04-19 17:09:05</t>
+  </si>
+  <si>
+    <t>2020-04-19 13:20:42</t>
+  </si>
+  <si>
+    <t>2020-04-19 11:43:05</t>
+  </si>
+  <si>
+    <t>2020-04-19 01:21:04</t>
+  </si>
+  <si>
+    <t>2020-04-18 18:56:18</t>
+  </si>
+  <si>
+    <t>2020-04-18 11:54:19</t>
+  </si>
+  <si>
+    <t>2020-04-18 11:22:06</t>
+  </si>
+  <si>
+    <t>2020-04-18 00:37:06</t>
+  </si>
+  <si>
+    <t>2020-04-17 22:11:30</t>
+  </si>
+  <si>
+    <t>2020-04-17 20:28:21</t>
+  </si>
+  <si>
+    <t>2020-04-17 15:08:09</t>
+  </si>
+  <si>
+    <t>2020-04-17 10:11:25</t>
+  </si>
+  <si>
+    <t>2020-04-16 23:47:54</t>
+  </si>
+  <si>
+    <t>2020-04-16 21:59:41</t>
+  </si>
+  <si>
+    <t>2020-04-16 19:20:49</t>
+  </si>
+  <si>
+    <t>2020-04-16 13:41:50</t>
+  </si>
+  <si>
+    <t>2020-04-15 22:34:38</t>
+  </si>
+  <si>
+    <t>2020-04-15 21:54:44</t>
+  </si>
+  <si>
+    <t>2020-04-15 17:48:40</t>
+  </si>
+  <si>
+    <t>2020-04-15 14:29:39</t>
+  </si>
+  <si>
+    <t>2020-04-15 07:40:48</t>
+  </si>
+  <si>
+    <t>2020-04-15 00:21:10</t>
+  </si>
+  <si>
+    <t>2020-04-14 22:47:19</t>
+  </si>
+  <si>
+    <t>2020-04-14 22:32:59</t>
+  </si>
+  <si>
+    <t>2020-04-14 17:18:17</t>
+  </si>
+  <si>
+    <t>2020-04-14 12:53:15</t>
+  </si>
+  <si>
+    <t>2020-04-14 12:38:17</t>
+  </si>
+  <si>
+    <t>2020-04-14 08:02:26</t>
+  </si>
+  <si>
+    <t>2020-04-14 07:12:10</t>
+  </si>
+  <si>
+    <t>2020-04-14 01:39:59</t>
+  </si>
+  <si>
+    <t>2020-04-13 23:58:11</t>
+  </si>
+  <si>
+    <t>2020-04-13 22:41:25</t>
+  </si>
+  <si>
+    <t>2020-04-13 19:38:20</t>
+  </si>
+  <si>
+    <t>2020-04-13 16:00:41</t>
+  </si>
+  <si>
+    <t>2020-04-13 15:34:29</t>
+  </si>
+  <si>
+    <t>2020-04-13 14:45:34</t>
+  </si>
+  <si>
+    <t>2020-04-13 13:00:02</t>
+  </si>
+  <si>
+    <t>2020-04-13 12:55:29</t>
+  </si>
+  <si>
+    <t>2020-04-13 11:35:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizbeth Becerril Contreras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alicia Gtz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo Marin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melissa Alvarez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuria Yunuen </t>
+  </si>
+  <si>
+    <t>Edgar Salas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmina Rodriguez Zaldivar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilse Nayeli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midori abigail silva Reyes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania Annirack Flores García </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Comales </t>
+  </si>
+  <si>
+    <t>Elizabeth Gonzalez</t>
+  </si>
+  <si>
+    <t>Diana Aline Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuri Sevilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha Shs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Fragoso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brayan Valdes Vazquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Trujillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Rivera centeno </t>
+  </si>
+  <si>
+    <t>Jesus Andres Garcia Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Gonzalez Labastida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Islas Romero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Esmeralda Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Aguirre </t>
+  </si>
+  <si>
+    <t>Luis Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garbu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Amador Perez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalupe Cárdenas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marco antonio Ramírez Ortiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizabeth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantida Resendiz Cruz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace Izquierdo Molleda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noel Acosta </t>
+  </si>
+  <si>
+    <t>Mariana Ituarte</t>
+  </si>
+  <si>
+    <t>Manuel Dovali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer </t>
+  </si>
+  <si>
+    <t>lbecerril018@gmail.com</t>
+  </si>
+  <si>
+    <t>alizzgo_78@hotmail.com</t>
+  </si>
+  <si>
+    <t>gmarin2000@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mel-alvarez@hotmail.com</t>
+  </si>
+  <si>
+    <t>nuria_y_om@icloud.com</t>
+  </si>
+  <si>
+    <t>edgar_salas@hotmail.com</t>
+  </si>
+  <si>
+    <t>crodriguezzsldivar@gmail.com</t>
+  </si>
+  <si>
+    <t>ilse3571@hotmail.com</t>
+  </si>
+  <si>
+    <t>silvamidori986@gmail.com</t>
+  </si>
+  <si>
+    <t>maradan.tr@gmail.com</t>
+  </si>
+  <si>
+    <t>Pilrcr@hotmail.com</t>
+  </si>
+  <si>
+    <t>elypope200879@gmail.com</t>
+  </si>
+  <si>
+    <t>alinearteaga@me.com</t>
+  </si>
+  <si>
+    <t>yurisevilla@hotmail.com</t>
+  </si>
+  <si>
+    <t>shsondersam90@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jofrago1302@gmail.com</t>
+  </si>
+  <si>
+    <t>valdesvzquezbrayan@gmail.com</t>
+  </si>
+  <si>
+    <t>dtrujillovaz@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandro_1508@outlook.com</t>
+  </si>
+  <si>
+    <t>acmituarte@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>jesus_andres_14@hotmail.com</t>
+  </si>
+  <si>
+    <t>rogola66@live.com.mx</t>
+  </si>
+  <si>
+    <t>marcoar.galan@gmail.com</t>
+  </si>
+  <si>
+    <t>adry.islas@hotmail.com</t>
+  </si>
+  <si>
+    <t>mariaesmerald@yahoo.com</t>
+  </si>
+  <si>
+    <t>ann1323.aa@gmail.com</t>
+  </si>
+  <si>
+    <t>5539334916@phonecall.com</t>
+  </si>
+  <si>
+    <t>garbiecheverria4@gmail.com</t>
+  </si>
+  <si>
+    <t>andres.michelr@gmail.com</t>
+  </si>
+  <si>
+    <t>alanamador7@gmail.com</t>
+  </si>
+  <si>
+    <t>lucardenasgtz@gmail.com</t>
+  </si>
+  <si>
+    <t>marckram9@gmail.com</t>
+  </si>
+  <si>
+    <t>Wvc8s7SPa@outlook.com</t>
+  </si>
+  <si>
+    <t>martinidasa@yahoo.com</t>
+  </si>
+  <si>
+    <t>atlantida.resendiz@gmail.com</t>
+  </si>
+  <si>
+    <t>molledag@hotmail.com</t>
+  </si>
+  <si>
+    <t>noel.acosta17@gmail.com</t>
+  </si>
+  <si>
+    <t>ituartemariana@gmail.com</t>
+  </si>
+  <si>
+    <t>manuel.dovali@gmail.com</t>
+  </si>
+  <si>
+    <t>Jennygaray14102000@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta, se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras.
+SEguimiento</t>
+  </si>
+  <si>
+    <t>No contesta telefono se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Le llamé y me dice que primero le envíe la información del proyecto y cotización de 2 y 3 recamara para que los revise.
 Seguimiento</t>
   </si>
   <si>
-    <t>Entra buzón se le envia mensaje por whats e información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón a la primera,se le envía mail de presentación.
+    <t>Visita al Showroom el sábado de 18 de Abril, se llevo información del 307A Llamarle el lunes 20</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras.
 Seguimiento</t>
   </si>
   <si>
-    <t>Busca en renta, pero solicito cotización del 205B</t>
-  </si>
-  <si>
-    <t>Esta buscando en renta</t>
-  </si>
-  <si>
-    <t>Es corredora y esta buscando para su hijo Rodrigo Velázquez Guillen y le interesa el PH03C. Se le envía cotización.
+    <t>Entra buzón se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>Busca 2 recamaras y tiene hasta $7 millones. Se le envió cotización del 205B
 Seguimiento</t>
   </si>
   <si>
-    <t>Entra siempre buzon se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Busca de 2 y 3 recamaras. no me dijo presupuesto. Se le envió cotización del 205B y 403C</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Me contesta y cuelga. no logro comunicarme con el cliente.
-Se le envía mail de presentación.
+    <t>Se le envía información de 3 recamaras por whats y Tiene cita programada para el Jueves 23 de Abril</t>
+  </si>
+  <si>
+    <t>Solicitó informes del proyecto y cotización de departamentos de 2 recamaras. Se le envió cotización del 205B. Seguimiento</t>
+  </si>
+  <si>
+    <t>Solicito información general por whats.</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto trae $4,500,000</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.
 Seguimiento</t>
   </si>
   <si>
-    <t>Solicita información de 3 recamaras, esta empezando a ver</t>
-  </si>
-  <si>
-    <t>Envié cotización de PH3A y PH1C y rango de precios de deptos</t>
-  </si>
-  <si>
-    <t>Trae presupuesto hasta $5,000,000 peso que le mande información</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo $3.4M</t>
-  </si>
-  <si>
-    <t>Es corredor, traerá clientes.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón se le envía mail de presentación.
+    <t>Me solicitó informes de PH's: PH02A, PU06A, PH09A y PH10A</t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.
 Seguimiento</t>
   </si>
   <si>
-    <t>Trae presupuesto de $4,000,000 sin embardo quiere que le mande información de 2 recamaras para verlo</t>
-  </si>
-  <si>
-    <t>Dejó teléfono equivocado, se le envió mail de presentación. 
-Seguimiento por mail.</t>
-  </si>
-  <si>
-    <t>Busca de 2 y 3 recamaras para inversión.
+    <t>Busca en Renta</t>
+  </si>
+  <si>
+    <t>Buzón de voz, se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>No dejo No. telefónico. Se le envía mail de presentación y cotización de 2 y 3 recamaras.
+Seguimiento por mail</t>
+  </si>
+  <si>
+    <t>El teléfono no sta disponible, se envía información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotización de 2 y 3 recamaras. Seguimiento</t>
+  </si>
+  <si>
+    <t>Se les envía información de 2 y 3 recamaras a ella y a su esposo Diego Castillo</t>
+  </si>
+  <si>
+    <t>Me contacta para pedir mi iopinión sobre otros desarrollos que ha visto en Condesa y Roma, le ofrezco también Av Napoles</t>
+  </si>
+  <si>
+    <t>Cuelga el teléfono, se le envía información general por whats y por mail</t>
+  </si>
+  <si>
+    <t>Busca departamento exterior de 2 recamaras se le enviaron los modelos 8C y 8A.
 Seguimiento</t>
   </si>
   <si>
-    <t>Entra buzón se le envía información por mail</t>
-  </si>
-  <si>
-    <t>Entra buzón. Se le envía mail de presentación.
-SEguimiento</t>
-  </si>
-  <si>
-    <t>Número no disponible se envia información general por mail</t>
-  </si>
-  <si>
-    <t>No dejó telefono. Se le envió mail de presentación. Seguimiento por mail.</t>
-  </si>
-  <si>
-    <t>Entra buzón, se leenió mail de presentación. Seguimiento</t>
-  </si>
-  <si>
-    <t>El teléfono está incorrecto, se le envía información general de 2 y 3 recamaras por mail.</t>
-  </si>
-  <si>
-    <t>No contesta. Mail de presentación.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Solicita información de departamentos de 3 recamaras se envia por whats</t>
-  </si>
-  <si>
-    <t>No dejó teléfono, se le envía mail de presentación.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Solicitó información de departamentos de 2 recámaras, información enviada por whats</t>
-  </si>
-  <si>
-    <t>Busca de tres recamaras y me dice que tiene $3m. pero que de cualquier forma le envíe la cotización del 205B</t>
-  </si>
-  <si>
-    <t>06 - 12 de Abril del 2020</t>
-  </si>
-  <si>
-    <t>Se envía presentación digital y cotización del 205B</t>
-  </si>
-  <si>
-    <t>No deja teléfono se envía información por mail</t>
+    <t>Se le envía información de 2 recamaras por whats</t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Me colgó a mitad de la llamada.</t>
+  </si>
+  <si>
+    <t>El telefono que dejo solo cuenta con servicio para navegar en internet  5513841692, se envia informacion por mail</t>
+  </si>
+  <si>
+    <t>No dejo teléfono, se le envió mail de presentación y cotización de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Se le envía información general por whats de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>Quieren vender su casa en los Cabos y venirse a vivir a México se le envió información de 2 y 3 recamaras por whats.</t>
+  </si>
+  <si>
+    <t>Llamada Whatsapp. Se le envía información de 2 y de 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Llamada Whatsapp. 
+Solicita información, por whatsapp departamento 307A.</t>
+  </si>
+  <si>
+    <t>No lo gro comunicarme, se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>13 - 19 de Abril del 2020</t>
+  </si>
+  <si>
+    <t>No contesta, Se le envía información general por whats y por mail</t>
+  </si>
+  <si>
+    <t>Se le envia información por whatsapp departamentos de 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Se le envía brochure digital e información general por mail</t>
+  </si>
+  <si>
+    <t>Andres Michel Rodrígez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana cristina martinez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martini </t>
   </si>
 </sst>
 </file>
@@ -1054,13 +950,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1398,10 +1294,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L261"/>
+  <dimension ref="A4:L253"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1353,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1492,7 +1388,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="34">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>21</v>
@@ -1511,7 +1407,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1524,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1537,7 +1433,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1557,13 +1453,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="34">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1574,13 +1470,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1597,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="F27" s="34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1622,7 +1518,7 @@
         <v>33</v>
       </c>
       <c r="F29" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1682,28 +1578,26 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="39">
-        <v>5535665869</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G34" s="39"/>
       <c r="H34" s="39" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1714,25 +1608,25 @@
         <v>29</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G35" s="39">
-        <v>5545136440</v>
+        <v>5614005671</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,10 +1634,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>3</v>
@@ -1752,16 +1646,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G36" s="39">
-        <v>4433457580</v>
+        <v>5541426527</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>3</v>
@@ -1781,16 +1675,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G37" s="39">
-        <v>5513105111</v>
+        <v>5523196455</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,7 +1695,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>3</v>
@@ -1810,16 +1704,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G38" s="39">
-        <v>5534665530</v>
+        <v>6241540611</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I38" s="39" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1827,28 +1721,28 @@
         <v>6</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="G39" s="39">
-        <v>5543610396</v>
+        <v>7122247200</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,28 +1750,28 @@
         <v>7</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G40" s="39">
-        <v>3314178186</v>
+        <v>5512353638</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1885,28 +1779,28 @@
         <v>8</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="G41" s="39">
-        <v>5528532883</v>
+        <v>5536599923</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,10 +1808,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>3</v>
@@ -1926,16 +1820,16 @@
         <v>31</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G42" s="39">
-        <v>5578913325</v>
+        <v>5580664676</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1943,10 +1837,10 @@
         <v>10</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>3</v>
@@ -1955,16 +1849,16 @@
         <v>31</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G43" s="39">
-        <v>5579076952</v>
+        <v>5586180506</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1972,7 +1866,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>60</v>
@@ -1984,16 +1878,16 @@
         <v>31</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G44" s="39">
-        <v>5520659177</v>
+        <v>5527656800</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,7 +1898,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>3</v>
@@ -2013,16 +1907,16 @@
         <v>31</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G45" s="39">
-        <v>5568875495</v>
+        <v>7712196127</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,7 +1927,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>3</v>
@@ -2042,16 +1936,16 @@
         <v>14</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G46" s="39">
-        <v>8117910498</v>
+        <v>5539334916</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2059,10 +1953,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>3</v>
@@ -2071,16 +1965,16 @@
         <v>14</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G47" s="39">
-        <v>5512888554</v>
+        <v>5534199158</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -2089,26 +1983,28 @@
         <v>15</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G48" s="39"/>
+        <v>110</v>
+      </c>
+      <c r="G48" s="39">
+        <v>5533967102</v>
+      </c>
       <c r="H48" s="39" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2116,28 +2012,28 @@
         <v>16</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" s="39">
-        <v>6142157084</v>
+        <v>5530350424</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,28 +2041,28 @@
         <v>17</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G50" s="39">
-        <v>7224158435</v>
+        <v>6413228237</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2174,28 +2070,28 @@
         <v>18</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G51" s="39">
-        <v>5519004553</v>
+        <v>5525609124</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2206,7 +2102,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>5</v>
@@ -2215,16 +2111,16 @@
         <v>13</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G52" s="39">
-        <v>5528620367</v>
+        <v>41738560</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>5</v>
@@ -2244,16 +2140,16 @@
         <v>13</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G53" s="39">
-        <v>5537337373</v>
+        <v>5554376496</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>5</v>
@@ -2273,16 +2169,16 @@
         <v>13</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G54" s="39">
-        <v>5554019873</v>
+        <v>5518471074</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2293,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>5</v>
@@ -2302,16 +2198,14 @@
         <v>13</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="39">
-        <v>5525611447</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G55" s="39"/>
       <c r="H55" s="39" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,7 +2216,7 @@
         <v>29</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>5</v>
@@ -2331,16 +2225,16 @@
         <v>13</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="G56" s="39">
-        <v>553466554</v>
+        <v>5519515706</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,7 +2245,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>5</v>
@@ -2360,16 +2254,16 @@
         <v>13</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G57" s="39">
-        <v>5544487681</v>
+        <v>5523004330</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,7 +2274,7 @@
         <v>29</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>5</v>
@@ -2389,16 +2283,16 @@
         <v>13</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G58" s="39">
-        <v>5525590602</v>
+        <v>5569006106</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,10 +2300,10 @@
         <v>26</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>5</v>
@@ -2418,16 +2312,16 @@
         <v>13</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="G59" s="39">
-        <v>5533108080</v>
+        <v>5513335213</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,10 +2329,10 @@
         <v>27</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>5</v>
@@ -2447,16 +2341,16 @@
         <v>13</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G60" s="39">
-        <v>5514399159</v>
+        <v>4442013260</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2467,7 +2361,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>5</v>
@@ -2476,16 +2370,16 @@
         <v>13</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G61" s="39">
-        <v>3314118246</v>
+        <v>5512965912</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,7 +2390,7 @@
         <v>30</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>5</v>
@@ -2505,16 +2399,16 @@
         <v>13</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G62" s="39">
-        <v>5523945289</v>
+        <v>5548998870</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,28 +2416,28 @@
         <v>30</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G63" s="39">
-        <v>5547831625</v>
+        <v>5516821634</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2551,28 +2445,28 @@
         <v>31</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G64" s="39">
-        <v>5527379917</v>
+        <v>7225336736</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2580,28 +2474,28 @@
         <v>32</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G65" s="39">
-        <v>5549403963</v>
+        <v>6624717691</v>
       </c>
       <c r="H65" s="39" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,28 +2503,28 @@
         <v>33</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D66" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G66" s="39">
-        <v>984567890</v>
+        <v>4499119282</v>
       </c>
       <c r="H66" s="39" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2638,28 +2532,26 @@
         <v>34</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G67" s="39">
-        <v>5520807149</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G67" s="39"/>
       <c r="H67" s="39" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>74</v>
@@ -2676,19 +2568,19 @@
         <v>5</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G68" s="39">
-        <v>5534330708</v>
+        <v>5538853148</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2699,25 +2591,25 @@
         <v>30</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="G69" s="39">
-        <v>5549406742</v>
+        <v>5564150057</v>
       </c>
       <c r="H69" s="39" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2725,10 +2617,10 @@
         <v>37</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>5</v>
@@ -2737,16 +2629,16 @@
         <v>31</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="G70" s="39">
-        <v>6682302763</v>
+        <v>5560707606</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2754,10 +2646,10 @@
         <v>38</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D71" s="38" t="s">
         <v>5</v>
@@ -2766,16 +2658,16 @@
         <v>31</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G71" s="39">
-        <v>9933839643</v>
+        <v>5579243781</v>
       </c>
       <c r="H71" s="39" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2783,10 +2675,10 @@
         <v>39</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>5</v>
@@ -2795,16 +2687,16 @@
         <v>31</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G72" s="39">
-        <v>5528369143</v>
+        <v>9512338043</v>
       </c>
       <c r="H72" s="39" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I72" s="39" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2812,10 +2704,10 @@
         <v>40</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>5</v>
@@ -2824,355 +2716,208 @@
         <v>31</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G73" s="39">
-        <v>4772740950</v>
+        <v>13841692</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I73" s="39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>41</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="41"/>
+    </row>
+    <row r="75" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="39"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="41"/>
+    </row>
+    <row r="76" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="I74" s="39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>42</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" s="39">
-        <v>9982607326</v>
-      </c>
-      <c r="H75" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="I75" s="39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>43</v>
-      </c>
-      <c r="B76" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I76" s="39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>44</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" s="39">
-        <v>5525115818</v>
-      </c>
-      <c r="H77" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="I77" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>45</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" s="39">
-        <v>5526845542</v>
-      </c>
-      <c r="H78" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="I78" s="39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>46</v>
-      </c>
-      <c r="B79" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" s="39">
-        <v>6647427716</v>
-      </c>
-      <c r="H79" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I79" s="39" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>47</v>
-      </c>
-      <c r="B80" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="39">
-        <v>5521359499</v>
-      </c>
-      <c r="H80" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I80" s="39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>48</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" s="39">
-        <v>5543374357</v>
-      </c>
-      <c r="H81" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="I81" s="39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="39"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="41"/>
-    </row>
-    <row r="83" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="41"/>
-    </row>
-    <row r="84" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="12"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="12"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="12"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="12"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="12"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="12"/>
-    </row>
-    <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="B90" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="23" t="s">
+      <c r="C82" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="D82" s="24"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3180,8 +2925,9 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3189,8 +2935,9 @@
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
       <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3198,9 +2945,11 @@
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="21"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3208,9 +2957,11 @@
       <c r="F94" s="5"/>
       <c r="G94" s="6"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="21"/>
-    </row>
-    <row r="95" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3218,19 +2969,21 @@
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5"/>
       <c r="G96" s="6"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="21"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
     </row>
     <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
@@ -3240,18 +2993,21 @@
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="21"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="21"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
@@ -3261,7 +3017,9 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="21"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
     </row>
     <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
@@ -3271,7 +3029,9 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="21"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
@@ -3281,7 +3041,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="J101" s="3"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
     </row>
@@ -3377,7 +3137,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
       <c r="I109" s="6"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
     </row>
@@ -4978,97 +4738,41 @@
       <c r="L242" s="6"/>
     </row>
     <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="6"/>
-      <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
     <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="6"/>
-      <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
     <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="6"/>
-      <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
     <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="6"/>
-      <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
     <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="6"/>
-      <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
     <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="6"/>
-      <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
     </row>
     <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="6"/>
-      <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
     </row>
     <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="6"/>
-      <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
@@ -5088,48 +4792,8 @@
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
     </row>
-    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J254" s="6"/>
-      <c r="K254" s="6"/>
-      <c r="L254" s="6"/>
-    </row>
-    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J255" s="6"/>
-      <c r="K255" s="6"/>
-      <c r="L255" s="6"/>
-    </row>
-    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J256" s="6"/>
-      <c r="K256" s="6"/>
-      <c r="L256" s="6"/>
-    </row>
-    <row r="257" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J257" s="6"/>
-      <c r="K257" s="6"/>
-      <c r="L257" s="6"/>
-    </row>
-    <row r="258" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J258" s="6"/>
-      <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
-    </row>
-    <row r="259" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J259" s="6"/>
-      <c r="K259" s="6"/>
-      <c r="L259" s="6"/>
-    </row>
-    <row r="260" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J260" s="6"/>
-      <c r="K260" s="6"/>
-      <c r="L260" s="6"/>
-    </row>
-    <row r="261" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J261" s="6"/>
-      <c r="K261" s="6"/>
-      <c r="L261" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:A81">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A73">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF26C910-87D1-104D-9351-4A9276728217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B3E1BA-C945-0F4B-A97D-874C2E14824A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27480" yWindow="460" windowWidth="34720" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25880" yWindow="520" windowWidth="37880" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
   <si>
     <t>A</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
@@ -134,487 +131,466 @@
     <t>Messenger</t>
   </si>
   <si>
-    <t>Alejandra Campos García</t>
-  </si>
-  <si>
-    <t>2020-04-19 17:33:40</t>
-  </si>
-  <si>
-    <t>2020-04-19 17:09:05</t>
-  </si>
-  <si>
-    <t>2020-04-19 13:20:42</t>
-  </si>
-  <si>
-    <t>2020-04-19 11:43:05</t>
-  </si>
-  <si>
-    <t>2020-04-19 01:21:04</t>
-  </si>
-  <si>
-    <t>2020-04-18 18:56:18</t>
-  </si>
-  <si>
-    <t>2020-04-18 11:54:19</t>
-  </si>
-  <si>
-    <t>2020-04-18 11:22:06</t>
-  </si>
-  <si>
-    <t>2020-04-18 00:37:06</t>
-  </si>
-  <si>
-    <t>2020-04-17 22:11:30</t>
-  </si>
-  <si>
-    <t>2020-04-17 20:28:21</t>
-  </si>
-  <si>
-    <t>2020-04-17 15:08:09</t>
-  </si>
-  <si>
-    <t>2020-04-17 10:11:25</t>
-  </si>
-  <si>
-    <t>2020-04-16 23:47:54</t>
-  </si>
-  <si>
-    <t>2020-04-16 21:59:41</t>
-  </si>
-  <si>
-    <t>2020-04-16 19:20:49</t>
-  </si>
-  <si>
-    <t>2020-04-16 13:41:50</t>
-  </si>
-  <si>
-    <t>2020-04-15 22:34:38</t>
-  </si>
-  <si>
-    <t>2020-04-15 21:54:44</t>
-  </si>
-  <si>
-    <t>2020-04-15 17:48:40</t>
-  </si>
-  <si>
-    <t>2020-04-15 14:29:39</t>
-  </si>
-  <si>
-    <t>2020-04-15 07:40:48</t>
-  </si>
-  <si>
-    <t>2020-04-15 00:21:10</t>
-  </si>
-  <si>
-    <t>2020-04-14 22:47:19</t>
-  </si>
-  <si>
-    <t>2020-04-14 22:32:59</t>
-  </si>
-  <si>
-    <t>2020-04-14 17:18:17</t>
-  </si>
-  <si>
-    <t>2020-04-14 12:53:15</t>
-  </si>
-  <si>
-    <t>2020-04-14 12:38:17</t>
-  </si>
-  <si>
-    <t>2020-04-14 08:02:26</t>
-  </si>
-  <si>
-    <t>2020-04-14 07:12:10</t>
-  </si>
-  <si>
-    <t>2020-04-14 01:39:59</t>
-  </si>
-  <si>
-    <t>2020-04-13 23:58:11</t>
-  </si>
-  <si>
-    <t>2020-04-13 22:41:25</t>
-  </si>
-  <si>
-    <t>2020-04-13 19:38:20</t>
-  </si>
-  <si>
-    <t>2020-04-13 16:00:41</t>
-  </si>
-  <si>
-    <t>2020-04-13 15:34:29</t>
-  </si>
-  <si>
-    <t>2020-04-13 14:45:34</t>
-  </si>
-  <si>
-    <t>2020-04-13 13:00:02</t>
-  </si>
-  <si>
-    <t>2020-04-13 12:55:29</t>
-  </si>
-  <si>
-    <t>2020-04-13 11:35:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizbeth Becerril Contreras </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alicia Gtz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerardo Marin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melissa Alvarez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuria Yunuen </t>
-  </si>
-  <si>
-    <t>Edgar Salas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carmina Rodriguez Zaldivar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilse Nayeli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midori abigail silva Reyes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tania Annirack Flores García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mafalda Comales </t>
-  </si>
-  <si>
-    <t>Elizabeth Gonzalez</t>
-  </si>
-  <si>
-    <t>Diana Aline Garcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuri Sevilla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samantha Shs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Fragoso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brayan Valdes Vazquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Trujillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Rivera centeno </t>
-  </si>
-  <si>
-    <t>Jesus Andres Garcia Medina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Gonzalez Labastida </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Islas Romero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Esmeralda Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Aguirre </t>
-  </si>
-  <si>
-    <t>Luis Gonzalez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garbu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Amador Perez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadalupe Cárdenas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">marco antonio Ramírez Ortiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantida Resendiz Cruz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grace Izquierdo Molleda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noel Acosta </t>
-  </si>
-  <si>
-    <t>Mariana Ituarte</t>
-  </si>
-  <si>
-    <t>Manuel Dovali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennifer </t>
-  </si>
-  <si>
-    <t>lbecerril018@gmail.com</t>
-  </si>
-  <si>
-    <t>alizzgo_78@hotmail.com</t>
-  </si>
-  <si>
-    <t>gmarin2000@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mel-alvarez@hotmail.com</t>
-  </si>
-  <si>
-    <t>nuria_y_om@icloud.com</t>
-  </si>
-  <si>
-    <t>edgar_salas@hotmail.com</t>
-  </si>
-  <si>
-    <t>crodriguezzsldivar@gmail.com</t>
-  </si>
-  <si>
-    <t>ilse3571@hotmail.com</t>
-  </si>
-  <si>
-    <t>silvamidori986@gmail.com</t>
-  </si>
-  <si>
-    <t>maradan.tr@gmail.com</t>
-  </si>
-  <si>
-    <t>Pilrcr@hotmail.com</t>
-  </si>
-  <si>
-    <t>elypope200879@gmail.com</t>
-  </si>
-  <si>
-    <t>alinearteaga@me.com</t>
-  </si>
-  <si>
-    <t>yurisevilla@hotmail.com</t>
-  </si>
-  <si>
-    <t>shsondersam90@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jofrago1302@gmail.com</t>
-  </si>
-  <si>
-    <t>valdesvzquezbrayan@gmail.com</t>
-  </si>
-  <si>
-    <t>dtrujillovaz@gmail.com</t>
-  </si>
-  <si>
-    <t>alejandro_1508@outlook.com</t>
-  </si>
-  <si>
-    <t>acmituarte@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>jesus_andres_14@hotmail.com</t>
-  </si>
-  <si>
-    <t>rogola66@live.com.mx</t>
-  </si>
-  <si>
-    <t>marcoar.galan@gmail.com</t>
-  </si>
-  <si>
-    <t>adry.islas@hotmail.com</t>
-  </si>
-  <si>
-    <t>mariaesmerald@yahoo.com</t>
-  </si>
-  <si>
-    <t>ann1323.aa@gmail.com</t>
-  </si>
-  <si>
-    <t>5539334916@phonecall.com</t>
-  </si>
-  <si>
-    <t>garbiecheverria4@gmail.com</t>
-  </si>
-  <si>
-    <t>andres.michelr@gmail.com</t>
-  </si>
-  <si>
-    <t>alanamador7@gmail.com</t>
-  </si>
-  <si>
-    <t>lucardenasgtz@gmail.com</t>
-  </si>
-  <si>
-    <t>marckram9@gmail.com</t>
-  </si>
-  <si>
-    <t>Wvc8s7SPa@outlook.com</t>
-  </si>
-  <si>
-    <t>martinidasa@yahoo.com</t>
-  </si>
-  <si>
-    <t>atlantida.resendiz@gmail.com</t>
-  </si>
-  <si>
-    <t>molledag@hotmail.com</t>
-  </si>
-  <si>
-    <t>noel.acosta17@gmail.com</t>
-  </si>
-  <si>
-    <t>ituartemariana@gmail.com</t>
-  </si>
-  <si>
-    <t>manuel.dovali@gmail.com</t>
-  </si>
-  <si>
-    <t>Jennygaray14102000@gmail.com</t>
-  </si>
-  <si>
-    <t>No contesta, se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras.
-SEguimiento</t>
-  </si>
-  <si>
-    <t>No contesta telefono se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Le llamé y me dice que primero le envíe la información del proyecto y cotización de 2 y 3 recamara para que los revise.
+    <t>2020-04-26 17:14:44</t>
+  </si>
+  <si>
+    <t>2020-04-26 16:11:49</t>
+  </si>
+  <si>
+    <t>2020-04-26 14:39:49</t>
+  </si>
+  <si>
+    <t>2020-04-26 12:40:50</t>
+  </si>
+  <si>
+    <t>2020-04-26 11:50:49</t>
+  </si>
+  <si>
+    <t>2020-04-26 11:17:02</t>
+  </si>
+  <si>
+    <t>2020-04-26 00:26:05</t>
+  </si>
+  <si>
+    <t>2020-04-25 23:29:59</t>
+  </si>
+  <si>
+    <t>2020-04-25 23:20:57</t>
+  </si>
+  <si>
+    <t>2020-04-25 22:04:33</t>
+  </si>
+  <si>
+    <t>2020-04-25 21:26:16</t>
+  </si>
+  <si>
+    <t>2020-04-25 20:40:08</t>
+  </si>
+  <si>
+    <t>2020-04-25 19:11:41</t>
+  </si>
+  <si>
+    <t>2020-04-25 17:05:21</t>
+  </si>
+  <si>
+    <t>2020-04-25 13:14:39</t>
+  </si>
+  <si>
+    <t>2020-04-24 00:04:40</t>
+  </si>
+  <si>
+    <t>2020-04-23 20:31:15</t>
+  </si>
+  <si>
+    <t>2020-04-23 16:34:11</t>
+  </si>
+  <si>
+    <t>2020-04-23 16:22:04</t>
+  </si>
+  <si>
+    <t>2020-04-23 15:07:32</t>
+  </si>
+  <si>
+    <t>2020-04-23 13:02:00</t>
+  </si>
+  <si>
+    <t>2020-04-23 09:31:20</t>
+  </si>
+  <si>
+    <t>2020-04-23 01:23:58</t>
+  </si>
+  <si>
+    <t>2020-04-23 00:18:59</t>
+  </si>
+  <si>
+    <t>2020-04-22 21:09:02</t>
+  </si>
+  <si>
+    <t>2020-04-22 18:06:47</t>
+  </si>
+  <si>
+    <t>2020-04-22 14:33:53</t>
+  </si>
+  <si>
+    <t>2020-04-22 10:23:44</t>
+  </si>
+  <si>
+    <t>2020-04-21 21:02:23</t>
+  </si>
+  <si>
+    <t>2020-04-21 19:56:04</t>
+  </si>
+  <si>
+    <t>2020-04-21 15:16:25</t>
+  </si>
+  <si>
+    <t>2020-04-21 00:21:46</t>
+  </si>
+  <si>
+    <t>2020-04-20 18:56:39</t>
+  </si>
+  <si>
+    <t>2020-04-20 18:45:54</t>
+  </si>
+  <si>
+    <t>2020-04-20 18:32:46</t>
+  </si>
+  <si>
+    <t>2020-04-20 13:31:43</t>
+  </si>
+  <si>
+    <t>2020-04-20 13:22:31</t>
+  </si>
+  <si>
+    <t>2020-04-20 00:29:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocio Fernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ale Adam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estephanya melendez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo aaron mendoza Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haydée Calderon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Alonso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodolfo Espinosa De Los Monteros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat Desentis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorgelina Figueroa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denisse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia del Rosal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minka Luque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariadna Paulina Sandoval Marín </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Alberto Campos Benitez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Gaytan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lili5585329803 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Zenteno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dario Scherer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">juan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus Elizondo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amelia Walker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier cedeño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn Kassandra Valverde Gomez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Jimenez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Eugenia Salgado Guzman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Sampaio (broker Alur Bienes Raices) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinez Isabel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renatta Chavez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Arjan Rivas Guzmán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juana Solis Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallorca Karol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Del Rio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaid López Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axel Zamudio </t>
+  </si>
+  <si>
+    <t>rocio_fernandez_sobero@hotmail.com</t>
+  </si>
+  <si>
+    <t>aleadam@live.com.mx</t>
+  </si>
+  <si>
+    <t>paigestacyh@gmail.com</t>
+  </si>
+  <si>
+    <t>gustavoaaronmendozagarcia@gmail.com</t>
+  </si>
+  <si>
+    <t>aidecalderon18@hotmail.com</t>
+  </si>
+  <si>
+    <t>aeta_abogados@outlook.com</t>
+  </si>
+  <si>
+    <t>calisteniaystreetworkout99@gma.com</t>
+  </si>
+  <si>
+    <t>respinosan@icloud.com</t>
+  </si>
+  <si>
+    <t>montse_27@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorgelina_figueroa@hotmail.com</t>
+  </si>
+  <si>
+    <t>beciezdenise260617@gmail.com</t>
+  </si>
+  <si>
+    <t>patt_me@hotmail.com</t>
+  </si>
+  <si>
+    <t>minka.luque999.9@gmail.com</t>
+  </si>
+  <si>
+    <t>ariadnamarin210102@gmail.com</t>
+  </si>
+  <si>
+    <t>pedro_benitez77@hotmail.com</t>
+  </si>
+  <si>
+    <t>David.gaytan.f@gmail.com</t>
+  </si>
+  <si>
+    <t>liliaespinisa24@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Adriana.zenteno.rizo@gmail.com</t>
+  </si>
+  <si>
+    <t>darioschererc@gmail.com</t>
+  </si>
+  <si>
+    <t>anarodaco65@gmail.com</t>
+  </si>
+  <si>
+    <t>psierra53@icloud.com</t>
+  </si>
+  <si>
+    <t>jesus.elizondon@gmail.com</t>
+  </si>
+  <si>
+    <t>amelia1996@gmail.com</t>
+  </si>
+  <si>
+    <t>erubio811@gmail.com</t>
+  </si>
+  <si>
+    <t>obregon.6913@gmail.com</t>
+  </si>
+  <si>
+    <t>kassandravalverde7@gmail.com</t>
+  </si>
+  <si>
+    <t>fjajm@hotmail.com</t>
+  </si>
+  <si>
+    <t>maeugeny09@gmail.com</t>
+  </si>
+  <si>
+    <t>adriana@alur.mx</t>
+  </si>
+  <si>
+    <t>Isabel@c21fortaleza.com</t>
+  </si>
+  <si>
+    <t>renattavchavez@gmail.com</t>
+  </si>
+  <si>
+    <t>arjanrivas.sm@gmail.com</t>
+  </si>
+  <si>
+    <t>jsoldeoro5@gmail.com</t>
+  </si>
+  <si>
+    <t>mallor10@gmail.com</t>
+  </si>
+  <si>
+    <t>monicapdelrioc@hotmail.com</t>
+  </si>
+  <si>
+    <t>comprador@live.com.mx</t>
+  </si>
+  <si>
+    <t>anaid131193@outlook.com</t>
+  </si>
+  <si>
+    <t>axelcooper@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información de 2 y 3 recamaras por mail</t>
+  </si>
+  <si>
+    <t>Se le envía información de 2 recamaras mas estudio</t>
+  </si>
+  <si>
+    <t>Se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotización de 2 y 3 recamaras.
 Seguimiento</t>
   </si>
   <si>
-    <t>Visita al Showroom el sábado de 18 de Abril, se llevo información del 307A Llamarle el lunes 20</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. se le envió mail de presentación y cotizaciones de departamentos de 2 y 3 recamaras.
+    <t>Se le envia información general por mail</t>
+  </si>
+  <si>
+    <t>Solicitó informes de 2 y 3 recamaras se le envió el 205B 
 Seguimiento</t>
   </si>
   <si>
-    <t>Entra buzón se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>Busca 2 recamaras y tiene hasta $7 millones. Se le envió cotización del 205B
+    <t>No deja teléfono se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta, se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>Se le envía información de 3 recamaras por whats y Tiene cita programada para el Jueves 23 de Abril</t>
-  </si>
-  <si>
-    <t>Solicitó informes del proyecto y cotización de departamentos de 2 recamaras. Se le envió cotización del 205B. Seguimiento</t>
-  </si>
-  <si>
-    <t>Solicito información general por whats.</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $4,500,000</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.
+    <t>No contesta se le envía información por mail.</t>
+  </si>
+  <si>
+    <t>Solicitó informes de departamento de 2 recamaras. se le envió el 205A.
 Seguimiento</t>
   </si>
   <si>
-    <t>Me solicitó informes de PH's: PH02A, PU06A, PH09A y PH10A</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>Busca en Renta de $15,000 pesos</t>
+  </si>
+  <si>
+    <t>Me contestó y me pidió cotización de 3 recamaras, se le envió el 403C
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto $4,500,000</t>
+  </si>
+  <si>
+    <t>No dejó teléfono se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Me pidió información general no me dijo de que presupuesto. le envié de 2 y 3 recamaras.
 Seguimiento</t>
   </si>
   <si>
-    <t>Busca en Renta</t>
-  </si>
-  <si>
-    <t>Buzón de voz, se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>No dejo No. telefónico. Se le envía mail de presentación y cotización de 2 y 3 recamaras.
-Seguimiento por mail</t>
-  </si>
-  <si>
-    <t>El teléfono no sta disponible, se envía información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotización de 2 y 3 recamaras. Seguimiento</t>
-  </si>
-  <si>
-    <t>Se les envía información de 2 y 3 recamaras a ella y a su esposo Diego Castillo</t>
-  </si>
-  <si>
-    <t>Me contacta para pedir mi iopinión sobre otros desarrollos que ha visto en Condesa y Roma, le ofrezco también Av Napoles</t>
-  </si>
-  <si>
-    <t>Cuelga el teléfono, se le envía información general por whats y por mail</t>
-  </si>
-  <si>
-    <t>Busca departamento exterior de 2 recamaras se le enviaron los modelos 8C y 8A.
+    <t>Busca para renta</t>
+  </si>
+  <si>
+    <t>Se le envía información por mail de 3 recámaras.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones. Seguimiento</t>
+  </si>
+  <si>
+    <t>Se le envía infomación de 2 recámaras mas estudio y de 3 rfecamaras mas estudio.por mail y por whats.</t>
+  </si>
+  <si>
+    <t>Le llamé y me pidió le llame en la tarde.
 Seguimiento</t>
   </si>
   <si>
-    <t>Se le envía información de 2 recamaras por whats</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Me colgó a mitad de la llamada.</t>
-  </si>
-  <si>
-    <t>El telefono que dejo solo cuenta con servicio para navegar en internet  5513841692, se envia informacion por mail</t>
-  </si>
-  <si>
-    <t>No dejo teléfono, se le envió mail de presentación y cotización de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Se le envía información general por whats de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>Quieren vender su casa en los Cabos y venirse a vivir a México se le envió información de 2 y 3 recamaras por whats.</t>
-  </si>
-  <si>
-    <t>Llamada Whatsapp. Se le envía información de 2 y de 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Llamada Whatsapp. 
-Solicita información, por whatsapp departamento 307A.</t>
-  </si>
-  <si>
-    <t>No lo gro comunicarme, se le envió mail de presentación y cotizaciones de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>13 - 19 de Abril del 2020</t>
-  </si>
-  <si>
-    <t>No contesta, Se le envía información general por whats y por mail</t>
-  </si>
-  <si>
-    <t>Se le envia información por whatsapp departamentos de 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Se le envía brochure digital e información general por mail</t>
-  </si>
-  <si>
-    <t>Andres Michel Rodrígez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana cristina martinez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martini </t>
+    <t>Entra buzón le envie información por mail</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca en renta, le ofrecí en venta y para poder comprar solo cuenta con $4,000,000 de pesos</t>
+  </si>
+  <si>
+    <t>No dejo numero telefónico, se le envió mail de presentación y cotizaciones.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Se le envía información de 2 recámaras por whats</t>
+  </si>
+  <si>
+    <t>Dejó teléfono equivocado, se le envió mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto trae $4,000,000</t>
+  </si>
+  <si>
+    <t>Se le dejo mensaje a su contestadora, también se le envió mail de presentación y cotizaciones.
+Seguimientos</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envió mail de presentación y cotizaciones.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>20 - 26 de Abril del 2020</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información general por mail y se le envía whats App</t>
+  </si>
+  <si>
+    <t>Arturo Joya Cantor</t>
+  </si>
+  <si>
+    <t>Solicita información general, que si hay interes me llama, daré seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta, se le envia mail de presentación y cotización de dos y tres recámaras, Seguimiento</t>
+  </si>
+  <si>
+    <t>Solicita información general y cotización de dos recámaras, se le envió cotización de 205B</t>
+  </si>
+  <si>
+    <t>Solicita información general y cotización de dos y tres recámaras, se le envió cotización de 205B y 403C Seguimiento</t>
   </si>
 </sst>
 </file>
@@ -950,13 +926,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1294,10 +1270,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L253"/>
+  <dimension ref="A4:L251"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1285,7 @@
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="132.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
@@ -1344,7 +1320,7 @@
     </row>
     <row r="15" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
@@ -1353,7 +1329,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1369,7 +1345,7 @@
     </row>
     <row r="18" spans="2:9" ht="20" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="12"/>
@@ -1385,13 +1361,13 @@
     </row>
     <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="34">
+        <v>38</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" s="34">
-        <v>40</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="F20" s="34">
         <v>0</v>
@@ -1404,10 +1380,10 @@
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="E21" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1417,10 +1393,10 @@
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
       <c r="E22" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" s="34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1430,7 +1406,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="E23" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="34">
         <v>22</v>
@@ -1450,16 +1426,16 @@
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1467,33 +1443,29 @@
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="34">
-        <v>1</v>
-      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="34"/>
       <c r="E27" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="34">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1503,7 +1475,7 @@
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="E28" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="34">
         <v>0</v>
@@ -1515,7 +1487,7 @@
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="E29" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="34">
         <v>0</v>
@@ -1533,7 +1505,7 @@
     </row>
     <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
@@ -1558,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>9</v>
@@ -1578,26 +1550,28 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="G34" s="39">
+        <v>5544994107</v>
+      </c>
       <c r="H34" s="39" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1605,28 +1579,28 @@
         <v>2</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G35" s="39">
-        <v>5614005671</v>
+        <v>5510090332</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>3</v>
@@ -1646,16 +1620,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G36" s="39">
-        <v>5541426527</v>
+        <v>7472543976</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>3</v>
@@ -1675,16 +1649,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="G37" s="39">
-        <v>5523196455</v>
+        <v>5532007809</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>3</v>
@@ -1704,16 +1678,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G38" s="39">
-        <v>6241540611</v>
+        <v>5532000100</v>
       </c>
       <c r="H38" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="39" t="s">
         <v>148</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,25 +1698,25 @@
         <v>29</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G39" s="39">
-        <v>7122247200</v>
+        <v>5534007613</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1753,25 +1727,25 @@
         <v>29</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G40" s="39">
-        <v>5512353638</v>
+        <v>9932781335</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="I40" s="39" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,28 +1753,28 @@
         <v>8</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="G41" s="39">
-        <v>5536599923</v>
+        <v>5527066947</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1808,28 +1782,28 @@
         <v>9</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G42" s="39">
-        <v>5580664676</v>
+        <v>5539911426</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,28 +1811,28 @@
         <v>10</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="39">
-        <v>5586180506</v>
+        <v>5565434658</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I43" s="39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,28 +1840,28 @@
         <v>11</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G44" s="39">
-        <v>5527656800</v>
+        <v>5561114476</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,28 +1869,26 @@
         <v>12</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="39">
-        <v>7712196127</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G45" s="39"/>
       <c r="H45" s="39" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,28 +1896,28 @@
         <v>13</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G46" s="39">
-        <v>5539334916</v>
+        <v>5519784585</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1956,25 +1928,25 @@
         <v>29</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G47" s="39">
-        <v>5534199158</v>
+        <v>5513302253</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -1983,28 +1955,28 @@
         <v>15</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G48" s="39">
-        <v>5533967102</v>
+        <v>5543687556</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2012,28 +1984,26 @@
         <v>16</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F49" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="39">
-        <v>5530350424</v>
-      </c>
+      <c r="G49" s="39"/>
       <c r="H49" s="39" t="s">
         <v>124</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,28 +2011,28 @@
         <v>17</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G50" s="39">
-        <v>6413228237</v>
+        <v>5533762310</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2070,28 +2040,28 @@
         <v>18</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G51" s="39">
-        <v>5525609124</v>
+        <v>8182532698</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,28 +2069,28 @@
         <v>19</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G52" s="39">
-        <v>41738560</v>
+        <v>8120211497</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2128,28 +2098,26 @@
         <v>20</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="39">
-        <v>5554376496</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G53" s="39"/>
       <c r="H53" s="39" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2157,28 +2125,28 @@
         <v>21</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="G54" s="39">
-        <v>5518471074</v>
+        <v>5553630110</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,23 +2157,23 @@
         <v>29</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G55" s="39"/>
       <c r="H55" s="39" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,10 +2181,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>5</v>
@@ -2225,16 +2193,16 @@
         <v>13</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G56" s="39">
-        <v>5519515706</v>
+        <v>5543666020</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,10 +2210,10 @@
         <v>24</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>5</v>
@@ -2254,16 +2222,16 @@
         <v>13</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G57" s="39">
-        <v>5523004330</v>
+        <v>6181569677</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2271,10 +2239,10 @@
         <v>25</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>5</v>
@@ -2283,16 +2251,16 @@
         <v>13</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G58" s="39">
-        <v>5569006106</v>
+        <v>6644031020</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,10 +2268,10 @@
         <v>26</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>5</v>
@@ -2312,16 +2280,16 @@
         <v>13</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G59" s="39">
-        <v>5513335213</v>
+        <v>5554371660</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,10 +2297,10 @@
         <v>27</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>5</v>
@@ -2341,16 +2309,16 @@
         <v>13</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G60" s="39">
-        <v>4442013260</v>
+        <v>556677887788</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,10 +2326,10 @@
         <v>28</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>5</v>
@@ -2370,16 +2338,16 @@
         <v>13</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G61" s="39">
-        <v>5512965912</v>
+        <v>5532245571</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,28 +2355,28 @@
         <v>29</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G62" s="39">
-        <v>5548998870</v>
+        <v>5527446861</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,28 +2384,28 @@
         <v>30</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G63" s="39">
-        <v>5516821634</v>
+        <v>525620153702</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,28 +2413,28 @@
         <v>31</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G64" s="39">
-        <v>7225336736</v>
+        <v>4422009133</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2477,25 +2445,25 @@
         <v>29</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D65" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G65" s="39">
-        <v>6624717691</v>
+        <v>9612737489</v>
       </c>
       <c r="H65" s="39" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,25 +2474,25 @@
         <v>29</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D66" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G66" s="39">
-        <v>4499119282</v>
+        <v>4448275239</v>
       </c>
       <c r="H66" s="39" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2535,23 +2503,25 @@
         <v>29</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D67" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="G67" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="G67" s="39">
+        <v>5579035099</v>
+      </c>
       <c r="H67" s="39" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,25 +2532,25 @@
         <v>29</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D68" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F68" s="39" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G68" s="39">
-        <v>5538853148</v>
+        <v>5535002812</v>
       </c>
       <c r="H68" s="39" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2588,28 +2558,26 @@
         <v>36</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="39">
-        <v>5564150057</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G69" s="39"/>
       <c r="H69" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2617,28 +2585,28 @@
         <v>37</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D70" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="G70" s="39">
-        <v>5560707606</v>
+        <v>3467004615</v>
       </c>
       <c r="H70" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.25">
@@ -2646,112 +2614,74 @@
         <v>38</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D71" s="38" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G71" s="39">
-        <v>5579243781</v>
+        <v>5578467984</v>
       </c>
       <c r="H71" s="39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I71" s="39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>39</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F72" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="39">
-        <v>9512338043</v>
-      </c>
-      <c r="H72" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="I72" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>40</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G73" s="39">
-        <v>13841692</v>
-      </c>
-      <c r="H73" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I73" s="39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="39"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="41"/>
-    </row>
-    <row r="75" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="41"/>
-    </row>
-    <row r="76" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="36" t="s">
-        <v>17</v>
-      </c>
+    <row r="72" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="41"/>
+    </row>
+    <row r="73" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="41"/>
+    </row>
+    <row r="74" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
       <c r="C76" s="19"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
@@ -2761,31 +2691,39 @@
       <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="20"/>
+      <c r="B77" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
       <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="20"/>
+      <c r="B78" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="25"/>
@@ -2794,49 +2732,39 @@
       <c r="H79" s="28"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B80" s="22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="12"/>
-    </row>
-    <row r="82" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B82" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="30"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="2:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2844,6 +2772,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="I83" s="6"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
@@ -2853,8 +2782,9 @@
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2865,7 +2795,9 @@
       <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -2874,7 +2806,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="21"/>
     </row>
-    <row r="87" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2885,15 +2817,14 @@
       <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-      <c r="I88" s="6"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="3"/>
       <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,14 +2838,13 @@
       <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="3"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="I90" s="6"/>
       <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2925,7 +2855,9 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="21"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
@@ -2935,7 +2867,9 @@
       <c r="F92" s="5"/>
       <c r="G92" s="6"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="21"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
@@ -3017,7 +2951,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="3"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
     </row>
@@ -3041,7 +2975,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="3"/>
+      <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
     </row>
@@ -4713,87 +4647,63 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
-    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="6"/>
-      <c r="I241" s="6"/>
+    <row r="241" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
     </row>
-    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="6"/>
-      <c r="I242" s="6"/>
+    <row r="242" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
     </row>
-    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
-    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
-    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
-    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
-    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
-    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
     </row>
-    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
     </row>
-    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
     </row>
-    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
     </row>
-    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J252" s="6"/>
-      <c r="K252" s="6"/>
-      <c r="L252" s="6"/>
-    </row>
-    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J253" s="6"/>
-      <c r="K253" s="6"/>
-      <c r="L253" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A71">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B3E1BA-C945-0F4B-A97D-874C2E14824A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826639F-4D84-AD46-AD73-8F0FD9062775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25880" yWindow="520" windowWidth="37880" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
   <si>
     <t>A</t>
   </si>
@@ -131,466 +131,260 @@
     <t>Messenger</t>
   </si>
   <si>
-    <t>2020-04-26 17:14:44</t>
-  </si>
-  <si>
-    <t>2020-04-26 16:11:49</t>
-  </si>
-  <si>
-    <t>2020-04-26 14:39:49</t>
-  </si>
-  <si>
-    <t>2020-04-26 12:40:50</t>
-  </si>
-  <si>
-    <t>2020-04-26 11:50:49</t>
-  </si>
-  <si>
-    <t>2020-04-26 11:17:02</t>
-  </si>
-  <si>
-    <t>2020-04-26 00:26:05</t>
-  </si>
-  <si>
-    <t>2020-04-25 23:29:59</t>
-  </si>
-  <si>
-    <t>2020-04-25 23:20:57</t>
-  </si>
-  <si>
-    <t>2020-04-25 22:04:33</t>
-  </si>
-  <si>
-    <t>2020-04-25 21:26:16</t>
-  </si>
-  <si>
-    <t>2020-04-25 20:40:08</t>
-  </si>
-  <si>
-    <t>2020-04-25 19:11:41</t>
-  </si>
-  <si>
-    <t>2020-04-25 17:05:21</t>
-  </si>
-  <si>
-    <t>2020-04-25 13:14:39</t>
-  </si>
-  <si>
-    <t>2020-04-24 00:04:40</t>
-  </si>
-  <si>
-    <t>2020-04-23 20:31:15</t>
-  </si>
-  <si>
-    <t>2020-04-23 16:34:11</t>
-  </si>
-  <si>
-    <t>2020-04-23 16:22:04</t>
-  </si>
-  <si>
-    <t>2020-04-23 15:07:32</t>
-  </si>
-  <si>
-    <t>2020-04-23 13:02:00</t>
-  </si>
-  <si>
-    <t>2020-04-23 09:31:20</t>
-  </si>
-  <si>
-    <t>2020-04-23 01:23:58</t>
-  </si>
-  <si>
-    <t>2020-04-23 00:18:59</t>
-  </si>
-  <si>
-    <t>2020-04-22 21:09:02</t>
-  </si>
-  <si>
-    <t>2020-04-22 18:06:47</t>
-  </si>
-  <si>
-    <t>2020-04-22 14:33:53</t>
-  </si>
-  <si>
-    <t>2020-04-22 10:23:44</t>
-  </si>
-  <si>
-    <t>2020-04-21 21:02:23</t>
-  </si>
-  <si>
-    <t>2020-04-21 19:56:04</t>
-  </si>
-  <si>
-    <t>2020-04-21 15:16:25</t>
-  </si>
-  <si>
-    <t>2020-04-21 00:21:46</t>
-  </si>
-  <si>
-    <t>2020-04-20 18:56:39</t>
-  </si>
-  <si>
-    <t>2020-04-20 18:45:54</t>
-  </si>
-  <si>
-    <t>2020-04-20 18:32:46</t>
-  </si>
-  <si>
-    <t>2020-04-20 13:31:43</t>
-  </si>
-  <si>
-    <t>2020-04-20 13:22:31</t>
-  </si>
-  <si>
-    <t>2020-04-20 00:29:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocio Fernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ale Adam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estephanya melendez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo aaron mendoza Garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haydée Calderon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo Alonso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodolfo Espinosa De Los Monteros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat Desentis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorgelina Figueroa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denisse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia del Rosal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minka Luque </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariadna Paulina Sandoval Marín </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Alberto Campos Benitez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Gaytan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lili5585329803 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Zenteno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dario Scherer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">juan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Elizondo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amelia Walker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier cedeño </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelyn Kassandra Valverde Gomez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Jimenez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Eugenia Salgado Guzman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Sampaio (broker Alur Bienes Raices) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinez Isabel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renatta Chavez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Arjan Rivas Guzmán </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juana Solis Hernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mallorca Karol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica Del Rio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anaid López Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axel Zamudio </t>
-  </si>
-  <si>
-    <t>rocio_fernandez_sobero@hotmail.com</t>
-  </si>
-  <si>
-    <t>aleadam@live.com.mx</t>
-  </si>
-  <si>
-    <t>paigestacyh@gmail.com</t>
-  </si>
-  <si>
-    <t>gustavoaaronmendozagarcia@gmail.com</t>
-  </si>
-  <si>
-    <t>aidecalderon18@hotmail.com</t>
-  </si>
-  <si>
-    <t>aeta_abogados@outlook.com</t>
-  </si>
-  <si>
-    <t>calisteniaystreetworkout99@gma.com</t>
-  </si>
-  <si>
-    <t>respinosan@icloud.com</t>
-  </si>
-  <si>
-    <t>montse_27@hotmail.com</t>
-  </si>
-  <si>
-    <t>jorgelina_figueroa@hotmail.com</t>
-  </si>
-  <si>
-    <t>beciezdenise260617@gmail.com</t>
-  </si>
-  <si>
-    <t>patt_me@hotmail.com</t>
-  </si>
-  <si>
-    <t>minka.luque999.9@gmail.com</t>
-  </si>
-  <si>
-    <t>ariadnamarin210102@gmail.com</t>
-  </si>
-  <si>
-    <t>pedro_benitez77@hotmail.com</t>
-  </si>
-  <si>
-    <t>David.gaytan.f@gmail.com</t>
-  </si>
-  <si>
-    <t>liliaespinisa24@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Adriana.zenteno.rizo@gmail.com</t>
-  </si>
-  <si>
-    <t>darioschererc@gmail.com</t>
-  </si>
-  <si>
-    <t>anarodaco65@gmail.com</t>
-  </si>
-  <si>
-    <t>psierra53@icloud.com</t>
-  </si>
-  <si>
-    <t>jesus.elizondon@gmail.com</t>
-  </si>
-  <si>
-    <t>amelia1996@gmail.com</t>
-  </si>
-  <si>
-    <t>erubio811@gmail.com</t>
-  </si>
-  <si>
-    <t>obregon.6913@gmail.com</t>
-  </si>
-  <si>
-    <t>kassandravalverde7@gmail.com</t>
-  </si>
-  <si>
-    <t>fjajm@hotmail.com</t>
-  </si>
-  <si>
-    <t>maeugeny09@gmail.com</t>
-  </si>
-  <si>
-    <t>adriana@alur.mx</t>
-  </si>
-  <si>
-    <t>Isabel@c21fortaleza.com</t>
-  </si>
-  <si>
-    <t>renattavchavez@gmail.com</t>
-  </si>
-  <si>
     <t>arjanrivas.sm@gmail.com</t>
   </si>
   <si>
-    <t>jsoldeoro5@gmail.com</t>
-  </si>
-  <si>
-    <t>mallor10@gmail.com</t>
-  </si>
-  <si>
-    <t>monicapdelrioc@hotmail.com</t>
-  </si>
-  <si>
-    <t>comprador@live.com.mx</t>
-  </si>
-  <si>
-    <t>anaid131193@outlook.com</t>
-  </si>
-  <si>
-    <t>axelcooper@gmail.com</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información de 2 y 3 recamaras por mail</t>
-  </si>
-  <si>
-    <t>Se le envía información de 2 recamaras mas estudio</t>
-  </si>
-  <si>
-    <t>Se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotización de 2 y 3 recamaras.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Se le envia información general por mail</t>
-  </si>
-  <si>
-    <t>Solicitó informes de 2 y 3 recamaras se le envió el 205B 
-Seguimiento</t>
-  </si>
-  <si>
-    <t>No deja teléfono se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta, se le envió mail de presentación y cotizaciones.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información por mail.</t>
-  </si>
-  <si>
-    <t>Solicitó informes de departamento de 2 recamaras. se le envió el 205A.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>Busca en Renta de $15,000 pesos</t>
-  </si>
-  <si>
-    <t>Me contestó y me pidió cotización de 3 recamaras, se le envió el 403C
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto $4,500,000</t>
-  </si>
-  <si>
-    <t>No dejó teléfono se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Me pidió información general no me dijo de que presupuesto. le envié de 2 y 3 recamaras.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Busca para renta</t>
-  </si>
-  <si>
-    <t>Se le envía información por mail de 3 recámaras.</t>
-  </si>
-  <si>
     <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones. Seguimiento</t>
-  </si>
-  <si>
-    <t>Se le envía infomación de 2 recámaras mas estudio y de 3 rfecamaras mas estudio.por mail y por whats.</t>
-  </si>
-  <si>
-    <t>Le llamé y me pidió le llame en la tarde.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Entra buzón le envie información por mail</t>
   </si>
   <si>
     <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>Busca en renta, le ofrecí en venta y para poder comprar solo cuenta con $4,000,000 de pesos</t>
-  </si>
-  <si>
-    <t>No dejo numero telefónico, se le envió mail de presentación y cotizaciones.
+    <t>2020-05-01 23:02:26</t>
+  </si>
+  <si>
+    <t>2020-04-30 07:38:10</t>
+  </si>
+  <si>
+    <t>2020-04-30 03:44:30</t>
+  </si>
+  <si>
+    <t>2020-04-30 00:18:25</t>
+  </si>
+  <si>
+    <t>2020-04-29 15:40:31</t>
+  </si>
+  <si>
+    <t>2020-04-29 14:11:33</t>
+  </si>
+  <si>
+    <t>2020-04-29 10:50:33</t>
+  </si>
+  <si>
+    <t>2020-04-29 06:46:57</t>
+  </si>
+  <si>
+    <t>2020-04-29 01:18:02</t>
+  </si>
+  <si>
+    <t>2020-04-28 16:09:44</t>
+  </si>
+  <si>
+    <t>2020-04-28 11:41:14</t>
+  </si>
+  <si>
+    <t>2020-04-28 07:35:11</t>
+  </si>
+  <si>
+    <t>2020-04-28 01:55:22</t>
+  </si>
+  <si>
+    <t>2020-04-27 16:09:16</t>
+  </si>
+  <si>
+    <t>2020-04-27 15:03:58</t>
+  </si>
+  <si>
+    <t>2020-04-27 14:40:02</t>
+  </si>
+  <si>
+    <t>2020-04-27 14:16:48</t>
+  </si>
+  <si>
+    <t>2020-04-27 08:36:56</t>
+  </si>
+  <si>
+    <t>2020-04-27 03:59:04</t>
+  </si>
+  <si>
+    <t>2020-04-27 00:16:24</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisela Perez Ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodolfo Martinez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P Cha Juan Carlos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nahum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Torres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aracely Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilar grimau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tere Sánchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">felipe de la chesnaye </t>
+  </si>
+  <si>
+    <t>Mitzel Lascano</t>
+  </si>
+  <si>
+    <t>Edgar Trejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chema Fernandez De Castro Pardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazmín </t>
+  </si>
+  <si>
+    <t>Carlos Antonio Peña Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Salome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Vergel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Álvarez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Luis Campos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonia </t>
+  </si>
+  <si>
+    <t>0445534880281</t>
+  </si>
+  <si>
+    <t>6671740850|</t>
+  </si>
+  <si>
+    <t>actmar2000@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jcpch00@hotmail.com</t>
+  </si>
+  <si>
+    <t>hKq4JAx91@gmail.com</t>
+  </si>
+  <si>
+    <t>mariatorres_111@hotmail.com</t>
+  </si>
+  <si>
+    <t>araceliyami@gmail.com</t>
+  </si>
+  <si>
+    <t>pgrimauramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>tereventas3@outlook.com</t>
+  </si>
+  <si>
+    <t>chesnaye@hotmail.com</t>
+  </si>
+  <si>
+    <t>mitzellf@gmail.com</t>
+  </si>
+  <si>
+    <t>etrejogarcia@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>chemafcp_dc@hotmail.com</t>
+  </si>
+  <si>
+    <t>jazminsalasc.1234@gmail.com</t>
+  </si>
+  <si>
+    <t>carlos_antonio.p@outlook.com</t>
+  </si>
+  <si>
+    <t>mike_alex94@hotmail.com</t>
+  </si>
+  <si>
+    <t>carlosdelaserna04@gmail.com</t>
+  </si>
+  <si>
+    <t>andreitavergel@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorge.alvarezalbarran@gmail.com</t>
+  </si>
+  <si>
+    <t>jlcr601218@icloud.com</t>
+  </si>
+  <si>
+    <t>gsonia.65@outlook.es</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envió al de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>No contesta, se le envió mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>No contesta se le envia información general por mail</t>
+  </si>
+  <si>
+    <t>NO contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón, se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>Se le envía información de 2 recámaras por whats</t>
-  </si>
-  <si>
-    <t>Dejó teléfono equivocado, se le envió mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $4,000,000</t>
-  </si>
-  <si>
-    <t>Se le dejo mensaje a su contestadora, también se le envió mail de presentación y cotizaciones.
-Seguimientos</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envió mail de presentación y cotizaciones.
+    <t>Se corta la llamada, se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Solicitó cotización del 205B por whatsapp, ahora esta en cancun, me dice que cuando termine la cuarentena le demos seguimiento.</t>
+  </si>
+  <si>
+    <t>El teléfono no existe se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Numero no disponible, le envié mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>Se le envia información de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Fue a cita con su pareja el domingo 26 de Abril les gusto el 307A haran cuentas y revisaran sus finanzas</t>
+  </si>
+  <si>
+    <t>Telfono fuera del área de servicio, se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Llamó al showroom, busca de 3 recamaras, le envié el 403C.
 Seguimiento</t>
   </si>
   <si>
-    <t>20 - 26 de Abril del 2020</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información general por mail y se le envía whats App</t>
-  </si>
-  <si>
-    <t>Arturo Joya Cantor</t>
-  </si>
-  <si>
-    <t>Solicita información general, que si hay interes me llama, daré seguimiento</t>
-  </si>
-  <si>
-    <t>No contesta, se le envia mail de presentación y cotización de dos y tres recámaras, Seguimiento</t>
-  </si>
-  <si>
-    <t>Solicita información general y cotización de dos recámaras, se le envió cotización de 205B</t>
-  </si>
-  <si>
-    <t>Solicita información general y cotización de dos y tres recámaras, se le envió cotización de 205B y 403C Seguimiento</t>
+    <t>Se le envía información de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>Busca en renta</t>
+  </si>
+  <si>
+    <t>Busca renta</t>
+  </si>
+  <si>
+    <t>Entra buzón se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>26 de Abril - 03 de Mayol del 2020</t>
   </si>
 </sst>
 </file>
@@ -747,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,6 +645,7 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,13 +721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1270,10 +1065,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L251"/>
+  <dimension ref="A4:L233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1124,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1364,7 +1159,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="34">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>20</v>
@@ -1383,7 +1178,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1396,7 +1191,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="34">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1409,7 +1204,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="34">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1429,13 +1224,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1446,13 +1241,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1465,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="34">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1547,1206 +1342,889 @@
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="39">
-        <v>5544994107</v>
-      </c>
-      <c r="H34" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>39</v>
+      <c r="C35" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="39">
-        <v>5510090332</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>182</v>
+      <c r="E35" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="43">
+        <v>9981476453</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="39">
-        <v>7472543976</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I36" s="39" t="s">
-        <v>166</v>
+      <c r="E36" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="43">
+        <v>5529664380</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="39">
-        <v>5532007809</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>148</v>
+      <c r="E37" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="43">
+        <v>5585342700</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>5</v>
-      </c>
-      <c r="B38" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>40</v>
+      <c r="C38" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="39" t="s">
+      <c r="E38" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="39">
-        <v>5532000100</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>148</v>
+      <c r="H38" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>6</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="39">
-        <v>5534007613</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>150</v>
+      <c r="F39" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="39">
-        <v>9932781335</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>171</v>
+      <c r="F40" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="43">
+        <v>5554053866</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="39">
-        <v>5527066947</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>179</v>
+        <v>5</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="43">
+        <v>5554125211</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>9</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G42" s="39">
-        <v>5539911426</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="39" t="s">
-        <v>151</v>
+        <v>5</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="43">
+        <v>5521284144</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>10</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="39">
-        <v>5565434658</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>155</v>
+        <v>5</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="43">
+        <v>5649816833</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>11</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="39">
-        <v>5561114476</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="43">
+        <v>5539391388</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>12</v>
-      </c>
-      <c r="B45" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>44</v>
+      <c r="C45" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>152</v>
+        <v>5</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="43">
+        <v>2223207751</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>13</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="39">
-        <v>5519784585</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>163</v>
+      <c r="F46" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="43">
+        <v>181472360</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>14</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="39">
-        <v>5513302253</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>165</v>
+      <c r="F47" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="43">
+        <v>4341108826</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>102</v>
       </c>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>15</v>
-      </c>
-      <c r="B48" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>50</v>
+      <c r="C48" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="39">
-        <v>5543687556</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>158</v>
+        <v>5</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="43">
+        <v>77442326500</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>16</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>157</v>
+      <c r="F49" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="43">
+        <v>6643993384</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>17</v>
-      </c>
-      <c r="B50" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>37</v>
+      <c r="C50" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="39">
-        <v>5533762310</v>
-      </c>
-      <c r="H50" s="39" t="s">
+      <c r="E50" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="43">
+        <v>5548205684</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="43" t="s">
         <v>112</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>18</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>61</v>
+        <v>14</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="39">
-        <v>8182532698</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>167</v>
+      <c r="E51" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="43">
+        <v>5541906286</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>19</v>
-      </c>
-      <c r="B52" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>58</v>
+      <c r="C52" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G52" s="39">
-        <v>8120211497</v>
+      <c r="F52" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="43">
+        <v>9611334302</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="I52" s="39" t="s">
-        <v>164</v>
+        <v>33</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>21</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="38" t="s">
+      <c r="F53" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="43">
+        <v>5563184720</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="41"/>
+    </row>
+    <row r="55" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="41"/>
+    </row>
+    <row r="56" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="39">
-        <v>5553630110</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>22</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>23</v>
-      </c>
-      <c r="B56" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" s="39">
-        <v>5543666020</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="I56" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>24</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="39">
-        <v>6181569677</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="C62" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G58" s="39">
-        <v>6644031020</v>
-      </c>
-      <c r="H58" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>26</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="G59" s="39">
-        <v>5554371660</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="I59" s="39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>27</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="39">
-        <v>556677887788</v>
-      </c>
-      <c r="H60" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>28</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="39">
-        <v>5532245571</v>
-      </c>
-      <c r="H61" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>29</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="39">
-        <v>5527446861</v>
-      </c>
-      <c r="H62" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>30</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" s="39">
-        <v>525620153702</v>
-      </c>
-      <c r="H63" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="I63" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>31</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" s="39">
-        <v>4422009133</v>
-      </c>
-      <c r="H64" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>32</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" s="39">
-        <v>9612737489</v>
-      </c>
-      <c r="H65" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="I65" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>33</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="39">
-        <v>4448275239</v>
-      </c>
-      <c r="H66" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>34</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" s="39">
-        <v>5579035099</v>
-      </c>
-      <c r="H67" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>35</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" s="39">
-        <v>5535002812</v>
-      </c>
-      <c r="H68" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="I68" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>36</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="I69" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>37</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" s="39">
-        <v>3467004615</v>
-      </c>
-      <c r="H70" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>38</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" s="39">
-        <v>5578467984</v>
-      </c>
-      <c r="H71" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="I71" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="39"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="41"/>
-    </row>
-    <row r="73" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="39"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="41"/>
-    </row>
-    <row r="74" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="12"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="12"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="12"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="12"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="12"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="12"/>
-    </row>
-    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
       <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" ht="16" x14ac:dyDescent="0.25">
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2754,6 +2232,9 @@
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="I81" s="6"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
     </row>
     <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
@@ -2763,6 +2244,9 @@
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
     </row>
     <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
@@ -2772,7 +2256,9 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="21"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
@@ -2782,9 +2268,11 @@
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="21"/>
-    </row>
-    <row r="85" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2792,19 +2280,21 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="21"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="21"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
@@ -2814,18 +2304,21 @@
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="21"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="21"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
@@ -2835,7 +2328,9 @@
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="21"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
     </row>
     <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
@@ -2845,7 +2340,9 @@
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="21"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
@@ -2951,7 +2448,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
     </row>
@@ -4432,279 +3929,63 @@
       <c r="L222" s="6"/>
     </row>
     <row r="223" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="6"/>
-      <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
     </row>
     <row r="224" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="6"/>
-      <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
     </row>
-    <row r="225" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="6"/>
-      <c r="I225" s="6"/>
+    <row r="225" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
     </row>
-    <row r="226" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="6"/>
-      <c r="I226" s="6"/>
+    <row r="226" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
     </row>
-    <row r="227" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="6"/>
-      <c r="I227" s="6"/>
+    <row r="227" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
     </row>
-    <row r="228" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="6"/>
-      <c r="I228" s="6"/>
+    <row r="228" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
     </row>
-    <row r="229" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="6"/>
-      <c r="I229" s="6"/>
+    <row r="229" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
     </row>
-    <row r="230" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="6"/>
-      <c r="I230" s="6"/>
+    <row r="230" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
     </row>
-    <row r="231" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="6"/>
-      <c r="I231" s="6"/>
+    <row r="231" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
     </row>
-    <row r="232" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="6"/>
-      <c r="I232" s="6"/>
+    <row r="232" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
     </row>
-    <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="6"/>
-      <c r="I233" s="6"/>
+    <row r="233" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
     </row>
-    <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="6"/>
-      <c r="I234" s="6"/>
-      <c r="J234" s="6"/>
-      <c r="K234" s="6"/>
-      <c r="L234" s="6"/>
-    </row>
-    <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="6"/>
-      <c r="I235" s="6"/>
-      <c r="J235" s="6"/>
-      <c r="K235" s="6"/>
-      <c r="L235" s="6"/>
-    </row>
-    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="6"/>
-      <c r="I236" s="6"/>
-      <c r="J236" s="6"/>
-      <c r="K236" s="6"/>
-      <c r="L236" s="6"/>
-    </row>
-    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="6"/>
-      <c r="I237" s="6"/>
-      <c r="J237" s="6"/>
-      <c r="K237" s="6"/>
-      <c r="L237" s="6"/>
-    </row>
-    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="6"/>
-      <c r="I238" s="6"/>
-      <c r="J238" s="6"/>
-      <c r="K238" s="6"/>
-      <c r="L238" s="6"/>
-    </row>
-    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="6"/>
-      <c r="I239" s="6"/>
-      <c r="J239" s="6"/>
-      <c r="K239" s="6"/>
-      <c r="L239" s="6"/>
-    </row>
-    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="6"/>
-      <c r="I240" s="6"/>
-      <c r="J240" s="6"/>
-      <c r="K240" s="6"/>
-      <c r="L240" s="6"/>
-    </row>
-    <row r="241" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J241" s="6"/>
-      <c r="K241" s="6"/>
-      <c r="L241" s="6"/>
-    </row>
-    <row r="242" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J242" s="6"/>
-      <c r="K242" s="6"/>
-      <c r="L242" s="6"/>
-    </row>
-    <row r="243" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J243" s="6"/>
-      <c r="K243" s="6"/>
-      <c r="L243" s="6"/>
-    </row>
-    <row r="244" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J244" s="6"/>
-      <c r="K244" s="6"/>
-      <c r="L244" s="6"/>
-    </row>
-    <row r="245" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J245" s="6"/>
-      <c r="K245" s="6"/>
-      <c r="L245" s="6"/>
-    </row>
-    <row r="246" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J246" s="6"/>
-      <c r="K246" s="6"/>
-      <c r="L246" s="6"/>
-    </row>
-    <row r="247" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J247" s="6"/>
-      <c r="K247" s="6"/>
-      <c r="L247" s="6"/>
-    </row>
-    <row r="248" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J248" s="6"/>
-      <c r="K248" s="6"/>
-      <c r="L248" s="6"/>
-    </row>
-    <row r="249" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J249" s="6"/>
-      <c r="K249" s="6"/>
-      <c r="L249" s="6"/>
-    </row>
-    <row r="250" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J250" s="6"/>
-      <c r="K250" s="6"/>
-      <c r="L250" s="6"/>
-    </row>
-    <row r="251" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J251" s="6"/>
-      <c r="K251" s="6"/>
-      <c r="L251" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A71">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I53">
+    <sortCondition ref="D34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B826639F-4D84-AD46-AD73-8F0FD9062775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205058BC-35D6-F34E-B0D7-F8FD69E1BB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25880" yWindow="520" windowWidth="37880" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
   <si>
     <t>A</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Messenger</t>
-  </si>
-  <si>
-    <t>arjanrivas.sm@gmail.com</t>
   </si>
   <si>
     <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones. Seguimiento</t>
@@ -141,250 +138,377 @@
 Seguimiento</t>
   </si>
   <si>
-    <t>2020-05-01 23:02:26</t>
-  </si>
-  <si>
-    <t>2020-04-30 07:38:10</t>
-  </si>
-  <si>
-    <t>2020-04-30 03:44:30</t>
-  </si>
-  <si>
-    <t>2020-04-30 00:18:25</t>
-  </si>
-  <si>
-    <t>2020-04-29 15:40:31</t>
-  </si>
-  <si>
-    <t>2020-04-29 14:11:33</t>
-  </si>
-  <si>
-    <t>2020-04-29 10:50:33</t>
-  </si>
-  <si>
-    <t>2020-04-29 06:46:57</t>
-  </si>
-  <si>
-    <t>2020-04-29 01:18:02</t>
-  </si>
-  <si>
-    <t>2020-04-28 16:09:44</t>
-  </si>
-  <si>
-    <t>2020-04-28 11:41:14</t>
-  </si>
-  <si>
-    <t>2020-04-28 07:35:11</t>
-  </si>
-  <si>
-    <t>2020-04-28 01:55:22</t>
-  </si>
-  <si>
-    <t>2020-04-27 16:09:16</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:03:58</t>
-  </si>
-  <si>
-    <t>2020-04-27 14:40:02</t>
-  </si>
-  <si>
-    <t>2020-04-27 14:16:48</t>
-  </si>
-  <si>
-    <t>2020-04-27 08:36:56</t>
-  </si>
-  <si>
-    <t>2020-04-27 03:59:04</t>
-  </si>
-  <si>
-    <t>2020-04-27 00:16:24</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
-    <t xml:space="preserve">Marisela Perez Ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodolfo Martinez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P Cha Juan Carlos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nahum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Torres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aracely Garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilar grimau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tere Sánchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">felipe de la chesnaye </t>
-  </si>
-  <si>
-    <t>Mitzel Lascano</t>
-  </si>
-  <si>
-    <t>Edgar Trejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chema Fernandez De Castro Pardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazmín </t>
-  </si>
-  <si>
-    <t>Carlos Antonio Peña Garcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Salome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Vergel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Álvarez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Luis Campos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonia </t>
-  </si>
-  <si>
-    <t>0445534880281</t>
-  </si>
-  <si>
-    <t>6671740850|</t>
-  </si>
-  <si>
-    <t>actmar2000@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jcpch00@hotmail.com</t>
-  </si>
-  <si>
-    <t>hKq4JAx91@gmail.com</t>
-  </si>
-  <si>
-    <t>mariatorres_111@hotmail.com</t>
-  </si>
-  <si>
-    <t>araceliyami@gmail.com</t>
-  </si>
-  <si>
-    <t>pgrimauramirez@gmail.com</t>
-  </si>
-  <si>
-    <t>tereventas3@outlook.com</t>
-  </si>
-  <si>
-    <t>chesnaye@hotmail.com</t>
-  </si>
-  <si>
-    <t>mitzellf@gmail.com</t>
-  </si>
-  <si>
-    <t>etrejogarcia@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>chemafcp_dc@hotmail.com</t>
-  </si>
-  <si>
-    <t>jazminsalasc.1234@gmail.com</t>
-  </si>
-  <si>
-    <t>carlos_antonio.p@outlook.com</t>
-  </si>
-  <si>
-    <t>mike_alex94@hotmail.com</t>
-  </si>
-  <si>
-    <t>carlosdelaserna04@gmail.com</t>
-  </si>
-  <si>
-    <t>andreitavergel@hotmail.com</t>
-  </si>
-  <si>
-    <t>jorge.alvarezalbarran@gmail.com</t>
-  </si>
-  <si>
-    <t>jlcr601218@icloud.com</t>
-  </si>
-  <si>
-    <t>gsonia.65@outlook.es</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envió al de presentación y cotizaciones.
-Seguimiento.</t>
+    <t>Se le envía información de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>2020-05-10 12:48:23</t>
+  </si>
+  <si>
+    <t>2020-05-10 11:56:24</t>
+  </si>
+  <si>
+    <t>2020-05-10 01:21:32</t>
+  </si>
+  <si>
+    <t>2020-05-09 21:07:02</t>
+  </si>
+  <si>
+    <t>2020-05-09 16:45:36</t>
+  </si>
+  <si>
+    <t>2020-05-09 16:18:41</t>
+  </si>
+  <si>
+    <t>2020-05-09 01:43:43</t>
+  </si>
+  <si>
+    <t>2020-05-09 00:52:54</t>
+  </si>
+  <si>
+    <t>2020-05-09 00:37:06</t>
+  </si>
+  <si>
+    <t>2020-05-09 00:19:20</t>
+  </si>
+  <si>
+    <t>2020-05-08 23:01:51</t>
+  </si>
+  <si>
+    <t>2020-05-08 17:06:46</t>
+  </si>
+  <si>
+    <t>2020-05-08 16:09:13</t>
+  </si>
+  <si>
+    <t>2020-05-07 20:00:52</t>
+  </si>
+  <si>
+    <t>2020-05-07 19:54:26</t>
+  </si>
+  <si>
+    <t>2020-05-07 14:59:05</t>
+  </si>
+  <si>
+    <t>2020-05-07 14:12:22</t>
+  </si>
+  <si>
+    <t>2020-05-07 12:39:15</t>
+  </si>
+  <si>
+    <t>2020-05-07 12:27:51</t>
+  </si>
+  <si>
+    <t>2020-05-07 11:53:17</t>
+  </si>
+  <si>
+    <t>2020-05-07 01:20:41</t>
+  </si>
+  <si>
+    <t>2020-05-06 17:27:16</t>
+  </si>
+  <si>
+    <t>2020-05-06 17:24:27</t>
+  </si>
+  <si>
+    <t>2020-05-06 10:58:31</t>
+  </si>
+  <si>
+    <t>2020-05-06 01:37:09</t>
+  </si>
+  <si>
+    <t>2020-05-05 17:34:15</t>
+  </si>
+  <si>
+    <t>2020-05-05 05:01:24</t>
+  </si>
+  <si>
+    <t>2020-05-05 03:39:35</t>
+  </si>
+  <si>
+    <t>2020-05-04 23:13:09</t>
+  </si>
+  <si>
+    <t>2020-05-04 18:17:02</t>
+  </si>
+  <si>
+    <t>2020-05-04 15:41:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor Del Carmen Cuevas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melissa Chz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Basave Guinto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Ruiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Quiroz Resendiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertha  Cravioto Fdez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilfredo Mancia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Santos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enriqueta Guevara Melena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angeles Rodriguez </t>
+  </si>
+  <si>
+    <t>Jose Luis Martínez Lezama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Chang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús Ruiz Salas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo García </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonia ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allison Pacheco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">juan carlos diaz vazquez </t>
+  </si>
+  <si>
+    <t>Darius Wilhere</t>
+  </si>
+  <si>
+    <t>Alfonso Seijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Jungo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanzel Alvizar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra Jimenez Medrano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha Loza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Manjarrez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Velazquez </t>
+  </si>
+  <si>
+    <t>(55) 4525-1424</t>
+  </si>
+  <si>
+    <t>veronicabermejo5@gmail.com</t>
+  </si>
+  <si>
+    <t>ahernandez@sirscom.com.mx</t>
+  </si>
+  <si>
+    <t>flordelcarmen505@hotmail.com</t>
+  </si>
+  <si>
+    <t>mexmeliss@gmail.com</t>
+  </si>
+  <si>
+    <t>basave_2007@hotmail.com</t>
+  </si>
+  <si>
+    <t>ginaqui@unam.mx</t>
+  </si>
+  <si>
+    <t>pepeloxd72@gmail.com</t>
+  </si>
+  <si>
+    <t>quiroz9830@gmail.com</t>
+  </si>
+  <si>
+    <t>bertacrafer@hotmail.com</t>
+  </si>
+  <si>
+    <t>xxxxx@cxx.com</t>
+  </si>
+  <si>
+    <t>Shdjdjdjdjdj@gmail.com</t>
+  </si>
+  <si>
+    <t>guevaramelena@hotmail.com</t>
+  </si>
+  <si>
+    <t>rodriguezangeles302@gmail.com</t>
+  </si>
+  <si>
+    <t>tan_albavera@hotmail.com</t>
+  </si>
+  <si>
+    <t>martinezlezama_j@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>dra.achangm@gmail.com</t>
+  </si>
+  <si>
+    <t>jdd_rst45@hotmail.com</t>
+  </si>
+  <si>
+    <t>ricardo.ggra@gmail.com</t>
+  </si>
+  <si>
+    <t>soniar0812@gmail.com</t>
+  </si>
+  <si>
+    <t>aliseppach918@gmail.com</t>
+  </si>
+  <si>
+    <t>strokes1992@gmail.com</t>
+  </si>
+  <si>
+    <t>dariuswilhere@gmail.com</t>
+  </si>
+  <si>
+    <t>alfseijo@hotmail.com</t>
+  </si>
+  <si>
+    <t>jungo_310191@live.com</t>
+  </si>
+  <si>
+    <t>halvizar@gmail.com</t>
+  </si>
+  <si>
+    <t>denis.rosete@gmail.com</t>
+  </si>
+  <si>
+    <t>alejandra.jimenez.m@live.com.mx</t>
+  </si>
+  <si>
+    <t>worms_lo@icloud.com</t>
+  </si>
+  <si>
+    <t>fabiolina10@hotmail.com</t>
+  </si>
+  <si>
+    <t>hmanjarrez88@gmail.com</t>
+  </si>
+  <si>
+    <t>julvelj@hotmail.com</t>
+  </si>
+  <si>
+    <t>No existe el teléfono se le envía información pon general por mail</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo, tiene $3 M.</t>
+  </si>
+  <si>
+    <t>No contesta se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón. Se le envió mail de presentación y cotizaciones.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra buzón. Se le envía información general por mail y por whats de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>Se le envía información por whats del departamento 307A</t>
+  </si>
+  <si>
+    <t>Solicitó informes de departamentos de 2 recámaras, se le envlían por whats</t>
+  </si>
+  <si>
+    <t>Solicitó información del PH03C, quiere cambiarse de Alabama por que le van a construir un centro comercial a un lado.</t>
+  </si>
+  <si>
+    <t>Se enteró a traves de Segundamano, se le envio información por mail y por whats de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>No contesta le envío informacion por mail y por whats con cotizaciones de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto $3,200,000</t>
+  </si>
+  <si>
+    <t>Busca en renta pero pidio que se lenviara informacion de 2 recamaras por whats</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t>Vino a cita el 05 de mayo 2020 con su socio Alfonso Seijo.
+Darius se llevó información del GH03B, PH02A y PH01C, programará una nueva cita con su esposa.</t>
+  </si>
+  <si>
+    <t>Cliente de visita el 12 de mayo 2019, vino a nueva  cita el 05 de mayo 2020 con su socio Darius Willhere</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envía información por mail y por whats de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>Solicitó el modelo 205B y tiene bajo presupuesto.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra buzón se le envía información por whats y mail de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>No contesta entra buzon, no tiene whats se le envia información general por mail</t>
+  </si>
+  <si>
+    <t>04 - 10 de Mayol del 2020</t>
+  </si>
+  <si>
+    <t>*549114299826</t>
+  </si>
+  <si>
+    <t>No dejo teléfono, se le envió maIl de presentación y cotizaciones.
+Seguimiento</t>
   </si>
   <si>
     <t>No contesta, se le envió mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>No contesta se le envia información general por mail</t>
-  </si>
-  <si>
-    <t>NO contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón, se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>Se corta la llamada, se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Solicitó cotización del 205B por whatsapp, ahora esta en cancun, me dice que cuando termine la cuarentena le demos seguimiento.</t>
-  </si>
-  <si>
-    <t>El teléfono no existe se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Numero no disponible, le envié mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>Se le envia información de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Fue a cita con su pareja el domingo 26 de Abril les gusto el 307A haran cuentas y revisaran sus finanzas</t>
-  </si>
-  <si>
-    <t>Telfono fuera del área de servicio, se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Llamó al showroom, busca de 3 recamaras, le envié el 403C.
+    <t xml:space="preserve">Arturo Hernández Mena </t>
+  </si>
+  <si>
+    <t>Se envía mail con información</t>
+  </si>
+  <si>
+    <t>Entra a buzón a la primera parece que el no telefónico no es correcto, se le envió mail de presentación y cotizaciones. Seguimiento</t>
+  </si>
+  <si>
+    <t>Se enteró por Segundamano, se le envía información de 2 y 3 recamaras por mail y por whats.</t>
+  </si>
+  <si>
+    <t>No dejo número telefónico. Se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>Se le envía información de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>Busca en renta</t>
-  </si>
-  <si>
-    <t>Busca renta</t>
-  </si>
-  <si>
-    <t>Entra buzón se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>26 de Abril - 03 de Mayol del 2020</t>
+    <t>No dejo número telefónico,se le envió mal de presentación y cotizaciones.
+Seguimiento</t>
   </si>
 </sst>
 </file>
@@ -541,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,6 +770,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,13 +848,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1065,10 +1192,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L233"/>
+  <dimension ref="A4:L252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1208,7 @@
     <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="132.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="162.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="14.5" style="1"/>
@@ -1124,7 +1251,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1159,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="34">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>20</v>
@@ -1178,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1191,7 +1318,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1204,7 +1331,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="34">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1224,13 +1351,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1241,13 +1368,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1260,7 +1387,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="34">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1342,901 +1469,1077 @@
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>20</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="39">
+        <v>5531496476</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>10</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="43">
-        <v>9981476453</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>104</v>
+      <c r="E35" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="39">
+        <v>4422830259</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>16</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>37</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="43">
-        <v>5529664380</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>111</v>
+      <c r="F36" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>18</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="43">
-        <v>5585342700</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>110</v>
+      <c r="E37" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="39">
+        <v>4422191892</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="39" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>19</v>
-      </c>
-      <c r="B38" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="43" t="s">
-        <v>45</v>
+      <c r="C38" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>107</v>
+      <c r="E38" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="39">
+        <v>5551764423</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="43">
-        <v>5554053866</v>
-      </c>
-      <c r="H40" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="43" t="s">
-        <v>99</v>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="39" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="43">
-        <v>5554125211</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>100</v>
+      <c r="E41" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>4</v>
-      </c>
-      <c r="B42" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="43" t="s">
-        <v>41</v>
+      <c r="C42" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="43">
-        <v>5521284144</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="I42" s="43" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>5</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="43">
-        <v>5649816833</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="I43" s="43" t="s">
-        <v>105</v>
+      <c r="F43" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="39">
+        <v>9511284197</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>6</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="43">
-        <v>5539391388</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>109</v>
+      <c r="F44" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="39">
+        <v>5519521494</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>7</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="43">
-        <v>2223207751</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>114</v>
+      <c r="F45" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="39">
+        <v>5516508818</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45" s="39" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>8</v>
-      </c>
-      <c r="B46" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>39</v>
+      <c r="C46" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="43">
-        <v>181472360</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>101</v>
+      <c r="E46" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="39">
+        <v>7226479202</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>9</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="43">
-        <v>4341108826</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>102</v>
+      <c r="E47" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="39">
+        <v>5555555555</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>11</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="43">
-        <v>77442326500</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>106</v>
+      <c r="E48" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="39">
+        <v>6691590501</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>12</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="43">
-        <v>6643993384</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>106</v>
+      <c r="E49" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="39">
+        <v>4612577318</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>13</v>
-      </c>
-      <c r="B50" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>51</v>
+      <c r="C50" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="43">
-        <v>5548205684</v>
-      </c>
-      <c r="H50" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="43" t="s">
-        <v>112</v>
+      <c r="F50" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="39">
+        <v>5533666666</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>14</v>
-      </c>
-      <c r="B51" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>53</v>
+      <c r="C51" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="43">
-        <v>5541906286</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>34</v>
+      <c r="F51" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="39">
+        <v>7821222133</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>15</v>
-      </c>
-      <c r="B52" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>55</v>
+      <c r="C52" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="43">
-        <v>9611334302</v>
-      </c>
+      <c r="F52" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="39"/>
       <c r="H52" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I52" s="43" t="s">
-        <v>35</v>
+        <v>105</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>17</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="43">
-        <v>5563184720</v>
-      </c>
-      <c r="H53" s="43" t="s">
+      <c r="F53" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="39">
+        <v>5611507019</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>21</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="39">
+        <v>5514514685</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>22</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="39">
+        <v>5546353646</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>23</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>24</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I53" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="41"/>
-    </row>
-    <row r="55" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="41"/>
-    </row>
-    <row r="56" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36" t="s">
+      <c r="G57" s="39"/>
+      <c r="H57" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>25</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="39">
+        <v>5537177657</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>26</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="39">
+        <v>7551154605</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>27</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="39">
+        <v>5543753269</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>28</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="39">
+        <v>5558071992</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>29</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="39">
+        <v>5534244487</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>30</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="39">
+        <v>5586180996</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="39">
+        <v>5531430752</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+    </row>
+    <row r="73" spans="2:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="41"/>
+    </row>
+    <row r="74" spans="2:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="41"/>
+    </row>
+    <row r="75" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22" t="s">
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C78" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="22" t="s">
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C79" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="22" t="s">
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C80" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B62" s="22" t="s">
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C81" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="21"/>
-    </row>
-    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="21"/>
-    </row>
-    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="21"/>
-    </row>
-    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="21"/>
-    </row>
-    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="21"/>
-    </row>
-    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="21"/>
-    </row>
-    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-    </row>
-    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-    </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:12" ht="16" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2244,9 +2547,6 @@
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
     </row>
     <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
@@ -2256,9 +2556,6 @@
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
@@ -2268,9 +2565,7 @@
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
@@ -2280,11 +2575,9 @@
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2292,21 +2585,19 @@
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
@@ -2316,21 +2607,18 @@
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
@@ -2340,9 +2628,7 @@
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
@@ -2352,9 +2638,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
@@ -2460,7 +2744,7 @@
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="3"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
     </row>
@@ -3929,63 +4213,291 @@
       <c r="L222" s="6"/>
     </row>
     <row r="223" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="6"/>
+      <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
     </row>
     <row r="224" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="6"/>
+      <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
     </row>
-    <row r="225" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="6"/>
+      <c r="I225" s="6"/>
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
     </row>
-    <row r="226" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="6"/>
+      <c r="I226" s="6"/>
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
     </row>
-    <row r="227" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="6"/>
+      <c r="I227" s="6"/>
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
     </row>
-    <row r="228" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="6"/>
+      <c r="I228" s="6"/>
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
     </row>
-    <row r="229" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="6"/>
+      <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
     </row>
-    <row r="230" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="6"/>
+      <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
     </row>
-    <row r="231" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="6"/>
+      <c r="I231" s="6"/>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
     </row>
-    <row r="232" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="6"/>
+      <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
     </row>
-    <row r="233" spans="10:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
     </row>
+    <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+    </row>
+    <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I53">
-    <sortCondition ref="D34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A64">
+    <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{205058BC-35D6-F34E-B0D7-F8FD69E1BB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D293B10-A935-3C4B-AE26-6E7BDEAB8926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="242">
   <si>
     <t>A</t>
   </si>
@@ -129,9 +127,6 @@
   </si>
   <si>
     <t>Messenger</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones. Seguimiento</t>
   </si>
   <si>
     <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
@@ -141,374 +136,632 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Se le envía información de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>2020-05-10 12:48:23</t>
-  </si>
-  <si>
-    <t>2020-05-10 11:56:24</t>
-  </si>
-  <si>
-    <t>2020-05-10 01:21:32</t>
-  </si>
-  <si>
-    <t>2020-05-09 21:07:02</t>
-  </si>
-  <si>
-    <t>2020-05-09 16:45:36</t>
-  </si>
-  <si>
-    <t>2020-05-09 16:18:41</t>
-  </si>
-  <si>
-    <t>2020-05-09 01:43:43</t>
-  </si>
-  <si>
-    <t>2020-05-09 00:52:54</t>
-  </si>
-  <si>
-    <t>2020-05-09 00:37:06</t>
-  </si>
-  <si>
-    <t>2020-05-09 00:19:20</t>
-  </si>
-  <si>
-    <t>2020-05-08 23:01:51</t>
-  </si>
-  <si>
-    <t>2020-05-08 17:06:46</t>
-  </si>
-  <si>
-    <t>2020-05-08 16:09:13</t>
-  </si>
-  <si>
-    <t>2020-05-07 20:00:52</t>
-  </si>
-  <si>
-    <t>2020-05-07 19:54:26</t>
-  </si>
-  <si>
-    <t>2020-05-07 14:59:05</t>
-  </si>
-  <si>
-    <t>2020-05-07 14:12:22</t>
-  </si>
-  <si>
-    <t>2020-05-07 12:39:15</t>
-  </si>
-  <si>
-    <t>2020-05-07 12:27:51</t>
-  </si>
-  <si>
-    <t>2020-05-07 11:53:17</t>
-  </si>
-  <si>
-    <t>2020-05-07 01:20:41</t>
-  </si>
-  <si>
-    <t>2020-05-06 17:27:16</t>
-  </si>
-  <si>
-    <t>2020-05-06 17:24:27</t>
-  </si>
-  <si>
-    <t>2020-05-06 10:58:31</t>
-  </si>
-  <si>
-    <t>2020-05-06 01:37:09</t>
-  </si>
-  <si>
-    <t>2020-05-05 17:34:15</t>
-  </si>
-  <si>
-    <t>2020-05-05 05:01:24</t>
-  </si>
-  <si>
-    <t>2020-05-05 03:39:35</t>
-  </si>
-  <si>
-    <t>2020-05-04 23:13:09</t>
-  </si>
-  <si>
-    <t>2020-05-04 18:17:02</t>
-  </si>
-  <si>
-    <t>2020-05-04 15:41:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veronica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Del Carmen Cuevas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melissa Chz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo Basave Guinto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Ruiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana Quiroz Resendiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertha  Cravioto Fdez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilfredo Mancia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Santos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enriqueta Guevara Melena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angeles Rodriguez </t>
-  </si>
-  <si>
-    <t>Jose Luis Martínez Lezama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Chang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesús Ruiz Salas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonia ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allison Pacheco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">juan carlos diaz vazquez </t>
-  </si>
-  <si>
-    <t>Darius Wilhere</t>
-  </si>
-  <si>
-    <t>Alfonso Seijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Jungo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanzel Alvizar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandra Jimenez Medrano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samantha Loza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector Manjarrez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio Velazquez </t>
-  </si>
-  <si>
-    <t>(55) 4525-1424</t>
-  </si>
-  <si>
-    <t>veronicabermejo5@gmail.com</t>
-  </si>
-  <si>
-    <t>ahernandez@sirscom.com.mx</t>
-  </si>
-  <si>
-    <t>flordelcarmen505@hotmail.com</t>
-  </si>
-  <si>
-    <t>mexmeliss@gmail.com</t>
-  </si>
-  <si>
-    <t>basave_2007@hotmail.com</t>
-  </si>
-  <si>
-    <t>ginaqui@unam.mx</t>
-  </si>
-  <si>
-    <t>pepeloxd72@gmail.com</t>
-  </si>
-  <si>
-    <t>quiroz9830@gmail.com</t>
-  </si>
-  <si>
-    <t>bertacrafer@hotmail.com</t>
-  </si>
-  <si>
-    <t>xxxxx@cxx.com</t>
-  </si>
-  <si>
-    <t>Shdjdjdjdjdj@gmail.com</t>
-  </si>
-  <si>
-    <t>guevaramelena@hotmail.com</t>
-  </si>
-  <si>
-    <t>rodriguezangeles302@gmail.com</t>
-  </si>
-  <si>
-    <t>tan_albavera@hotmail.com</t>
-  </si>
-  <si>
-    <t>martinezlezama_j@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>dra.achangm@gmail.com</t>
-  </si>
-  <si>
-    <t>jdd_rst45@hotmail.com</t>
-  </si>
-  <si>
-    <t>ricardo.ggra@gmail.com</t>
-  </si>
-  <si>
-    <t>soniar0812@gmail.com</t>
-  </si>
-  <si>
-    <t>aliseppach918@gmail.com</t>
-  </si>
-  <si>
-    <t>strokes1992@gmail.com</t>
-  </si>
-  <si>
-    <t>dariuswilhere@gmail.com</t>
-  </si>
-  <si>
-    <t>alfseijo@hotmail.com</t>
-  </si>
-  <si>
-    <t>jungo_310191@live.com</t>
-  </si>
-  <si>
-    <t>halvizar@gmail.com</t>
-  </si>
-  <si>
-    <t>denis.rosete@gmail.com</t>
-  </si>
-  <si>
-    <t>alejandra.jimenez.m@live.com.mx</t>
-  </si>
-  <si>
-    <t>worms_lo@icloud.com</t>
-  </si>
-  <si>
-    <t>fabiolina10@hotmail.com</t>
-  </si>
-  <si>
-    <t>hmanjarrez88@gmail.com</t>
-  </si>
-  <si>
-    <t>julvelj@hotmail.com</t>
-  </si>
-  <si>
-    <t>No existe el teléfono se le envía información pon general por mail</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo, tiene $3 M.</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón. Se le envió mail de presentación y cotizaciones.
+    <t>Vania Caracheo</t>
+  </si>
+  <si>
+    <t>2020-05-17 09:10:35</t>
+  </si>
+  <si>
+    <t>2020-05-17 04:39:41</t>
+  </si>
+  <si>
+    <t>2020-05-16 22:13:09</t>
+  </si>
+  <si>
+    <t>2020-05-16 15:42:13</t>
+  </si>
+  <si>
+    <t>2020-05-16 12:07:59</t>
+  </si>
+  <si>
+    <t>2020-05-16 10:37:13</t>
+  </si>
+  <si>
+    <t>2020-05-16 10:14:49</t>
+  </si>
+  <si>
+    <t>2020-05-16 07:39:46</t>
+  </si>
+  <si>
+    <t>2020-05-15 22:31:58</t>
+  </si>
+  <si>
+    <t>2020-05-15 21:13:00</t>
+  </si>
+  <si>
+    <t>2020-05-15 19:00:02</t>
+  </si>
+  <si>
+    <t>2020-05-15 15:35:14</t>
+  </si>
+  <si>
+    <t>2020-05-15 13:03:03</t>
+  </si>
+  <si>
+    <t>2020-05-15 12:05:55</t>
+  </si>
+  <si>
+    <t>2020-05-15 12:04:12</t>
+  </si>
+  <si>
+    <t>2020-05-14 22:10:03</t>
+  </si>
+  <si>
+    <t>2020-05-14 17:48:14</t>
+  </si>
+  <si>
+    <t>2020-05-14 16:15:25</t>
+  </si>
+  <si>
+    <t>2020-05-14 16:10:24</t>
+  </si>
+  <si>
+    <t>2020-05-14 10:55:30</t>
+  </si>
+  <si>
+    <t>2020-05-14 08:44:04</t>
+  </si>
+  <si>
+    <t>2020-05-14 06:26:41</t>
+  </si>
+  <si>
+    <t>2020-05-14 05:16:55</t>
+  </si>
+  <si>
+    <t>2020-05-14 00:52:22</t>
+  </si>
+  <si>
+    <t>2020-05-13 23:28:10</t>
+  </si>
+  <si>
+    <t>2020-05-13 19:30:46</t>
+  </si>
+  <si>
+    <t>2020-05-13 17:42:00</t>
+  </si>
+  <si>
+    <t>2020-05-13 11:52:53</t>
+  </si>
+  <si>
+    <t>2020-05-13 09:56:12</t>
+  </si>
+  <si>
+    <t>2020-05-13 07:54:00</t>
+  </si>
+  <si>
+    <t>2020-05-13 05:44:00</t>
+  </si>
+  <si>
+    <t>2020-05-13 01:27:41</t>
+  </si>
+  <si>
+    <t>2020-05-12 23:01:42</t>
+  </si>
+  <si>
+    <t>2020-05-12 20:34:16</t>
+  </si>
+  <si>
+    <t>2020-05-12 16:26:13</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:38:22</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:37:14</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:36:05</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:34:02</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:32:46</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:30:57</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:29:38</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:27:33</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:22:40</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:09:39</t>
+  </si>
+  <si>
+    <t>2020-05-12 12:43:32</t>
+  </si>
+  <si>
+    <t>2020-05-12 05:13:32</t>
+  </si>
+  <si>
+    <t>2020-05-11 19:29:17</t>
+  </si>
+  <si>
+    <t>2020-05-11 18:46:24</t>
+  </si>
+  <si>
+    <t>2020-05-11 16:13:13</t>
+  </si>
+  <si>
+    <t>2020-05-11 11:52:29</t>
+  </si>
+  <si>
+    <t>2020-05-11 11:20:26</t>
+  </si>
+  <si>
+    <t>2020-05-11 11:11:52</t>
+  </si>
+  <si>
+    <t>2020-05-11 10:54:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Sanchez Salcedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Vital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Arroyo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnulfo Cordero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo Diaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia Treviño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Becerril </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camila Lemus García </t>
+  </si>
+  <si>
+    <t xml:space="preserve">May Heredia Coa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">erick omar lee meneses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Gisel Moncada </t>
+  </si>
+  <si>
+    <t>Carlos Ramirez</t>
+  </si>
+  <si>
+    <t>Gabriela Islas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Olivares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Vazquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Alberto García Castillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aixa Cabrera Chávez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique Saenz Quintana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verónica Teresita Mendoza De La O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Domínguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daphne Rivero Rivero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Antonio Mateo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elixa Mota Ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Bautista Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yazbeck navarro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Carmen Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo Rodriguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Montoya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcela Monserrat Padilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz rosas arellano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Vázquez Rangel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Espadas Rosado </t>
+  </si>
+  <si>
+    <t>Solicitar nombre</t>
+  </si>
+  <si>
+    <t>Victor Reyes</t>
+  </si>
+  <si>
+    <t>Brenda Gama</t>
+  </si>
+  <si>
+    <t>Armando Rodriguez Ortiz</t>
+  </si>
+  <si>
+    <t>Daniel Mejia</t>
+  </si>
+  <si>
+    <t>Enrique Chavez Esparza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federico Gerzso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Ocampo Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisol Rodríguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Angel Larrieta Arteaga </t>
+  </si>
+  <si>
+    <t>Lourdes Conde Zambrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Sanders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Rojas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Murillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica romero cebriano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Oropeza </t>
+  </si>
+  <si>
+    <t>Solicitar</t>
+  </si>
+  <si>
+    <t>(56) 1552-0858</t>
+  </si>
+  <si>
+    <t>ess_ing@hotmail.com</t>
+  </si>
+  <si>
+    <t>carilyn8625@hotmail.com</t>
+  </si>
+  <si>
+    <t>mvitaalferez@gmail.com</t>
+  </si>
+  <si>
+    <t>ps.far@outlook.com</t>
+  </si>
+  <si>
+    <t>arnulfocordero@yahoo.com</t>
+  </si>
+  <si>
+    <t>state.francisco@gmail.com</t>
+  </si>
+  <si>
+    <t>oscar.becerril@gmail.com</t>
+  </si>
+  <si>
+    <t>caam.lemus@gmail.com</t>
+  </si>
+  <si>
+    <t>herediamaylett@gmail.comr</t>
+  </si>
+  <si>
+    <t>omarlee_99@yahoo.com</t>
+  </si>
+  <si>
+    <t>giseel.davalos96@gmail.com</t>
+  </si>
+  <si>
+    <t>carlosramirez@yahoo.com</t>
+  </si>
+  <si>
+    <t>gislas2988@gmail.com</t>
+  </si>
+  <si>
+    <t>samuel_o.v@hotmail.com</t>
+  </si>
+  <si>
+    <t>vavo16@yahoo.com</t>
+  </si>
+  <si>
+    <t>luis.garciac87@gmail.com</t>
+  </si>
+  <si>
+    <t>yolotzincabrera@gmail.com</t>
+  </si>
+  <si>
+    <t>esaenzq@hotmail.com</t>
+  </si>
+  <si>
+    <t>clodetteaguirrebarrera@gmail.com</t>
+  </si>
+  <si>
+    <t>veronica.19.dlo@gmail.com</t>
+  </si>
+  <si>
+    <t>ant.castro02@gmail.com</t>
+  </si>
+  <si>
+    <t>daphrivero2@hotmail.com</t>
+  </si>
+  <si>
+    <t>joseantoniomateo1957@gmail.com</t>
+  </si>
+  <si>
+    <t>Jelizamotar@gmail.com</t>
+  </si>
+  <si>
+    <t>karou.akiva@outlook.com</t>
+  </si>
+  <si>
+    <t>maryyhdz2700@gmail.com</t>
+  </si>
+  <si>
+    <t>jmontoya@monnav.mx</t>
+  </si>
+  <si>
+    <t>marce.monsse@gmail.com</t>
+  </si>
+  <si>
+    <t>luzrosas0408@iCloud.com</t>
+  </si>
+  <si>
+    <t>arturoavr5000@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardoespadas90@gmail.com</t>
+  </si>
+  <si>
+    <t>ferbaezherdz77@gmail.com</t>
+  </si>
+  <si>
+    <t>lic_vrg@hotmail.com</t>
+  </si>
+  <si>
+    <t>oharada@hotmail.com</t>
+  </si>
+  <si>
+    <t>begg.271088@outlook.com</t>
+  </si>
+  <si>
+    <t>d_kmx@hotmail.com</t>
+  </si>
+  <si>
+    <t>jeamroor@gmail.com</t>
+  </si>
+  <si>
+    <t>skjck@ojfoj.com</t>
+  </si>
+  <si>
+    <t>d.startsmex@gmail.com</t>
+  </si>
+  <si>
+    <t>echavez1977@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>ggerzso@hotmail.com</t>
+  </si>
+  <si>
+    <t>luisoocampo@hotmail.com</t>
+  </si>
+  <si>
+    <t>marisol@fotoeventosmx.com</t>
+  </si>
+  <si>
+    <t>jangel.larrieta@gmail.com</t>
+  </si>
+  <si>
+    <t>louconde@gmail.com</t>
+  </si>
+  <si>
+    <t>alroca1@gmail.com</t>
+  </si>
+  <si>
+    <t>juanmurillo1228@gmail.com</t>
+  </si>
+  <si>
+    <t>monicaromeroc@hotmail.com</t>
+  </si>
+  <si>
+    <t>eoropeza1012@gmail.com</t>
+  </si>
+  <si>
+    <t>Es un teléfono equivocado. Se le envió mail de presentación y cotizaciones. Se le dará seguimiento por correo</t>
+  </si>
+  <si>
+    <t>Se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. estoy en seguimiento..
+Se le envió mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t>Teléfono no disponible, no entran llamadas no tiene whats. se le envía información por mail.</t>
+  </si>
+  <si>
+    <t>Solicito informes de los mas baratos de 2 y 3 recamaras. Se le envió el 205A y 403C.
 Seguimiento</t>
   </si>
   <si>
-    <t>Entra buzón. Se le envía información general por mail y por whats de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>Se le envía información por whats del departamento 307A</t>
-  </si>
-  <si>
-    <t>Solicitó informes de departamentos de 2 recámaras, se le envlían por whats</t>
-  </si>
-  <si>
-    <t>Solicitó información del PH03C, quiere cambiarse de Alabama por que le van a construir un centro comercial a un lado.</t>
-  </si>
-  <si>
-    <t>Se enteró a traves de Segundamano, se le envio información por mail y por whats de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>No contesta le envío informacion por mail y por whats con cotizaciones de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto $3,200,000</t>
-  </si>
-  <si>
-    <t>Busca en renta pero pidio que se lenviara informacion de 2 recamaras por whats</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t>Vino a cita el 05 de mayo 2020 con su socio Alfonso Seijo.
-Darius se llevó información del GH03B, PH02A y PH01C, programará una nueva cita con su esposa.</t>
-  </si>
-  <si>
-    <t>Cliente de visita el 12 de mayo 2019, vino a nueva  cita el 05 de mayo 2020 con su socio Darius Willhere</t>
-  </si>
-  <si>
-    <t>No contesta llamadas se le envía información por mail y por whats de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>Solicitó el modelo 205B y tiene bajo presupuesto.
+    <t>Entra buzón se e envia información por mail y por whats</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo, tiene $6M</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envía informacioón por mail y por whats</t>
+  </si>
+  <si>
+    <t>Me pidió le enviara información general y cotización del 205B. Me dice que esta revisando mas opciones que si hay interés el me llama.
 Seguimiento</t>
   </si>
   <si>
-    <t>Entra buzón se le envía información por whats y mail de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>No contesta entra buzon, no tiene whats se le envia información general por mail</t>
-  </si>
-  <si>
-    <t>04 - 10 de Mayol del 2020</t>
-  </si>
-  <si>
-    <t>*549114299826</t>
-  </si>
-  <si>
-    <t>No dejo teléfono, se le envió maIl de presentación y cotizaciones.
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>Se envía información de 2 y 3 recamaras por whats</t>
+  </si>
+  <si>
+    <t>Se le envia información departamentos de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>El teléfono no existe se le envía información por mail.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón.Se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>No contesta, se le envió mail de presentación y cotizaciones.
+    <t>Se le envía información de PH Y gh DE 2 Y 3 recámaras, cuando pase cuarentena coordinar cita</t>
+  </si>
+  <si>
+    <t>No le interesa invertir ahorita, hasta el proximo año. No quiso información</t>
+  </si>
+  <si>
+    <t>No es su telefono, se envía información por mail.</t>
+  </si>
+  <si>
+    <t>Entra buzon se le envia información por mail y por whats</t>
+  </si>
+  <si>
+    <t>Busca departamento de 3 recamaras, tiene hasta $8.5M 204C y 209A.
 Seguimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">Arturo Hernández Mena </t>
-  </si>
-  <si>
-    <t>Se envía mail con información</t>
-  </si>
-  <si>
-    <t>Entra a buzón a la primera parece que el no telefónico no es correcto, se le envió mail de presentación y cotizaciones. Seguimiento</t>
-  </si>
-  <si>
-    <t>Se enteró por Segundamano, se le envía información de 2 y 3 recamaras por mail y por whats.</t>
-  </si>
-  <si>
-    <t>No dejo número telefónico. Se le envió mail de presentación y cotizaciones.
+    <t>Cuelga las llamadas se le envia información general por mail.</t>
+  </si>
+  <si>
+    <t>Esta buscando depa de 2 rec. para su hija que estudiará en el ITAM San Jerónimo. Se le envió mail de presentación y 205B.
 Seguimiento</t>
   </si>
   <si>
-    <t>No dejo número telefónico,se le envió mal de presentación y cotizaciones.
-Seguimiento</t>
+    <t>Buscaba en renta pero que de todos modos le envie informacion de 2  recamaras</t>
+  </si>
+  <si>
+    <t>Presupuesto muy bajo $600 mil pesos.</t>
+  </si>
+  <si>
+    <t>Se programa cita para el viernes 15 de mayo</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón. Se le envía mail de presentación y cotizaciones. Seguimiento</t>
+  </si>
+  <si>
+    <t>No deja telefono real, se  el envia información general por mail.</t>
+  </si>
+  <si>
+    <t>No contesta se le envia información por whats y por mail</t>
+  </si>
+  <si>
+    <t>El telefono no existe se le envia información general por mail</t>
+  </si>
+  <si>
+    <t>Numero no disponible y fuera del área de servicio. Se le envía mail de presentación y cotizaciones. Seguimiento</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto.</t>
+  </si>
+  <si>
+    <t>No dejo no. telefónico. Se le envía mail de presentación y cotizaciones. Seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envia información general por mail</t>
+  </si>
+  <si>
+    <t>Numero no disponible, se le envió mail de presentación y cotizaciones</t>
+  </si>
+  <si>
+    <t>Le envio informacion de 2 recamaras por whats</t>
+  </si>
+  <si>
+    <t>Dejo Teléfono equivocado. Se le envió mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t>No contesta llamadas, se le envia informacion por mail y por whats</t>
+  </si>
+  <si>
+    <t>No contesta llamadas, se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>Tiene un presupuesto de $4M.</t>
+  </si>
+  <si>
+    <t>Se le envio informacion de 2 y 3 recamaras por mail y por whats</t>
+  </si>
+  <si>
+    <t>Entra buzón, no contesta se le envía información por mail y por whats</t>
+  </si>
+  <si>
+    <t>Entra buzon se le envía información general por mail.</t>
+  </si>
+  <si>
+    <t>Busca departamento en RENTA</t>
+  </si>
+  <si>
+    <t>Se le envía inmormación general por mail.</t>
+  </si>
+  <si>
+    <t>11 - 17 de Mayol del 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clodettea Aguilar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caridad Nira Navarro </t>
+  </si>
+  <si>
+    <t>manuel.bautista@mabe.com.mx</t>
+  </si>
+  <si>
+    <t>tepepan06@gmail.com</t>
+  </si>
+  <si>
+    <t>ptrevinoduran@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>guillermo_adr@hotmail.com</t>
+  </si>
+  <si>
+    <t>claudia_sanders24@hotmail.com</t>
+  </si>
+  <si>
+    <t>Entra buzón se le envia información por mail y por whats</t>
   </si>
 </sst>
 </file>
@@ -518,7 +771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -579,6 +832,12 @@
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -662,8 +921,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -770,11 +1030,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -848,13 +1107,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1192,10 +1451,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L252"/>
+  <dimension ref="A4:L272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1510,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1286,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="34">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>20</v>
@@ -1318,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1331,7 +1590,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="34">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1351,13 +1610,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1368,26 +1627,30 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="34">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
       <c r="E27" s="33" t="s">
         <v>30</v>
       </c>
       <c r="F27" s="34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1471,396 +1734,406 @@
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="39" t="s">
-        <v>49</v>
+      <c r="C34" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="39">
-        <v>5531496476</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>135</v>
+      <c r="F34" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="43">
+        <v>5548900504</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>48</v>
+      <c r="B35" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="39">
-        <v>4422830259</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>134</v>
+      <c r="F35" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="43">
+        <v>5533341186</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>37</v>
+      <c r="C36" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="39" t="s">
-        <v>153</v>
+      <c r="E36" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="43">
+        <v>4421271083</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>42</v>
+      <c r="C37" s="43" t="s">
+        <v>37</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="39">
-        <v>4422191892</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I37" s="39" t="s">
-        <v>130</v>
+      <c r="E37" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="43">
+        <v>5548737933</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>64</v>
+      <c r="C38" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="39">
-        <v>5551764423</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>36</v>
+      <c r="E38" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="43">
+        <v>5523235439</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>50</v>
+      <c r="C39" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>136</v>
+      <c r="E39" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="43">
+        <v>5551079549</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>51</v>
+      <c r="C40" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>154</v>
+      <c r="E40" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="43">
+        <v>5512585425</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>58</v>
+      <c r="C41" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>141</v>
+      <c r="E41" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="43">
+        <v>8124231090</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="39" t="s">
-        <v>59</v>
+      <c r="C42" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="39" t="s">
-        <v>142</v>
+      <c r="E42" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="43">
+        <v>8331278260</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>39</v>
+      <c r="B43" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="39">
-        <v>9511284197</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="43">
+        <v>5613793519</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>47</v>
+      <c r="B44" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="39">
-        <v>5519521494</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I44" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="43" t="s">
         <v>34</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="43">
+        <v>5561780199</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>57</v>
+      <c r="B45" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="39">
-        <v>5516508818</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>140</v>
+        <v>3</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="43">
+        <v>5543552231</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>63</v>
+      <c r="B46" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="39">
-        <v>7226479202</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>150</v>
+        <v>3</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="43">
+        <v>7717096344</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>40</v>
+      <c r="B47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="39">
-        <v>5555555555</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>128</v>
+      <c r="E47" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="43">
+        <v>5560684943</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>219</v>
       </c>
       <c r="J47" s="12"/>
     </row>
@@ -1868,899 +2141,1321 @@
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>52</v>
+      <c r="B48" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="39">
-        <v>6691590501</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>137</v>
+      <c r="F48" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="43">
+        <v>5549879669</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>60</v>
+      <c r="B49" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="39">
-        <v>4612577318</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>143</v>
+      <c r="F49" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="43">
+        <v>5554060643</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>41</v>
+      <c r="C50" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="39">
-        <v>5533666666</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>129</v>
+      <c r="E50" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="43">
+        <v>5564502731</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>43</v>
+      <c r="C51" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="39">
-        <v>7821222133</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>131</v>
+      <c r="E51" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51" s="43">
+        <v>9671613650</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>45</v>
+      <c r="C52" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>155</v>
+      <c r="E52" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="43">
+        <v>5513098245</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="39" t="s">
-        <v>53</v>
+      <c r="C53" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="39">
-        <v>5611507019</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>33</v>
+      <c r="E53" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="43">
+        <v>5536055488</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="39" t="s">
-        <v>55</v>
+      <c r="C54" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" s="39">
-        <v>5514514685</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>34</v>
+      <c r="E54" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="43">
+        <v>5611728522</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>61</v>
+      <c r="B55" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G55" s="39">
-        <v>5546353646</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="39" t="s">
+      <c r="E55" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="43">
+        <v>5531188068</v>
+      </c>
+      <c r="H55" s="43" t="s">
         <v>144</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>65</v>
+      <c r="B56" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="44" t="s">
-        <v>149</v>
+      <c r="E56" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="43">
+        <v>5554072179</v>
+      </c>
+      <c r="H56" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="I56" s="43" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>67</v>
+      <c r="B57" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="I57" s="44" t="s">
-        <v>156</v>
+      <c r="E57" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="43">
+        <v>5539418719</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>38</v>
+      <c r="C58" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="39">
-        <v>5537177657</v>
-      </c>
-      <c r="H58" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>152</v>
+      <c r="E58" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="43">
+        <v>4615464638</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>44</v>
+      <c r="C59" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="39">
-        <v>7551154605</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I59" s="39" t="s">
-        <v>132</v>
+      <c r="E59" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="43">
+        <v>5521413359</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>46</v>
+      <c r="C60" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="D60" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="39">
-        <v>5543753269</v>
-      </c>
-      <c r="H60" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>133</v>
+      <c r="E60" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="43">
+        <v>5537341463</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="39" t="s">
-        <v>54</v>
+      <c r="C61" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="D61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="39">
-        <v>5558071992</v>
-      </c>
-      <c r="H61" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>138</v>
+      <c r="E61" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="43">
+        <v>5550353486</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" s="43" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="39" t="s">
-        <v>56</v>
+      <c r="C62" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="39">
-        <v>5534244487</v>
-      </c>
-      <c r="H62" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>139</v>
+      <c r="E62" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="43">
+        <v>5551064803</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="43" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>62</v>
+      <c r="B63" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="D63" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="39">
-        <v>5586180996</v>
-      </c>
-      <c r="H63" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="I63" s="39" t="s">
-        <v>145</v>
+      <c r="G63" s="43">
+        <v>3471042460</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>66</v>
+      <c r="B64" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" s="39">
-        <v>5531430752</v>
-      </c>
-      <c r="H64" s="39" t="s">
+      <c r="F64" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="43">
+        <v>8132602707</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>32</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G65" s="43">
+        <v>5513924453</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="43">
+        <v>5585727280</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="43">
+        <v>2228719412</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" s="43">
+        <v>5579491439</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G69" s="43">
+        <v>5570761734</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I69" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="43">
+        <v>9999491739</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>38</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="43">
+        <v>5531038690</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="I71" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>39</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="43">
+        <v>5585832435</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>40</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="43">
+        <v>5532803349</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="43">
+        <v>5620087767</v>
+      </c>
+      <c r="H74" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I74" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" s="43">
+        <v>3329906714</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I75" s="43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="43">
+        <v>618</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76" s="43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="43">
+        <v>4427770535</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="I77" s="43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="43">
+        <v>5525635006</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="43">
+        <v>5585372593</v>
+      </c>
+      <c r="H79" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>47</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G80" s="43">
+        <v>25850592</v>
+      </c>
+      <c r="H80" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>48</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="43">
+        <v>5534452299</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>49</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>50</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G83" s="43">
+        <v>5564536275</v>
+      </c>
+      <c r="H83" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="I83" s="43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>51</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G84" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H84" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="I84" s="43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>52</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="43">
+        <v>6199619442</v>
+      </c>
+      <c r="H85" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85" s="43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>53</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G86" s="43">
+        <v>5548135648</v>
+      </c>
+      <c r="H86" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="I86" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>54</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="I64" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-    </row>
-    <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-    </row>
-    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-    </row>
-    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-    </row>
-    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-    </row>
-    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-    </row>
-    <row r="73" spans="2:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="39"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="41"/>
-    </row>
-    <row r="74" spans="2:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="39"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="41"/>
-    </row>
-    <row r="75" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="36" t="s">
+      <c r="G87" s="43">
+        <v>5512373363</v>
+      </c>
+      <c r="H87" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="I87" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+    </row>
+    <row r="93" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="39"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="41"/>
+    </row>
+    <row r="94" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="39"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="41"/>
+    </row>
+    <row r="95" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="12"/>
-    </row>
-    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="12"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="12"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22" t="s">
+      <c r="C95" s="19"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C98" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="12"/>
-    </row>
-    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C99" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="12"/>
-    </row>
-    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C100" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="2:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="B101" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C101" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="24"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="2:12" ht="16" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="21"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="21"/>
-    </row>
-    <row r="86" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="21"/>
-    </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="21"/>
-    </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="21"/>
-    </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="21"/>
-    </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="21"/>
-    </row>
-    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-    </row>
-    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-    </row>
-    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-    </row>
-    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-    </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-    </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-    </row>
-    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-    </row>
-    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-    </row>
-    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-    </row>
-    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="30"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-    </row>
-    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:12" ht="16" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2768,9 +3463,6 @@
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
     </row>
     <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
@@ -2780,9 +3472,6 @@
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
     </row>
     <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
@@ -2792,9 +3481,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
@@ -2804,11 +3491,9 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-    </row>
-    <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2816,21 +3501,19 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
+      <c r="B107" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
       <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
@@ -2840,21 +3523,18 @@
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
@@ -2864,9 +3544,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
@@ -2876,9 +3554,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
@@ -2984,7 +3660,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
+      <c r="J120" s="3"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
     </row>
@@ -4441,67 +5117,314 @@
       <c r="L241" s="6"/>
     </row>
     <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
     </row>
     <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
     <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
     <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
     <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
     <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="6"/>
+      <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
     <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
     </row>
     <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="6"/>
+      <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
     </row>
     <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
     </row>
     <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="6"/>
+      <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
     </row>
     <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="6"/>
+      <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
     </row>
+    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+    </row>
+    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+    </row>
+    <row r="257" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+    </row>
+    <row r="259" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+    </row>
+    <row r="260" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+    </row>
+    <row r="261" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+    </row>
+    <row r="262" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+    </row>
+    <row r="263" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+    </row>
+    <row r="264" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J264" s="6"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="6"/>
+    </row>
+    <row r="265" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J265" s="6"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="6"/>
+    </row>
+    <row r="266" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+    </row>
+    <row r="267" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+    </row>
+    <row r="268" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+    </row>
+    <row r="269" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J269" s="6"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="6"/>
+    </row>
+    <row r="270" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J270" s="6"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="6"/>
+    </row>
+    <row r="271" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J271" s="6"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="6"/>
+    </row>
+    <row r="272" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J272" s="6"/>
+      <c r="K272" s="6"/>
+      <c r="L272" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A87">
     <sortCondition ref="A34"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H36" r:id="rId1" xr:uid="{6CC7AD13-1A4E-4537-B93C-800200264F60}"/>
+    <hyperlink ref="H39" r:id="rId2" xr:uid="{1F569DBC-39AA-4E2C-AFB0-69DCE89087BB}"/>
+    <hyperlink ref="H49" r:id="rId3" xr:uid="{AC98DBAC-9822-4963-A9B6-4AE1AABE3FD1}"/>
+    <hyperlink ref="H56" r:id="rId4" xr:uid="{247F0FEF-669A-48AF-AEE8-A8A02944DBE6}"/>
+    <hyperlink ref="H62" r:id="rId5" xr:uid="{131D2181-4417-4C98-A5C3-0ADAF862305A}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D293B10-A935-3C4B-AE26-6E7BDEAB8926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D0C8EF-7741-F144-A040-3333032B139E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="263">
   <si>
     <t>A</t>
   </si>
@@ -129,639 +129,716 @@
     <t>Messenger</t>
   </si>
   <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Alejandra Campos García</t>
+  </si>
+  <si>
+    <t>2020-05-24 10:44:54</t>
+  </si>
+  <si>
+    <t>2020-05-24 09:32:58</t>
+  </si>
+  <si>
+    <t>2020-05-23 22:55:21</t>
+  </si>
+  <si>
+    <t>2020-05-23 20:20:33</t>
+  </si>
+  <si>
+    <t>2020-05-23 18:57:44</t>
+  </si>
+  <si>
+    <t>2020-05-23 18:00:48</t>
+  </si>
+  <si>
+    <t>2020-05-23 11:49:11</t>
+  </si>
+  <si>
+    <t>2020-05-23 08:35:51</t>
+  </si>
+  <si>
+    <t>2020-05-23 04:57:00</t>
+  </si>
+  <si>
+    <t>2020-05-23 00:31:13</t>
+  </si>
+  <si>
+    <t>2020-05-22 22:59:52</t>
+  </si>
+  <si>
+    <t>2020-05-22 20:48:59</t>
+  </si>
+  <si>
+    <t>2020-05-22 19:34:47</t>
+  </si>
+  <si>
+    <t>2020-05-22 19:13:42</t>
+  </si>
+  <si>
+    <t>2020-05-22 17:24:19</t>
+  </si>
+  <si>
+    <t>2020-05-22 15:24:08</t>
+  </si>
+  <si>
+    <t>2020-05-22 14:24:36</t>
+  </si>
+  <si>
+    <t>2020-05-22 12:42:49</t>
+  </si>
+  <si>
+    <t>2020-05-22 09:47:33</t>
+  </si>
+  <si>
+    <t>2020-05-22 02:03:18</t>
+  </si>
+  <si>
+    <t>2020-05-21 23:47:55</t>
+  </si>
+  <si>
+    <t>2020-05-21 20:36:05</t>
+  </si>
+  <si>
+    <t>2020-05-21 19:37:25</t>
+  </si>
+  <si>
+    <t>2020-05-21 18:22:04</t>
+  </si>
+  <si>
+    <t>2020-05-21 17:16:33</t>
+  </si>
+  <si>
+    <t>2020-05-21 16:26:21</t>
+  </si>
+  <si>
+    <t>2020-05-21 16:09:35</t>
+  </si>
+  <si>
+    <t>2020-05-21 16:01:41</t>
+  </si>
+  <si>
+    <t>2020-05-21 16:00:23</t>
+  </si>
+  <si>
+    <t>2020-05-21 15:58:18</t>
+  </si>
+  <si>
+    <t>2020-05-21 14:26:30</t>
+  </si>
+  <si>
+    <t>2020-05-21 14:01:02</t>
+  </si>
+  <si>
+    <t>2020-05-21 07:39:19</t>
+  </si>
+  <si>
+    <t>2020-05-21 03:09:18</t>
+  </si>
+  <si>
+    <t>2020-05-20 19:45:53</t>
+  </si>
+  <si>
+    <t>2020-05-20 17:54:21</t>
+  </si>
+  <si>
+    <t>2020-05-20 11:37:02</t>
+  </si>
+  <si>
+    <t>2020-05-20 08:26:56</t>
+  </si>
+  <si>
+    <t>2020-05-19 23:40:28</t>
+  </si>
+  <si>
+    <t>2020-05-19 19:29:23</t>
+  </si>
+  <si>
+    <t>2020-05-19 17:10:32</t>
+  </si>
+  <si>
+    <t>2020-05-19 10:55:24</t>
+  </si>
+  <si>
+    <t>2020-05-19 06:54:20</t>
+  </si>
+  <si>
+    <t>2020-05-19 04:17:24</t>
+  </si>
+  <si>
+    <t>2020-05-19 01:36:08</t>
+  </si>
+  <si>
+    <t>2020-05-19 00:58:05</t>
+  </si>
+  <si>
+    <t>2020-05-18 20:26:57</t>
+  </si>
+  <si>
+    <t>2020-05-18 19:57:06</t>
+  </si>
+  <si>
+    <t>2020-05-18 19:11:39</t>
+  </si>
+  <si>
+    <t>2020-05-18 16:07:57</t>
+  </si>
+  <si>
+    <t>2020-05-18 15:47:14</t>
+  </si>
+  <si>
+    <t>2020-05-18 15:42:25</t>
+  </si>
+  <si>
+    <t>2020-05-18 14:21:03</t>
+  </si>
+  <si>
+    <t>2020-05-18 13:37:34</t>
+  </si>
+  <si>
+    <t>2020-05-18 10:00:41</t>
+  </si>
+  <si>
+    <t>2020-05-18 06:43:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Romero Moreno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evangelina Guerrero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javid Franco </t>
+  </si>
+  <si>
+    <t>Raymundo Capetillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Guevara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monse Cuellar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clau Jasso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade Daniela Chavez cojulum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sol Prieto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Ovando Moreno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Bocco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Chapula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Escalera </t>
+  </si>
+  <si>
+    <t>Jhonny Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minel Carbajal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus </t>
+  </si>
+  <si>
+    <t>Christian Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Perez De Caso Legorreta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor sandovAl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián Antonio León Astorga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso paz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Dh </t>
+  </si>
+  <si>
+    <t>Luis Rueda Mendez</t>
+  </si>
+  <si>
+    <t>Victor Sordo</t>
+  </si>
+  <si>
+    <t>Miguel Hernandez Espinoza</t>
+  </si>
+  <si>
+    <t>Elisa Gabriela Alejaldre Medina</t>
+  </si>
+  <si>
+    <t>Lorena Messer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castán Fernández </t>
+  </si>
+  <si>
+    <t>Terry Tawil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mónica Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yolanda Medina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maru DL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvey Gil Willy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Guadalupe Frias Jiménez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martha Sotomayor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montse C. Arce </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra Ontiveros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulce Ivonne </t>
+  </si>
+  <si>
+    <t>Roberto Romero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelica Gutierrez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terry </t>
+  </si>
+  <si>
+    <t>Ana Miranda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana romero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Meza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilberto Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willie Colombine </t>
+  </si>
+  <si>
+    <t>(22) 2222-2222</t>
+  </si>
+  <si>
+    <t>(88) 8888-8888</t>
+  </si>
+  <si>
+    <t>rko_america1990@hotmail.com</t>
+  </si>
+  <si>
+    <t>md2015monicaguerrero@gmail.com</t>
+  </si>
+  <si>
+    <t>javid.franco@gmail.com</t>
+  </si>
+  <si>
+    <t>raymundo.capetillo@hotmaill.com</t>
+  </si>
+  <si>
+    <t>tlt360@outlook.com</t>
+  </si>
+  <si>
+    <t>jonavvhss57@gmail.com</t>
+  </si>
+  <si>
+    <t>Cinthia.cuellar@icloud.com</t>
+  </si>
+  <si>
+    <t>clajas@arcanobr.com</t>
+  </si>
+  <si>
+    <t>jadecojulum9@gmail.com</t>
+  </si>
+  <si>
+    <t>marisol.sener@energia.gob.mx</t>
+  </si>
+  <si>
+    <t>zaliki@hotmail.com</t>
+  </si>
+  <si>
+    <t>ovando_jc@yahoo.com</t>
+  </si>
+  <si>
+    <t>danicbocco@gmail.com</t>
+  </si>
+  <si>
+    <t>aliciatovarg@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>Lchapula@hotmail.com</t>
+  </si>
+  <si>
+    <t>droscaronco@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>jcruz0909@yahoo.com</t>
+  </si>
+  <si>
+    <t>Minel@studyacrossthepond.com</t>
+  </si>
+  <si>
+    <t>crwn211@gmail.com</t>
+  </si>
+  <si>
+    <t>Erfonseca@mac.com</t>
+  </si>
+  <si>
+    <t>cfelix@hotmail.com</t>
+  </si>
+  <si>
+    <t>eperez@indtapura.com.mx</t>
+  </si>
+  <si>
+    <t>vsandovalsanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>ju.leon@alumni.ipade.mx</t>
+  </si>
+  <si>
+    <t>pala740503@hotmail.com</t>
+  </si>
+  <si>
+    <t>ivan.gutierrez@eternec.com</t>
+  </si>
+  <si>
+    <t>luisrum@hotmail.com</t>
+  </si>
+  <si>
+    <t>visoza@hotmail.com</t>
+  </si>
+  <si>
+    <t>miguel.nsmh@gmail.com</t>
+  </si>
+  <si>
+    <t>elisaalejaldrem@gmail.com</t>
+  </si>
+  <si>
+    <t>XV0224@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>lorenameser@hotmail.com</t>
+  </si>
+  <si>
+    <t>roxanaballon@hotmail.com</t>
+  </si>
+  <si>
+    <t>casfer007@hotmail.com</t>
+  </si>
+  <si>
+    <t>ttawil@gfa.com.mx</t>
+  </si>
+  <si>
+    <t>babas2398@hotmail.com</t>
+  </si>
+  <si>
+    <t>medinafy@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>marudl18@hotmail.com</t>
+  </si>
+  <si>
+    <t>miguel110300@hotmail.com</t>
+  </si>
+  <si>
+    <t>hgw72@hotmail.com</t>
+  </si>
+  <si>
+    <t>andyea_665@hotmail.com</t>
+  </si>
+  <si>
+    <t>Monmtzh@gmail.com</t>
+  </si>
+  <si>
+    <t>Sotomayor.martha@gmail.com</t>
+  </si>
+  <si>
+    <t>fg1745894@gmail.com</t>
+  </si>
+  <si>
+    <t>Montsecepeda.arce@gmail.com</t>
+  </si>
+  <si>
+    <t>alithaontibb@gmail.com</t>
+  </si>
+  <si>
+    <t>ivonnev7_019@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>cevamexroberto@gmail.com</t>
+  </si>
+  <si>
+    <t>angelicagtz.3@gmail.com</t>
+  </si>
+  <si>
+    <t>avalosenator@gmail.com</t>
+  </si>
+  <si>
+    <t>terrysasson@gmail.com</t>
+  </si>
+  <si>
+    <t>aj7877975@gmail.com</t>
+  </si>
+  <si>
+    <t>Laly120285@gmail.com</t>
+  </si>
+  <si>
+    <t>ricarditomeza1903@outlook.com</t>
+  </si>
+  <si>
+    <t>gilbertogm@gmail.com</t>
+  </si>
+  <si>
+    <t>Colombinewc@gmail.com</t>
+  </si>
+  <si>
+    <t>Nos busco por que se dedica al interiorismo y quiere ofrecer sus servicios, también me pidió información y cotizaciones.  --  Nos busco por que se dedica al interiorismo y quiere ofrecer sus servicios, también me pidió información y cotizaciones.</t>
+  </si>
+  <si>
+    <t>Se le envía informacion general por mail y por whats  --  Se le envía informacion general por mail y por whats</t>
+  </si>
+  <si>
+    <t>A Raymundo y a su amigo Erich Muench les gusta el PH0B tienen que vender su departamento.</t>
+  </si>
+  <si>
+    <t>No contesta y ni entra buzón. Seguiré insistiendo en la llamada, mientras le envié mail de presentación y cotizaciones.  --  No contesta y ni entra buzón. Seguiré insistiendo en la llamada, mientras le envié mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t>Número no disponible, se envía información por mail.</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió mail de presentación y cotizaciones.
+Seguimiento.  --  No contesta entra buzón, se le envió mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>Es corredora traerá clientes  --  Es corredora traerá clientes</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>Se le envía información de 2 y 3 recamaras por whats  --  Se le envía información de 2 y 3 recamaras por whats</t>
+  </si>
+  <si>
+    <t>Esta empezando a ver se le envía información de 2 y 3 recamaras  --  Esta empezando a ver se le envía información de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>No dejo numero telefónico, se le envió mail de presentación y cotizaciones.
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>Se le envía información por mail de 2 y 3 recámaras</t>
+  </si>
+  <si>
+    <t>No contestata, se le envía información por mail y por whats  --  No contestata, se le envía información por mail y por whats</t>
+  </si>
+  <si>
+    <t>Solicitó informes de 2 y 3 recamaras. Se le envió el 205B y 403C.
+Seguimiento  --  Solicitó informes de 2 y 3 recamaras. Se le envió el 205B y 403C.
 Seguimiento</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Vania Caracheo</t>
-  </si>
-  <si>
-    <t>2020-05-17 09:10:35</t>
-  </si>
-  <si>
-    <t>2020-05-17 04:39:41</t>
-  </si>
-  <si>
-    <t>2020-05-16 22:13:09</t>
-  </si>
-  <si>
-    <t>2020-05-16 15:42:13</t>
-  </si>
-  <si>
-    <t>2020-05-16 12:07:59</t>
-  </si>
-  <si>
-    <t>2020-05-16 10:37:13</t>
-  </si>
-  <si>
-    <t>2020-05-16 10:14:49</t>
-  </si>
-  <si>
-    <t>2020-05-16 07:39:46</t>
-  </si>
-  <si>
-    <t>2020-05-15 22:31:58</t>
-  </si>
-  <si>
-    <t>2020-05-15 21:13:00</t>
-  </si>
-  <si>
-    <t>2020-05-15 19:00:02</t>
-  </si>
-  <si>
-    <t>2020-05-15 15:35:14</t>
-  </si>
-  <si>
-    <t>2020-05-15 13:03:03</t>
-  </si>
-  <si>
-    <t>2020-05-15 12:05:55</t>
-  </si>
-  <si>
-    <t>2020-05-15 12:04:12</t>
-  </si>
-  <si>
-    <t>2020-05-14 22:10:03</t>
-  </si>
-  <si>
-    <t>2020-05-14 17:48:14</t>
-  </si>
-  <si>
-    <t>2020-05-14 16:15:25</t>
-  </si>
-  <si>
-    <t>2020-05-14 16:10:24</t>
-  </si>
-  <si>
-    <t>2020-05-14 10:55:30</t>
-  </si>
-  <si>
-    <t>2020-05-14 08:44:04</t>
-  </si>
-  <si>
-    <t>2020-05-14 06:26:41</t>
-  </si>
-  <si>
-    <t>2020-05-14 05:16:55</t>
-  </si>
-  <si>
-    <t>2020-05-14 00:52:22</t>
-  </si>
-  <si>
-    <t>2020-05-13 23:28:10</t>
-  </si>
-  <si>
-    <t>2020-05-13 19:30:46</t>
-  </si>
-  <si>
-    <t>2020-05-13 17:42:00</t>
-  </si>
-  <si>
-    <t>2020-05-13 11:52:53</t>
-  </si>
-  <si>
-    <t>2020-05-13 09:56:12</t>
-  </si>
-  <si>
-    <t>2020-05-13 07:54:00</t>
-  </si>
-  <si>
-    <t>2020-05-13 05:44:00</t>
-  </si>
-  <si>
-    <t>2020-05-13 01:27:41</t>
-  </si>
-  <si>
-    <t>2020-05-12 23:01:42</t>
-  </si>
-  <si>
-    <t>2020-05-12 20:34:16</t>
-  </si>
-  <si>
-    <t>2020-05-12 16:26:13</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:38:22</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:37:14</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:36:05</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:34:02</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:32:46</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:30:57</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:29:38</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:27:33</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:22:40</t>
-  </si>
-  <si>
-    <t>2020-05-12 14:09:39</t>
-  </si>
-  <si>
-    <t>2020-05-12 12:43:32</t>
-  </si>
-  <si>
-    <t>2020-05-12 05:13:32</t>
-  </si>
-  <si>
-    <t>2020-05-11 19:29:17</t>
-  </si>
-  <si>
-    <t>2020-05-11 18:46:24</t>
-  </si>
-  <si>
-    <t>2020-05-11 16:13:13</t>
-  </si>
-  <si>
-    <t>2020-05-11 11:52:29</t>
-  </si>
-  <si>
-    <t>2020-05-11 11:20:26</t>
-  </si>
-  <si>
-    <t>2020-05-11 11:11:52</t>
-  </si>
-  <si>
-    <t>2020-05-11 10:54:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Sanchez Salcedo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Vital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda Arroyo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arnulfo Cordero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo Diaz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia Treviño </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Becerril </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camila Lemus García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May Heredia Coa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">erick omar lee meneses </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Gisel Moncada </t>
-  </si>
-  <si>
-    <t>Carlos Ramirez</t>
-  </si>
-  <si>
-    <t>Gabriela Islas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Olivares </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Vazquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Alberto García Castillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aixa Cabrera Chávez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique Saenz Quintana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verónica Teresita Mendoza De La O </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Domínguez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daphne Rivero Rivero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Antonio Mateo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elixa Mota Ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Bautista Hernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yazbeck navarro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Carmen Hernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerardo Rodriguez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Montoya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela Monserrat Padilla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luz rosas arellano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo Vázquez Rangel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Espadas Rosado </t>
-  </si>
-  <si>
-    <t>Solicitar nombre</t>
-  </si>
-  <si>
-    <t>Victor Reyes</t>
-  </si>
-  <si>
-    <t>Brenda Gama</t>
-  </si>
-  <si>
-    <t>Armando Rodriguez Ortiz</t>
-  </si>
-  <si>
-    <t>Daniel Mejia</t>
-  </si>
-  <si>
-    <t>Enrique Chavez Esparza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federico Gerzso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Ocampo Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisol Rodríguez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Angel Larrieta Arteaga </t>
-  </si>
-  <si>
-    <t>Lourdes Conde Zambrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Sanders </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Rojas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto Murillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica romero cebriano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Oropeza </t>
-  </si>
-  <si>
-    <t>Solicitar</t>
-  </si>
-  <si>
-    <t>(56) 1552-0858</t>
-  </si>
-  <si>
-    <t>ess_ing@hotmail.com</t>
-  </si>
-  <si>
-    <t>carilyn8625@hotmail.com</t>
-  </si>
-  <si>
-    <t>mvitaalferez@gmail.com</t>
-  </si>
-  <si>
-    <t>ps.far@outlook.com</t>
-  </si>
-  <si>
-    <t>arnulfocordero@yahoo.com</t>
-  </si>
-  <si>
-    <t>state.francisco@gmail.com</t>
-  </si>
-  <si>
-    <t>oscar.becerril@gmail.com</t>
-  </si>
-  <si>
-    <t>caam.lemus@gmail.com</t>
-  </si>
-  <si>
-    <t>herediamaylett@gmail.comr</t>
-  </si>
-  <si>
-    <t>omarlee_99@yahoo.com</t>
-  </si>
-  <si>
-    <t>giseel.davalos96@gmail.com</t>
-  </si>
-  <si>
-    <t>carlosramirez@yahoo.com</t>
-  </si>
-  <si>
-    <t>gislas2988@gmail.com</t>
-  </si>
-  <si>
-    <t>samuel_o.v@hotmail.com</t>
-  </si>
-  <si>
-    <t>vavo16@yahoo.com</t>
-  </si>
-  <si>
-    <t>luis.garciac87@gmail.com</t>
-  </si>
-  <si>
-    <t>yolotzincabrera@gmail.com</t>
-  </si>
-  <si>
-    <t>esaenzq@hotmail.com</t>
-  </si>
-  <si>
-    <t>clodetteaguirrebarrera@gmail.com</t>
-  </si>
-  <si>
-    <t>veronica.19.dlo@gmail.com</t>
-  </si>
-  <si>
-    <t>ant.castro02@gmail.com</t>
-  </si>
-  <si>
-    <t>daphrivero2@hotmail.com</t>
-  </si>
-  <si>
-    <t>joseantoniomateo1957@gmail.com</t>
-  </si>
-  <si>
-    <t>Jelizamotar@gmail.com</t>
-  </si>
-  <si>
-    <t>karou.akiva@outlook.com</t>
-  </si>
-  <si>
-    <t>maryyhdz2700@gmail.com</t>
-  </si>
-  <si>
-    <t>jmontoya@monnav.mx</t>
-  </si>
-  <si>
-    <t>marce.monsse@gmail.com</t>
-  </si>
-  <si>
-    <t>luzrosas0408@iCloud.com</t>
-  </si>
-  <si>
-    <t>arturoavr5000@gmail.com</t>
-  </si>
-  <si>
-    <t>ricardoespadas90@gmail.com</t>
-  </si>
-  <si>
-    <t>ferbaezherdz77@gmail.com</t>
-  </si>
-  <si>
-    <t>lic_vrg@hotmail.com</t>
-  </si>
-  <si>
-    <t>oharada@hotmail.com</t>
-  </si>
-  <si>
-    <t>begg.271088@outlook.com</t>
-  </si>
-  <si>
-    <t>d_kmx@hotmail.com</t>
-  </si>
-  <si>
-    <t>jeamroor@gmail.com</t>
-  </si>
-  <si>
-    <t>skjck@ojfoj.com</t>
-  </si>
-  <si>
-    <t>d.startsmex@gmail.com</t>
-  </si>
-  <si>
-    <t>echavez1977@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>ggerzso@hotmail.com</t>
-  </si>
-  <si>
-    <t>luisoocampo@hotmail.com</t>
-  </si>
-  <si>
-    <t>marisol@fotoeventosmx.com</t>
-  </si>
-  <si>
-    <t>jangel.larrieta@gmail.com</t>
-  </si>
-  <si>
-    <t>louconde@gmail.com</t>
-  </si>
-  <si>
-    <t>alroca1@gmail.com</t>
-  </si>
-  <si>
-    <t>juanmurillo1228@gmail.com</t>
-  </si>
-  <si>
-    <t>monicaromeroc@hotmail.com</t>
-  </si>
-  <si>
-    <t>eoropeza1012@gmail.com</t>
-  </si>
-  <si>
-    <t>Es un teléfono equivocado. Se le envió mail de presentación y cotizaciones. Se le dará seguimiento por correo</t>
-  </si>
-  <si>
-    <t>Se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. estoy en seguimiento..
-Se le envió mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t>Teléfono no disponible, no entran llamadas no tiene whats. se le envía información por mail.</t>
-  </si>
-  <si>
-    <t>Solicito informes de los mas baratos de 2 y 3 recamaras. Se le envió el 205A y 403C.
+    <t>Se le envia información de 2 recamaras por whats</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envió mail de presentación y cotizaciones.
+Seguimiento  --  Entra buzón, se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>Entra buzón se e envia información por mail y por whats</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo, tiene $6M</t>
-  </si>
-  <si>
-    <t>No contesta llamadas se le envía informacioón por mail y por whats</t>
-  </si>
-  <si>
-    <t>Me pidió le enviara información general y cotización del 205B. Me dice que esta revisando mas opciones que si hay interés el me llama.
+    <t>Cuelga las llamadas, se le envía información por mail.  --  Se regresa su correo se le envia informacion por whats  --  Cuelga las llamadas, se le envía información por mail.  --  Se regresa su correo se le envia informacion por whats</t>
+  </si>
+  <si>
+    <t>Es un numero EQUIVOCADO, me dice el cliente que no esta interesado y que nunca ha solicitado información. Estaba muy molesto por que me dice que le están llamando constantemente y el no esta buscando depa.</t>
+  </si>
+  <si>
+    <t>Trae Crédito de Bancomer de $6,000,000 solicitó información por whats de 2 y 3 recamaras para evaluarlo.</t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones.
+Seguimiento  --  Sigue entrando buzón.</t>
+  </si>
+  <si>
+    <t>El telefono es incorrecto se envía información por mail.  --  El telefono es incorrecto se envía información por mail.</t>
+  </si>
+  <si>
+    <t>Visito showroom el 06/02/2019, solicita información via whatsapp.</t>
+  </si>
+  <si>
+    <t>Solicita información de 2 recamaras.  --  Se le envió cotizaciones, seguimiento.  --  También esta buscando en Santa Fe.  --  Es cliente de whatsapp</t>
+  </si>
+  <si>
+    <t>Solicitó información de 2 recamaras.  --  Es cliente de Whatsapp, se le envió mail de presentación. Seguimiento</t>
+  </si>
+  <si>
+    <t>Se le envia información general por mail y por whatsapp.</t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones.
+Seguimiento  --  Le llame y me dice que esta viendo mas opciones, que si hay interés ella me llama Y ME COLGO.</t>
+  </si>
+  <si>
+    <t>Radica en Querétaro, está interesada en un Departamento de 2 recámaras, se le envía información por whats y en cuanto pase la contingencia programaremos cita para que conozca el proyecto.</t>
+  </si>
+  <si>
+    <t>Entra buzón se le envía información por mail de 2 y 3 recamaras.  --  Entra buzón se le envía información por mail de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t>No dejo numero telefónico, se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>Se envía información de 2 y 3 recamaras por whats</t>
-  </si>
-  <si>
-    <t>Se le envia información departamentos de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>El teléfono no existe se le envía información por mail.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón.Se le envió mail de presentación y cotizaciones.
+    <t>Whats de prueba</t>
+  </si>
+  <si>
+    <t>No contesta se le envia información general por mail.  --  No contesta se le envia información general por mail.</t>
+  </si>
+  <si>
+    <t>Solicitó el departamento mas barato, parece que tiene un presupuesto bajo. Se le dará seguimiento.  --  Solicitó el departamento mas barato, parece que tiene un presupuesto bajo. Se le dará seguimiento.</t>
+  </si>
+  <si>
+    <t>Fuera de presupesto trae menos de $4,000,000 pesos  --  Fuera de presupesto trae menos de $4,000,000 pesos</t>
+  </si>
+  <si>
+    <t>Se le llamó y entra buzón. Se le envió mail de presentación y cotizaciones. Se le estará dando seguimiento.  --  Se le llamó y entra buzón. Se le envió mail de presentación y cotizaciones. Se le estará dando seguimiento.</t>
+  </si>
+  <si>
+    <t>Se le envía información general por mail  --  Se le envía información general por mail</t>
+  </si>
+  <si>
+    <t>Numero de teléfono invalido, se le envió mail de presentación y cotizaciones.  --  Numero de teléfono invalido, se le envió mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t>Entra buzón se lwe envia informacion por mail y por whats  --  Fuera de presupuesto, trae $5,000,000  --  Entra buzón se lwe envia informacion por mail y por whats  --  Fuera de presupuesto, trae $5,000,000</t>
+  </si>
+  <si>
+    <t>Busca de 2 recamaras,tiene bajo presupuesto de vualquier forma me pidió le enviara la cotización del 205B.
+Seguimiento  --  Busca de 2 recamaras,tiene bajo presupuesto de vualquier forma me pidió le enviara la cotización del 205B.
 Seguimiento</t>
   </si>
   <si>
-    <t>Se le envía información de PH Y gh DE 2 Y 3 recámaras, cuando pase cuarentena coordinar cita</t>
-  </si>
-  <si>
-    <t>No le interesa invertir ahorita, hasta el proximo año. No quiso información</t>
-  </si>
-  <si>
-    <t>No es su telefono, se envía información por mail.</t>
-  </si>
-  <si>
-    <t>Entra buzon se le envia información por mail y por whats</t>
-  </si>
-  <si>
-    <t>Busca departamento de 3 recamaras, tiene hasta $8.5M 204C y 209A.
+    <t>Telefono incorrecto se envia informacion general por mail.</t>
+  </si>
+  <si>
+    <t>Busca de 2 recamaras el mas barato, se le envió cotizacion del 205B.
+Seguimiento  --  Busca de 2 recamaras el mas barato, se le envió cotizacion del 205B.
 Seguimiento</t>
   </si>
   <si>
-    <t>Cuelga las llamadas se le envia información general por mail.</t>
-  </si>
-  <si>
-    <t>Esta buscando depa de 2 rec. para su hija que estudiará en el ITAM San Jerónimo. Se le envió mail de presentación y 205B.
+    <t>No entra llamada se le envía información por whats y por mail.</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón. Se le envió mail de presentación y cotizaciones.
+Seguimiento  --  No contesta entra buzón, se le envió mail de presentación y cotizaciones.
+Seguimiento  --  Sigue entrando buzón.  --  No contesta entra buzón. Se le envió mail de presentación y cotizaciones.
+Seguimiento  --  No contesta entra buzón, se le envió mail de presentación y cotizaciones.
+Seguimiento  --  Sigue entrando buzón.</t>
+  </si>
+  <si>
+    <t>Le interesa para invertir, es cliente de broker externa, Rosa Maria Prieto. Envío brochure y en cuanto lo revise cotizaciones.</t>
+  </si>
+  <si>
+    <t>Solicita informacion de departamentos de 3 recamaras por whats</t>
+  </si>
+  <si>
+    <t>El teléfono no existe se envia infomación general por mail</t>
+  </si>
+  <si>
+    <t>El contacto es de prueba</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto, trae $4,500,000  --  Fuera de presupuesto, trae $4,500,000</t>
+  </si>
+  <si>
+    <t>Entra Buzón, se le envió mail de presentación y cotizaciones.
 Seguimiento</t>
   </si>
   <si>
-    <t>Buscaba en renta pero que de todos modos le envie informacion de 2  recamaras</t>
-  </si>
-  <si>
-    <t>Presupuesto muy bajo $600 mil pesos.</t>
-  </si>
-  <si>
-    <t>Se programa cita para el viernes 15 de mayo</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón. Se le envía mail de presentación y cotizaciones. Seguimiento</t>
-  </si>
-  <si>
-    <t>No deja telefono real, se  el envia información general por mail.</t>
-  </si>
-  <si>
-    <t>No contesta se le envia información por whats y por mail</t>
-  </si>
-  <si>
-    <t>El telefono no existe se le envia información general por mail</t>
-  </si>
-  <si>
-    <t>Numero no disponible y fuera del área de servicio. Se le envía mail de presentación y cotizaciones. Seguimiento</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto.</t>
-  </si>
-  <si>
-    <t>No dejo no. telefónico. Se le envía mail de presentación y cotizaciones. Seguimiento</t>
-  </si>
-  <si>
-    <t>No contesta llamadas se le envia información general por mail</t>
-  </si>
-  <si>
-    <t>Numero no disponible, se le envió mail de presentación y cotizaciones</t>
-  </si>
-  <si>
-    <t>Le envio informacion de 2 recamaras por whats</t>
-  </si>
-  <si>
-    <t>Dejo Teléfono equivocado. Se le envió mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t>No contesta llamadas, se le envia informacion por mail y por whats</t>
-  </si>
-  <si>
-    <t>No contesta llamadas, se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>Tiene un presupuesto de $4M.</t>
-  </si>
-  <si>
-    <t>Se le envio informacion de 2 y 3 recamaras por mail y por whats</t>
-  </si>
-  <si>
-    <t>Entra buzón, no contesta se le envía información por mail y por whats</t>
-  </si>
-  <si>
-    <t>Entra buzon se le envía información general por mail.</t>
-  </si>
-  <si>
-    <t>Busca departamento en RENTA</t>
-  </si>
-  <si>
-    <t>Se le envía inmormación general por mail.</t>
-  </si>
-  <si>
-    <t>11 - 17 de Mayol del 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clodettea Aguilar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caridad Nira Navarro </t>
-  </si>
-  <si>
-    <t>manuel.bautista@mabe.com.mx</t>
-  </si>
-  <si>
-    <t>tepepan06@gmail.com</t>
-  </si>
-  <si>
-    <t>ptrevinoduran@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>guillermo_adr@hotmail.com</t>
-  </si>
-  <si>
-    <t>claudia_sanders24@hotmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón se le envia información por mail y por whats</t>
+    <t>Interesado en departamentos de 3 recamaras, nivel 5 y PH, se le envía por mail  --  Les gusta el GH01C</t>
+  </si>
+  <si>
+    <t>Solicitó info general  cotización de 2 y 3 recamaras. Es extranjero y llega a radicar a la ciudad en octubre.
+Seguimiento  --  Solicitó info general  cotización de 2 y 3 recamaras. Es extranjero y llega a radicar a la ciudad en octubre.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>18 - 24 de Mayo del 2020</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Vallas</t>
+  </si>
+  <si>
+    <t>Pag Gfa</t>
+  </si>
+  <si>
+    <t>Llamada</t>
+  </si>
+  <si>
+    <t>María Fernanda González Mesa</t>
+  </si>
+  <si>
+    <t>Alicia Tovar</t>
+  </si>
+  <si>
+    <t>Roxana Ballon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga Zapata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ximena Tirado </t>
+  </si>
+  <si>
+    <t>Enrique David Avalos Ortega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika Fonseca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moni MTz </t>
+  </si>
+  <si>
+    <t>Cliente de Broker Ximena Vazquez. Envié cotizaciones con jardín y terraza de AVENUE Nápoles</t>
+  </si>
+  <si>
+    <t>Visita y cotizaciones  301B, 201A, 202A y GH03B</t>
   </si>
 </sst>
 </file>
@@ -771,7 +848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -832,12 +909,6 @@
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -921,11 +992,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,9 +1045,6 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,19 +1088,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1451,10 +1516,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L272"/>
+  <dimension ref="A4:K272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1467,13 +1532,12 @@
     <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="162.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="1"/>
+    <col min="9" max="9" width="244" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1482,24 +1546,23 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:10" ht="23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="23" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1508,9 +1571,9 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1525,7 +1588,7 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="5"/>
@@ -1541,128 +1604,128 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="34">
-        <v>54</v>
-      </c>
-      <c r="E20" s="33" t="s">
+      <c r="C20" s="33">
+        <v>56</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <v>0</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="E21" s="33" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="E21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="34">
-        <v>0</v>
+      <c r="F21" s="33">
+        <v>11</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="E22" s="33" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="E22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="34">
-        <v>13</v>
+      <c r="F22" s="33">
+        <v>17</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="E23" s="33" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="E23" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="34">
-        <v>41</v>
+      <c r="F23" s="33">
+        <v>28</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="12"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="34">
-        <v>26</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="C25" s="33">
+        <v>25</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="34">
-        <v>22</v>
+      <c r="F25" s="33">
+        <v>28</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="34">
-        <v>27</v>
-      </c>
-      <c r="E26" s="33" t="s">
+      <c r="C26" s="33">
+        <v>29</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="34">
-        <v>12</v>
+      <c r="F26" s="33">
+        <v>11</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="34">
-        <v>1</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="C27" s="33">
+        <v>2</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="34">
-        <v>20</v>
+      <c r="F27" s="33">
+        <v>17</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="E28" s="33" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="E28" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <v>0</v>
       </c>
       <c r="G28" s="12"/>
@@ -1670,11 +1733,11 @@
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="30"/>
+      <c r="E29" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="33">
         <v>0</v>
       </c>
       <c r="G29" s="12"/>
@@ -1682,14 +1745,14 @@
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
+      <c r="B30" s="30"/>
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="5"/>
@@ -1704,7 +1767,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>6</v>
       </c>
@@ -1730,932 +1793,931 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="43" t="s">
+      <c r="C34" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="43">
-        <v>5548900504</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="F34" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="38">
+        <v>5559652767</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="43">
-        <v>5533341186</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="38">
+        <v>5541904106</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" s="43">
-        <v>4421271083</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="38">
+        <v>5541917456</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="43">
-        <v>5548737933</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="38">
+        <v>5579401220</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="43">
-        <v>5523235439</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="38">
+        <v>5554032795</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="43">
-        <v>5551079549</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="38">
+        <v>5537828252</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="43">
-        <v>5512585425</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="38">
+        <v>5521297790</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="43">
-        <v>8124231090</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="38">
+        <v>5582325279</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="43">
-        <v>8331278260</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="I42" s="43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="38">
+        <v>4423525410</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="43">
-        <v>5613793519</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="43" t="s">
+      <c r="B43" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="38">
+        <v>5541418913</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" s="38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="43">
-        <v>5561780199</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="38">
+        <v>9932295562</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="38" t="s">
+      <c r="B45" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="43">
-        <v>5543552231</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" s="43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" s="38">
+        <v>5527551675</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="38" t="s">
+      <c r="B46" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G46" s="43">
-        <v>7717096344</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="I46" s="43" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="38">
+        <v>5543683259</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="43">
-        <v>5560684943</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="38">
+        <v>5515111709</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="43" t="s">
+      <c r="B48" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="43" t="s">
+      <c r="D48" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="43">
-        <v>5549879669</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>190</v>
+      <c r="F48" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="38">
+        <v>9241123775</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="43" t="s">
+      <c r="B49" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G49" s="43">
-        <v>5554060643</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>196</v>
+      <c r="F49" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="38">
+        <v>5545882227</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="43" t="s">
+      <c r="B50" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="43">
-        <v>5564502731</v>
-      </c>
-      <c r="H50" s="43" t="s">
+      <c r="G50" s="38">
+        <v>5544930039</v>
+      </c>
+      <c r="H50" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="I50" s="43" t="s">
-        <v>199</v>
+      <c r="I50" s="38" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="43" t="s">
+      <c r="B51" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51" s="43">
-        <v>9671613650</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>199</v>
+      <c r="F51" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="38">
+        <v>5561767058</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="43" t="s">
+      <c r="B52" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="43">
-        <v>5513098245</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" s="43" t="s">
-        <v>33</v>
+      <c r="F52" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="38">
+        <v>5513418648</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="43" t="s">
+      <c r="B53" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="43">
-        <v>5536055488</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>208</v>
+      <c r="F53" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="38">
+        <v>5528554721</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="43">
-        <v>5611728522</v>
-      </c>
-      <c r="H54" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="I54" s="43" t="s">
-        <v>33</v>
+      <c r="B54" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" s="38">
+        <v>56619819</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="43">
-        <v>5531188068</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>193</v>
+      <c r="C55" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="38">
+        <v>5534132356</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="43">
-        <v>5554072179</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="I56" s="43" t="s">
-        <v>195</v>
+      <c r="C56" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="43">
-        <v>5539418719</v>
-      </c>
-      <c r="H57" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>202</v>
+      <c r="C57" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="38">
+        <v>5541434277</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" s="43">
-        <v>4615464638</v>
-      </c>
-      <c r="H58" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>205</v>
+      <c r="B58" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="38">
+        <v>5513301423</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G59" s="43">
-        <v>5521413359</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="I59" s="43" t="s">
-        <v>207</v>
+      <c r="B59" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" s="38">
+        <v>5561756964</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="43">
-        <v>5537341463</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>209</v>
+      <c r="C60" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="38">
+        <v>5523443334</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="43">
-        <v>5550353486</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>226</v>
+      <c r="C61" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" s="38">
+        <v>5519323414</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="38" t="s">
+      <c r="B62" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="E62" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="43">
-        <v>5551064803</v>
-      </c>
-      <c r="H62" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="I62" s="43" t="s">
-        <v>229</v>
+      <c r="F62" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" s="38">
+        <v>5531571086</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="38" t="s">
+      <c r="C63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63" s="43">
-        <v>3471042460</v>
-      </c>
-      <c r="H63" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>192</v>
+      <c r="E63" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="38">
+        <v>5536988419</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="38" t="s">
+      <c r="C64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G64" s="43">
-        <v>8132602707</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>199</v>
+      <c r="E64" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="38">
+        <v>5510201274</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="38" t="s">
+      <c r="C65" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" s="43">
-        <v>5513924453</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="I65" s="43" t="s">
+      <c r="E65" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G65" s="38">
+        <v>9671192904</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" s="38" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2663,28 +2725,28 @@
       <c r="A66" s="1">
         <v>33</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="38" t="s">
+      <c r="C66" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" s="43">
-        <v>5585727280</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I66" s="43" t="s">
+      <c r="E66" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="38">
+        <v>5554073943</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="38" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2692,144 +2754,144 @@
       <c r="A67" s="1">
         <v>34</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="38" t="s">
+      <c r="C67" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67" s="43">
-        <v>2228719412</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>212</v>
+      <c r="E67" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="38">
+        <v>5541778132</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" s="38" t="s">
+      <c r="C68" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="43">
-        <v>5579491439</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>214</v>
+      <c r="E68" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="38">
+        <v>5577711172</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>36</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="38" t="s">
+      <c r="C69" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="G69" s="43">
-        <v>5570761734</v>
-      </c>
-      <c r="H69" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="I69" s="43" t="s">
-        <v>214</v>
+      <c r="E69" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="38">
+        <v>2711340250</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37</v>
       </c>
-      <c r="B70" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="38" t="s">
+      <c r="B70" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="43">
-        <v>9999491739</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="I70" s="43" t="s">
-        <v>214</v>
+      <c r="E70" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="38">
+        <v>4771146033</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>38</v>
       </c>
-      <c r="B71" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D71" s="38" t="s">
+      <c r="B71" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="G71" s="43">
-        <v>5531038690</v>
-      </c>
-      <c r="H71" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="I71" s="43" t="s">
+      <c r="E71" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71" s="38">
+        <v>7771032756</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I71" s="38" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2837,538 +2899,572 @@
       <c r="A72" s="1">
         <v>39</v>
       </c>
-      <c r="B72" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="38" t="s">
+      <c r="B72" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" s="43">
-        <v>5585832435</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="I72" s="43" t="s">
-        <v>227</v>
+      <c r="E72" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G72" s="38">
+        <v>55555555</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40</v>
       </c>
-      <c r="B73" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="38" t="s">
+      <c r="B73" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="G73" s="43">
-        <v>5532803349</v>
-      </c>
-      <c r="H73" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="I73" s="43" t="s">
-        <v>231</v>
+      <c r="E73" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G73" s="38">
+        <v>5591215854</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="38" t="s">
+      <c r="C74" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="43">
-        <v>5620087767</v>
-      </c>
-      <c r="H74" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="I74" s="43" t="s">
-        <v>241</v>
+      <c r="E74" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="38">
+        <v>5531273323</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="38" t="s">
+      <c r="C75" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G75" s="43">
-        <v>3329906714</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>206</v>
+      <c r="E75" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="38">
+        <v>5579312368</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="I75" s="38" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="38" t="s">
+      <c r="C76" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76" s="43">
-        <v>618</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="I76" s="43" t="s">
-        <v>215</v>
+      <c r="E76" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="G76" s="38">
+        <v>5518504108</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="38" t="s">
+      <c r="C77" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="G77" s="43">
-        <v>4427770535</v>
-      </c>
-      <c r="H77" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I77" s="43" t="s">
-        <v>216</v>
+      <c r="E77" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G77" s="38">
+        <v>5523247784</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I77" s="38" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45</v>
       </c>
-      <c r="B78" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" s="38" t="s">
+      <c r="B78" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F78" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="G78" s="43">
-        <v>5525635006</v>
-      </c>
-      <c r="H78" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="I78" s="43" t="s">
-        <v>225</v>
+      <c r="F78" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="38">
+        <v>9512289606</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I78" s="38" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>46</v>
       </c>
-      <c r="B79" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="38" t="s">
+      <c r="B79" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="G79" s="43">
-        <v>5585372593</v>
-      </c>
-      <c r="H79" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="I79" s="43" t="s">
-        <v>230</v>
+      <c r="F79" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="I79" s="38" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>47</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="38" t="s">
+      <c r="C80" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G80" s="43">
-        <v>25850592</v>
-      </c>
-      <c r="H80" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="I80" s="43" t="s">
-        <v>214</v>
+      <c r="E80" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="38">
+        <v>5515102573</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I80" s="38" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>48</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="38" t="s">
+      <c r="C81" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G81" s="43">
-        <v>5534452299</v>
-      </c>
-      <c r="H81" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="I81" s="43" t="s">
-        <v>218</v>
+      <c r="E81" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" s="38">
+        <v>5525078509</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="I81" s="38" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>49</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" s="38" t="s">
+      <c r="C82" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G82" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="H82" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="I82" s="43" t="s">
-        <v>220</v>
+      <c r="E82" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G82" s="38">
+        <v>5525690367</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I82" s="38" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>50</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D83" s="38" t="s">
+      <c r="C83" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G83" s="43">
-        <v>5564536275</v>
-      </c>
-      <c r="H83" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="I83" s="43" t="s">
-        <v>222</v>
+      <c r="E83" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="I83" s="38" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>51</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="38" t="s">
+      <c r="C84" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="G84" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="H84" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="I84" s="43" t="s">
-        <v>224</v>
+      <c r="E84" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="38">
+        <v>5552526678</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>52</v>
       </c>
-      <c r="B85" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="38" t="s">
+      <c r="B85" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="G85" s="43">
-        <v>6199619442</v>
-      </c>
-      <c r="H85" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="I85" s="43" t="s">
-        <v>217</v>
+      <c r="E85" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" s="38">
+        <v>5546499483</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="I85" s="38" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>53</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C86" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="38" t="s">
+      <c r="C86" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F86" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="43">
-        <v>5548135648</v>
-      </c>
-      <c r="H86" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="I86" s="43" t="s">
-        <v>219</v>
+      <c r="E86" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G86" s="38">
+        <v>5526754126</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I86" s="38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>54</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="38" t="s">
+      <c r="C87" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G87" s="43">
-        <v>5512373363</v>
-      </c>
-      <c r="H87" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="I87" s="43" t="s">
-        <v>221</v>
+      <c r="E87" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="38">
+        <v>5572227856</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
+      <c r="A88" s="1">
+        <v>55</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="I88" s="38" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
+      <c r="A89" s="1">
+        <v>56</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G89" s="38">
+        <v>5552526678</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="I89" s="38" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
     </row>
     <row r="93" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="39"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="41"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="19"/>
@@ -3389,7 +3485,7 @@
       <c r="H96" s="20"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="18"/>
       <c r="C97" s="19"/>
       <c r="D97" s="18"/>
@@ -3399,63 +3495,63 @@
       <c r="H97" s="20"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="22" t="s">
+    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="24"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="28"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="22" t="s">
+    <row r="99" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="28"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="22" t="s">
+    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="28"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="27"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="2:12" ht="17" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="s">
+    <row r="101" spans="2:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="B101" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="30"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="29"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="2:12" ht="16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="16" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3464,7 +3560,7 @@
       <c r="G102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3473,7 +3569,7 @@
       <c r="G103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3481,9 +3577,8 @@
       <c r="F104" s="5"/>
       <c r="G104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="21"/>
-    </row>
-    <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3491,9 +3586,8 @@
       <c r="F105" s="5"/>
       <c r="G105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="21"/>
-    </row>
-    <row r="106" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3501,9 +3595,8 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="21"/>
-    </row>
-    <row r="107" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>25</v>
       </c>
@@ -3513,9 +3606,8 @@
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
       <c r="I107" s="6"/>
-      <c r="J107" s="21"/>
-    </row>
-    <row r="108" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3523,9 +3615,8 @@
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="I108" s="6"/>
-      <c r="J108" s="21"/>
-    </row>
-    <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3534,9 +3625,8 @@
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="21"/>
-    </row>
-    <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3544,9 +3634,8 @@
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="21"/>
-    </row>
-    <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3554,9 +3643,8 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="21"/>
-    </row>
-    <row r="112" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3566,9 +3654,8 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-    </row>
-    <row r="113" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3578,9 +3665,8 @@
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-    </row>
-    <row r="114" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3590,9 +3676,8 @@
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-    </row>
-    <row r="115" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3602,9 +3687,8 @@
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-    </row>
-    <row r="116" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3614,9 +3698,8 @@
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-    </row>
-    <row r="117" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3626,9 +3709,8 @@
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-    </row>
-    <row r="118" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3638,9 +3720,8 @@
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-    </row>
-    <row r="119" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3650,9 +3731,8 @@
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-    </row>
-    <row r="120" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3660,11 +3740,10 @@
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="3"/>
+      <c r="J120" s="6"/>
       <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-    </row>
-    <row r="121" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3674,9 +3753,8 @@
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-    </row>
-    <row r="122" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3686,9 +3764,8 @@
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-    </row>
-    <row r="123" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3698,9 +3775,8 @@
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-    </row>
-    <row r="124" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3710,9 +3786,8 @@
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-    </row>
-    <row r="125" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3722,9 +3797,8 @@
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-    </row>
-    <row r="126" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3734,9 +3808,8 @@
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-    </row>
-    <row r="127" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3746,9 +3819,8 @@
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-    </row>
-    <row r="128" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3758,9 +3830,8 @@
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-    </row>
-    <row r="129" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3770,9 +3841,8 @@
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-    </row>
-    <row r="130" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3782,9 +3852,8 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-    </row>
-    <row r="131" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3794,9 +3863,8 @@
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-    </row>
-    <row r="132" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3806,9 +3874,8 @@
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-    </row>
-    <row r="133" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3818,9 +3885,8 @@
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-    </row>
-    <row r="134" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3830,9 +3896,8 @@
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-    </row>
-    <row r="135" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3842,9 +3907,8 @@
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-    </row>
-    <row r="136" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -3854,9 +3918,8 @@
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-    </row>
-    <row r="137" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -3866,9 +3929,8 @@
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-    </row>
-    <row r="138" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -3878,9 +3940,8 @@
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-    </row>
-    <row r="139" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3890,9 +3951,8 @@
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-    </row>
-    <row r="140" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -3902,9 +3962,8 @@
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-    </row>
-    <row r="141" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3914,9 +3973,8 @@
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-    </row>
-    <row r="142" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3926,9 +3984,8 @@
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-    </row>
-    <row r="143" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3938,9 +3995,8 @@
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-    </row>
-    <row r="144" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3950,9 +4006,8 @@
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-    </row>
-    <row r="145" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3962,9 +4017,8 @@
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-    </row>
-    <row r="146" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3974,9 +4028,8 @@
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-    </row>
-    <row r="147" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3986,9 +4039,8 @@
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-    </row>
-    <row r="148" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -3998,9 +4050,8 @@
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-    </row>
-    <row r="149" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -4010,9 +4061,8 @@
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-    </row>
-    <row r="150" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -4022,9 +4072,8 @@
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-    </row>
-    <row r="151" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -4034,9 +4083,8 @@
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-    </row>
-    <row r="152" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -4046,9 +4094,8 @@
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-    </row>
-    <row r="153" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -4058,9 +4105,8 @@
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
-      <c r="L153" s="6"/>
-    </row>
-    <row r="154" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -4070,9 +4116,8 @@
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-    </row>
-    <row r="155" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -4082,9 +4127,8 @@
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-    </row>
-    <row r="156" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -4094,9 +4138,8 @@
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-    </row>
-    <row r="157" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -4106,9 +4149,8 @@
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-    </row>
-    <row r="158" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -4118,9 +4160,8 @@
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-    </row>
-    <row r="159" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -4130,9 +4171,8 @@
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-    </row>
-    <row r="160" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -4142,9 +4182,8 @@
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-    </row>
-    <row r="161" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -4154,9 +4193,8 @@
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-    </row>
-    <row r="162" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -4166,9 +4204,8 @@
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-    </row>
-    <row r="163" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -4178,9 +4215,8 @@
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-    </row>
-    <row r="164" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -4190,9 +4226,8 @@
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-    </row>
-    <row r="165" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -4202,9 +4237,8 @@
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-    </row>
-    <row r="166" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -4214,9 +4248,8 @@
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-    </row>
-    <row r="167" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -4226,9 +4259,8 @@
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-    </row>
-    <row r="168" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -4238,9 +4270,8 @@
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-    </row>
-    <row r="169" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -4250,9 +4281,8 @@
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-    </row>
-    <row r="170" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -4262,9 +4292,8 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
-    </row>
-    <row r="171" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -4274,9 +4303,8 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
-    </row>
-    <row r="172" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -4286,9 +4314,8 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
-    </row>
-    <row r="173" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -4298,9 +4325,8 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-    </row>
-    <row r="174" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -4310,9 +4336,8 @@
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-    </row>
-    <row r="175" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -4322,9 +4347,8 @@
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-    </row>
-    <row r="176" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -4334,9 +4358,8 @@
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-    </row>
-    <row r="177" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4346,9 +4369,8 @@
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-    </row>
-    <row r="178" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -4358,9 +4380,8 @@
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-    </row>
-    <row r="179" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4370,9 +4391,8 @@
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-    </row>
-    <row r="180" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -4382,9 +4402,8 @@
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-    </row>
-    <row r="181" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -4394,9 +4413,8 @@
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-    </row>
-    <row r="182" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -4406,9 +4424,8 @@
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
-    </row>
-    <row r="183" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -4418,9 +4435,8 @@
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-    </row>
-    <row r="184" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -4430,9 +4446,8 @@
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-    </row>
-    <row r="185" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -4442,9 +4457,8 @@
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-    </row>
-    <row r="186" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -4454,9 +4468,8 @@
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-    </row>
-    <row r="187" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4466,9 +4479,8 @@
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-    </row>
-    <row r="188" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -4478,9 +4490,8 @@
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-    </row>
-    <row r="189" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4490,9 +4501,8 @@
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-    </row>
-    <row r="190" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -4502,9 +4512,8 @@
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
-      <c r="L190" s="6"/>
-    </row>
-    <row r="191" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -4514,9 +4523,8 @@
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
-      <c r="L191" s="6"/>
-    </row>
-    <row r="192" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -4526,9 +4534,8 @@
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
-      <c r="L192" s="6"/>
-    </row>
-    <row r="193" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -4538,9 +4545,8 @@
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
-      <c r="L193" s="6"/>
-    </row>
-    <row r="194" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -4550,9 +4556,8 @@
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
-    </row>
-    <row r="195" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4562,9 +4567,8 @@
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
-      <c r="L195" s="6"/>
-    </row>
-    <row r="196" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -4574,9 +4578,8 @@
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
-      <c r="L196" s="6"/>
-    </row>
-    <row r="197" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -4586,9 +4589,8 @@
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
-      <c r="L197" s="6"/>
-    </row>
-    <row r="198" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -4598,9 +4600,8 @@
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
-      <c r="L198" s="6"/>
-    </row>
-    <row r="199" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -4610,9 +4611,8 @@
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
-      <c r="L199" s="6"/>
-    </row>
-    <row r="200" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -4622,9 +4622,8 @@
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
-      <c r="L200" s="6"/>
-    </row>
-    <row r="201" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -4634,9 +4633,8 @@
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
-      <c r="L201" s="6"/>
-    </row>
-    <row r="202" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -4646,9 +4644,8 @@
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
       <c r="K202" s="6"/>
-      <c r="L202" s="6"/>
-    </row>
-    <row r="203" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -4658,9 +4655,8 @@
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
-      <c r="L203" s="6"/>
-    </row>
-    <row r="204" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -4670,9 +4666,8 @@
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
-      <c r="L204" s="6"/>
-    </row>
-    <row r="205" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -4682,9 +4677,8 @@
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
-      <c r="L205" s="6"/>
-    </row>
-    <row r="206" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -4694,9 +4688,8 @@
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
-      <c r="L206" s="6"/>
-    </row>
-    <row r="207" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -4706,9 +4699,8 @@
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
-      <c r="L207" s="6"/>
-    </row>
-    <row r="208" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -4718,9 +4710,8 @@
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
-      <c r="L208" s="6"/>
-    </row>
-    <row r="209" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -4730,9 +4721,8 @@
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
-      <c r="L209" s="6"/>
-    </row>
-    <row r="210" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -4742,9 +4732,8 @@
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
       <c r="K210" s="6"/>
-      <c r="L210" s="6"/>
-    </row>
-    <row r="211" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4754,9 +4743,8 @@
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
-      <c r="L211" s="6"/>
-    </row>
-    <row r="212" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -4766,9 +4754,8 @@
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
-      <c r="L212" s="6"/>
-    </row>
-    <row r="213" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -4778,9 +4765,8 @@
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
-      <c r="L213" s="6"/>
-    </row>
-    <row r="214" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -4790,9 +4776,8 @@
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
-      <c r="L214" s="6"/>
-    </row>
-    <row r="215" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -4802,9 +4787,8 @@
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
-      <c r="L215" s="6"/>
-    </row>
-    <row r="216" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -4814,9 +4798,8 @@
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
-      <c r="L216" s="6"/>
-    </row>
-    <row r="217" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -4826,9 +4809,8 @@
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
-      <c r="L217" s="6"/>
-    </row>
-    <row r="218" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -4838,9 +4820,8 @@
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
-      <c r="L218" s="6"/>
-    </row>
-    <row r="219" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -4850,9 +4831,8 @@
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
-      <c r="L219" s="6"/>
-    </row>
-    <row r="220" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -4862,9 +4842,8 @@
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
-      <c r="L220" s="6"/>
-    </row>
-    <row r="221" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -4874,9 +4853,8 @@
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
-      <c r="L221" s="6"/>
-    </row>
-    <row r="222" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -4886,9 +4864,8 @@
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
-      <c r="L222" s="6"/>
-    </row>
-    <row r="223" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -4898,9 +4875,8 @@
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
-      <c r="L223" s="6"/>
-    </row>
-    <row r="224" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -4910,9 +4886,8 @@
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
-      <c r="L224" s="6"/>
-    </row>
-    <row r="225" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -4922,9 +4897,8 @@
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
-      <c r="L225" s="6"/>
-    </row>
-    <row r="226" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -4934,9 +4908,8 @@
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
-      <c r="L226" s="6"/>
-    </row>
-    <row r="227" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -4946,9 +4919,8 @@
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
-      <c r="L227" s="6"/>
-    </row>
-    <row r="228" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -4958,9 +4930,8 @@
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
-      <c r="L228" s="6"/>
-    </row>
-    <row r="229" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -4970,9 +4941,8 @@
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
-      <c r="L229" s="6"/>
-    </row>
-    <row r="230" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -4982,9 +4952,8 @@
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
-      <c r="L230" s="6"/>
-    </row>
-    <row r="231" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -4994,9 +4963,8 @@
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
-      <c r="L231" s="6"/>
-    </row>
-    <row r="232" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -5006,9 +4974,8 @@
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
-      <c r="L232" s="6"/>
-    </row>
-    <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -5018,9 +4985,8 @@
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
-      <c r="L233" s="6"/>
-    </row>
-    <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -5030,9 +4996,8 @@
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
-      <c r="L234" s="6"/>
-    </row>
-    <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -5042,9 +5007,8 @@
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
-      <c r="L235" s="6"/>
-    </row>
-    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -5054,9 +5018,8 @@
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
-      <c r="L236" s="6"/>
-    </row>
-    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -5066,9 +5029,8 @@
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
-      <c r="L237" s="6"/>
-    </row>
-    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -5078,9 +5040,8 @@
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
-      <c r="L238" s="6"/>
-    </row>
-    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -5090,9 +5051,8 @@
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
-      <c r="L239" s="6"/>
-    </row>
-    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -5102,9 +5062,8 @@
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
-      <c r="L240" s="6"/>
-    </row>
-    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -5114,9 +5073,8 @@
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
-      <c r="L241" s="6"/>
-    </row>
-    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -5126,9 +5084,8 @@
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
-      <c r="L242" s="6"/>
-    </row>
-    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -5138,9 +5095,8 @@
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
-      <c r="L243" s="6"/>
-    </row>
-    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -5150,9 +5106,8 @@
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
-      <c r="L244" s="6"/>
-    </row>
-    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -5162,9 +5117,8 @@
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
-      <c r="L245" s="6"/>
-    </row>
-    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -5174,9 +5128,8 @@
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
-      <c r="L246" s="6"/>
-    </row>
-    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -5186,9 +5139,8 @@
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
-      <c r="L247" s="6"/>
-    </row>
-    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -5198,9 +5150,8 @@
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
-      <c r="L248" s="6"/>
-    </row>
-    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -5210,9 +5161,8 @@
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
-      <c r="L249" s="6"/>
-    </row>
-    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -5222,9 +5172,8 @@
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
-      <c r="L250" s="6"/>
-    </row>
-    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -5234,9 +5183,8 @@
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
-      <c r="L251" s="6"/>
-    </row>
-    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -5246,9 +5194,8 @@
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
-      <c r="L252" s="6"/>
-    </row>
-    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -5258,9 +5205,8 @@
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
-      <c r="L253" s="6"/>
-    </row>
-    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -5270,9 +5216,8 @@
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
-      <c r="L254" s="6"/>
-    </row>
-    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -5282,9 +5227,8 @@
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
       <c r="K255" s="6"/>
-      <c r="L255" s="6"/>
-    </row>
-    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -5294,9 +5238,8 @@
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
-      <c r="L256" s="6"/>
-    </row>
-    <row r="257" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -5306,9 +5249,8 @@
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
-      <c r="L257" s="6"/>
-    </row>
-    <row r="258" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -5318,9 +5260,8 @@
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
-    </row>
-    <row r="259" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -5330,9 +5271,8 @@
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
-      <c r="L259" s="6"/>
-    </row>
-    <row r="260" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -5342,9 +5282,8 @@
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
       <c r="K260" s="6"/>
-      <c r="L260" s="6"/>
-    </row>
-    <row r="261" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -5354,77 +5293,58 @@
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
-      <c r="L261" s="6"/>
-    </row>
-    <row r="262" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J262" s="6"/>
       <c r="K262" s="6"/>
-      <c r="L262" s="6"/>
-    </row>
-    <row r="263" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
-      <c r="L263" s="6"/>
-    </row>
-    <row r="264" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J264" s="6"/>
       <c r="K264" s="6"/>
-      <c r="L264" s="6"/>
-    </row>
-    <row r="265" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
-      <c r="L265" s="6"/>
-    </row>
-    <row r="266" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J266" s="6"/>
       <c r="K266" s="6"/>
-      <c r="L266" s="6"/>
-    </row>
-    <row r="267" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J267" s="6"/>
       <c r="K267" s="6"/>
-      <c r="L267" s="6"/>
-    </row>
-    <row r="268" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J268" s="6"/>
       <c r="K268" s="6"/>
-      <c r="L268" s="6"/>
-    </row>
-    <row r="269" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J269" s="6"/>
       <c r="K269" s="6"/>
-      <c r="L269" s="6"/>
-    </row>
-    <row r="270" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="6"/>
-    </row>
-    <row r="271" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="6"/>
-    </row>
-    <row r="272" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A87">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A89">
     <sortCondition ref="A34"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="H36" r:id="rId1" xr:uid="{6CC7AD13-1A4E-4537-B93C-800200264F60}"/>
-    <hyperlink ref="H39" r:id="rId2" xr:uid="{1F569DBC-39AA-4E2C-AFB0-69DCE89087BB}"/>
-    <hyperlink ref="H49" r:id="rId3" xr:uid="{AC98DBAC-9822-4963-A9B6-4AE1AABE3FD1}"/>
-    <hyperlink ref="H56" r:id="rId4" xr:uid="{247F0FEF-669A-48AF-AEE8-A8A02944DBE6}"/>
-    <hyperlink ref="H62" r:id="rId5" xr:uid="{131D2181-4417-4C98-A5C3-0ADAF862305A}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D0C8EF-7741-F144-A040-3333032B139E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC8BA9-3953-424F-978C-F3C5B9316AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$35:$I$83</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="234">
   <si>
     <t>A</t>
   </si>
@@ -108,9 +111,6 @@
     <t xml:space="preserve">Report Powered by KIPER </t>
   </si>
   <si>
-    <t xml:space="preserve">Manual </t>
-  </si>
-  <si>
     <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
   </si>
   <si>
@@ -123,722 +123,633 @@
     <t>Google</t>
   </si>
   <si>
+    <t>25 - 31 de Mayo del 2020</t>
+  </si>
+  <si>
+    <t>Belora Abadi Husny</t>
+  </si>
+  <si>
+    <t>2020-05-30 19:19:34</t>
+  </si>
+  <si>
+    <t>2020-05-30 18:45:30</t>
+  </si>
+  <si>
+    <t>2020-05-30 17:06:45</t>
+  </si>
+  <si>
+    <t>2020-05-30 07:11:55</t>
+  </si>
+  <si>
+    <t>2020-05-29 23:57:32</t>
+  </si>
+  <si>
+    <t>2020-05-29 23:24:19</t>
+  </si>
+  <si>
+    <t>2020-05-29 14:27:06</t>
+  </si>
+  <si>
+    <t>2020-05-29 14:02:36</t>
+  </si>
+  <si>
+    <t>2020-05-29 13:52:46</t>
+  </si>
+  <si>
+    <t>2020-05-29 13:48:02</t>
+  </si>
+  <si>
+    <t>2020-05-29 11:13:50</t>
+  </si>
+  <si>
+    <t>2020-05-29 10:23:10</t>
+  </si>
+  <si>
+    <t>2020-05-29 09:29:35</t>
+  </si>
+  <si>
+    <t>2020-05-29 01:12:44</t>
+  </si>
+  <si>
+    <t>2020-05-28 22:00:02</t>
+  </si>
+  <si>
+    <t>2020-05-28 21:54:11</t>
+  </si>
+  <si>
+    <t>2020-05-28 14:22:12</t>
+  </si>
+  <si>
+    <t>2020-05-28 13:18:54</t>
+  </si>
+  <si>
+    <t>2020-05-28 00:26:36</t>
+  </si>
+  <si>
+    <t>2020-05-28 00:00:18</t>
+  </si>
+  <si>
+    <t>2020-05-27 22:50:41</t>
+  </si>
+  <si>
+    <t>2020-05-27 22:43:21</t>
+  </si>
+  <si>
+    <t>2020-05-27 19:38:33</t>
+  </si>
+  <si>
+    <t>2020-05-27 19:27:12</t>
+  </si>
+  <si>
+    <t>2020-05-27 09:57:31</t>
+  </si>
+  <si>
+    <t>2020-05-27 00:20:37</t>
+  </si>
+  <si>
+    <t>2020-05-26 20:51:26</t>
+  </si>
+  <si>
+    <t>2020-05-26 20:31:31</t>
+  </si>
+  <si>
+    <t>2020-05-26 20:04:30</t>
+  </si>
+  <si>
+    <t>2020-05-26 19:51:38</t>
+  </si>
+  <si>
+    <t>2020-05-26 19:38:36</t>
+  </si>
+  <si>
+    <t>2020-05-26 19:28:44</t>
+  </si>
+  <si>
+    <t>2020-05-26 18:08:00</t>
+  </si>
+  <si>
+    <t>2020-05-26 16:23:57</t>
+  </si>
+  <si>
+    <t>2020-05-26 12:28:41</t>
+  </si>
+  <si>
+    <t>2020-05-26 11:00:30</t>
+  </si>
+  <si>
+    <t>2020-05-26 09:16:57</t>
+  </si>
+  <si>
+    <t>2020-05-26 09:15:46</t>
+  </si>
+  <si>
+    <t>2020-05-25 21:15:56</t>
+  </si>
+  <si>
+    <t>2020-05-25 21:00:39</t>
+  </si>
+  <si>
+    <t>2020-05-25 20:22:05</t>
+  </si>
+  <si>
+    <t>2020-05-25 20:09:11</t>
+  </si>
+  <si>
+    <t>2020-05-25 16:33:16</t>
+  </si>
+  <si>
+    <t>2020-05-25 15:35:55</t>
+  </si>
+  <si>
+    <t>2020-05-25 14:10:38</t>
+  </si>
+  <si>
+    <t>2020-05-25 11:34:46</t>
+  </si>
+  <si>
+    <t>2020-05-25 10:55:41</t>
+  </si>
+  <si>
+    <t>2020-05-25 00:28:13</t>
+  </si>
+  <si>
+    <t>Inmuebles24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Barroso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Calderon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mairim Franco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvia ugarte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria del Carmen Flores Alvarez </t>
+  </si>
+  <si>
+    <t>Mandará Morales Méndez</t>
+  </si>
+  <si>
+    <t>Melissa Solis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus Gutierrez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ale Mamón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina Palafox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimena Gómez Alarcón </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Salmeron </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Flores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaí JB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn Hernández Cruz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Lozoya Uribe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernesto Grimaldo Urrutia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Cordero </t>
+  </si>
+  <si>
+    <t>Plinio Martinez</t>
+  </si>
+  <si>
+    <t>Alberto Vidal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robin solis gonzalez </t>
+  </si>
+  <si>
+    <t>Beatriz Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uriel Reuven Zbili </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Bobadilla Díaz </t>
+  </si>
+  <si>
+    <t>Mariana Aguilar</t>
+  </si>
+  <si>
+    <t>Jorge Jesus Garcia Farias</t>
+  </si>
+  <si>
+    <t>Elias Peralta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar gomez delgado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Rodriguez </t>
+  </si>
+  <si>
+    <t>Rodrigo Benjamin Sanchez Rucobo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fhernando Villegas </t>
+  </si>
+  <si>
+    <t>Begoña Cendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra PV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najla Ximena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerry Gonzalez </t>
+  </si>
+  <si>
+    <t>Miguel Eduardo Mendez Juarez</t>
+  </si>
+  <si>
+    <t>Mario Maciel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Cordero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Mesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teo Sierra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Anaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ángeles Ezcurra </t>
+  </si>
+  <si>
+    <t>0014379998834</t>
+  </si>
+  <si>
+    <t>(55) 6677-8899</t>
+  </si>
+  <si>
+    <t>Booker21@live.com</t>
+  </si>
+  <si>
+    <t>vymanzano@gmail.com</t>
+  </si>
+  <si>
+    <t>jcalderon70@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mairimfranco1@gmail.com</t>
+  </si>
+  <si>
+    <t>silviauga@hotmail.com</t>
+  </si>
+  <si>
+    <t>lili.moru061510@hotmail.com</t>
+  </si>
+  <si>
+    <t>carfloalv@gmail.com</t>
+  </si>
+  <si>
+    <t>mandaramorales@gmail.com</t>
+  </si>
+  <si>
+    <t>solis@truehome.com</t>
+  </si>
+  <si>
+    <t>marfi6@gmail.com</t>
+  </si>
+  <si>
+    <t>nadiequiereregistrarse@gmail.com</t>
+  </si>
+  <si>
+    <t>Cpalafox088@gmail.com</t>
+  </si>
+  <si>
+    <t>Jimenaalarcongo@gmail.com</t>
+  </si>
+  <si>
+    <t>gabrielsalmeron@hotmail.com</t>
+  </si>
+  <si>
+    <t>oscarflores8327@gmail.com</t>
+  </si>
+  <si>
+    <t>isai.jimenez90@hotmail.com</t>
+  </si>
+  <si>
+    <t>Eh556708@gmail.com</t>
+  </si>
+  <si>
+    <t>fjlozoya@gmail.com</t>
+  </si>
+  <si>
+    <t>ernrsgo@gmail.com</t>
+  </si>
+  <si>
+    <t>Oluojuanca@gmail.com</t>
+  </si>
+  <si>
+    <t>plinious@yahoo.com</t>
+  </si>
+  <si>
+    <t>alvilo2229@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>500bGentedelaGente@gmail.com</t>
+  </si>
+  <si>
+    <t>beatrizgonzalezga@gmail.com</t>
+  </si>
+  <si>
+    <t>Offers@1document.com</t>
+  </si>
+  <si>
+    <t>Nan_bd@jimlab.com.mx</t>
+  </si>
+  <si>
+    <t>sweetangelface_99@hotmail.com</t>
+  </si>
+  <si>
+    <t>j.garciafarias@hotmail.com</t>
+  </si>
+  <si>
+    <t>eliasperalta32@yahoo.com</t>
+  </si>
+  <si>
+    <t>cesargommz@gmail.com</t>
+  </si>
+  <si>
+    <t>litografiarodriguez@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>rodsrucobohi@hotmail.com</t>
+  </si>
+  <si>
+    <t>arq.fernandovillegas@gmail.com</t>
+  </si>
+  <si>
+    <t>alexander.br@gnail.com</t>
+  </si>
+  <si>
+    <t>esarabiac@gmail.com</t>
+  </si>
+  <si>
+    <t>alypv14@gmail.com</t>
+  </si>
+  <si>
+    <t>najlaxime@gmail.com</t>
+  </si>
+  <si>
+    <t>Rim.control@ymail.com</t>
+  </si>
+  <si>
+    <t>miguelmendezj@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>mariomaciemf@gmail.com</t>
+  </si>
+  <si>
+    <t>eliancruzcc@gmail.com</t>
+  </si>
+  <si>
+    <t>raquel.kusulas@gmail.com</t>
+  </si>
+  <si>
+    <t>adriana_cb@hotmail.com</t>
+  </si>
+  <si>
+    <t>mapigafe@gmail.com</t>
+  </si>
+  <si>
+    <t>Billytable@hotmail.com</t>
+  </si>
+  <si>
+    <t>abogadosierra@icloud.com</t>
+  </si>
+  <si>
+    <t>anayacaloca@yahoo.com</t>
+  </si>
+  <si>
+    <t>angelesezcurra@hotmail.com</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto trae $3,500,000</t>
+  </si>
+  <si>
+    <t>No contesta. Se le envió mail de presentación y cotizaciones 205B y 403C
+Seguimiento</t>
+  </si>
+  <si>
+    <t>No dejo numero telefónico, se le envió mail de presentación y cotización de 2 y 3 recámaras, el 205B y 403C.
+Seguimento</t>
+  </si>
+  <si>
+    <t>Presentación con cotizaciones de 2 recamaras</t>
+  </si>
+  <si>
+    <t>No contesta y ni entra buzón, se le hizo varias llamadas. Se le dará seguimiento. Se le envió mail de presentación y cotizaciones 205B y 403C-</t>
+  </si>
+  <si>
+    <t>Se le envia información general para sus clientes.</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras. 205B y 403C respectivamente.
+Se le da seguimiento.</t>
+  </si>
+  <si>
+    <t>Visita 27 de mayo, Cotización GH04A y PH06A y GH01C, que le llame el 13 de Junio</t>
+  </si>
+  <si>
+    <t>Cita el 27 de mayo Cotizaciones de PH08C y GH02B fue con su pareja Miguel Eduatrdo Mendez, estan vendiendo su departamento que les llame en Septiembre.</t>
+  </si>
+  <si>
+    <t>Se le envia presentación por whats  con cotizaciones de 2 y 3 recamaras.  --  Coordinar cita cuando pase la contingencia</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail  --  Se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail y por whats con cotizaciones de 2 y 3 recamaras  --  Fuera de presupuesto</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail y por whats  --  Le llame y me colgó el teléfono</t>
+  </si>
+  <si>
+    <t>Entra buzon se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail y por whats  --  No es su teléfono</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envia presentación por mail  --  No contesta llamadas se le envia presentación por mail</t>
+  </si>
+  <si>
+    <t>Es corredora, se le envia información general. Traera clientes.</t>
+  </si>
+  <si>
+    <t>Sin presupuesto, busca renta</t>
+  </si>
+  <si>
+    <t>Cotizaciones de 2 y 3 recamaras  --  Cita el 27 de mayo Cotizaciones de PH08C y GH02B fue con su pareja Alberto Vidal, estan vendiendo su departamento que les llame en Septiembre.</t>
+  </si>
+  <si>
+    <t>Teléfono no existe se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>Busca solo 2 recamaras, se le envió cotización del 205B. 
+Seguimiento  --  Le llamé y me dijo que no recibió correo, se le reenvió mail del 205B. Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca en renta de $10,000 pesos</t>
+  </si>
+  <si>
     <t>Lamudi</t>
   </si>
   <si>
-    <t>Messenger</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Alejandra Campos García</t>
-  </si>
-  <si>
-    <t>2020-05-24 10:44:54</t>
-  </si>
-  <si>
-    <t>2020-05-24 09:32:58</t>
-  </si>
-  <si>
-    <t>2020-05-23 22:55:21</t>
-  </si>
-  <si>
-    <t>2020-05-23 20:20:33</t>
-  </si>
-  <si>
-    <t>2020-05-23 18:57:44</t>
-  </si>
-  <si>
-    <t>2020-05-23 18:00:48</t>
-  </si>
-  <si>
-    <t>2020-05-23 11:49:11</t>
-  </si>
-  <si>
-    <t>2020-05-23 08:35:51</t>
-  </si>
-  <si>
-    <t>2020-05-23 04:57:00</t>
-  </si>
-  <si>
-    <t>2020-05-23 00:31:13</t>
-  </si>
-  <si>
-    <t>2020-05-22 22:59:52</t>
-  </si>
-  <si>
-    <t>2020-05-22 20:48:59</t>
-  </si>
-  <si>
-    <t>2020-05-22 19:34:47</t>
-  </si>
-  <si>
-    <t>2020-05-22 19:13:42</t>
-  </si>
-  <si>
-    <t>2020-05-22 17:24:19</t>
-  </si>
-  <si>
-    <t>2020-05-22 15:24:08</t>
-  </si>
-  <si>
-    <t>2020-05-22 14:24:36</t>
-  </si>
-  <si>
-    <t>2020-05-22 12:42:49</t>
-  </si>
-  <si>
-    <t>2020-05-22 09:47:33</t>
-  </si>
-  <si>
-    <t>2020-05-22 02:03:18</t>
-  </si>
-  <si>
-    <t>2020-05-21 23:47:55</t>
-  </si>
-  <si>
-    <t>2020-05-21 20:36:05</t>
-  </si>
-  <si>
-    <t>2020-05-21 19:37:25</t>
-  </si>
-  <si>
-    <t>2020-05-21 18:22:04</t>
-  </si>
-  <si>
-    <t>2020-05-21 17:16:33</t>
-  </si>
-  <si>
-    <t>2020-05-21 16:26:21</t>
-  </si>
-  <si>
-    <t>2020-05-21 16:09:35</t>
-  </si>
-  <si>
-    <t>2020-05-21 16:01:41</t>
-  </si>
-  <si>
-    <t>2020-05-21 16:00:23</t>
-  </si>
-  <si>
-    <t>2020-05-21 15:58:18</t>
-  </si>
-  <si>
-    <t>2020-05-21 14:26:30</t>
-  </si>
-  <si>
-    <t>2020-05-21 14:01:02</t>
-  </si>
-  <si>
-    <t>2020-05-21 07:39:19</t>
-  </si>
-  <si>
-    <t>2020-05-21 03:09:18</t>
-  </si>
-  <si>
-    <t>2020-05-20 19:45:53</t>
-  </si>
-  <si>
-    <t>2020-05-20 17:54:21</t>
-  </si>
-  <si>
-    <t>2020-05-20 11:37:02</t>
-  </si>
-  <si>
-    <t>2020-05-20 08:26:56</t>
-  </si>
-  <si>
-    <t>2020-05-19 23:40:28</t>
-  </si>
-  <si>
-    <t>2020-05-19 19:29:23</t>
-  </si>
-  <si>
-    <t>2020-05-19 17:10:32</t>
-  </si>
-  <si>
-    <t>2020-05-19 10:55:24</t>
-  </si>
-  <si>
-    <t>2020-05-19 06:54:20</t>
-  </si>
-  <si>
-    <t>2020-05-19 04:17:24</t>
-  </si>
-  <si>
-    <t>2020-05-19 01:36:08</t>
-  </si>
-  <si>
-    <t>2020-05-19 00:58:05</t>
-  </si>
-  <si>
-    <t>2020-05-18 20:26:57</t>
-  </si>
-  <si>
-    <t>2020-05-18 19:57:06</t>
-  </si>
-  <si>
-    <t>2020-05-18 19:11:39</t>
-  </si>
-  <si>
-    <t>2020-05-18 16:07:57</t>
-  </si>
-  <si>
-    <t>2020-05-18 15:47:14</t>
-  </si>
-  <si>
-    <t>2020-05-18 15:42:25</t>
-  </si>
-  <si>
-    <t>2020-05-18 14:21:03</t>
-  </si>
-  <si>
-    <t>2020-05-18 13:37:34</t>
-  </si>
-  <si>
-    <t>2020-05-18 10:00:41</t>
-  </si>
-  <si>
-    <t>2020-05-18 06:43:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Romero Moreno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evangelina Guerrero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javid Franco </t>
-  </si>
-  <si>
-    <t>Raymundo Capetillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Guevara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monse Cuellar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clau Jasso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jade Daniela Chavez cojulum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sol Prieto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos Ovando Moreno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniela Bocco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Chapula </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Escalera </t>
-  </si>
-  <si>
-    <t>Jhonny Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minel Carbajal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus </t>
-  </si>
-  <si>
-    <t>Christian Felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Perez De Caso Legorreta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Víctor sandovAl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julián Antonio León Astorga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfonso paz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan Dh </t>
-  </si>
-  <si>
-    <t>Luis Rueda Mendez</t>
-  </si>
-  <si>
-    <t>Victor Sordo</t>
-  </si>
-  <si>
-    <t>Miguel Hernandez Espinoza</t>
-  </si>
-  <si>
-    <t>Elisa Gabriela Alejaldre Medina</t>
-  </si>
-  <si>
-    <t>Lorena Messer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castán Fernández </t>
-  </si>
-  <si>
-    <t>Terry Tawil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mónica Sanchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yolanda Medina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maru DL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Sanchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvey Gil Willy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Guadalupe Frias Jiménez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martha Sotomayor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montse C. Arce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandra Ontiveros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dulce Ivonne </t>
-  </si>
-  <si>
-    <t>Roberto Romero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelica Gutierrez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terry </t>
-  </si>
-  <si>
-    <t>Ana Miranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana romero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Meza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilberto Garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willie Colombine </t>
-  </si>
-  <si>
-    <t>(22) 2222-2222</t>
-  </si>
-  <si>
-    <t>(88) 8888-8888</t>
-  </si>
-  <si>
-    <t>rko_america1990@hotmail.com</t>
-  </si>
-  <si>
-    <t>md2015monicaguerrero@gmail.com</t>
-  </si>
-  <si>
-    <t>javid.franco@gmail.com</t>
-  </si>
-  <si>
-    <t>raymundo.capetillo@hotmaill.com</t>
-  </si>
-  <si>
-    <t>tlt360@outlook.com</t>
-  </si>
-  <si>
-    <t>jonavvhss57@gmail.com</t>
-  </si>
-  <si>
-    <t>Cinthia.cuellar@icloud.com</t>
-  </si>
-  <si>
-    <t>clajas@arcanobr.com</t>
-  </si>
-  <si>
-    <t>jadecojulum9@gmail.com</t>
-  </si>
-  <si>
-    <t>marisol.sener@energia.gob.mx</t>
-  </si>
-  <si>
-    <t>zaliki@hotmail.com</t>
-  </si>
-  <si>
-    <t>ovando_jc@yahoo.com</t>
-  </si>
-  <si>
-    <t>danicbocco@gmail.com</t>
-  </si>
-  <si>
-    <t>aliciatovarg@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>Lchapula@hotmail.com</t>
-  </si>
-  <si>
-    <t>droscaronco@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>jcruz0909@yahoo.com</t>
-  </si>
-  <si>
-    <t>Minel@studyacrossthepond.com</t>
-  </si>
-  <si>
-    <t>crwn211@gmail.com</t>
-  </si>
-  <si>
-    <t>Erfonseca@mac.com</t>
-  </si>
-  <si>
-    <t>cfelix@hotmail.com</t>
-  </si>
-  <si>
-    <t>eperez@indtapura.com.mx</t>
-  </si>
-  <si>
-    <t>vsandovalsanchez@gmail.com</t>
-  </si>
-  <si>
-    <t>ju.leon@alumni.ipade.mx</t>
-  </si>
-  <si>
-    <t>pala740503@hotmail.com</t>
-  </si>
-  <si>
-    <t>ivan.gutierrez@eternec.com</t>
-  </si>
-  <si>
-    <t>luisrum@hotmail.com</t>
-  </si>
-  <si>
-    <t>visoza@hotmail.com</t>
-  </si>
-  <si>
-    <t>miguel.nsmh@gmail.com</t>
-  </si>
-  <si>
-    <t>elisaalejaldrem@gmail.com</t>
-  </si>
-  <si>
-    <t>XV0224@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>lorenameser@hotmail.com</t>
-  </si>
-  <si>
-    <t>roxanaballon@hotmail.com</t>
-  </si>
-  <si>
-    <t>casfer007@hotmail.com</t>
-  </si>
-  <si>
-    <t>ttawil@gfa.com.mx</t>
-  </si>
-  <si>
-    <t>babas2398@hotmail.com</t>
-  </si>
-  <si>
-    <t>medinafy@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>marudl18@hotmail.com</t>
-  </si>
-  <si>
-    <t>miguel110300@hotmail.com</t>
-  </si>
-  <si>
-    <t>hgw72@hotmail.com</t>
-  </si>
-  <si>
-    <t>andyea_665@hotmail.com</t>
-  </si>
-  <si>
-    <t>Monmtzh@gmail.com</t>
-  </si>
-  <si>
-    <t>Sotomayor.martha@gmail.com</t>
-  </si>
-  <si>
-    <t>fg1745894@gmail.com</t>
-  </si>
-  <si>
-    <t>Montsecepeda.arce@gmail.com</t>
-  </si>
-  <si>
-    <t>alithaontibb@gmail.com</t>
-  </si>
-  <si>
-    <t>ivonnev7_019@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>cevamexroberto@gmail.com</t>
-  </si>
-  <si>
-    <t>angelicagtz.3@gmail.com</t>
-  </si>
-  <si>
-    <t>avalosenator@gmail.com</t>
-  </si>
-  <si>
-    <t>terrysasson@gmail.com</t>
-  </si>
-  <si>
-    <t>aj7877975@gmail.com</t>
-  </si>
-  <si>
-    <t>Laly120285@gmail.com</t>
-  </si>
-  <si>
-    <t>ricarditomeza1903@outlook.com</t>
-  </si>
-  <si>
-    <t>gilbertogm@gmail.com</t>
-  </si>
-  <si>
-    <t>Colombinewc@gmail.com</t>
-  </si>
-  <si>
-    <t>Nos busco por que se dedica al interiorismo y quiere ofrecer sus servicios, también me pidió información y cotizaciones.  --  Nos busco por que se dedica al interiorismo y quiere ofrecer sus servicios, también me pidió información y cotizaciones.</t>
-  </si>
-  <si>
-    <t>Se le envía informacion general por mail y por whats  --  Se le envía informacion general por mail y por whats</t>
-  </si>
-  <si>
-    <t>A Raymundo y a su amigo Erich Muench les gusta el PH0B tienen que vender su departamento.</t>
-  </si>
-  <si>
-    <t>No contesta y ni entra buzón. Seguiré insistiendo en la llamada, mientras le envié mail de presentación y cotizaciones.  --  No contesta y ni entra buzón. Seguiré insistiendo en la llamada, mientras le envié mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t>Número no disponible, se envía información por mail.</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento.  --  No contesta entra buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>Es corredora traerá clientes  --  Es corredora traerá clientes</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>Se le envía información de 2 y 3 recamaras por whats  --  Se le envía información de 2 y 3 recamaras por whats</t>
-  </si>
-  <si>
-    <t>Esta empezando a ver se le envía información de 2 y 3 recamaras  --  Esta empezando a ver se le envía información de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>No dejo numero telefónico, se le envió mail de presentación y cotizaciones.
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>Se le envía información por mail de 2 y 3 recámaras</t>
-  </si>
-  <si>
-    <t>No contestata, se le envía información por mail y por whats  --  No contestata, se le envía información por mail y por whats</t>
-  </si>
-  <si>
-    <t>Solicitó informes de 2 y 3 recamaras. Se le envió el 205B y 403C.
-Seguimiento  --  Solicitó informes de 2 y 3 recamaras. Se le envió el 205B y 403C.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Se le envia información de 2 recamaras por whats</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento  --  Entra buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Cuelga las llamadas, se le envía información por mail.  --  Se regresa su correo se le envia informacion por whats  --  Cuelga las llamadas, se le envía información por mail.  --  Se regresa su correo se le envia informacion por whats</t>
-  </si>
-  <si>
-    <t>Es un numero EQUIVOCADO, me dice el cliente que no esta interesado y que nunca ha solicitado información. Estaba muy molesto por que me dice que le están llamando constantemente y el no esta buscando depa.</t>
-  </si>
-  <si>
-    <t>Trae Crédito de Bancomer de $6,000,000 solicitó información por whats de 2 y 3 recamaras para evaluarlo.</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones.
-Seguimiento  --  Sigue entrando buzón.</t>
-  </si>
-  <si>
-    <t>El telefono es incorrecto se envía información por mail.  --  El telefono es incorrecto se envía información por mail.</t>
-  </si>
-  <si>
-    <t>Visito showroom el 06/02/2019, solicita información via whatsapp.</t>
-  </si>
-  <si>
-    <t>Solicita información de 2 recamaras.  --  Se le envió cotizaciones, seguimiento.  --  También esta buscando en Santa Fe.  --  Es cliente de whatsapp</t>
-  </si>
-  <si>
-    <t>Solicitó información de 2 recamaras.  --  Es cliente de Whatsapp, se le envió mail de presentación. Seguimiento</t>
-  </si>
-  <si>
-    <t>Se le envia información general por mail y por whatsapp.</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones.
-Seguimiento  --  Le llame y me dice que esta viendo mas opciones, que si hay interés ella me llama Y ME COLGO.</t>
-  </si>
-  <si>
-    <t>Radica en Querétaro, está interesada en un Departamento de 2 recámaras, se le envía información por whats y en cuanto pase la contingencia programaremos cita para que conozca el proyecto.</t>
-  </si>
-  <si>
-    <t>Entra buzón se le envía información por mail de 2 y 3 recamaras.  --  Entra buzón se le envía información por mail de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t>No dejo numero telefónico, se le envió mail de presentación y cotizaciones.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Whats de prueba</t>
-  </si>
-  <si>
-    <t>No contesta se le envia información general por mail.  --  No contesta se le envia información general por mail.</t>
-  </si>
-  <si>
-    <t>Solicitó el departamento mas barato, parece que tiene un presupuesto bajo. Se le dará seguimiento.  --  Solicitó el departamento mas barato, parece que tiene un presupuesto bajo. Se le dará seguimiento.</t>
-  </si>
-  <si>
-    <t>Fuera de presupesto trae menos de $4,000,000 pesos  --  Fuera de presupesto trae menos de $4,000,000 pesos</t>
-  </si>
-  <si>
-    <t>Se le llamó y entra buzón. Se le envió mail de presentación y cotizaciones. Se le estará dando seguimiento.  --  Se le llamó y entra buzón. Se le envió mail de presentación y cotizaciones. Se le estará dando seguimiento.</t>
-  </si>
-  <si>
-    <t>Se le envía información general por mail  --  Se le envía información general por mail</t>
-  </si>
-  <si>
-    <t>Numero de teléfono invalido, se le envió mail de presentación y cotizaciones.  --  Numero de teléfono invalido, se le envió mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t>Entra buzón se lwe envia informacion por mail y por whats  --  Fuera de presupuesto, trae $5,000,000  --  Entra buzón se lwe envia informacion por mail y por whats  --  Fuera de presupuesto, trae $5,000,000</t>
-  </si>
-  <si>
-    <t>Busca de 2 recamaras,tiene bajo presupuesto de vualquier forma me pidió le enviara la cotización del 205B.
-Seguimiento  --  Busca de 2 recamaras,tiene bajo presupuesto de vualquier forma me pidió le enviara la cotización del 205B.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Telefono incorrecto se envia informacion general por mail.</t>
-  </si>
-  <si>
-    <t>Busca de 2 recamaras el mas barato, se le envió cotizacion del 205B.
-Seguimiento  --  Busca de 2 recamaras el mas barato, se le envió cotizacion del 205B.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>No entra llamada se le envía información por whats y por mail.</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón. Se le envió mail de presentación y cotizaciones.
-Seguimiento  --  No contesta entra buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento  --  Sigue entrando buzón.  --  No contesta entra buzón. Se le envió mail de presentación y cotizaciones.
-Seguimiento  --  No contesta entra buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento  --  Sigue entrando buzón.</t>
-  </si>
-  <si>
-    <t>Le interesa para invertir, es cliente de broker externa, Rosa Maria Prieto. Envío brochure y en cuanto lo revise cotizaciones.</t>
-  </si>
-  <si>
-    <t>Solicita informacion de departamentos de 3 recamaras por whats</t>
-  </si>
-  <si>
-    <t>El teléfono no existe se envia infomación general por mail</t>
-  </si>
-  <si>
-    <t>El contacto es de prueba</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto, trae $4,500,000  --  Fuera de presupuesto, trae $4,500,000</t>
-  </si>
-  <si>
-    <t>Entra Buzón, se le envió mail de presentación y cotizaciones.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>Interesado en departamentos de 3 recamaras, nivel 5 y PH, se le envía por mail  --  Les gusta el GH01C</t>
-  </si>
-  <si>
-    <t>Solicitó info general  cotización de 2 y 3 recamaras. Es extranjero y llega a radicar a la ciudad en octubre.
-Seguimiento  --  Solicitó info general  cotización de 2 y 3 recamaras. Es extranjero y llega a radicar a la ciudad en octubre.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>18 - 24 de Mayo del 2020</t>
+    <t>Vallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitó informes de 2 recamaras, se le envió cotización del 205B
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca de 2 recamaras, se le envió mail de presentación y cotización del 205B. Seguimiento.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotizaciones de Departamentos de 3 recámaras  --  Solicitó cotizaciones de Departamentos y Pent houses  de 3 recamaras con vista a la calle, enviados por whats. lo va a revisar </t>
+  </si>
+  <si>
+    <t>Busca el más barato, envié 301C, ya no responde llamadas de seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón constantemente, se le envió mail de presentación y cotizaciones.
+Seguimiento  --  Ya me contesto y me dice que busca de 3 recamaras y $6M. le envié el 205B.</t>
+  </si>
+  <si>
+    <t>Solo quiere información general para valorar en la zona y tambien solicitó que le enviara una cotización de departamento de 2 y 3 recamaras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicita información de Departamentos de 3 recamaras, se le envía por whats  --  Cotizaciones enviadas por whats: 502A PH02A PH03B 309A 506B  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le envia presentación por mail. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">solicitó información de 2 y 3 recamaras por whats. La revisará y dare seguimiento  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le envían cotizaciones de Departamentos de 2 recamaras  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hable con ella me pide  enviar por whats app el brochure de Nápoles, el video 3D del departamento muestra y cotizaciones de maximo 7 millones con vista a louisiana </t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones del 205B y 403C.</t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón constantemente, se le envió mail de presentación y cotizaciones. Seguimiento  --  Le llamé y me dijo que aún no revisa las cotizaciones, que le llame la próxima semana.</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón constantemente, se le envió mail de presentación y cotizaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El telefono no existe se le envia información por mail  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contesta llamadas, se le envía presentación por mail  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contesta se le envía prentación por mail y por whats  </t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail y por whats de 2 y 3 recámaras, hará cita después de la contingencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le envio información por mail de 3 reacamaras. Hara cita cuando pase la cuarentena. </t>
+  </si>
+  <si>
+    <t>Pag Web</t>
+  </si>
+  <si>
+    <t>Elian Crvz</t>
+  </si>
+  <si>
+    <t>Pilar García</t>
   </si>
   <si>
     <t>Broker</t>
   </si>
   <si>
-    <t>Vallas</t>
-  </si>
-  <si>
-    <t>Pag Gfa</t>
-  </si>
-  <si>
-    <t>Llamada</t>
-  </si>
-  <si>
-    <t>María Fernanda González Mesa</t>
-  </si>
-  <si>
-    <t>Alicia Tovar</t>
-  </si>
-  <si>
-    <t>Roxana Ballon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olga Zapata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ximena Tirado </t>
-  </si>
-  <si>
-    <t>Enrique David Avalos Ortega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erika Fonseca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moni MTz </t>
-  </si>
-  <si>
-    <t>Cliente de Broker Ximena Vazquez. Envié cotizaciones con jardín y terraza de AVENUE Nápoles</t>
-  </si>
-  <si>
-    <t>Visita y cotizaciones  301B, 201A, 202A y GH03B</t>
+    <t>Raquel Kusulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es corredora traerá clientes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dejaron numero y mail equivocado.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto bajo $4M.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Moreno Ruiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entra buzón se envia presentación por mail y por whats.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No le interesa, creía que el proyecto estaba en Guanajuato  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker </t>
+  </si>
+  <si>
+    <t>pag web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita virtual </t>
   </si>
 </sst>
 </file>
@@ -848,7 +759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -908,6 +819,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -995,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,6 +1014,10 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,13 +1093,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1516,10 +1437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:K272"/>
+  <dimension ref="A4:K266"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1531,8 +1452,8 @@
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="244" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="181.5" style="1" customWidth="1"/>
     <col min="10" max="11" width="10.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="14.5" style="1"/>
   </cols>
@@ -1573,7 +1494,7 @@
     </row>
     <row r="16" spans="2:9" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1608,7 +1529,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="33">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>20</v>
@@ -1627,7 +1548,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="33">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="30"/>
@@ -1640,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="33">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="30"/>
@@ -1653,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="33">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1670,16 +1591,16 @@
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="33">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="9"/>
@@ -1687,16 +1608,16 @@
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="33">
-        <v>29</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>233</v>
       </c>
       <c r="F26" s="33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1704,16 +1625,16 @@
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="33">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1723,10 +1644,10 @@
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
       <c r="E28" s="32" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F28" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1735,10 +1656,10 @@
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
       <c r="E29" s="32" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="F29" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1746,7 +1667,12 @@
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="33">
+        <v>5</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
@@ -1755,314 +1681,281 @@
       <c r="B31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="E31" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="F32" s="5"/>
+    <row r="32" spans="2:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="B32" s="34"/>
+      <c r="E32" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="33">
+        <v>4</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+      <c r="B33" s="34"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I35" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="38">
-        <v>5559652767</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="I34" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="38">
-        <v>5541904106</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
       <c r="B36" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G36" s="38">
-        <v>5541917456</v>
+        <v>2227092419</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G37" s="38">
-        <v>5579401220</v>
+        <v>5554521795</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="G38" s="38">
-        <v>5554032795</v>
+        <v>5580058472</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G39" s="38">
-        <v>5537828252</v>
+        <v>5516564726</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G40" s="38">
-        <v>5521297790</v>
+        <v>5516564726</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G41" s="38">
-        <v>5582325279</v>
+        <v>5525603142</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G42" s="38">
-        <v>4423525410</v>
+        <v>4641282176</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>2</v>
@@ -2071,27 +1964,27 @@
         <v>13</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G43" s="38">
-        <v>5541418913</v>
+        <v>5533990874</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>2</v>
@@ -2100,201 +1993,201 @@
         <v>13</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="G44" s="38">
-        <v>9932295562</v>
+        <v>5516139945</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>233</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="G45" s="38">
-        <v>5527551675</v>
+        <v>5514325038</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="G46" s="38">
-        <v>5543683259</v>
+        <v>5548743920</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G47" s="38">
-        <v>5515111709</v>
+        <v>5552188841</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="I47" s="38" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G48" s="38">
-        <v>9241123775</v>
+        <v>5548333330</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="F49" s="38" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="G49" s="38">
-        <v>5545882227</v>
+        <v>3316043631</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B50" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="F50" s="38" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="G50" s="38">
-        <v>5544930039</v>
+        <v>5539937126</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>3</v>
@@ -2303,27 +2196,27 @@
         <v>13</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G51" s="38">
-        <v>5561767058</v>
+        <v>5543641975</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>206</v>
+        <v>169</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>3</v>
@@ -2332,27 +2225,27 @@
         <v>13</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G52" s="38">
-        <v>5513418648</v>
+        <v>5570105097</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>3</v>
@@ -2361,694 +2254,692 @@
         <v>13</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G53" s="38">
-        <v>5528554721</v>
+        <v>4499109900</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="G54" s="38">
-        <v>56619819</v>
+        <v>5541867260</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="38">
-        <v>5534132356</v>
+        <v>104</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>140</v>
+        <v>96</v>
+      </c>
+      <c r="G56" s="38">
+        <v>2761155580</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="38">
-        <v>5541434277</v>
+        <v>221</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>229</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" s="38">
-        <v>5513301423</v>
+        <v>222</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G59" s="38">
-        <v>5561756964</v>
+        <v>5540806276</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>25</v>
+      </c>
+      <c r="B60" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>29</v>
-      </c>
       <c r="C60" s="38" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="G60" s="38">
-        <v>5523443334</v>
+        <v>5559546078</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
+        <v>26</v>
+      </c>
+      <c r="B61" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>29</v>
-      </c>
       <c r="C61" s="38" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G61" s="38">
-        <v>5519323414</v>
+        <v>5544496704</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G62" s="38">
-        <v>5531571086</v>
+        <v>5519542782</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B63" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G63" s="38">
-        <v>5536988419</v>
+        <v>5528482273</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G64" s="38">
-        <v>5510201274</v>
+        <v>6644776126</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="G65" s="38">
-        <v>9671192904</v>
+        <v>5554074082</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>152</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G66" s="38">
-        <v>5554073943</v>
+        <v>5530142272</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E67" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G67" s="38">
-        <v>5541778132</v>
+        <v>2283336412</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B68" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="G68" s="38">
-        <v>5577711172</v>
+        <v>84</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>229</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B69" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E69" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="G69" s="38">
-        <v>2711340250</v>
+        <v>9983183722</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G70" s="38">
-        <v>4771146033</v>
+        <v>5512604136</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G71" s="38">
-        <v>7771032756</v>
+        <v>5540993361</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B72" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="F72" s="38" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="G72" s="38">
-        <v>55555555</v>
+        <v>5549312095</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B73" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="F73" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="G73" s="38">
-        <v>5591215854</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G73" s="38"/>
       <c r="H73" s="38" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B74" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="F74" s="38" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="G74" s="38">
-        <v>5531273323</v>
+        <v>5526211240</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="F75" s="38" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="G75" s="38">
-        <v>5579312368</v>
+        <v>5591309835</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="F76" s="38" t="s">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="G76" s="38">
-        <v>5518504108</v>
+        <v>3328115307</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>5</v>
@@ -3057,501 +2948,387 @@
         <v>13</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="G77" s="38">
-        <v>5523247784</v>
+        <v>5554560677</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>244</v>
+        <v>157</v>
+      </c>
+      <c r="I77" s="43" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G78" s="38">
-        <v>9512289606</v>
+        <v>5518115094</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" s="38"/>
+        <v>90</v>
+      </c>
+      <c r="G79" s="38">
+        <v>5556778899</v>
+      </c>
       <c r="H79" s="38" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D80" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G80" s="38">
-        <v>5515102573</v>
+        <v>5567036217</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D81" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G81" s="38">
-        <v>5525078509</v>
+        <v>5535627156</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="I81" s="38" t="s">
-        <v>217</v>
+        <v>146</v>
+      </c>
+      <c r="I81" s="44" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="G82" s="38">
-        <v>5525690367</v>
+        <v>5546364709</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D83" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G83" s="38"/>
+        <v>124</v>
+      </c>
+      <c r="G83" s="38">
+        <v>5554085283</v>
+      </c>
       <c r="H83" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>51</v>
-      </c>
-      <c r="B84" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="37" t="s">
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+    </row>
+    <row r="87" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="18"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B95" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E84" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="G84" s="38">
-        <v>5552526678</v>
-      </c>
-      <c r="H84" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="I84" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>52</v>
-      </c>
-      <c r="B85" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F85" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="G85" s="38">
-        <v>5546499483</v>
-      </c>
-      <c r="H85" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="I85" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>53</v>
-      </c>
-      <c r="B86" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" s="38">
-        <v>5526754126</v>
-      </c>
-      <c r="H86" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="I86" s="38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>54</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G87" s="38">
-        <v>5572227856</v>
-      </c>
-      <c r="H87" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="I87" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>55</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="G88" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H88" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="I88" s="38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>56</v>
-      </c>
-      <c r="B89" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G89" s="38">
-        <v>5552526678</v>
-      </c>
-      <c r="H89" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I89" s="38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-    </row>
-    <row r="93" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="8"/>
-    </row>
-    <row r="94" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="41"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="8"/>
-    </row>
-    <row r="95" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="12"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="12"/>
+      <c r="C95" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="12"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="12"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="12"/>
-    </row>
-    <row r="101" spans="2:11" ht="17" x14ac:dyDescent="0.25">
-      <c r="B101" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="29"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="2:11" ht="16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3561,13 +3338,14 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="6"/>
-      <c r="I103" s="6"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="3"/>
     </row>
     <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
@@ -3587,7 +3365,7 @@
       <c r="G105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3595,17 +3373,19 @@
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
     </row>
     <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
       <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
     </row>
     <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
@@ -3615,16 +3395,19 @@
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
     </row>
     <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="3"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
     </row>
     <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
@@ -3634,6 +3417,8 @@
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
     </row>
     <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
@@ -3643,6 +3428,8 @@
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
     </row>
     <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
@@ -5229,122 +5016,57 @@
       <c r="K255" s="6"/>
     </row>
     <row r="256" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="6"/>
-      <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
     </row>
-    <row r="257" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="6"/>
-      <c r="I257" s="6"/>
+    <row r="257" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
     </row>
-    <row r="258" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="6"/>
-      <c r="I258" s="6"/>
+    <row r="258" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
     </row>
-    <row r="259" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="6"/>
-      <c r="I259" s="6"/>
+    <row r="259" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
     </row>
-    <row r="260" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="6"/>
-      <c r="I260" s="6"/>
+    <row r="260" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J260" s="6"/>
       <c r="K260" s="6"/>
     </row>
-    <row r="261" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="6"/>
-      <c r="I261" s="6"/>
+    <row r="261" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
     </row>
-    <row r="262" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J262" s="6"/>
       <c r="K262" s="6"/>
     </row>
-    <row r="263" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
     </row>
-    <row r="264" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J264" s="6"/>
       <c r="K264" s="6"/>
     </row>
-    <row r="265" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
     </row>
-    <row r="266" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J266" s="6"/>
       <c r="K266" s="6"/>
     </row>
-    <row r="267" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J267" s="6"/>
-      <c r="K267" s="6"/>
-    </row>
-    <row r="268" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J268" s="6"/>
-      <c r="K268" s="6"/>
-    </row>
-    <row r="269" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J269" s="6"/>
-      <c r="K269" s="6"/>
-    </row>
-    <row r="270" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J270" s="6"/>
-      <c r="K270" s="6"/>
-    </row>
-    <row r="271" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J271" s="6"/>
-      <c r="K271" s="6"/>
-    </row>
-    <row r="272" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J272" s="6"/>
-      <c r="K272" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A89">
-    <sortCondition ref="A34"/>
+  <autoFilter ref="B35:I83" xr:uid="{F6EF348C-FB30-43C2-8D1E-3CB18B62F6B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A83">
+    <sortCondition ref="A36"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFC8BA9-3953-424F-978C-F3C5B9316AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC134B2-E221-DE40-818D-74DCB4AF49CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$35:$I$83</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="273">
   <si>
     <t>A</t>
   </si>
@@ -123,633 +125,750 @@
     <t>Google</t>
   </si>
   <si>
-    <t>25 - 31 de Mayo del 2020</t>
-  </si>
-  <si>
-    <t>Belora Abadi Husny</t>
-  </si>
-  <si>
-    <t>2020-05-30 19:19:34</t>
-  </si>
-  <si>
-    <t>2020-05-30 18:45:30</t>
-  </si>
-  <si>
-    <t>2020-05-30 17:06:45</t>
-  </si>
-  <si>
-    <t>2020-05-30 07:11:55</t>
-  </si>
-  <si>
-    <t>2020-05-29 23:57:32</t>
-  </si>
-  <si>
-    <t>2020-05-29 23:24:19</t>
-  </si>
-  <si>
-    <t>2020-05-29 14:27:06</t>
-  </si>
-  <si>
-    <t>2020-05-29 14:02:36</t>
-  </si>
-  <si>
-    <t>2020-05-29 13:52:46</t>
-  </si>
-  <si>
-    <t>2020-05-29 13:48:02</t>
-  </si>
-  <si>
-    <t>2020-05-29 11:13:50</t>
-  </si>
-  <si>
-    <t>2020-05-29 10:23:10</t>
-  </si>
-  <si>
-    <t>2020-05-29 09:29:35</t>
-  </si>
-  <si>
-    <t>2020-05-29 01:12:44</t>
-  </si>
-  <si>
-    <t>2020-05-28 22:00:02</t>
-  </si>
-  <si>
-    <t>2020-05-28 21:54:11</t>
-  </si>
-  <si>
-    <t>2020-05-28 14:22:12</t>
-  </si>
-  <si>
-    <t>2020-05-28 13:18:54</t>
-  </si>
-  <si>
-    <t>2020-05-28 00:26:36</t>
-  </si>
-  <si>
-    <t>2020-05-28 00:00:18</t>
-  </si>
-  <si>
-    <t>2020-05-27 22:50:41</t>
-  </si>
-  <si>
-    <t>2020-05-27 22:43:21</t>
-  </si>
-  <si>
-    <t>2020-05-27 19:38:33</t>
-  </si>
-  <si>
-    <t>2020-05-27 19:27:12</t>
-  </si>
-  <si>
-    <t>2020-05-27 09:57:31</t>
-  </si>
-  <si>
-    <t>2020-05-27 00:20:37</t>
-  </si>
-  <si>
-    <t>2020-05-26 20:51:26</t>
-  </si>
-  <si>
-    <t>2020-05-26 20:31:31</t>
-  </si>
-  <si>
-    <t>2020-05-26 20:04:30</t>
-  </si>
-  <si>
-    <t>2020-05-26 19:51:38</t>
-  </si>
-  <si>
-    <t>2020-05-26 19:38:36</t>
-  </si>
-  <si>
-    <t>2020-05-26 19:28:44</t>
-  </si>
-  <si>
-    <t>2020-05-26 18:08:00</t>
-  </si>
-  <si>
-    <t>2020-05-26 16:23:57</t>
-  </si>
-  <si>
-    <t>2020-05-26 12:28:41</t>
-  </si>
-  <si>
-    <t>2020-05-26 11:00:30</t>
-  </si>
-  <si>
-    <t>2020-05-26 09:16:57</t>
-  </si>
-  <si>
-    <t>2020-05-26 09:15:46</t>
-  </si>
-  <si>
-    <t>2020-05-25 21:15:56</t>
-  </si>
-  <si>
-    <t>2020-05-25 21:00:39</t>
-  </si>
-  <si>
-    <t>2020-05-25 20:22:05</t>
-  </si>
-  <si>
-    <t>2020-05-25 20:09:11</t>
-  </si>
-  <si>
-    <t>2020-05-25 16:33:16</t>
-  </si>
-  <si>
-    <t>2020-05-25 15:35:55</t>
-  </si>
-  <si>
-    <t>2020-05-25 14:10:38</t>
-  </si>
-  <si>
-    <t>2020-05-25 11:34:46</t>
-  </si>
-  <si>
-    <t>2020-05-25 10:55:41</t>
-  </si>
-  <si>
-    <t>2020-05-25 00:28:13</t>
-  </si>
-  <si>
-    <t>Inmuebles24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Barroso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veronica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier Calderon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mairim Franco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvia ugarte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria del Carmen Flores Alvarez </t>
-  </si>
-  <si>
-    <t>Mandará Morales Méndez</t>
-  </si>
-  <si>
-    <t>Melissa Solis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Gutierrez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ale Mamón </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristina Palafox </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimena Gómez Alarcón </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Salmeron </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Flores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaí JB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelyn Hernández Cruz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paco Lozoya Uribe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernesto Grimaldo Urrutia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos Cordero </t>
-  </si>
-  <si>
-    <t>Plinio Martinez</t>
-  </si>
-  <si>
-    <t>Alberto Vidal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robin solis gonzalez </t>
-  </si>
-  <si>
-    <t>Beatriz Gonzalez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uriel Reuven Zbili </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy Bobadilla Díaz </t>
-  </si>
-  <si>
-    <t>Mariana Aguilar</t>
-  </si>
-  <si>
-    <t>Jorge Jesus Garcia Farias</t>
-  </si>
-  <si>
-    <t>Elias Peralta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar gomez delgado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Rodriguez </t>
-  </si>
-  <si>
-    <t>Rodrigo Benjamin Sanchez Rucobo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fhernando Villegas </t>
-  </si>
-  <si>
-    <t>Begoña Cendon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique SC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandra PV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najla Ximena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerry Gonzalez </t>
-  </si>
-  <si>
-    <t>Miguel Eduardo Mendez Juarez</t>
-  </si>
-  <si>
-    <t>Mario Maciel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Cordero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">William Mesa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teo Sierra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina Anaya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ángeles Ezcurra </t>
-  </si>
-  <si>
-    <t>0014379998834</t>
-  </si>
-  <si>
-    <t>(55) 6677-8899</t>
-  </si>
-  <si>
-    <t>Booker21@live.com</t>
-  </si>
-  <si>
-    <t>vymanzano@gmail.com</t>
-  </si>
-  <si>
-    <t>jcalderon70@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mairimfranco1@gmail.com</t>
-  </si>
-  <si>
-    <t>silviauga@hotmail.com</t>
-  </si>
-  <si>
-    <t>lili.moru061510@hotmail.com</t>
-  </si>
-  <si>
-    <t>carfloalv@gmail.com</t>
-  </si>
-  <si>
-    <t>mandaramorales@gmail.com</t>
-  </si>
-  <si>
-    <t>solis@truehome.com</t>
-  </si>
-  <si>
-    <t>marfi6@gmail.com</t>
-  </si>
-  <si>
-    <t>nadiequiereregistrarse@gmail.com</t>
-  </si>
-  <si>
-    <t>Cpalafox088@gmail.com</t>
-  </si>
-  <si>
-    <t>Jimenaalarcongo@gmail.com</t>
-  </si>
-  <si>
-    <t>gabrielsalmeron@hotmail.com</t>
-  </si>
-  <si>
-    <t>oscarflores8327@gmail.com</t>
-  </si>
-  <si>
-    <t>isai.jimenez90@hotmail.com</t>
-  </si>
-  <si>
-    <t>Eh556708@gmail.com</t>
-  </si>
-  <si>
-    <t>fjlozoya@gmail.com</t>
-  </si>
-  <si>
-    <t>ernrsgo@gmail.com</t>
-  </si>
-  <si>
-    <t>Oluojuanca@gmail.com</t>
-  </si>
-  <si>
-    <t>plinious@yahoo.com</t>
-  </si>
-  <si>
-    <t>alvilo2229@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>500bGentedelaGente@gmail.com</t>
-  </si>
-  <si>
-    <t>beatrizgonzalezga@gmail.com</t>
-  </si>
-  <si>
-    <t>Offers@1document.com</t>
-  </si>
-  <si>
-    <t>Nan_bd@jimlab.com.mx</t>
-  </si>
-  <si>
-    <t>sweetangelface_99@hotmail.com</t>
-  </si>
-  <si>
-    <t>j.garciafarias@hotmail.com</t>
-  </si>
-  <si>
-    <t>eliasperalta32@yahoo.com</t>
-  </si>
-  <si>
-    <t>cesargommz@gmail.com</t>
-  </si>
-  <si>
-    <t>litografiarodriguez@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>rodsrucobohi@hotmail.com</t>
-  </si>
-  <si>
-    <t>arq.fernandovillegas@gmail.com</t>
-  </si>
-  <si>
-    <t>alexander.br@gnail.com</t>
-  </si>
-  <si>
-    <t>esarabiac@gmail.com</t>
-  </si>
-  <si>
-    <t>alypv14@gmail.com</t>
-  </si>
-  <si>
-    <t>najlaxime@gmail.com</t>
-  </si>
-  <si>
-    <t>Rim.control@ymail.com</t>
-  </si>
-  <si>
-    <t>miguelmendezj@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>mariomaciemf@gmail.com</t>
-  </si>
-  <si>
-    <t>eliancruzcc@gmail.com</t>
-  </si>
-  <si>
-    <t>raquel.kusulas@gmail.com</t>
-  </si>
-  <si>
-    <t>adriana_cb@hotmail.com</t>
-  </si>
-  <si>
-    <t>mapigafe@gmail.com</t>
-  </si>
-  <si>
-    <t>Billytable@hotmail.com</t>
-  </si>
-  <si>
-    <t>abogadosierra@icloud.com</t>
-  </si>
-  <si>
-    <t>anayacaloca@yahoo.com</t>
-  </si>
-  <si>
-    <t>angelesezcurra@hotmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $3,500,000</t>
-  </si>
-  <si>
-    <t>No contesta. Se le envió mail de presentación y cotizaciones 205B y 403C
+    <t>2020-06-07 14:57:55</t>
+  </si>
+  <si>
+    <t>2020-06-07 09:09:58</t>
+  </si>
+  <si>
+    <t>2020-06-07 08:52:28</t>
+  </si>
+  <si>
+    <t>2020-06-07 03:28:54</t>
+  </si>
+  <si>
+    <t>2020-06-07 00:31:40</t>
+  </si>
+  <si>
+    <t>2020-06-06 22:27:59</t>
+  </si>
+  <si>
+    <t>2020-06-06 20:40:29</t>
+  </si>
+  <si>
+    <t>2020-06-06 17:37:38</t>
+  </si>
+  <si>
+    <t>2020-06-06 14:34:26</t>
+  </si>
+  <si>
+    <t>2020-06-06 10:12:47</t>
+  </si>
+  <si>
+    <t>2020-06-06 03:50:33</t>
+  </si>
+  <si>
+    <t>2020-06-05 22:33:08</t>
+  </si>
+  <si>
+    <t>2020-06-05 22:25:37</t>
+  </si>
+  <si>
+    <t>2020-06-05 22:03:18</t>
+  </si>
+  <si>
+    <t>2020-06-05 21:12:44</t>
+  </si>
+  <si>
+    <t>2020-06-05 19:19:36</t>
+  </si>
+  <si>
+    <t>2020-06-05 19:13:08</t>
+  </si>
+  <si>
+    <t>2020-06-05 19:11:16</t>
+  </si>
+  <si>
+    <t>2020-06-05 11:45:26</t>
+  </si>
+  <si>
+    <t>2020-06-05 10:15:47</t>
+  </si>
+  <si>
+    <t>2020-06-05 09:20:32</t>
+  </si>
+  <si>
+    <t>2020-06-05 00:20:32</t>
+  </si>
+  <si>
+    <t>2020-06-04 22:50:39</t>
+  </si>
+  <si>
+    <t>2020-06-04 22:49:12</t>
+  </si>
+  <si>
+    <t>2020-06-04 20:24:42</t>
+  </si>
+  <si>
+    <t>2020-06-04 19:46:33</t>
+  </si>
+  <si>
+    <t>2020-06-04 19:12:13</t>
+  </si>
+  <si>
+    <t>2020-06-04 15:17:34</t>
+  </si>
+  <si>
+    <t>2020-06-04 15:02:40</t>
+  </si>
+  <si>
+    <t>2020-06-04 13:16:06</t>
+  </si>
+  <si>
+    <t>2020-06-04 09:07:52</t>
+  </si>
+  <si>
+    <t>2020-06-04 07:51:52</t>
+  </si>
+  <si>
+    <t>2020-06-04 00:31:36</t>
+  </si>
+  <si>
+    <t>2020-06-03 23:55:09</t>
+  </si>
+  <si>
+    <t>2020-06-03 23:52:18</t>
+  </si>
+  <si>
+    <t>2020-06-03 23:30:46</t>
+  </si>
+  <si>
+    <t>2020-06-03 22:57:34</t>
+  </si>
+  <si>
+    <t>2020-06-03 22:22:20</t>
+  </si>
+  <si>
+    <t>2020-06-03 21:55:28</t>
+  </si>
+  <si>
+    <t>2020-06-03 21:42:46</t>
+  </si>
+  <si>
+    <t>2020-06-03 21:00:24</t>
+  </si>
+  <si>
+    <t>2020-06-03 18:18:36</t>
+  </si>
+  <si>
+    <t>2020-06-03 17:00:27</t>
+  </si>
+  <si>
+    <t>2020-06-03 16:59:09</t>
+  </si>
+  <si>
+    <t>2020-06-03 16:57:07</t>
+  </si>
+  <si>
+    <t>2020-06-03 16:53:21</t>
+  </si>
+  <si>
+    <t>2020-06-03 15:54:58</t>
+  </si>
+  <si>
+    <t>2020-06-03 09:32:14</t>
+  </si>
+  <si>
+    <t>2020-06-02 23:31:27</t>
+  </si>
+  <si>
+    <t>2020-06-02 22:12:22</t>
+  </si>
+  <si>
+    <t>2020-06-02 17:48:28</t>
+  </si>
+  <si>
+    <t>2020-06-02 17:32:17</t>
+  </si>
+  <si>
+    <t>2020-06-02 17:05:36</t>
+  </si>
+  <si>
+    <t>2020-06-02 14:11:39</t>
+  </si>
+  <si>
+    <t>2020-06-02 13:08:49</t>
+  </si>
+  <si>
+    <t>2020-06-02 01:46:54</t>
+  </si>
+  <si>
+    <t>2020-06-01 21:34:40</t>
+  </si>
+  <si>
+    <t>2020-06-01 16:26:47</t>
+  </si>
+  <si>
+    <t>2020-06-01 14:54:18</t>
+  </si>
+  <si>
+    <t>2020-06-01 11:38:48</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darinka Alessandra Tenorio Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Darder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis González </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan pineda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Andres Parra Fernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel natan Sánchez Venegas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pam GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRIS MAGALI ZALETA GALVAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Alejandro Alvarez Perez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Romero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Marcelin A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago Josue Vergara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Giovanni Rodríguez Chávez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Macias </t>
+  </si>
+  <si>
+    <t>Victor Melchi</t>
+  </si>
+  <si>
+    <t>Veronica Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto briones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaiti medina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javjjo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Arroyo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Gomez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Bernal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pat DM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos mtez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arlen Diazgrananados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Estrada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luisa Gómez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Elena Mendoza Flores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lia Labarthe Margolis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo Atahualpa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Garcia Bermudez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armand Gamboa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giosvan Bo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenia Quiñonez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth Basurto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Muñoz Sanroman </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis alonso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lore Montoya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana cecilia guillen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Leonardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Kraut Dehmlow </t>
+  </si>
+  <si>
+    <t>Alejandro Ortiz Montaño</t>
+  </si>
+  <si>
+    <t>Miguel Angel Tebar</t>
+  </si>
+  <si>
+    <t>Esperanza Martinez</t>
+  </si>
+  <si>
+    <t>Adriana Salaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus Avila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Alejandra Perez Guarneros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Guzmán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Millan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimena Arellano Sánchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha Moreno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogelio Ramírez Guima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina Barros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juana Hernandez montes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria Espindola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coco Robledo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gunnel Maldonado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Angel Contreras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Montes </t>
+  </si>
+  <si>
+    <t>0963686931</t>
+  </si>
+  <si>
+    <t>darinkatenorio6@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardo_698@hotmail.com</t>
+  </si>
+  <si>
+    <t>luamarc@hotmail.com</t>
+  </si>
+  <si>
+    <t>juancarlos.p.adaya@gmail.com</t>
+  </si>
+  <si>
+    <t>rlopezd79@gmail.com</t>
+  </si>
+  <si>
+    <t>Dapafe79@hotmail.com</t>
+  </si>
+  <si>
+    <t>daniel.sanchezv3@gmail.com</t>
+  </si>
+  <si>
+    <t>pamela.alday@hotmail.com</t>
+  </si>
+  <si>
+    <t>iris.magali.zaleta@icloud.com</t>
+  </si>
+  <si>
+    <t>ra.alverez86@gmail.com</t>
+  </si>
+  <si>
+    <t>monica_romeroha@hotmail.com</t>
+  </si>
+  <si>
+    <t>davs.ma@gmail.com</t>
+  </si>
+  <si>
+    <t>josue_sant2001@outlook.es</t>
+  </si>
+  <si>
+    <t>dicsel.gio@gmail.com</t>
+  </si>
+  <si>
+    <t>jjwearever@yahoo.com</t>
+  </si>
+  <si>
+    <t>victorusagrero@gmail.com</t>
+  </si>
+  <si>
+    <t>draveronicasantillan@hotmail.com</t>
+  </si>
+  <si>
+    <t>bet.briones@gmail.com</t>
+  </si>
+  <si>
+    <t>mayva_2213@hotmail.com</t>
+  </si>
+  <si>
+    <t>hf@hhh.com</t>
+  </si>
+  <si>
+    <t>edgararroyoflores33@gmail.com</t>
+  </si>
+  <si>
+    <t>gorelamm@live.com.mx</t>
+  </si>
+  <si>
+    <t>mbernal@sisapar.com</t>
+  </si>
+  <si>
+    <t>patydominguezv@infinitum.com</t>
+  </si>
+  <si>
+    <t>msfrmamg1961@gmail.com</t>
+  </si>
+  <si>
+    <t>arlen8801@outlook.com</t>
+  </si>
+  <si>
+    <t>andrea_estradac@hotmail.com</t>
+  </si>
+  <si>
+    <t>zofy.04@hotmail.com</t>
+  </si>
+  <si>
+    <t>proarte_1@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>lialabarthemargolis@gmail.com</t>
+  </si>
+  <si>
+    <t>atahualpa9@gmail.com</t>
+  </si>
+  <si>
+    <t>marser.iq@gmail.com</t>
+  </si>
+  <si>
+    <t>ajgt_7@hotmail.com</t>
+  </si>
+  <si>
+    <t>giosvannbo@outlook.com</t>
+  </si>
+  <si>
+    <t>keniuska08@hotmail.com</t>
+  </si>
+  <si>
+    <t>ruthbasurtoc@gmail.com</t>
+  </si>
+  <si>
+    <t>rmunozsanroman@yahoo.com</t>
+  </si>
+  <si>
+    <t>ing.alonso.f@gmail.com</t>
+  </si>
+  <si>
+    <t>Loremontoya.md@hotmail.com</t>
+  </si>
+  <si>
+    <t>anaceciguillen@gmail.com</t>
+  </si>
+  <si>
+    <t>leodominguezg@hotmail.com</t>
+  </si>
+  <si>
+    <t>alexanderkrautd@me.com</t>
+  </si>
+  <si>
+    <t>jano_m91@hotmail.com</t>
+  </si>
+  <si>
+    <t>migtebar@gmail.com</t>
+  </si>
+  <si>
+    <t>esperanzanartinez47@gmail.com</t>
+  </si>
+  <si>
+    <t>asalazarb19@gmail.com</t>
+  </si>
+  <si>
+    <t>jesus.avila@edron.edu.mx</t>
+  </si>
+  <si>
+    <t>gabrielapg1978@hotmail.com</t>
+  </si>
+  <si>
+    <t>gabigmarc@hotmail.com</t>
+  </si>
+  <si>
+    <t>A@hotmail.com</t>
+  </si>
+  <si>
+    <t>jims82257@gmail.com</t>
+  </si>
+  <si>
+    <t>alianzasamantha27@gmail.com</t>
+  </si>
+  <si>
+    <t>guima2122@hotmail.com</t>
+  </si>
+  <si>
+    <t>sabina.cuneo@hotmail.com</t>
+  </si>
+  <si>
+    <t>satmontes@hotmail.com</t>
+  </si>
+  <si>
+    <t>anavaleryer2002@hotmail.com</t>
+  </si>
+  <si>
+    <t>socorro.robledo@hotmail.com</t>
+  </si>
+  <si>
+    <t>gunnelsvensson1@hotmail.com</t>
+  </si>
+  <si>
+    <t>macr07@comaarquitectura.com.mx</t>
+  </si>
+  <si>
+    <t>luismontes0593@gmail.com</t>
+  </si>
+  <si>
+    <t>No dejo numero telefónico, se le envió mail de presentación y cotización de 2 y 3 recámaras. 205B y 403C.
 Seguimiento</t>
   </si>
   <si>
-    <t>No dejo numero telefónico, se le envió mail de presentación y cotización de 2 y 3 recámaras, el 205B y 403C.
-Seguimento</t>
-  </si>
-  <si>
-    <t>Presentación con cotizaciones de 2 recamaras</t>
-  </si>
-  <si>
-    <t>No contesta y ni entra buzón, se le hizo varias llamadas. Se le dará seguimiento. Se le envió mail de presentación y cotizaciones 205B y 403C-</t>
-  </si>
-  <si>
-    <t>Se le envia información general para sus clientes.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras. 205B y 403C respectivamente.
-Se le da seguimiento.</t>
-  </si>
-  <si>
-    <t>Visita 27 de mayo, Cotización GH04A y PH06A y GH01C, que le llame el 13 de Junio</t>
-  </si>
-  <si>
-    <t>Cita el 27 de mayo Cotizaciones de PH08C y GH02B fue con su pareja Miguel Eduatrdo Mendez, estan vendiendo su departamento que les llame en Septiembre.</t>
-  </si>
-  <si>
-    <t>Se le envia presentación por whats  con cotizaciones de 2 y 3 recamaras.  --  Coordinar cita cuando pase la contingencia</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail  --  Se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail y por whats con cotizaciones de 2 y 3 recamaras  --  Fuera de presupuesto</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail y por whats  --  Le llame y me colgó el teléfono</t>
-  </si>
-  <si>
-    <t>Entra buzon se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail y por whats  --  No es su teléfono</t>
-  </si>
-  <si>
-    <t>No contesta llamadas se le envia presentación por mail  --  No contesta llamadas se le envia presentación por mail</t>
-  </si>
-  <si>
-    <t>Es corredora, se le envia información general. Traera clientes.</t>
-  </si>
-  <si>
-    <t>Sin presupuesto, busca renta</t>
-  </si>
-  <si>
-    <t>Cotizaciones de 2 y 3 recamaras  --  Cita el 27 de mayo Cotizaciones de PH08C y GH02B fue con su pareja Alberto Vidal, estan vendiendo su departamento que les llame en Septiembre.</t>
-  </si>
-  <si>
-    <t>Teléfono no existe se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>Busca solo 2 recamaras, se le envió cotización del 205B. 
-Seguimiento  --  Le llamé y me dijo que no recibió correo, se le reenvió mail del 205B. Seguimiento</t>
-  </si>
-  <si>
-    <t>Busca en renta de $10,000 pesos</t>
-  </si>
-  <si>
-    <t>Lamudi</t>
+    <t>No contesta se le envía presentación por  mail</t>
+  </si>
+  <si>
+    <t>Es extranjero y busca departamento de 2 recamaras. Se le envió el 205B.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Me contesto su esposa Raquel Lara y buscan 2 recamaras, me pidió la cotización del 205B,
+Seguimiento</t>
+  </si>
+  <si>
+    <t>BUSCA EN RENTA</t>
+  </si>
+  <si>
+    <t>Solicito Cotizaciones de 2 recamaras, se le envían por whats</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras. 205B y 403C. Seguimiento.</t>
+  </si>
+  <si>
+    <t>Solicitó cotizaciones de Departamentos de 3 recamaras, se le envía por mail</t>
+  </si>
+  <si>
+    <t>Teléfono equivocado, se le envió mail de presentación y cotización del 205B y 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Entra buzón se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>Esta buscando en renta.</t>
+  </si>
+  <si>
+    <t>Solicito cotizaciones de departamentos de 2 recamaras, se le envian por whats</t>
+  </si>
+  <si>
+    <t>Entra buzon se envia presentacion por mail</t>
+  </si>
+  <si>
+    <t>Busca de 2 recamaras pero tiene presupuesto bajo, aun así solicitó informes del 205B.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón a la primera, se le envió mail de presentación y cotización de 2 y 3 recámaras. 205B y 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió mail de presentación y cotización de 2 y 3 recámaras. 205B y 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Busca de 3 recamaras, se le envió el modelo 403C.
+Seguimiento  --  Busca de 3 recamaras, se le envió el modelo 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>Esta empezando a ver le envie presentación por whats</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo $3M  --  Presupuesto bajo $3M</t>
+  </si>
+  <si>
+    <t>Busca de 3 recamaras pero tiene bajo presupuesto, se le envió el 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>El telefono no existe se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>Solicitó informes de 2 y 3 recamaras, se le envió el 205B y 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envía información por mail</t>
+  </si>
+  <si>
+    <t>Busca de 2 recamaras y solicito info general y visitará el showroom el próximo sábado 6.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>No contesta, se envía información general por mail  --  No contesta, se envía información general por mail</t>
+  </si>
+  <si>
+    <t>Solicita información de 2 recamaras, tiene un presupuesto de $3 a $6 millones. Se le envia cotización departamento 403C. Se le dara seguimiento.</t>
+  </si>
+  <si>
+    <t>Busca departamentos de 3 recamaras. Se le envia cotización departamento 407C, Se le dara seguimiento..</t>
+  </si>
+  <si>
+    <t>Se le envia presentación general del proyecto.</t>
+  </si>
+  <si>
+    <t>No contesta, se le envió mail de presentación y cotizaciones de los departamentos 205B y 403C.
+Seguimiento  --  Todavia no contesta, entra buzón,</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón.
+Se le envió presentación digital y cotización de 2 y 3 recámaras. 205B y 403C</t>
+  </si>
+  <si>
+    <t>Cotizaciones de Departamentos de 2 y 3 recámaras enviados por whats</t>
+  </si>
+  <si>
+    <t>Numero equivocado, se le envió mail de presentación.
+Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t>Telefono incorrecto se envía presentación por mail</t>
+  </si>
+  <si>
+    <t>Busca solo en RENTA</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>No dejo número telefónico, se le envió presentación digital y cotización de 2 y 3 recamara, 205B y 403C.
+Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t>Esta buscando en renta</t>
+  </si>
+  <si>
+    <t>Preupuesto bajo $5M  --  Preupuesto bajo $5M</t>
+  </si>
+  <si>
+    <t>Cotizaciones de 2 y 3 recamaras por whats, que le llame el 30 de junio quiere invertir</t>
+  </si>
+  <si>
+    <t>1 - 7 de Junio del 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitó informes del 506A y PH05A.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene presupuesto bajo $5M solicito enviara presentación digital. </t>
   </si>
   <si>
     <t>Vallas</t>
   </si>
   <si>
-    <t xml:space="preserve">Solicitó informes de 2 recamaras, se le envió cotización del 205B
+    <t xml:space="preserve">Me colgo el telefono le envio poresentación por mail y por whatas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trae bajo presupuesto de $3,000,000 de todos modos solicitó información general por whats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le envía presentación por mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le envía presentación por mail y por whats  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le envía presentación por whats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se le envían cotizaciones por whats del 202A, 303B, 309A, 406A, lo platicara con su esposo  </t>
+  </si>
+  <si>
+    <t>No proporciona teléfono, se envia presentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Asistio a cita el 06 de Junio revisara sus finanzas para ver si le alcanza para el 307A que le llame el 30 de Junio</t>
+  </si>
+  <si>
+    <t>No contesta, entra buzón. Se le envió mail de presentación y cotizaciones de 2 y 3 recamaras. 205B y 403C</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió mail de presentación y cotización de 2 y 3 recámaras</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió mail de presentación y cotizaciones del 205B y 403C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contesta entra buzón, se le envió mail de presentación y cotizaciones de 2 y 3 recámaras, 205B y 403C.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Busca de 2 recamaras, se le envió mail de presentación y cotización del 205B. Seguimiento.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotizaciones de Departamentos de 3 recámaras  --  Solicitó cotizaciones de Departamentos y Pent houses  de 3 recamaras con vista a la calle, enviados por whats. lo va a revisar </t>
-  </si>
-  <si>
-    <t>Busca el más barato, envié 301C, ya no responde llamadas de seguimiento</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón constantemente, se le envió mail de presentación y cotizaciones.
-Seguimiento  --  Ya me contesto y me dice que busca de 3 recamaras y $6M. le envié el 205B.</t>
-  </si>
-  <si>
-    <t>Solo quiere información general para valorar en la zona y tambien solicitó que le enviara una cotización de departamento de 2 y 3 recamaras.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicita información de Departamentos de 3 recamaras, se le envía por whats  --  Cotizaciones enviadas por whats: 502A PH02A PH03B 309A 506B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se le envia presentación por mail. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">solicitó información de 2 y 3 recamaras por whats. La revisará y dare seguimiento  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se le envían cotizaciones de Departamentos de 2 recamaras  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hable con ella me pide  enviar por whats app el brochure de Nápoles, el video 3D del departamento muestra y cotizaciones de maximo 7 millones con vista a louisiana </t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envió mail de presentación y cotizaciones de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón constantemente, se le envió mail de presentación y cotizaciones. Seguimiento  --  Le llamé y me dijo que aún no revisa las cotizaciones, que le llame la próxima semana.</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón constantemente, se le envió mail de presentación y cotizaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El telefono no existe se le envia información por mail  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No contesta llamadas, se le envía presentación por mail  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No contesta se le envía prentación por mail y por whats  </t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail y por whats de 2 y 3 recámaras, hará cita después de la contingencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se le envio información por mail de 3 reacamaras. Hara cita cuando pase la cuarentena. </t>
-  </si>
-  <si>
-    <t>Pag Web</t>
-  </si>
-  <si>
-    <t>Elian Crvz</t>
-  </si>
-  <si>
-    <t>Pilar García</t>
-  </si>
-  <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>Raquel Kusulas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es corredora traerá clientes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dejaron numero y mail equivocado.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presupuesto bajo $4M.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Moreno Ruiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Entra buzón se envia presentación por mail y por whats.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">No le interesa, creía que el proyecto estaba en Guanajuato  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker </t>
-  </si>
-  <si>
-    <t>pag web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cita virtual </t>
+    <t xml:space="preserve">Entra buzón se le envía presentación por mail </t>
+  </si>
+  <si>
+    <t>El teléfono no existe se le envía presentación por mai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El telefono no existe se envia presentación por mail   Datos falsos tampoco el mail existe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entra buzón de voz se le envía presentación por mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entra buzon se le envía presentación por mail .  Respondio que esta fuera de su presupuesto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contesta llamadas,, se le envía información general por whats , Fuera de presupuesto trae $4,000,000 </t>
   </si>
 </sst>
 </file>
@@ -759,7 +878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -819,12 +938,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -912,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,10 +1127,11 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,13 +1207,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>203258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1437,10 +1551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:K266"/>
+  <dimension ref="A4:I286"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1454,8 +1568,7 @@
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="181.5" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.5" style="1"/>
+    <col min="10" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,7 +1607,7 @@
     </row>
     <row r="16" spans="2:9" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1529,7 +1642,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="33">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>20</v>
@@ -1548,7 +1661,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="30"/>
@@ -1561,7 +1674,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="33">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="30"/>
@@ -1574,7 +1687,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="33">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1594,7 +1707,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="33">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>13</v>
@@ -1611,30 +1724,26 @@
         <v>28</v>
       </c>
       <c r="C26" s="33">
-        <v>27</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>233</v>
+        <v>31</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="F26" s="33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="33">
-        <v>1</v>
-      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="33"/>
       <c r="E27" s="32" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="F27" s="33">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1643,36 +1752,24 @@
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
-      <c r="E28" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="33">
-        <v>1</v>
-      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
-      <c r="E29" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" s="33">
-        <v>1</v>
-      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
-      <c r="E30" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="33">
-        <v>5</v>
-      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
@@ -1681,24 +1778,16 @@
       <c r="B31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="33">
-        <v>1</v>
-      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="12"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="2:9" ht="20" x14ac:dyDescent="0.25">
       <c r="B32" s="34"/>
-      <c r="E32" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="33">
-        <v>4</v>
-      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="12"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
@@ -1744,7 +1833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1752,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>2</v>
@@ -1761,19 +1850,19 @@
         <v>13</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="G36" s="38">
-        <v>2227092419</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+        <v>5554027052</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1781,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>2</v>
@@ -1790,16 +1879,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G37" s="38">
-        <v>5554521795</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>201</v>
+        <v>5545222229</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,28 +1896,28 @@
         <v>3</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G38" s="38">
-        <v>5580058472</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>147</v>
+        <v>7226628965</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1839,25 +1928,25 @@
         <v>28</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="38">
+        <v>5514744014</v>
+      </c>
+      <c r="H39" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="38">
-        <v>5516564726</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>148</v>
-      </c>
       <c r="I39" s="38" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,25 +1957,25 @@
         <v>28</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G40" s="38">
-        <v>5516564726</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>165</v>
+        <v>5532000182</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1897,25 +1986,25 @@
         <v>28</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G41" s="38">
-        <v>5525603142</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>166</v>
+        <v>5554536264</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>175</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,28 +2012,28 @@
         <v>7</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G42" s="38">
-        <v>4641282176</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>172</v>
+        <v>5565448322</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>177</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>206</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,28 +2041,28 @@
         <v>8</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G43" s="38">
-        <v>5533990874</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>144</v>
+        <v>5568081665</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,28 +2070,28 @@
         <v>9</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E44" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G44" s="38">
-        <v>5516139945</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>161</v>
+        <v>5564818566</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>172</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2010,28 +2099,28 @@
         <v>10</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>233</v>
+        <v>5</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>13</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="G45" s="38">
-        <v>5514325038</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>168</v>
+        <v>5513860893</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,28 +2128,28 @@
         <v>11</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="G46" s="38">
-        <v>5548743920</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>134</v>
+        <v>5543841967</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="I46" s="38" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,28 +2157,28 @@
         <v>12</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G47" s="38">
-        <v>5552188841</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>184</v>
+        <v>5521280293</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,28 +2186,28 @@
         <v>13</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="G48" s="38">
-        <v>5548333330</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>154</v>
+        <v>5526766135</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>210</v>
       </c>
       <c r="I48" s="38" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,28 +2215,28 @@
         <v>14</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G49" s="38">
-        <v>3316043631</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>173</v>
+        <v>5532302508</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="I49" s="38" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2161,22 +2250,22 @@
         <v>37</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="G50" s="38">
-        <v>5539937126</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>132</v>
+        <v>5502928132</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>159</v>
       </c>
       <c r="I50" s="38" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,28 +2273,28 @@
         <v>16</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E51" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G51" s="38">
-        <v>5543641975</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>204</v>
+        <v>7777777777</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2213,28 +2302,28 @@
         <v>17</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G52" s="38">
-        <v>5570105097</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>171</v>
+        <v>5549273635</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>173</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,25 +2334,25 @@
         <v>28</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G53" s="38">
-        <v>4499109900</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>136</v>
+        <v>5540024716</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>179</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,25 +2363,25 @@
         <v>28</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="38" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="G54" s="38">
-        <v>5541867260</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>138</v>
+        <v>4941038562</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2303,25 +2392,25 @@
         <v>28</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" s="38" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>151</v>
+        <v>124</v>
+      </c>
+      <c r="G55" s="38">
+        <v>5535749400</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>185</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,28 +2418,28 @@
         <v>21</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="G56" s="38">
-        <v>2761155580</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>143</v>
+        <v>5511880987</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>193</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,25 +2450,25 @@
         <v>28</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F57" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>167</v>
+        <v>140</v>
+      </c>
+      <c r="G57" s="38">
+        <v>5527387753</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>201</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2390,25 +2479,25 @@
         <v>28</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H58" s="38" t="s">
-        <v>170</v>
+        <v>102</v>
+      </c>
+      <c r="G58" s="38">
+        <v>5554004594</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>163</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,25 +2508,25 @@
         <v>27</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G59" s="38">
-        <v>5540806276</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>160</v>
+        <v>5531970099</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>158</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2448,25 +2537,25 @@
         <v>27</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="G60" s="38">
-        <v>5559546078</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>135</v>
+        <v>5543476510</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>188</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,28 +2563,28 @@
         <v>26</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G61" s="38">
-        <v>5544496704</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>153</v>
+        <v>5554528855</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,25 +2595,25 @@
         <v>28</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G62" s="38">
-        <v>5519542782</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>155</v>
+        <v>5539969466</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2535,25 +2624,25 @@
         <v>28</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G63" s="38">
-        <v>5528482273</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>158</v>
+        <v>2223870411</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>203</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,28 +2650,28 @@
         <v>29</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F64" s="38" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="G64" s="38">
-        <v>6644776126</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>149</v>
+        <v>8110726390</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>211</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2593,25 +2682,23 @@
         <v>27</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G65" s="38">
-        <v>5554074082</v>
-      </c>
-      <c r="H65" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="38"/>
+      <c r="H65" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="I65" s="38" t="s">
-        <v>212</v>
+      <c r="I65" s="45" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,25 +2709,25 @@
         <v>27</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D66" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G66" s="38">
-        <v>5530142272</v>
-      </c>
-      <c r="H66" s="38" t="s">
-        <v>162</v>
+        <v>5533312951</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,28 +2735,28 @@
         <v>32</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D67" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G67" s="38">
-        <v>2283336412</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>164</v>
+        <v>5536773568</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>181</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2677,28 +2764,28 @@
         <v>33</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="H68" s="38" t="s">
-        <v>130</v>
+        <v>99</v>
+      </c>
+      <c r="G68" s="38">
+        <v>5580500412</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>160</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,28 +2793,28 @@
         <v>34</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="G69" s="38">
-        <v>9983183722</v>
-      </c>
-      <c r="H69" s="38" t="s">
-        <v>140</v>
+        <v>5515920985</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>206</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2738,25 +2825,25 @@
         <v>28</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="G70" s="38">
-        <v>5512604136</v>
-      </c>
-      <c r="H70" s="38" t="s">
-        <v>142</v>
+        <v>5529226666</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>209</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,28 +2851,26 @@
         <v>36</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G71" s="38">
-        <v>5540993361</v>
-      </c>
-      <c r="H71" s="38" t="s">
-        <v>159</v>
+        <v>93</v>
+      </c>
+      <c r="G71" s="38"/>
+      <c r="H71" s="43" t="s">
+        <v>154</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,25 +2881,25 @@
         <v>27</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G72" s="38">
-        <v>5549312095</v>
-      </c>
-      <c r="H72" s="38" t="s">
-        <v>129</v>
+        <v>5554564431</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>162</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,23 +2910,25 @@
         <v>27</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E73" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>164</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2852,25 +2939,25 @@
         <v>27</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="G74" s="38">
-        <v>5526211240</v>
-      </c>
-      <c r="H74" s="38" t="s">
-        <v>133</v>
+        <v>4432028402</v>
+      </c>
+      <c r="H74" s="43" t="s">
+        <v>170</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2881,25 +2968,25 @@
         <v>27</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G75" s="38">
-        <v>5591309835</v>
-      </c>
-      <c r="H75" s="38" t="s">
-        <v>141</v>
+        <v>2281078541</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,28 +2994,28 @@
         <v>41</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E76" s="38" t="s">
         <v>29</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G76" s="38">
-        <v>3328115307</v>
-      </c>
-      <c r="H76" s="38" t="s">
-        <v>156</v>
+        <v>5554134595</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>178</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2939,25 +3026,25 @@
         <v>27</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G77" s="38">
-        <v>5554560677</v>
-      </c>
-      <c r="H77" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="I77" s="43" t="s">
-        <v>203</v>
+        <v>5527178875</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I77" s="38" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2965,10 +3052,10 @@
         <v>43</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>5</v>
@@ -2977,16 +3064,16 @@
         <v>29</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="G78" s="38">
-        <v>5518115094</v>
-      </c>
-      <c r="H78" s="38" t="s">
-        <v>128</v>
+        <v>5586179887</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>198</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2997,25 +3084,25 @@
         <v>27</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="G79" s="38">
-        <v>5556778899</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>137</v>
+        <v>5617775519</v>
+      </c>
+      <c r="H79" s="43" t="s">
+        <v>202</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3026,25 +3113,25 @@
         <v>27</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D80" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="G80" s="38">
-        <v>5567036217</v>
-      </c>
-      <c r="H80" s="38" t="s">
-        <v>145</v>
+        <v>8443550070</v>
+      </c>
+      <c r="H80" s="43" t="s">
+        <v>204</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3052,28 +3139,26 @@
         <v>46</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D81" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" s="38">
-        <v>5535627156</v>
-      </c>
-      <c r="H81" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="I81" s="44" t="s">
-        <v>230</v>
+        <v>147</v>
+      </c>
+      <c r="G81" s="38"/>
+      <c r="H81" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="I81" s="38" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,7 +3169,7 @@
         <v>28</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>5</v>
@@ -3093,16 +3178,16 @@
         <v>29</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G82" s="38">
-        <v>5546364709</v>
-      </c>
-      <c r="H82" s="38" t="s">
-        <v>163</v>
+        <v>4426476178</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>155</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3113,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D83" s="37" t="s">
         <v>5</v>
@@ -3122,360 +3207,585 @@
         <v>29</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="G83" s="38">
-        <v>5554085283</v>
-      </c>
-      <c r="H83" s="38" t="s">
-        <v>174</v>
+        <v>5612680269</v>
+      </c>
+      <c r="H83" s="43" t="s">
+        <v>165</v>
       </c>
       <c r="I83" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>49</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="38">
+        <v>5555012386</v>
+      </c>
+      <c r="H84" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>50</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85" s="38">
+        <v>5541300</v>
+      </c>
+      <c r="H85" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="I85" s="38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>51</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G86" s="38">
+        <v>8116810084</v>
+      </c>
+      <c r="H86" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I86" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>52</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="38">
+        <v>5552528387</v>
+      </c>
+      <c r="H87" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>53</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88" s="38">
+        <v>5492994703098</v>
+      </c>
+      <c r="H88" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I88" s="38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>54</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G89" s="38">
+        <v>5537102819</v>
+      </c>
+      <c r="H89" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="I89" s="38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>55</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" s="38">
+        <v>2222551373</v>
+      </c>
+      <c r="H90" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I90" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>56</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="38">
+        <v>5513667792</v>
+      </c>
+      <c r="H91" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="I91" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>57</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G92" s="38">
+        <v>5517663443</v>
+      </c>
+      <c r="H92" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="I92" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>58</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G93" s="38">
+        <v>5533116006</v>
+      </c>
+      <c r="H93" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>59</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G94" s="38">
+        <v>5535222289</v>
+      </c>
+      <c r="H94" s="43" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-    </row>
-    <row r="87" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="8"/>
-    </row>
-    <row r="88" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="8"/>
-    </row>
-    <row r="89" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="35" t="s">
+      <c r="I94" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>60</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G95" s="38">
+        <v>9222139520</v>
+      </c>
+      <c r="H95" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="I95" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="38"/>
+    </row>
+    <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+    </row>
+    <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+    </row>
+    <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+    </row>
+    <row r="100" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+    </row>
+    <row r="101" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+    </row>
+    <row r="102" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+    </row>
+    <row r="103" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+    </row>
+    <row r="104" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+    </row>
+    <row r="105" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+    </row>
+    <row r="106" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+    </row>
+    <row r="107" spans="2:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="2:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="41"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="12"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="21" t="s">
+      <c r="C109" s="19"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C112" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="12"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="21" t="s">
+      <c r="D112" s="23"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C113" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="21" t="s">
+      <c r="D113" s="23"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C114" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="12"/>
-    </row>
-    <row r="95" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B95" s="21" t="s">
+      <c r="D114" s="23"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+      <c r="B115" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C115" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6"/>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6"/>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="6"/>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="6"/>
-      <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="6"/>
-      <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-    </row>
-    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-    </row>
-    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-    </row>
-    <row r="111" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="112" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-    </row>
-    <row r="113" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-    </row>
-    <row r="114" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-    </row>
-    <row r="115" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="6"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="29"/>
       <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-    </row>
-    <row r="116" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3483,10 +3793,8 @@
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-    </row>
-    <row r="117" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3494,10 +3802,8 @@
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
       <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-    </row>
-    <row r="118" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3505,10 +3811,8 @@
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-    </row>
-    <row r="119" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3516,10 +3820,8 @@
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-    </row>
-    <row r="120" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3527,21 +3829,19 @@
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-    </row>
-    <row r="121" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
+    </row>
+    <row r="121" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-    </row>
-    <row r="122" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3549,21 +3849,18 @@
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-    </row>
-    <row r="123" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-    </row>
-    <row r="124" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3571,10 +3868,8 @@
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-    </row>
-    <row r="125" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3582,10 +3877,8 @@
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-    </row>
-    <row r="126" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3593,10 +3886,8 @@
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-    </row>
-    <row r="127" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3604,10 +3895,8 @@
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3615,10 +3904,8 @@
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
       <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-    </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3626,10 +3913,8 @@
       <c r="F129" s="5"/>
       <c r="G129" s="6"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-    </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3637,10 +3922,8 @@
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
       <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-    </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3648,10 +3931,8 @@
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-    </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3659,10 +3940,8 @@
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-    </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3670,10 +3949,8 @@
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-    </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3681,10 +3958,8 @@
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-    </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3692,10 +3967,8 @@
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-    </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -3703,10 +3976,8 @@
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
       <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-    </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -3714,10 +3985,8 @@
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
       <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-    </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -3725,10 +3994,8 @@
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
       <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-    </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3736,10 +4003,8 @@
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
       <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-    </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -3747,10 +4012,8 @@
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-    </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3758,10 +4021,8 @@
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-    </row>
-    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3769,10 +4030,8 @@
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
       <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-    </row>
-    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3780,10 +4039,8 @@
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-    </row>
-    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3791,10 +4048,8 @@
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-    </row>
-    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3802,10 +4057,8 @@
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-    </row>
-    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3813,10 +4066,8 @@
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
       <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-    </row>
-    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3824,10 +4075,8 @@
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
       <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-    </row>
-    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -3835,10 +4084,8 @@
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-    </row>
-    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -3846,10 +4093,8 @@
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
       <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-    </row>
-    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3857,10 +4102,8 @@
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-    </row>
-    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3868,10 +4111,8 @@
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-    </row>
-    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3879,10 +4120,8 @@
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
       <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
-    </row>
-    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3890,10 +4129,8 @@
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
       <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-      <c r="K153" s="6"/>
-    </row>
-    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3901,10 +4138,8 @@
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
       <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-    </row>
-    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3912,10 +4147,8 @@
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
       <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
-    </row>
-    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -3923,10 +4156,8 @@
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
       <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
-    </row>
-    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -3934,10 +4165,8 @@
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
       <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
-      <c r="K157" s="6"/>
-    </row>
-    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -3945,10 +4174,8 @@
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
       <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
-    </row>
-    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -3956,10 +4183,8 @@
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
       <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-    </row>
-    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -3967,10 +4192,8 @@
       <c r="F160" s="5"/>
       <c r="G160" s="6"/>
       <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-    </row>
-    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -3978,10 +4201,8 @@
       <c r="F161" s="5"/>
       <c r="G161" s="6"/>
       <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-    </row>
-    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -3989,10 +4210,8 @@
       <c r="F162" s="5"/>
       <c r="G162" s="6"/>
       <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-    </row>
-    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -4000,10 +4219,8 @@
       <c r="F163" s="5"/>
       <c r="G163" s="6"/>
       <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-    </row>
-    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -4011,10 +4228,8 @@
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
       <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-    </row>
-    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -4022,10 +4237,8 @@
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
       <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-    </row>
-    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -4033,10 +4246,8 @@
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
-    </row>
-    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -4044,10 +4255,8 @@
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
       <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-    </row>
-    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -4055,10 +4264,8 @@
       <c r="F168" s="5"/>
       <c r="G168" s="6"/>
       <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-    </row>
-    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -4066,10 +4273,8 @@
       <c r="F169" s="5"/>
       <c r="G169" s="6"/>
       <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-    </row>
-    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -4077,10 +4282,8 @@
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
       <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-    </row>
-    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -4088,10 +4291,8 @@
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
       <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-    </row>
-    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -4099,10 +4300,8 @@
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
       <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-    </row>
-    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -4110,10 +4309,8 @@
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
       <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-    </row>
-    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -4121,10 +4318,8 @@
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-    </row>
-    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -4132,10 +4327,8 @@
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-    </row>
-    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -4143,10 +4336,8 @@
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
       <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-    </row>
-    <row r="177" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4154,10 +4345,8 @@
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
       <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-    </row>
-    <row r="178" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -4165,10 +4354,8 @@
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-    </row>
-    <row r="179" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4176,10 +4363,8 @@
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-    </row>
-    <row r="180" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -4187,10 +4372,8 @@
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-    </row>
-    <row r="181" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -4198,10 +4381,8 @@
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
       <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-    </row>
-    <row r="182" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -4209,10 +4390,8 @@
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
       <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
-    </row>
-    <row r="183" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -4220,10 +4399,8 @@
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
       <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-    </row>
-    <row r="184" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -4231,10 +4408,8 @@
       <c r="F184" s="5"/>
       <c r="G184" s="6"/>
       <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-    </row>
-    <row r="185" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -4242,10 +4417,8 @@
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
       <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-    </row>
-    <row r="186" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -4253,10 +4426,8 @@
       <c r="F186" s="5"/>
       <c r="G186" s="6"/>
       <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-    </row>
-    <row r="187" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4264,10 +4435,8 @@
       <c r="F187" s="5"/>
       <c r="G187" s="6"/>
       <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-    </row>
-    <row r="188" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -4275,10 +4444,8 @@
       <c r="F188" s="5"/>
       <c r="G188" s="6"/>
       <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-    </row>
-    <row r="189" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4286,10 +4453,8 @@
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
       <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-    </row>
-    <row r="190" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -4297,10 +4462,8 @@
       <c r="F190" s="5"/>
       <c r="G190" s="6"/>
       <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6"/>
-    </row>
-    <row r="191" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -4308,10 +4471,8 @@
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
       <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6"/>
-    </row>
-    <row r="192" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -4319,10 +4480,8 @@
       <c r="F192" s="5"/>
       <c r="G192" s="6"/>
       <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="6"/>
-    </row>
-    <row r="193" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -4330,10 +4489,8 @@
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
       <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
-    </row>
-    <row r="194" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -4341,10 +4498,8 @@
       <c r="F194" s="5"/>
       <c r="G194" s="6"/>
       <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-    </row>
-    <row r="195" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4352,10 +4507,8 @@
       <c r="F195" s="5"/>
       <c r="G195" s="6"/>
       <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
-    </row>
-    <row r="196" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -4363,10 +4516,8 @@
       <c r="F196" s="5"/>
       <c r="G196" s="6"/>
       <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
-    </row>
-    <row r="197" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -4374,10 +4525,8 @@
       <c r="F197" s="5"/>
       <c r="G197" s="6"/>
       <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
-      <c r="K197" s="6"/>
-    </row>
-    <row r="198" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -4385,10 +4534,8 @@
       <c r="F198" s="5"/>
       <c r="G198" s="6"/>
       <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6"/>
-    </row>
-    <row r="199" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -4396,10 +4543,8 @@
       <c r="F199" s="5"/>
       <c r="G199" s="6"/>
       <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
-      <c r="K199" s="6"/>
-    </row>
-    <row r="200" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -4407,10 +4552,8 @@
       <c r="F200" s="5"/>
       <c r="G200" s="6"/>
       <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
-      <c r="K200" s="6"/>
-    </row>
-    <row r="201" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -4418,10 +4561,8 @@
       <c r="F201" s="5"/>
       <c r="G201" s="6"/>
       <c r="I201" s="6"/>
-      <c r="J201" s="6"/>
-      <c r="K201" s="6"/>
-    </row>
-    <row r="202" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -4429,10 +4570,8 @@
       <c r="F202" s="5"/>
       <c r="G202" s="6"/>
       <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
-      <c r="K202" s="6"/>
-    </row>
-    <row r="203" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -4440,10 +4579,8 @@
       <c r="F203" s="5"/>
       <c r="G203" s="6"/>
       <c r="I203" s="6"/>
-      <c r="J203" s="6"/>
-      <c r="K203" s="6"/>
-    </row>
-    <row r="204" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -4451,10 +4588,8 @@
       <c r="F204" s="5"/>
       <c r="G204" s="6"/>
       <c r="I204" s="6"/>
-      <c r="J204" s="6"/>
-      <c r="K204" s="6"/>
-    </row>
-    <row r="205" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -4462,10 +4597,8 @@
       <c r="F205" s="5"/>
       <c r="G205" s="6"/>
       <c r="I205" s="6"/>
-      <c r="J205" s="6"/>
-      <c r="K205" s="6"/>
-    </row>
-    <row r="206" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -4473,10 +4606,8 @@
       <c r="F206" s="5"/>
       <c r="G206" s="6"/>
       <c r="I206" s="6"/>
-      <c r="J206" s="6"/>
-      <c r="K206" s="6"/>
-    </row>
-    <row r="207" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -4484,10 +4615,8 @@
       <c r="F207" s="5"/>
       <c r="G207" s="6"/>
       <c r="I207" s="6"/>
-      <c r="J207" s="6"/>
-      <c r="K207" s="6"/>
-    </row>
-    <row r="208" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -4495,10 +4624,8 @@
       <c r="F208" s="5"/>
       <c r="G208" s="6"/>
       <c r="I208" s="6"/>
-      <c r="J208" s="6"/>
-      <c r="K208" s="6"/>
-    </row>
-    <row r="209" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -4506,10 +4633,8 @@
       <c r="F209" s="5"/>
       <c r="G209" s="6"/>
       <c r="I209" s="6"/>
-      <c r="J209" s="6"/>
-      <c r="K209" s="6"/>
-    </row>
-    <row r="210" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -4517,10 +4642,8 @@
       <c r="F210" s="5"/>
       <c r="G210" s="6"/>
       <c r="I210" s="6"/>
-      <c r="J210" s="6"/>
-      <c r="K210" s="6"/>
-    </row>
-    <row r="211" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4528,10 +4651,8 @@
       <c r="F211" s="5"/>
       <c r="G211" s="6"/>
       <c r="I211" s="6"/>
-      <c r="J211" s="6"/>
-      <c r="K211" s="6"/>
-    </row>
-    <row r="212" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -4539,10 +4660,8 @@
       <c r="F212" s="5"/>
       <c r="G212" s="6"/>
       <c r="I212" s="6"/>
-      <c r="J212" s="6"/>
-      <c r="K212" s="6"/>
-    </row>
-    <row r="213" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -4550,10 +4669,8 @@
       <c r="F213" s="5"/>
       <c r="G213" s="6"/>
       <c r="I213" s="6"/>
-      <c r="J213" s="6"/>
-      <c r="K213" s="6"/>
-    </row>
-    <row r="214" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -4561,10 +4678,8 @@
       <c r="F214" s="5"/>
       <c r="G214" s="6"/>
       <c r="I214" s="6"/>
-      <c r="J214" s="6"/>
-      <c r="K214" s="6"/>
-    </row>
-    <row r="215" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -4572,10 +4687,8 @@
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
       <c r="I215" s="6"/>
-      <c r="J215" s="6"/>
-      <c r="K215" s="6"/>
-    </row>
-    <row r="216" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -4583,10 +4696,8 @@
       <c r="F216" s="5"/>
       <c r="G216" s="6"/>
       <c r="I216" s="6"/>
-      <c r="J216" s="6"/>
-      <c r="K216" s="6"/>
-    </row>
-    <row r="217" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -4594,10 +4705,8 @@
       <c r="F217" s="5"/>
       <c r="G217" s="6"/>
       <c r="I217" s="6"/>
-      <c r="J217" s="6"/>
-      <c r="K217" s="6"/>
-    </row>
-    <row r="218" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -4605,10 +4714,8 @@
       <c r="F218" s="5"/>
       <c r="G218" s="6"/>
       <c r="I218" s="6"/>
-      <c r="J218" s="6"/>
-      <c r="K218" s="6"/>
-    </row>
-    <row r="219" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -4616,10 +4723,8 @@
       <c r="F219" s="5"/>
       <c r="G219" s="6"/>
       <c r="I219" s="6"/>
-      <c r="J219" s="6"/>
-      <c r="K219" s="6"/>
-    </row>
-    <row r="220" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -4627,10 +4732,8 @@
       <c r="F220" s="5"/>
       <c r="G220" s="6"/>
       <c r="I220" s="6"/>
-      <c r="J220" s="6"/>
-      <c r="K220" s="6"/>
-    </row>
-    <row r="221" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -4638,10 +4741,8 @@
       <c r="F221" s="5"/>
       <c r="G221" s="6"/>
       <c r="I221" s="6"/>
-      <c r="J221" s="6"/>
-      <c r="K221" s="6"/>
-    </row>
-    <row r="222" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -4649,10 +4750,8 @@
       <c r="F222" s="5"/>
       <c r="G222" s="6"/>
       <c r="I222" s="6"/>
-      <c r="J222" s="6"/>
-      <c r="K222" s="6"/>
-    </row>
-    <row r="223" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -4660,10 +4759,8 @@
       <c r="F223" s="5"/>
       <c r="G223" s="6"/>
       <c r="I223" s="6"/>
-      <c r="J223" s="6"/>
-      <c r="K223" s="6"/>
-    </row>
-    <row r="224" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -4671,10 +4768,8 @@
       <c r="F224" s="5"/>
       <c r="G224" s="6"/>
       <c r="I224" s="6"/>
-      <c r="J224" s="6"/>
-      <c r="K224" s="6"/>
-    </row>
-    <row r="225" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -4682,10 +4777,8 @@
       <c r="F225" s="5"/>
       <c r="G225" s="6"/>
       <c r="I225" s="6"/>
-      <c r="J225" s="6"/>
-      <c r="K225" s="6"/>
-    </row>
-    <row r="226" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -4693,10 +4786,8 @@
       <c r="F226" s="5"/>
       <c r="G226" s="6"/>
       <c r="I226" s="6"/>
-      <c r="J226" s="6"/>
-      <c r="K226" s="6"/>
-    </row>
-    <row r="227" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -4704,10 +4795,8 @@
       <c r="F227" s="5"/>
       <c r="G227" s="6"/>
       <c r="I227" s="6"/>
-      <c r="J227" s="6"/>
-      <c r="K227" s="6"/>
-    </row>
-    <row r="228" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -4715,10 +4804,8 @@
       <c r="F228" s="5"/>
       <c r="G228" s="6"/>
       <c r="I228" s="6"/>
-      <c r="J228" s="6"/>
-      <c r="K228" s="6"/>
-    </row>
-    <row r="229" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -4726,10 +4813,8 @@
       <c r="F229" s="5"/>
       <c r="G229" s="6"/>
       <c r="I229" s="6"/>
-      <c r="J229" s="6"/>
-      <c r="K229" s="6"/>
-    </row>
-    <row r="230" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -4737,10 +4822,8 @@
       <c r="F230" s="5"/>
       <c r="G230" s="6"/>
       <c r="I230" s="6"/>
-      <c r="J230" s="6"/>
-      <c r="K230" s="6"/>
-    </row>
-    <row r="231" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -4748,10 +4831,8 @@
       <c r="F231" s="5"/>
       <c r="G231" s="6"/>
       <c r="I231" s="6"/>
-      <c r="J231" s="6"/>
-      <c r="K231" s="6"/>
-    </row>
-    <row r="232" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -4759,10 +4840,8 @@
       <c r="F232" s="5"/>
       <c r="G232" s="6"/>
       <c r="I232" s="6"/>
-      <c r="J232" s="6"/>
-      <c r="K232" s="6"/>
-    </row>
-    <row r="233" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -4770,10 +4849,8 @@
       <c r="F233" s="5"/>
       <c r="G233" s="6"/>
       <c r="I233" s="6"/>
-      <c r="J233" s="6"/>
-      <c r="K233" s="6"/>
-    </row>
-    <row r="234" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -4781,10 +4858,8 @@
       <c r="F234" s="5"/>
       <c r="G234" s="6"/>
       <c r="I234" s="6"/>
-      <c r="J234" s="6"/>
-      <c r="K234" s="6"/>
-    </row>
-    <row r="235" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -4792,10 +4867,8 @@
       <c r="F235" s="5"/>
       <c r="G235" s="6"/>
       <c r="I235" s="6"/>
-      <c r="J235" s="6"/>
-      <c r="K235" s="6"/>
-    </row>
-    <row r="236" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -4803,10 +4876,8 @@
       <c r="F236" s="5"/>
       <c r="G236" s="6"/>
       <c r="I236" s="6"/>
-      <c r="J236" s="6"/>
-      <c r="K236" s="6"/>
-    </row>
-    <row r="237" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -4814,10 +4885,8 @@
       <c r="F237" s="5"/>
       <c r="G237" s="6"/>
       <c r="I237" s="6"/>
-      <c r="J237" s="6"/>
-      <c r="K237" s="6"/>
-    </row>
-    <row r="238" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -4825,10 +4894,8 @@
       <c r="F238" s="5"/>
       <c r="G238" s="6"/>
       <c r="I238" s="6"/>
-      <c r="J238" s="6"/>
-      <c r="K238" s="6"/>
-    </row>
-    <row r="239" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -4836,10 +4903,8 @@
       <c r="F239" s="5"/>
       <c r="G239" s="6"/>
       <c r="I239" s="6"/>
-      <c r="J239" s="6"/>
-      <c r="K239" s="6"/>
-    </row>
-    <row r="240" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -4847,10 +4912,8 @@
       <c r="F240" s="5"/>
       <c r="G240" s="6"/>
       <c r="I240" s="6"/>
-      <c r="J240" s="6"/>
-      <c r="K240" s="6"/>
-    </row>
-    <row r="241" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -4858,10 +4921,8 @@
       <c r="F241" s="5"/>
       <c r="G241" s="6"/>
       <c r="I241" s="6"/>
-      <c r="J241" s="6"/>
-      <c r="K241" s="6"/>
-    </row>
-    <row r="242" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -4869,10 +4930,8 @@
       <c r="F242" s="5"/>
       <c r="G242" s="6"/>
       <c r="I242" s="6"/>
-      <c r="J242" s="6"/>
-      <c r="K242" s="6"/>
-    </row>
-    <row r="243" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -4880,10 +4939,8 @@
       <c r="F243" s="5"/>
       <c r="G243" s="6"/>
       <c r="I243" s="6"/>
-      <c r="J243" s="6"/>
-      <c r="K243" s="6"/>
-    </row>
-    <row r="244" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -4891,10 +4948,8 @@
       <c r="F244" s="5"/>
       <c r="G244" s="6"/>
       <c r="I244" s="6"/>
-      <c r="J244" s="6"/>
-      <c r="K244" s="6"/>
-    </row>
-    <row r="245" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -4902,10 +4957,8 @@
       <c r="F245" s="5"/>
       <c r="G245" s="6"/>
       <c r="I245" s="6"/>
-      <c r="J245" s="6"/>
-      <c r="K245" s="6"/>
-    </row>
-    <row r="246" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -4913,10 +4966,8 @@
       <c r="F246" s="5"/>
       <c r="G246" s="6"/>
       <c r="I246" s="6"/>
-      <c r="J246" s="6"/>
-      <c r="K246" s="6"/>
-    </row>
-    <row r="247" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -4924,10 +4975,8 @@
       <c r="F247" s="5"/>
       <c r="G247" s="6"/>
       <c r="I247" s="6"/>
-      <c r="J247" s="6"/>
-      <c r="K247" s="6"/>
-    </row>
-    <row r="248" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -4935,10 +4984,8 @@
       <c r="F248" s="5"/>
       <c r="G248" s="6"/>
       <c r="I248" s="6"/>
-      <c r="J248" s="6"/>
-      <c r="K248" s="6"/>
-    </row>
-    <row r="249" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -4946,10 +4993,8 @@
       <c r="F249" s="5"/>
       <c r="G249" s="6"/>
       <c r="I249" s="6"/>
-      <c r="J249" s="6"/>
-      <c r="K249" s="6"/>
-    </row>
-    <row r="250" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -4957,10 +5002,8 @@
       <c r="F250" s="5"/>
       <c r="G250" s="6"/>
       <c r="I250" s="6"/>
-      <c r="J250" s="6"/>
-      <c r="K250" s="6"/>
-    </row>
-    <row r="251" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -4968,10 +5011,8 @@
       <c r="F251" s="5"/>
       <c r="G251" s="6"/>
       <c r="I251" s="6"/>
-      <c r="J251" s="6"/>
-      <c r="K251" s="6"/>
-    </row>
-    <row r="252" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -4979,10 +5020,8 @@
       <c r="F252" s="5"/>
       <c r="G252" s="6"/>
       <c r="I252" s="6"/>
-      <c r="J252" s="6"/>
-      <c r="K252" s="6"/>
-    </row>
-    <row r="253" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -4990,10 +5029,8 @@
       <c r="F253" s="5"/>
       <c r="G253" s="6"/>
       <c r="I253" s="6"/>
-      <c r="J253" s="6"/>
-      <c r="K253" s="6"/>
-    </row>
-    <row r="254" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -5001,10 +5038,8 @@
       <c r="F254" s="5"/>
       <c r="G254" s="6"/>
       <c r="I254" s="6"/>
-      <c r="J254" s="6"/>
-      <c r="K254" s="6"/>
-    </row>
-    <row r="255" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -5012,56 +5047,200 @@
       <c r="F255" s="5"/>
       <c r="G255" s="6"/>
       <c r="I255" s="6"/>
-      <c r="J255" s="6"/>
-      <c r="K255" s="6"/>
-    </row>
-    <row r="256" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J256" s="6"/>
-      <c r="K256" s="6"/>
-    </row>
-    <row r="257" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J257" s="6"/>
-      <c r="K257" s="6"/>
-    </row>
-    <row r="258" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J258" s="6"/>
-      <c r="K258" s="6"/>
-    </row>
-    <row r="259" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J259" s="6"/>
-      <c r="K259" s="6"/>
-    </row>
-    <row r="260" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J260" s="6"/>
-      <c r="K260" s="6"/>
-    </row>
-    <row r="261" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J261" s="6"/>
-      <c r="K261" s="6"/>
-    </row>
-    <row r="262" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J262" s="6"/>
-      <c r="K262" s="6"/>
-    </row>
-    <row r="263" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J263" s="6"/>
-      <c r="K263" s="6"/>
-    </row>
-    <row r="264" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J264" s="6"/>
-      <c r="K264" s="6"/>
-    </row>
-    <row r="265" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J265" s="6"/>
-      <c r="K265" s="6"/>
-    </row>
-    <row r="266" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J266" s="6"/>
-      <c r="K266" s="6"/>
-    </row>
+    </row>
+    <row r="256" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="6"/>
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="I258" s="6"/>
+    </row>
+    <row r="259" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="I259" s="6"/>
+    </row>
+    <row r="260" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="6"/>
+      <c r="I260" s="6"/>
+    </row>
+    <row r="261" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="I261" s="6"/>
+    </row>
+    <row r="262" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="6"/>
+      <c r="I262" s="6"/>
+    </row>
+    <row r="263" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="6"/>
+      <c r="I263" s="6"/>
+    </row>
+    <row r="264" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="6"/>
+      <c r="I264" s="6"/>
+    </row>
+    <row r="265" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="6"/>
+      <c r="I265" s="6"/>
+    </row>
+    <row r="266" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="6"/>
+      <c r="I266" s="6"/>
+    </row>
+    <row r="267" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="6"/>
+      <c r="I267" s="6"/>
+    </row>
+    <row r="268" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="5"/>
+      <c r="G268" s="6"/>
+      <c r="I268" s="6"/>
+    </row>
+    <row r="269" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="6"/>
+      <c r="I269" s="6"/>
+    </row>
+    <row r="270" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="6"/>
+      <c r="I270" s="6"/>
+    </row>
+    <row r="271" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="6"/>
+      <c r="I271" s="6"/>
+    </row>
+    <row r="272" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="6"/>
+      <c r="I272" s="6"/>
+    </row>
+    <row r="273" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="6"/>
+      <c r="I273" s="6"/>
+    </row>
+    <row r="274" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="5"/>
+      <c r="G274" s="6"/>
+      <c r="I274" s="6"/>
+    </row>
+    <row r="275" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="6"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="6"/>
+      <c r="I275" s="6"/>
+    </row>
+    <row r="276" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B35:I83" xr:uid="{F6EF348C-FB30-43C2-8D1E-3CB18B62F6B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A83">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A95">
     <sortCondition ref="A36"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDE80C1-92E9-8242-BFF3-7155B76EFFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E199B4-19C8-5E4E-BC6A-F3C99E088B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="257">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>8-14 de Junio del 2020</t>
+    <t>15 - 21 de Junio del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -55,667 +63,750 @@
     <t>Jose Luis Vaca Ramos</t>
   </si>
   <si>
-    <t>Manual</t>
+    <t>Claudia Castellanos</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Inmuebles24</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>2020-06-20 14:43:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leslie Terrazas Herrera </t>
+  </si>
+  <si>
+    <t>leslie.lopez_03@hotmail.com</t>
+  </si>
+  <si>
+    <t>Buzón, se le envia presentacion por mail.</t>
+  </si>
+  <si>
+    <t>2020-06-20 14:02:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana </t>
+  </si>
+  <si>
+    <t>alondra.campos.ferreira@gmail.com</t>
+  </si>
+  <si>
+    <t>Solo busca renta</t>
+  </si>
+  <si>
+    <t>2020-06-20 12:58:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nora García </t>
+  </si>
+  <si>
+    <t>Norisgar@gmail.com</t>
+  </si>
+  <si>
+    <t>Telefono no disponible se le envia presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-06-20 06:50:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul </t>
+  </si>
+  <si>
+    <t>rafeca66@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-20 00:47:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Farrell </t>
+  </si>
+  <si>
+    <t>juanfranciscofarrell@gmail.com</t>
+  </si>
+  <si>
+    <t>Le envío presentación por whats</t>
+  </si>
+  <si>
+    <t>2020-06-19 23:57:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demian Cota </t>
+  </si>
+  <si>
+    <t>delian.cota@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca de 2 recamaras el mas barato, busca para inversión.
+Se le envió el 205B.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-19 16:07:34</t>
+  </si>
+  <si>
+    <t>Ana Galindo</t>
+  </si>
+  <si>
+    <t>anagalindo70@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se le dio presentación general del proyecto y se llevo cotizaciones departamentos 209A y 503C.</t>
+  </si>
+  <si>
+    <t>2020-06-19 14:39:10</t>
+  </si>
+  <si>
+    <t>(55) 5435-4272</t>
+  </si>
+  <si>
+    <t>edgar.anaya@anaya-abogados.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por whats</t>
+  </si>
+  <si>
+    <t>2020-06-19 14:21:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pettite Opharrell </t>
+  </si>
+  <si>
+    <t>Cecfuentes@hotmail.com</t>
+  </si>
+  <si>
+    <t>Es un teléfono equivocado se le envió mail d presentación y cotización del 205B y 403C. 
+Seguimiento.  --  Es un teléfono equivocado se le envió mail d presentación y cotización del 205B y 403C. 
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>2020-06-19 13:07:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman Romero </t>
+  </si>
+  <si>
+    <t>roman.romero@blo.com.mx</t>
+  </si>
+  <si>
+    <t>2020-06-19 11:22:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gisela jimenez </t>
+  </si>
+  <si>
+    <t>dulce.jimenez.daniel@outlook.com</t>
+  </si>
+  <si>
+    <t>No contesta entra buzón, se le envió las cotizaciones del 205B y 403C
+Seguimiento  --  No contesta entra buzón, se le envió las cotizaciones del 205B y 403C
+Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-19 08:33:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimena Merodio </t>
+  </si>
+  <si>
+    <t>jimemerodio@gmail.com</t>
+  </si>
+  <si>
+    <t>Entra buzón se envia presentacion por mail.</t>
+  </si>
+  <si>
+    <t>2020-06-19 08:12:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Laguna </t>
+  </si>
+  <si>
+    <t>Ana.lagunablue@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto bajo $3M. </t>
+  </si>
+  <si>
+    <t>2020-06-18 23:05:48</t>
+  </si>
+  <si>
+    <t>jreyes@sirscom.com.mx</t>
+  </si>
+  <si>
+    <t>Se le envían cotizaciones de Depaetamentos de 3 recamaras, 202A, 304C, 309A y 206A.</t>
+  </si>
+  <si>
+    <t>2020-06-18 20:59:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Contreras </t>
+  </si>
+  <si>
+    <t>yessicaadriana1122@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-18 14:26:12</t>
+  </si>
+  <si>
+    <t>Lilia Turcott</t>
+  </si>
+  <si>
+    <t>liliaturcott@neximo.mx</t>
+  </si>
+  <si>
+    <t>2020-06-18 09:04:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Loaeza </t>
+  </si>
+  <si>
+    <t>mannolin140690@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-18 01:22:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernesto Terán </t>
+  </si>
+  <si>
+    <t>eteranest@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envían Cotizaciones de PH07A, PH01C, PH08C</t>
+  </si>
+  <si>
+    <t>2020-06-17 22:37:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esmeviverosmu@hotmail.com </t>
+  </si>
+  <si>
+    <t>esmeviverosmu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dejo un teléfono equivocado y no dio su nombre, se le envió mail de presentación y 205B. </t>
+  </si>
+  <si>
+    <t>2020-06-17 19:39:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel iñiguez </t>
+  </si>
+  <si>
+    <t>jmike_@hotmail.com</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto, trae $5,000,000 de pesos</t>
+  </si>
+  <si>
+    <t>2020-06-17 12:53:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Castillo </t>
+  </si>
+  <si>
+    <t>carlos.castilloperera@gmail.com</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo $4M.</t>
+  </si>
+  <si>
+    <t>2020-06-17 12:53:00</t>
+  </si>
+  <si>
+    <t>Martha Escandon</t>
+  </si>
+  <si>
+    <t>martha.escandon@hotmail.com</t>
+  </si>
+  <si>
+    <t>Es corredora, traera clientes.</t>
+  </si>
+  <si>
+    <t>2020-06-17 12:50:08</t>
+  </si>
+  <si>
+    <t>Juan Manuel Alvarez</t>
+  </si>
+  <si>
+    <t>anlju_82@hotmail.m</t>
+  </si>
+  <si>
+    <t>Es corredor, traerá clientes.</t>
+  </si>
+  <si>
+    <t>2020-06-17 11:05:28</t>
+  </si>
+  <si>
+    <t>Ricardo Ponce</t>
+  </si>
+  <si>
+    <t>rponce.valero@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envia presentacion por whats</t>
+  </si>
+  <si>
+    <t>2020-06-17 10:18:32</t>
+  </si>
+  <si>
+    <t>Juan Pablo Trujillo</t>
+  </si>
+  <si>
+    <t>jptm01@hotmail.com</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-17 09:56:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar Franco </t>
+  </si>
+  <si>
+    <t>nutriologocesarfranco@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-17 00:19:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisol barrera </t>
+  </si>
+  <si>
+    <t>marisol.barrerao@outlook.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 23:42:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús Fuentes </t>
+  </si>
+  <si>
+    <t>Bdjjdje@jdjejd.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dejó un numero telefónico inexistente, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:44:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zjp Loipza </t>
+  </si>
+  <si>
+    <t>loghj@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Telefono falso, se le envia presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:39:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Solis </t>
+  </si>
+  <si>
+    <t>eva.solis.baena@hotmail.com</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo pero solicitó se le enviara la cotización del 205A. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-16 17:23:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Martínez </t>
+  </si>
+  <si>
+    <t>mariana_martinez294@hotmail.com</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-06-16 16:53:44</t>
+  </si>
+  <si>
+    <t>Ruben Duran</t>
+  </si>
+  <si>
+    <t>rduran29@hotmail.com</t>
+  </si>
+  <si>
+    <t>Le envio presentacion via whatsapp.</t>
+  </si>
+  <si>
+    <t>2020-06-16 16:49:40</t>
+  </si>
+  <si>
+    <t>Scarlett Caneda</t>
+  </si>
+  <si>
+    <t>scarlett.1706@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envia presentación por whatsApp.</t>
+  </si>
+  <si>
+    <t>2020-06-16 16:48:47</t>
+  </si>
+  <si>
+    <t>paulirabotni@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 16:46:21</t>
+  </si>
+  <si>
+    <t>Carolina Reyes</t>
+  </si>
+  <si>
+    <t>real.mx@gmx.net</t>
+  </si>
+  <si>
+    <t>Teléfono no existe se le envia presentación por mail.</t>
+  </si>
+  <si>
+    <t>2020-06-16 16:44:29</t>
+  </si>
+  <si>
+    <t>Florencia Moye</t>
+  </si>
+  <si>
+    <t>pachalop99@gmail.com</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento.</t>
+  </si>
+  <si>
+    <t>2020-06-16 16:40:59</t>
+  </si>
+  <si>
+    <t>cynthiahs18@gmail.com</t>
+  </si>
+  <si>
+    <t>Entra a buzón se envia presentación por mail.</t>
+  </si>
+  <si>
+    <t>2020-06-16 16:29:29</t>
+  </si>
+  <si>
+    <t>aristaolvera@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 14:50:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guillermo negrete </t>
+  </si>
+  <si>
+    <t>gnegrete@krystal-hotels.com</t>
+  </si>
+  <si>
+    <t>No contesta se le envía presentacion por mail</t>
+  </si>
+  <si>
+    <t>2020-06-16 13:46:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dianis Delgadilo </t>
+  </si>
+  <si>
+    <t>dianis.delgadilo@gmail.com</t>
+  </si>
+  <si>
+    <t>Dejo un teléfono equivocado, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-16 13:21:16</t>
+  </si>
+  <si>
+    <t>Annyy Vela</t>
+  </si>
+  <si>
+    <t>blogradarfashion@gmail.com</t>
+  </si>
+  <si>
+    <t>Le llamé y me dice que cambio su decisión de compra por una casa y no departamento.</t>
+  </si>
+  <si>
+    <t>2020-06-16 13:19:40</t>
+  </si>
+  <si>
+    <t>Gerardo Sordo Fernandez</t>
+  </si>
+  <si>
+    <t>gsordo0005@gmail.com</t>
+  </si>
+  <si>
+    <t>Entra a buzón, se le envia presentación por mail.</t>
+  </si>
+  <si>
+    <t>2020-06-16 13:02:14</t>
+  </si>
+  <si>
+    <t>Antonio Sánchez Martínez</t>
+  </si>
+  <si>
+    <t>ansama1954@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 12:47:25</t>
+  </si>
+  <si>
+    <t>Leticia Diaz</t>
+  </si>
+  <si>
+    <t>juan_malvaez@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Datos falsos</t>
+  </si>
+  <si>
+    <t>2020-06-16 12:45:30</t>
+  </si>
+  <si>
+    <t>Jorge Ricardo Llanas Escobedo</t>
+  </si>
+  <si>
+    <t>dream_boyoung@hotmail.com</t>
+  </si>
+  <si>
+    <t>Dejo un numero telefónico inexistente, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-16 12:28:04</t>
+  </si>
+  <si>
+    <t>Jacobo.teran@hotmail.com</t>
+  </si>
+  <si>
+    <t>No entra llamada, se manda presentación por mail. Regresara llamada.</t>
+  </si>
+  <si>
+    <t>2020-06-16 12:27:12</t>
+  </si>
+  <si>
+    <t>andresfdzh@gmail.com</t>
+  </si>
+  <si>
+    <t>No dejo numero telefónico, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-16 06:53:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Ríos </t>
+  </si>
+  <si>
+    <t>christianriosorbegozo@gmail.com</t>
+  </si>
+  <si>
+    <t>No es su telefono, se envia presentacion por mail</t>
+  </si>
+  <si>
+    <t>2020-06-15 21:22:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica Rodriguez Ficachi </t>
+  </si>
+  <si>
+    <t>Jessicarf6@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta, se le envió mail presentación y cotización del 205B y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-15 19:19:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Alexis Jiménez Cortés </t>
+  </si>
+  <si>
+    <t>stefanalexisjimenez@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca en renta, sin presupuesto para compra</t>
+  </si>
+  <si>
+    <t>2020-06-15 17:20:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Isabel Saldaña Ponce </t>
+  </si>
+  <si>
+    <t>marlene_271@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Entra buzón a la primera llamada, se le envió mail  presentación y cotización del 205B y 403C.
+Seguimiento  --  Entra buzón a la primera llamada, se le envió mail  presentación y cotización del 205B y 403C.
+Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-15 14:38:33</t>
+  </si>
+  <si>
+    <t>Irvig Alarcon Sanchez</t>
+  </si>
+  <si>
+    <t>irving.alarcons@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca en renta.</t>
+  </si>
+  <si>
+    <t>2020-06-15 14:34:43</t>
+  </si>
+  <si>
+    <t>Angelica Mendoza</t>
+  </si>
+  <si>
+    <t>(55) 3404-9258</t>
+  </si>
+  <si>
+    <t>angelicamendoza@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-15 12:20:57</t>
+  </si>
+  <si>
+    <t>Diana Itzel Rodriguez Espinoza</t>
+  </si>
+  <si>
+    <t>ditzel1@live.com.mx</t>
+  </si>
+  <si>
+    <t>Se envia presentación del proyecto, via Whats App.</t>
+  </si>
+  <si>
+    <t>2020-06-15 12:19:06</t>
+  </si>
+  <si>
+    <t>Karla Restrejo</t>
+  </si>
+  <si>
+    <t>karlaandrea21@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca renta.</t>
+  </si>
+  <si>
+    <t>2020-06-15 10:48:31</t>
+  </si>
+  <si>
+    <t>Lucia Barrera</t>
+  </si>
+  <si>
+    <t>lucia.barrera.tovar@gmail.com</t>
+  </si>
+  <si>
+    <t>Programa cita para el 20 de Junio.  --  Asistio a cita el 20 de Junio, esta empezando a ver, se llevo cotizacion del 507C, 209A, 203A</t>
+  </si>
+  <si>
+    <t>Código de clasificación</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>POTENCIAL, INTERESADO Y CON PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>QUIZÁ, LO ESTÁ PENSANDO</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NO CONTESTA CEL, NO CONTESTA MAIL, NO LE INTERESA Y BAJO PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Powered by KIPER </t>
+  </si>
+  <si>
+    <t>Visita el desarrollo, cotización 203B</t>
   </si>
   <si>
     <t>Vallas</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>Asesor</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Clasificación</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>2020-06-14 10:46:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Galvez </t>
-  </si>
-  <si>
-    <t>marygama84@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-14 08:50:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grissell Ortiz </t>
-  </si>
-  <si>
-    <t>grisskaty@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail.</t>
-  </si>
-  <si>
-    <t>2020-06-14 08:10:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerardo JIménez A </t>
-  </si>
-  <si>
-    <t>gerardojimenezaguado@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-13 23:56:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodulfo Herrera </t>
-  </si>
-  <si>
-    <t>herrera.rod83@gmail.con</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-06-13 17:21:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abraham </t>
-  </si>
-  <si>
-    <t>abraham_82@homtail.com</t>
-  </si>
-  <si>
-    <t>2020-06-13 17:16:46</t>
-  </si>
-  <si>
-    <t>Sandra Villalobos</t>
-  </si>
-  <si>
-    <t>anerolst@gmail.com</t>
-  </si>
-  <si>
-    <t>Cita en showrrom el 13 de junio, estan empezando a ver opciones  --  Le gusto el 201A, 507A y 508A</t>
-  </si>
-  <si>
-    <t>2020-06-13 15:57:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janeth Navarrete M </t>
-  </si>
-  <si>
-    <t>janeth.nava@icloud.com</t>
-  </si>
-  <si>
-    <t>No es su telefono, se le envia presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-06-13 13:43:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marycarmen Rubio </t>
-  </si>
-  <si>
-    <t>marubioag@outlook.com</t>
-  </si>
-  <si>
-    <t>2020-06-13 13:12:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gina H. Amelio </t>
-  </si>
-  <si>
-    <t>ginaha.ankh@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 19:10:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araceli Solano </t>
-  </si>
-  <si>
-    <t>solanoaraceli@hotmail.com</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón, se le envió mail de presentación y cotizaciones del 205B y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-12 18:31:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yatsil Abigail Salas Duarte </t>
-  </si>
-  <si>
-    <t>abigail.lions25@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 16:29:57</t>
-  </si>
-  <si>
-    <t>jventura@copelsa.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 15:24:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana  Medellin </t>
-  </si>
-  <si>
-    <t>adrimedellin@gmail.com</t>
-  </si>
-  <si>
-    <t>El telefono es incorrecto se le envía presentación por mail  --  Fuera de presupuesto</t>
-  </si>
-  <si>
-    <t>2020-06-12 11:25:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armando Garcia </t>
-  </si>
-  <si>
-    <t>agarciaescalona@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 09:51:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanny Flores </t>
-  </si>
-  <si>
-    <t>fanny.flores@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 23:51:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martha Alicia Báez </t>
-  </si>
-  <si>
-    <t>marthabaezderojas@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>2020-06-11 23:42:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeria garcia RAMIREZ </t>
-  </si>
-  <si>
-    <t>valeale.gr2006@gmail.com</t>
-  </si>
-  <si>
-    <t>Telefono no disponible se envia presentaci{on por mail</t>
-  </si>
-  <si>
-    <t>2020-06-11 22:20:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Palacios </t>
-  </si>
-  <si>
-    <t>roberto1_palacios01@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>2020-06-11 22:01:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Aupart </t>
-  </si>
-  <si>
-    <t>maupartd@me.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 18:38:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mónica Fernández </t>
-  </si>
-  <si>
-    <t>monicasobero@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 18:28:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Reyna </t>
-  </si>
-  <si>
-    <t>Mariadccj@gmail.com</t>
-  </si>
-  <si>
-    <t>No contesta el telefono, envio presentacion por mail</t>
-  </si>
-  <si>
-    <t>2020-06-11 18:20:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Barajas Lopez </t>
-  </si>
-  <si>
-    <t>eduardo.barajasl@icloud.com</t>
-  </si>
-  <si>
-    <t>Busca 3 recamaras, se le envió el 403C.
-Seguimiento  --  Busca 3 recamaras, se le envió el 403C.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-11 15:40:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovelia </t>
-  </si>
-  <si>
-    <t>palma.ovelia@gmail.com</t>
-  </si>
-  <si>
-    <t>Telefono no diponible envio presentación  por mail  --  Busca en renta</t>
-  </si>
-  <si>
-    <t>2020-06-11 12:59:13</t>
-  </si>
-  <si>
-    <t>Carolina Cristiana Dominguez Garcia</t>
-  </si>
-  <si>
-    <t>ccdg@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 12:09:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayrita Gonzalez </t>
-  </si>
-  <si>
-    <t>Mayra.almase@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 11:35:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paula Restrepo Albornoz </t>
-  </si>
-  <si>
-    <t>Paula_restrepo@hotmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón se le envia presentacion por mail y por whats  --  Entra buzón se le envia presentacion por mail y por whats</t>
-  </si>
-  <si>
-    <t>2020-06-11 09:17:58</t>
-  </si>
-  <si>
-    <t>Jose Rivera</t>
-  </si>
-  <si>
-    <t>joru199@hotmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envió mail de presentación y cotización del 205B y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-11 09:13:52</t>
-  </si>
-  <si>
-    <t>Carlos Rodriguez</t>
-  </si>
-  <si>
-    <t>luisc.rodriguez@gmail.com</t>
-  </si>
-  <si>
-    <t>Cotizaciones de 2 recamaras: 301B, 507A, PH01C y GH03B</t>
-  </si>
-  <si>
-    <t>2020-06-10 21:45:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Silva </t>
-  </si>
-  <si>
-    <t>silvaandrea33@hotmail.com</t>
-  </si>
-  <si>
-    <t>Busca de 3 recámaras, se le envió presentación digital y la cotización del 403C.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-10 20:14:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ossiel González </t>
-  </si>
-  <si>
-    <t>ossiel.gonzalez@ijumpwear.com.mx</t>
-  </si>
-  <si>
-    <t>Buscaba en renta pero le envie presentacion</t>
-  </si>
-  <si>
-    <t>2020-06-10 19:44:36</t>
-  </si>
-  <si>
-    <t>Paola Montes de Oca</t>
-  </si>
-  <si>
-    <t>yeri42@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por whats  --  Solicito cotizaciones del de 3 recamaras 207B, 305A, 309A 410A, revisará la información.</t>
-  </si>
-  <si>
-    <t>2020-06-10 12:32:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myke Valencia </t>
-  </si>
-  <si>
-    <t>Angelval_santoyo@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-10 09:30:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fer Sosa </t>
-  </si>
-  <si>
-    <t>mafer_0802@hotmail.com</t>
-  </si>
-  <si>
-    <t>No contesta, envio  presentacion por mail  --  No contesta, envio  presentacion por mail</t>
-  </si>
-  <si>
-    <t>2020-06-10 02:45:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Castro León </t>
-  </si>
-  <si>
-    <t>maaffalda@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>2020-06-09 20:49:46</t>
-  </si>
-  <si>
-    <t>Carlos Gastelum</t>
-  </si>
-  <si>
-    <t>c.gastelum61@gmail.com</t>
-  </si>
-  <si>
-    <t>Visita al Showroom el 09 de Junio Cotizaciones GH02A, GH02B, 502A y GH04A, quiere que le llame el martes 16 de junio</t>
-  </si>
-  <si>
-    <t>2020-06-09 20:37:21</t>
-  </si>
-  <si>
-    <t>Jose David Tena Gascon</t>
-  </si>
-  <si>
-    <t>jdtenagascon@gmail.com</t>
-  </si>
-  <si>
-    <t>Solicito cotizaciones del GH03B, GH02A, GH01C y GH04A.  --  Esta fuera de su presupuesto</t>
-  </si>
-  <si>
-    <t>2020-06-09 20:29:01</t>
-  </si>
-  <si>
-    <t>Jessica Bravo</t>
-  </si>
-  <si>
-    <t>jessicabrvo@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envia presentación por whats.  --  Asistio a Cita el 09 de Junio, Cotizacones de 203B, GB03B, 307B, quiere que le llame el miércoles 17 de junio</t>
-  </si>
-  <si>
-    <t>2020-06-09 20:25:44</t>
-  </si>
-  <si>
-    <t>Bianey Soto</t>
-  </si>
-  <si>
-    <t>yenaiv_link@hotmail.com</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón en varias ocasiones. Se le envió mail de presentación y cotización de 2 y 3 recamaras, el 205B y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-09 16:50:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara Sanchez Merino </t>
-  </si>
-  <si>
-    <t>saraserick@gmail.com</t>
-  </si>
-  <si>
-    <t>Me colgó, le envié mail de presentación y el 205B y 403C</t>
-  </si>
-  <si>
-    <t>2020-06-09 15:30:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Hdez G </t>
-  </si>
-  <si>
-    <t>jorge.hdez15@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-09 11:26:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luisa Nájera </t>
-  </si>
-  <si>
-    <t>luisamariananajera@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-09 01:24:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicia Gutierrez </t>
-  </si>
-  <si>
-    <t>feliciagutierrez.mejia@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 23:19:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cecilia Ibarra Valenzuela </t>
-  </si>
-  <si>
-    <t>Ibarravc@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 19:56:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Sofía </t>
-  </si>
-  <si>
-    <t>anasof92@gmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $3,500,000</t>
-  </si>
-  <si>
-    <t>2020-06-08 19:37:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamela Lastra </t>
-  </si>
-  <si>
-    <t>pammylw@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 19:25:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gianpaolo Bellasina </t>
-  </si>
-  <si>
-    <t>Gianpaolobm@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>2020-06-08 17:53:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel angel hernandez </t>
-  </si>
-  <si>
-    <t>miguelo1905@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 17:24:44</t>
-  </si>
-  <si>
-    <t>(33) 3333-3333</t>
-  </si>
-  <si>
-    <t>gon.aguilar.s@gmail.com</t>
-  </si>
-  <si>
-    <t>El telefono no existe se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-06-08 14:23:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Cedillo </t>
-  </si>
-  <si>
-    <t>liliana.cedillo27@gmail.com</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón, se le envió mail de presentación y cotización de dos y tres recámaras, el 205B y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-08 13:16:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esstela elizabeth martínez gutierrez </t>
-  </si>
-  <si>
-    <t>eemg17071993@outlook.com</t>
-  </si>
-  <si>
-    <t>Lo que busca es departamento en renta</t>
-  </si>
-  <si>
-    <t>2020-06-08 12:38:05</t>
-  </si>
-  <si>
-    <t>anapaula.quintanilla@gmail.com</t>
-  </si>
-  <si>
-    <t>Código de clasificación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>POTENCIAL, INTERESADO Y CON PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>QUIZÁ, LO ESTÁ PENSANDO</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>NO CONTESTA CEL, NO CONTESTA MAIL, NO LE INTERESA Y BAJO PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report Powered by KIPER </t>
-  </si>
-  <si>
-    <t>Entra buzón Se le envió mail de presentación y cotizacion del 205B y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuera de presupuesto trae $3,500,000 pesos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buzón se envia presentación por mail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buzón de voz se envia presentación por mail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No contesta entra buzón, se le envió mail de presentación y cotizaciones del 205B y 403C. Seguimiento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entra buzón a la primera, se le envió mail de presentación y cotización del 205B y 403C. Seguimiento  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No contesta, entra buzón en varias ocasiones. Se le envió mail de presentación y cotización de 2 y 3 recamaras, el 205B y 403C. Seguimiento </t>
-  </si>
-  <si>
-    <t>Teléfono falso, se le envía informacion por mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No entra la llamada se envía presentacion por mail  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se le envía presentación por whats </t>
-  </si>
-  <si>
-    <t>Ana Paula Quintanilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier Ventura Vargas </t>
-  </si>
-  <si>
-    <t>Busca departamento pequeño solo para él, envié cotización del 205B</t>
-  </si>
-  <si>
-    <t>No logro comunicarme, entra al buzón</t>
-  </si>
-  <si>
-    <t>No contesta, entra al buzón</t>
-  </si>
-  <si>
-    <t>Se envía cotización del 205B</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envió mail de presentación y cotización del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón en varias ocasiones. Se le envió mail de presentación y cotización de 2 y 3 recamaras, el 205B y 403C</t>
-  </si>
-  <si>
-    <t>No contesta, entra buzón, se le envió mail de presentación y cotización de dos y tres recámaras, el 205B y 403C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No contesta, entra buzón. Se le envió mail de presentación y cotización del 205B y 301C. Seguimiento  </t>
-  </si>
-  <si>
-    <t>Gon</t>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amado Salazar </t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Jacobo</t>
+  </si>
+  <si>
+    <t>Busca dos recamaras se le envía 205B</t>
+  </si>
+  <si>
+    <t>Diego Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metros Cúbicos </t>
+  </si>
+  <si>
+    <t>Inmuebles 24</t>
+  </si>
+  <si>
+    <t>Página web del Desarrollo</t>
+  </si>
+  <si>
+    <t>Todavía no sabe si 2 o 3 recámaras, se le envió mail de presentación y cotización del 205A y 403C.</t>
+  </si>
+  <si>
+    <t>Judy Reyes</t>
+  </si>
+  <si>
+    <t>Edgar Anaya</t>
+  </si>
+  <si>
+    <t>Paula</t>
   </si>
 </sst>
 </file>
@@ -732,46 +823,55 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -794,7 +894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -943,15 +1043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
@@ -963,7 +1054,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -972,9 +1065,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -993,13 +1084,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -1093,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1123,10 +1207,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,7 +1217,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1151,7 +1233,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1168,50 +1249,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,7 +1297,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1257,24 +1308,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,7 +1526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="23761700"/>
+          <a:off x="1054100" y="23749000"/>
           <a:ext cx="1308100" cy="790633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2541,10 +2622,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV275"/>
+  <dimension ref="A1:IU275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2553,12 +2634,11 @@
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="26.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="181.5" style="1" customWidth="1"/>
-    <col min="10" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="255" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2766,1857 +2846,1961 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="17"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="24">
-        <v>51</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="22">
+        <v>56</v>
+      </c>
+      <c r="D20" s="78"/>
+      <c r="E20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="23" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="24">
-        <v>9</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="F21" s="23">
+        <v>8</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="23" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="24">
-        <v>5</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="F22" s="23">
+        <v>10</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="23" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="24">
-        <v>37</v>
-      </c>
-      <c r="G23" s="26"/>
+      <c r="F23" s="23">
+        <v>38</v>
+      </c>
+      <c r="G23" s="24"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="17"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="24">
-        <v>25</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23" t="s">
+      <c r="C25" s="22">
+        <v>27</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
+        <v>18</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="77"/>
+      <c r="B26" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="22">
+        <v>28</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="22">
         <v>19</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="24">
-        <v>26</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
+      <c r="B27" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="22">
         <v>6</v>
       </c>
-      <c r="G27" s="26"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="24">
-        <v>26</v>
-      </c>
-      <c r="G28" s="26"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="22">
+        <v>4</v>
+      </c>
+      <c r="G28" s="24"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="26"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="23">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="I29" s="46"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="26"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="23">
+        <v>6</v>
+      </c>
+      <c r="G30" s="24"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="46"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="26"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="23">
+        <v>2</v>
+      </c>
+      <c r="G31" s="24"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="26"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="I32" s="46"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="17"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
       <c r="F34" s="11"/>
       <c r="G34" s="17"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="46"/>
     </row>
     <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43" t="s">
+      <c r="A35" s="74"/>
+      <c r="B35" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="86">
+        <v>1</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="86">
+        <v>2</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="88">
+        <v>5537177660</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="86">
+        <v>3</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="88">
+        <v>5543435041</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="86">
+        <v>4</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="88">
+        <v>8112777687</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="86">
+        <v>5</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="88">
+        <v>5591980406</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="86">
+        <v>6</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="88">
+        <v>5533356980</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="86">
+        <v>7</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="88">
+        <v>5543493294</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="86">
+        <v>8</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="88">
+        <v>5528624012</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="86">
+        <v>9</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="88">
+        <v>5530450789</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="86">
+        <v>10</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="86">
+        <v>11</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="88">
+        <v>5527675397</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="86">
+        <v>12</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="88">
+        <v>5513841159</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="86">
+        <v>13</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="88">
+        <v>5543685801</v>
+      </c>
+      <c r="H48" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="86">
+        <v>14</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="88">
+        <v>5545250986</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" s="89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="86">
         <v>15</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="B50" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="88">
+        <v>5558220427</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="86">
         <v>16</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="B51" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="88">
+        <v>5544431501</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="86">
         <v>17</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="B52" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="88">
+        <v>5545250773</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="86">
         <v>18</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="B53" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G53" s="88">
+        <v>5584556622</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I53" s="89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="86">
         <v>19</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="B54" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54" s="88">
+        <v>5548135785</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="I54" s="89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="86">
         <v>20</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="B55" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="88">
+        <v>5560709080</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="86">
         <v>21</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="B56" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="88">
+        <v>5580309120</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="86">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46">
-        <v>1</v>
-      </c>
-      <c r="B36" s="47" t="s">
+      <c r="B57" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C57" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="88">
+        <v>5534809082</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="86">
+        <v>23</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="88">
+        <v>5591724213</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="48" t="s">
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="86">
+        <v>24</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="88">
+        <v>5543796841</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="86">
+        <v>25</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="88">
+        <v>5562727339</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" s="89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="86">
+        <v>26</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="88">
+        <v>5520244432</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" s="89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="86">
+        <v>27</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G62" s="88">
+        <v>8341548906</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="86">
+        <v>28</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" s="88">
+        <v>5584723999</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="I63" s="89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="86">
+        <v>29</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G64" s="88">
+        <v>5591956474</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I64" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="86">
+        <v>30</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" s="88">
+        <v>5585002867</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I65" s="89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="86">
+        <v>31</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="88">
+        <v>5530378217</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I66" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="47" t="s">
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="86">
+        <v>32</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F67" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G67" s="88">
+        <v>4444383096</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I67" s="90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="86">
+        <v>33</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="88">
+        <v>5562461986</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="86">
+        <v>34</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="88">
+        <v>5514905312</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="86">
+        <v>35</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="88">
+        <v>22222222222</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I70" s="89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="86">
+        <v>36</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="88">
+        <v>4521531433</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" s="89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="86">
+        <v>37</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="88">
+        <v>5528890752</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="86">
+        <v>38</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="88">
+        <v>5561330605</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="86">
+        <v>39</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="88">
+        <v>5544944051</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" s="89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="86">
+        <v>40</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="88">
+        <v>5520598350</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I75" s="89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="86">
+        <v>41</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G76" s="88">
+        <v>5567906493</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I76" s="89" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="86">
+        <v>42</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="88">
+        <v>5519523464</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I77" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="86">
+        <v>43</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="49">
-        <v>5510108585</v>
-      </c>
-      <c r="H36" s="47" t="s">
+      <c r="D78" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="G78" s="88">
+        <v>5551889491</v>
+      </c>
+      <c r="H78" s="34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46">
-        <v>2</v>
-      </c>
-      <c r="B37" s="47" t="s">
+      <c r="I78" s="89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="86">
+        <v>44</v>
+      </c>
+      <c r="B79" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="49">
-        <v>5576703569</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46">
-        <v>3</v>
-      </c>
-      <c r="B38" s="47" t="s">
+      <c r="C79" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="88">
+        <v>2225818145</v>
+      </c>
+      <c r="H79" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I79" s="89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="86">
+        <v>45</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" s="88">
+        <v>5548116555</v>
+      </c>
+      <c r="H80" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I80" s="89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="86">
+        <v>46</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G81" s="88">
+        <v>5513539088</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I81" s="89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="86">
+        <v>47</v>
+      </c>
+      <c r="B82" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="49">
-        <v>5521834562</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46">
-        <v>4</v>
-      </c>
-      <c r="B39" s="47" t="s">
+      <c r="C82" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="G82" s="88">
+        <v>5535550103</v>
+      </c>
+      <c r="H82" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I82" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="86">
+        <v>48</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="80" t="s">
+        <v>246</v>
+      </c>
+      <c r="G83" s="88">
+        <v>5523223204</v>
+      </c>
+      <c r="H83" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="I83" s="89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="86">
+        <v>49</v>
+      </c>
+      <c r="B84" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="49">
-        <v>5583648807</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
-        <v>5</v>
-      </c>
-      <c r="B40" s="47" t="s">
+      <c r="C84" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I84" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="86">
+        <v>50</v>
+      </c>
+      <c r="B85" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="49">
-        <v>5527041754</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
-        <v>6</v>
-      </c>
-      <c r="B41" s="47" t="s">
+      <c r="C85" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" s="88">
+        <v>5533349536</v>
+      </c>
+      <c r="H85" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I85" s="89" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="86">
+        <v>51</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G86" s="88">
+        <v>5557592730</v>
+      </c>
+      <c r="H86" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I86" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="86">
+        <v>52</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87" s="88">
+        <v>5584491961</v>
+      </c>
+      <c r="H87" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="86">
+        <v>53</v>
+      </c>
+      <c r="B88" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="49">
-        <v>5554130959</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46">
-        <v>7</v>
-      </c>
-      <c r="B42" s="47" t="s">
+      <c r="C88" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="88">
+        <v>7161220</v>
+      </c>
+      <c r="H88" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I88" s="89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="86">
+        <v>54</v>
+      </c>
+      <c r="B89" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="49">
-        <v>5518442341</v>
-      </c>
-      <c r="H42" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46">
-        <v>8</v>
-      </c>
-      <c r="B43" s="47" t="s">
+      <c r="C89" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G89" s="88">
+        <v>5515910499</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I89" s="89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="86">
+        <v>55</v>
+      </c>
+      <c r="B90" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" s="49">
-        <v>6266930384</v>
-      </c>
-      <c r="H43" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46">
-        <v>9</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="49">
-        <v>5519105606</v>
-      </c>
-      <c r="H44" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I44" s="50" t="s">
+      <c r="C90" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" s="88">
+        <v>5555753213</v>
+      </c>
+      <c r="H90" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I90" s="89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="91">
+        <v>56</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" s="34" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46">
-        <v>10</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="49">
-        <v>5532728526</v>
-      </c>
-      <c r="H45" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46">
-        <v>11</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="49">
-        <v>5554381617</v>
-      </c>
-      <c r="H46" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="I46" s="47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46">
-        <v>12</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="49">
-        <v>5512834918</v>
-      </c>
-      <c r="H47" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46">
-        <v>13</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="49">
-        <v>9932078189</v>
-      </c>
-      <c r="H48" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46">
-        <v>14</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="49">
-        <v>5562890907</v>
-      </c>
-      <c r="H49" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46">
-        <v>15</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="49">
-        <v>5554550018</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" s="47" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46">
-        <v>16</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="49">
-        <v>5540414559</v>
-      </c>
-      <c r="H51" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I51" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46">
-        <v>17</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="49">
-        <v>5525172186</v>
-      </c>
-      <c r="H52" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="I52" s="47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46">
-        <v>18</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E53" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="49">
-        <v>5559567475</v>
-      </c>
-      <c r="H53" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I53" s="47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46">
-        <v>19</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="49">
-        <v>5554373728</v>
-      </c>
-      <c r="H54" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46">
-        <v>20</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" s="49">
-        <v>5551879825</v>
-      </c>
-      <c r="H55" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="I55" s="47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46">
-        <v>21</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="49">
-        <v>3323895128</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="46">
-        <v>22</v>
-      </c>
-      <c r="B57" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="49">
-        <v>6181581080</v>
-      </c>
-      <c r="H57" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="I57" s="47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46">
-        <v>23</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" s="49">
-        <v>5563274452</v>
-      </c>
-      <c r="H58" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="I58" s="47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="46">
-        <v>24</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G59" s="49">
-        <v>5519548905</v>
-      </c>
-      <c r="H59" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" s="50" t="s">
+      <c r="G91" s="88">
+        <v>4432353341</v>
+      </c>
+      <c r="H91" s="34" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46">
-        <v>25</v>
-      </c>
-      <c r="B60" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G60" s="49">
-        <v>5585338138</v>
-      </c>
-      <c r="H60" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46">
-        <v>26</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="49">
-        <v>5537278855</v>
-      </c>
-      <c r="H61" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46">
-        <v>27</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" s="49">
-        <v>5535258901</v>
-      </c>
-      <c r="H62" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="I62" s="47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="46">
-        <v>28</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="I63" s="47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46">
-        <v>29</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64" s="49">
-        <v>5532116307</v>
-      </c>
-      <c r="H64" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="I64" s="47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="46">
-        <v>30</v>
-      </c>
-      <c r="B65" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="G65" s="49">
-        <v>8116608071</v>
-      </c>
-      <c r="H65" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="I65" s="47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46">
-        <v>31</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G66" s="49">
-        <v>5587955692</v>
-      </c>
-      <c r="H66" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="I66" s="47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46">
-        <v>32</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="G67" s="49">
-        <v>5586136614</v>
-      </c>
-      <c r="H67" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="I67" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46">
-        <v>33</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="49">
-        <v>5549036101</v>
-      </c>
-      <c r="H68" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="I68" s="47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="46">
-        <v>34</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" s="49">
-        <v>5591988390</v>
-      </c>
-      <c r="H69" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" s="50" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="46">
-        <v>35</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70" s="49">
-        <v>4423713254</v>
-      </c>
-      <c r="H70" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I70" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="46">
-        <v>36</v>
-      </c>
-      <c r="B71" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="G71" s="49">
-        <v>5541925644</v>
-      </c>
-      <c r="H71" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="I71" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="46">
-        <v>37</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="49">
-        <v>5554333334</v>
-      </c>
-      <c r="H72" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I72" s="47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="46">
-        <v>38</v>
-      </c>
-      <c r="B73" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="G73" s="49">
-        <v>9513235075</v>
-      </c>
-      <c r="H73" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="46">
-        <v>39</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" s="49">
-        <v>5537223074</v>
-      </c>
-      <c r="H74" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="I74" s="50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="46">
-        <v>40</v>
-      </c>
-      <c r="B75" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="49">
-        <v>3223045549</v>
-      </c>
-      <c r="H75" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I75" s="47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="46">
-        <v>41</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" s="49">
-        <v>5529668211</v>
-      </c>
-      <c r="H76" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="I76" s="47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="46">
-        <v>42</v>
-      </c>
-      <c r="B77" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E77" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="G77" s="49">
-        <v>5541855363</v>
-      </c>
-      <c r="H77" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="I77" s="47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46">
-        <v>43</v>
-      </c>
-      <c r="B78" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="G78" s="49">
-        <v>4491064950</v>
-      </c>
-      <c r="H78" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="I78" s="50" t="s">
+      <c r="I91" s="89" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46">
-        <v>44</v>
-      </c>
-      <c r="B79" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" s="49">
-        <v>5518860550</v>
-      </c>
-      <c r="H79" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="I79" s="47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="46">
-        <v>45</v>
-      </c>
-      <c r="B80" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="G80" s="49">
-        <v>5540781534</v>
-      </c>
-      <c r="H80" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="I80" s="47" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="46">
-        <v>46</v>
-      </c>
-      <c r="B81" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E81" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="G81" s="49">
-        <v>5534571341</v>
-      </c>
-      <c r="H81" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="I81" s="50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="46">
-        <v>47</v>
-      </c>
-      <c r="B82" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E82" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="G82" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="H82" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="I82" s="47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46">
-        <v>48</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E83" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="G83" s="49">
-        <v>5520387272</v>
-      </c>
-      <c r="H83" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="I83" s="47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="46">
-        <v>49</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E84" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G84" s="49">
-        <v>5522994693</v>
-      </c>
-      <c r="H84" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="I84" s="50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46">
-        <v>50</v>
-      </c>
-      <c r="B85" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G85" s="49">
-        <v>9983066514</v>
-      </c>
-      <c r="H85" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I85" s="47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="46">
-        <v>51</v>
-      </c>
-      <c r="B86" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D86" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="G86" s="49">
-        <v>5548909667</v>
-      </c>
-      <c r="H86" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="I86" s="47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-    </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="55"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="57"/>
-      <c r="I97" s="59"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="60"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -4627,7 +4811,7 @@
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="60"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -4638,7 +4822,7 @@
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
-      <c r="D100" s="60"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -4649,7 +4833,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
-      <c r="D101" s="60"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -4660,7 +4844,7 @@
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="60"/>
+      <c r="D102" s="43"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -4671,7 +4855,7 @@
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="60"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -4682,7 +4866,7 @@
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="60"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -4693,7 +4877,7 @@
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="60"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -4704,7 +4888,7 @@
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="60"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -4713,130 +4897,130 @@
     </row>
     <row r="107" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="62"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="60"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
       <c r="G107" s="13"/>
       <c r="H107" s="14"/>
-      <c r="I107" s="63"/>
+      <c r="I107" s="46"/>
     </row>
     <row r="108" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="60"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
       <c r="G108" s="13"/>
       <c r="H108" s="14"/>
-      <c r="I108" s="63"/>
+      <c r="I108" s="46"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="B109" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C109" s="65"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
+      <c r="B109" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="48"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="68"/>
+      <c r="H109" s="50"/>
+      <c r="I109" s="51"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="68"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="51"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="70"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="72"/>
-      <c r="I111" s="68"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="51"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C112" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="D112" s="75"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="79"/>
-      <c r="I112" s="80"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="58"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="63"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
-      <c r="B113" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="C113" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="78"/>
-      <c r="H113" s="79"/>
-      <c r="I113" s="80"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="58"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="63"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C114" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D114" s="75"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="78"/>
-      <c r="H114" s="79"/>
-      <c r="I114" s="80"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" s="58"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="63"/>
     </row>
     <row r="115" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
-      <c r="B115" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C115" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="D115" s="75"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="81"/>
-      <c r="H115" s="82"/>
-      <c r="I115" s="83"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115" s="58"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="66"/>
     </row>
     <row r="116" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="84"/>
-      <c r="C116" s="84"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="84"/>
-      <c r="H116" s="84"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
       <c r="I116" s="7"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4885,8 +5069,8 @@
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="86" t="s">
-        <v>209</v>
+      <c r="B121" s="69" t="s">
+        <v>241</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -6580,22 +6764,22 @@
       <c r="I274" s="7"/>
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="87"/>
-      <c r="B275" s="88"/>
-      <c r="C275" s="88"/>
-      <c r="D275" s="88"/>
-      <c r="E275" s="88"/>
-      <c r="F275" s="89"/>
-      <c r="G275" s="88"/>
-      <c r="H275" s="88"/>
-      <c r="I275" s="90"/>
+      <c r="A275" s="70"/>
+      <c r="B275" s="71"/>
+      <c r="C275" s="71"/>
+      <c r="D275" s="71"/>
+      <c r="E275" s="71"/>
+      <c r="F275" s="72"/>
+      <c r="G275" s="71"/>
+      <c r="H275" s="71"/>
+      <c r="I275" s="73"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A86">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A91">
     <sortCondition ref="A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="80" orientation="landscape"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E199B4-19C8-5E4E-BC6A-F3C99E088B26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6146AFD-7DB9-4E48-A4D7-77B059C815D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,12 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="309">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>15 - 21 de Junio del 2020</t>
+    <t>22 - 28 de Junio del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -63,16 +65,16 @@
     <t>Jose Luis Vaca Ramos</t>
   </si>
   <si>
-    <t>Claudia Castellanos</t>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Alejandra Campos García</t>
   </si>
   <si>
     <t>Google</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>Inmuebles24</t>
+    <t>Belora Abadi Husny</t>
   </si>
   <si>
     <t>Detalle</t>
@@ -102,636 +104,722 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>2020-06-20 14:43:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leslie Terrazas Herrera </t>
-  </si>
-  <si>
-    <t>leslie.lopez_03@hotmail.com</t>
-  </si>
-  <si>
-    <t>Buzón, se le envia presentacion por mail.</t>
-  </si>
-  <si>
-    <t>2020-06-20 14:02:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana </t>
-  </si>
-  <si>
-    <t>alondra.campos.ferreira@gmail.com</t>
-  </si>
-  <si>
-    <t>Solo busca renta</t>
-  </si>
-  <si>
-    <t>2020-06-20 12:58:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nora García </t>
-  </si>
-  <si>
-    <t>Norisgar@gmail.com</t>
-  </si>
-  <si>
-    <t>Telefono no disponible se le envia presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-06-20 06:50:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raul </t>
-  </si>
-  <si>
-    <t>rafeca66@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-20 00:47:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Farrell </t>
-  </si>
-  <si>
-    <t>juanfranciscofarrell@gmail.com</t>
-  </si>
-  <si>
-    <t>Le envío presentación por whats</t>
-  </si>
-  <si>
-    <t>2020-06-19 23:57:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demian Cota </t>
-  </si>
-  <si>
-    <t>delian.cota@gmail.com</t>
-  </si>
-  <si>
-    <t>Busca de 2 recamaras el mas barato, busca para inversión.
-Se le envió el 205B.
+    <t>2020-06-28 06:39:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norma Rios </t>
+  </si>
+  <si>
+    <t>e_nos09@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 23:10:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor mizrahi </t>
+  </si>
+  <si>
+    <t>mizrahivictor03@gmail.com</t>
+  </si>
+  <si>
+    <t>Se  le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-06-27 14:08:13</t>
+  </si>
+  <si>
+    <t>Eduardo Cruz Flores</t>
+  </si>
+  <si>
+    <t>eduardo.cruzrf@gmail.com</t>
+  </si>
+  <si>
+    <t>Visita se llevo cotizaciones 207B, 306A y 209A</t>
+  </si>
+  <si>
+    <t>2020-06-27 13:13:14</t>
+  </si>
+  <si>
+    <t>jimenatinajero6@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Google.
+Entra buzón, se le envió mail de presentación y cotización del 205B y 403C. 
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>2020-06-27 12:00:13</t>
+  </si>
+  <si>
+    <t>Eduardo Sebastian Sierra Dominguez</t>
+  </si>
+  <si>
+    <t>seb1996@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-06-27 10:57:38</t>
+  </si>
+  <si>
+    <t>Gonzalo Martín</t>
+  </si>
+  <si>
+    <t>gmvh_2000@yahoo.com</t>
+  </si>
+  <si>
+    <t>WHAPP Polanco sale de su presupuesto, ofrecí Av Napoles, en espera de su aprobación.  --  Busca algo grande cono poco presupuesto.</t>
+  </si>
+  <si>
+    <t>2020-06-27 09:13:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Emilia Arrascue </t>
+  </si>
+  <si>
+    <t>meac_246@hotmail.com</t>
+  </si>
+  <si>
+    <t>Telefono falso se le envia presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-06-26 21:09:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lety Ortiz </t>
+  </si>
+  <si>
+    <t>Maleor6403@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-26 19:15:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Gz </t>
+  </si>
+  <si>
+    <t>francisco.g.f@live.com</t>
+  </si>
+  <si>
+    <t>2020-06-26 17:28:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maribel Rodriguez Zamora </t>
+  </si>
+  <si>
+    <t>licmaribel@yahoo.com</t>
+  </si>
+  <si>
+    <t>2020-06-26 16:52:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisol Leon </t>
+  </si>
+  <si>
+    <t>arrietasol@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se le envia presentación por whats con ejemplos de  2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>2020-06-26 15:24:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michelle masson </t>
+  </si>
+  <si>
+    <t>massonperdomo@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca en Renta</t>
+  </si>
+  <si>
+    <t>2020-06-26 14:52:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola </t>
+  </si>
+  <si>
+    <t>pao_ctes@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca departamento en renta</t>
+  </si>
+  <si>
+    <t>2020-06-26 14:03:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Mitz </t>
+  </si>
+  <si>
+    <t>Lunadulce0289@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Facebook 
+Teléfono fuera de servicio. 
+Se le envió mail de presentación y cotización del 205B y 403C. Seguimiento.  --  Cliente de Facebook 
+Teléfono fuera de servicio. 
+Se le envió mail de presentación y cotización del 205B y 403C. Seguimiento.</t>
+  </si>
+  <si>
+    <t>2020-06-26 10:06:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernal Lorena </t>
+  </si>
+  <si>
+    <t>lbernal@vencom.com.mx</t>
+  </si>
+  <si>
+    <t>2020-06-26 08:30:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karla Medina </t>
+  </si>
+  <si>
+    <t>karlamed647@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Facebook
+Dejo telefono equivocado. Se le envió mail de presentación y cotización del 205B y 403C. 
+Seguimiento.  --  Cliente de Facebook
+Dejo telefono equivocado. Se le envió mail de presentación y cotización del 205B y 403C. 
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>2020-06-26 08:17:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquímides Zavaleta </t>
+  </si>
+  <si>
+    <t>zavaletaarquimides@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-26 07:59:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Corzo </t>
+  </si>
+  <si>
+    <t>alejocorzo19@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Facebook. 
+Se le llamó y entra buzón. Se le envió mail de presentación y cotización del 205B y 403C. 
+Seguimiento.  --  Cliente de Facebook. 
+Se le llamó y entra buzón. Se le envió mail de presentación y cotización del 205B y 403C. 
+Seguimiento.</t>
+  </si>
+  <si>
+    <t>2020-06-26 00:04:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leticia Estrada Balbuena </t>
+  </si>
+  <si>
+    <t>lestradabalbuena@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta llamadas se le envía presentacion por mail</t>
+  </si>
+  <si>
+    <t>2020-06-25 23:40:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Loyola </t>
+  </si>
+  <si>
+    <t>karenloyolab@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 20:48:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fer Valdes </t>
+  </si>
+  <si>
+    <t>Fanza@lumietri.com.mx</t>
+  </si>
+  <si>
+    <t>2020-06-25 16:03:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Axel Luna </t>
+  </si>
+  <si>
+    <t>marioaxel.luna@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 14:40:54</t>
+  </si>
+  <si>
+    <t>Carol Herrera</t>
+  </si>
+  <si>
+    <t>carol.herrera@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Corredor Daniel Gutierrez Torres</t>
+  </si>
+  <si>
+    <t>2020-06-25 14:38:33</t>
+  </si>
+  <si>
+    <t>Enrique Mestre</t>
+  </si>
+  <si>
+    <t>enriquemd@kindemex.com.mx</t>
+  </si>
+  <si>
+    <t>2020-06-25 14:36:26</t>
+  </si>
+  <si>
+    <t>Jorge Sierra</t>
+  </si>
+  <si>
+    <t>jsierra@att.net.mx</t>
+  </si>
+  <si>
+    <t>2020-06-25 13:28:34</t>
+  </si>
+  <si>
+    <t>Diego Garay</t>
+  </si>
+  <si>
+    <t>diego_garayh@hotmail.com</t>
+  </si>
+  <si>
+    <t>Solicito cotización departamento 205B, se le da seguimiento.</t>
+  </si>
+  <si>
+    <t>2020-06-25 12:19:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviana </t>
+  </si>
+  <si>
+    <t>vivicalzada@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentacion con cotizaciones de 2 y 3 recamaras por whats</t>
+  </si>
+  <si>
+    <t>2020-06-25 12:10:08</t>
+  </si>
+  <si>
+    <t>Daniel Gutierrez Torres</t>
+  </si>
+  <si>
+    <t>daniel1703.gt@hotmail.com</t>
+  </si>
+  <si>
+    <t>Prospecté a este Corredor para que nos traiga Clientes  --  Le envie información de Av. Nápoles y de Av. Polanco</t>
+  </si>
+  <si>
+    <t>2020-06-25 11:21:15</t>
+  </si>
+  <si>
+    <t>Eduardo Canton</t>
+  </si>
+  <si>
+    <t>educanton_9@hotmail.com</t>
+  </si>
+  <si>
+    <t>NAPOLES, visitó a un amigo en Polanco. Le interesa NAPOLES. Se lleva el brochure Y avisé en Napoles su posible visita. En espera de que me comparta que depto le interesa para enviar cotización.</t>
+  </si>
+  <si>
+    <t>2020-06-25 09:30:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alma Cardona </t>
+  </si>
+  <si>
+    <t>cardonaalma201@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 08:49:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Reyes </t>
+  </si>
+  <si>
+    <t>angelluis21901@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 01:02:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita Rodríguez </t>
+  </si>
+  <si>
+    <t>elysam0408@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-24 22:29:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany Gama </t>
+  </si>
+  <si>
+    <t>German.gama@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-24 21:33:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Montoya Rivas </t>
+  </si>
+  <si>
+    <t>josemontoya.pausa@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-24 15:43:08</t>
+  </si>
+  <si>
+    <t>(88) 8888-8888</t>
+  </si>
+  <si>
+    <t>luis.diezsg@gmail.com</t>
+  </si>
+  <si>
+    <t>Telefono erroneo se envia presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-06-24 14:47:15</t>
+  </si>
+  <si>
+    <t>Dra, Genoveva M. Ponce Vildis</t>
+  </si>
+  <si>
+    <t>marianavildisad@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se le envió información general del proyecto y cotizaciones 506A PH06A y GH02A.</t>
+  </si>
+  <si>
+    <t>2020-06-24 13:03:15</t>
+  </si>
+  <si>
+    <t>Idalia Palafox</t>
+  </si>
+  <si>
+    <t>idaliapalafox@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-24 10:49:21</t>
+  </si>
+  <si>
+    <t>ericmoralesmendoza@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-24 09:50:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Garduño García </t>
+  </si>
+  <si>
+    <t>Arqfg489@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 21:39:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria </t>
+  </si>
+  <si>
+    <t>valecadena2011@hotmail.com</t>
+  </si>
+  <si>
+    <t>Lo quiere para entrega inmediata</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:18:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Fuentes </t>
+  </si>
+  <si>
+    <t>fecalberto@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 17:20:12</t>
+  </si>
+  <si>
+    <t>Carlos Diaz</t>
+  </si>
+  <si>
+    <t>charlie7diaz@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envia presentación por whatsapp  --  Se le envian Cotizaciones del 201A, 207C, GH01B y GH03B</t>
+  </si>
+  <si>
+    <t>2020-06-23 15:49:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana </t>
+  </si>
+  <si>
+    <t>adriana.gasque@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 15:07:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Garcia Waka </t>
+  </si>
+  <si>
+    <t>Ccgglge090492@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 14:48:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Andrade </t>
+  </si>
+  <si>
+    <t>richart.andrade13@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 13:49:44</t>
+  </si>
+  <si>
+    <t>Evelyn Rios Zarate</t>
+  </si>
+  <si>
+    <t>evelynrioszarate@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de M3. se le llamo y entra buzón Se le envió mail de presentación y cotización del 205B y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-23 13:41:17</t>
+  </si>
+  <si>
+    <t>Jose Sandoval</t>
+  </si>
+  <si>
+    <t>knvas00000@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envia presentación por whatsapp.</t>
+  </si>
+  <si>
+    <t>2020-06-23 09:51:28</t>
+  </si>
+  <si>
+    <t>David Pereda</t>
+  </si>
+  <si>
+    <t>dpc.1239@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación con ejemplos de cotizaciones de 2 y 3 recamaras</t>
+  </si>
+  <si>
+    <t>2020-06-23 09:21:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poleth Flores Espinosa </t>
+  </si>
+  <si>
+    <t>lienzo1610@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 21:43:04</t>
+  </si>
+  <si>
+    <t>avila2mil@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>2020-06-22 19:51:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Paola Jimenez Montes de Oca </t>
+  </si>
+  <si>
+    <t>monicajim94@gmail.com</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo $3.5M</t>
+  </si>
+  <si>
+    <t>2020-06-22 18:22:24</t>
+  </si>
+  <si>
+    <t>(11) 1111-1111</t>
+  </si>
+  <si>
+    <t>edusoto0613@gmail.com</t>
+  </si>
+  <si>
+    <t>Telefono incorrecto se envia presentación por mail.</t>
+  </si>
+  <si>
+    <t>2020-06-22 17:40:53</t>
+  </si>
+  <si>
+    <t>Felix Pestaña</t>
+  </si>
+  <si>
+    <t>dr.pestanac@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía informacion por whats</t>
+  </si>
+  <si>
+    <t>2020-06-22 17:21:06</t>
+  </si>
+  <si>
+    <t>Maayan Vainer</t>
+  </si>
+  <si>
+    <t>maayanvcohen@gmail.com</t>
+  </si>
+  <si>
+    <t>Es corredora traerá Clientes</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:20:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Meza González </t>
+  </si>
+  <si>
+    <t>anamgon7@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Facebook. No dejo su numero telefónico. Se le envió mail de presentación y cotización del 205B y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:13:47</t>
+  </si>
+  <si>
+    <t>Marian Gonzalez</t>
+  </si>
+  <si>
+    <t>gonzalezt.marian@gmail.com</t>
+  </si>
+  <si>
+    <t>Solicita información de departamento garden house, se le envían por mail y por whats  --  cotizaciones GH01B, GH03B, PH07A y PH01C</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:09:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Target </t>
+  </si>
+  <si>
+    <t>Jorgedavidmares@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta le envío presentación por mail.  --  No contesta le envío presentación por mail.</t>
+  </si>
+  <si>
+    <t>2020-06-22 15:04:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy H Le </t>
+  </si>
+  <si>
+    <t>nancy_herrguer@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 14:15:01</t>
+  </si>
+  <si>
+    <t>rodrigo.sophiabanquetes74@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahir Cervantes Díaz </t>
+  </si>
+  <si>
+    <t>yahircdiaz@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 13:34:44</t>
+  </si>
+  <si>
+    <t>mvictoria@giglatam.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por whats con ejemplos de 3 recamaras</t>
+  </si>
+  <si>
+    <t>2020-06-22 12:50:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamela García González </t>
+  </si>
+  <si>
+    <t>pamege@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envie presentacion por whats con ejemplos de 2 recamaras</t>
+  </si>
+  <si>
+    <t>2020-06-22 11:54:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina </t>
+  </si>
+  <si>
+    <t>vale.huerta002@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 11:31:45</t>
+  </si>
+  <si>
+    <t>darkaos_7@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:59:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika Botero </t>
+  </si>
+  <si>
+    <t>e.boteros@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bajo presupuesto $3M  --  Bajo presupuesto $3M</t>
+  </si>
+  <si>
+    <t>2020-06-22 08:31:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Cortes </t>
+  </si>
+  <si>
+    <t>mcortesh87@gmail.com</t>
+  </si>
+  <si>
+    <t>Se envia presentacion por whats y por mail</t>
+  </si>
+  <si>
+    <t>2020-06-22 07:40:36</t>
+  </si>
+  <si>
+    <t>sergioislas53@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Google. No contesta entra buzón. 
+Se le envió mail de presentación y cotización del 205B y 403C.
 Seguimiento</t>
   </si>
   <si>
-    <t>2020-06-19 16:07:34</t>
-  </si>
-  <si>
-    <t>Ana Galindo</t>
-  </si>
-  <si>
-    <t>anagalindo70@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le dio presentación general del proyecto y se llevo cotizaciones departamentos 209A y 503C.</t>
-  </si>
-  <si>
-    <t>2020-06-19 14:39:10</t>
-  </si>
-  <si>
-    <t>(55) 5435-4272</t>
-  </si>
-  <si>
-    <t>edgar.anaya@anaya-abogados.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por whats</t>
-  </si>
-  <si>
-    <t>2020-06-19 14:21:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pettite Opharrell </t>
-  </si>
-  <si>
-    <t>Cecfuentes@hotmail.com</t>
-  </si>
-  <si>
-    <t>Es un teléfono equivocado se le envió mail d presentación y cotización del 205B y 403C. 
-Seguimiento.  --  Es un teléfono equivocado se le envió mail d presentación y cotización del 205B y 403C. 
-Seguimiento.</t>
-  </si>
-  <si>
-    <t>2020-06-19 13:07:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roman Romero </t>
-  </si>
-  <si>
-    <t>roman.romero@blo.com.mx</t>
-  </si>
-  <si>
-    <t>2020-06-19 11:22:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gisela jimenez </t>
-  </si>
-  <si>
-    <t>dulce.jimenez.daniel@outlook.com</t>
-  </si>
-  <si>
-    <t>No contesta entra buzón, se le envió las cotizaciones del 205B y 403C
-Seguimiento  --  No contesta entra buzón, se le envió las cotizaciones del 205B y 403C
-Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-19 08:33:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimena Merodio </t>
-  </si>
-  <si>
-    <t>jimemerodio@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón se envia presentacion por mail.</t>
-  </si>
-  <si>
-    <t>2020-06-19 08:12:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Laguna </t>
-  </si>
-  <si>
-    <t>Ana.lagunablue@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presupuesto bajo $3M. </t>
-  </si>
-  <si>
-    <t>2020-06-18 23:05:48</t>
-  </si>
-  <si>
-    <t>jreyes@sirscom.com.mx</t>
-  </si>
-  <si>
-    <t>Se le envían cotizaciones de Depaetamentos de 3 recamaras, 202A, 304C, 309A y 206A.</t>
-  </si>
-  <si>
-    <t>2020-06-18 20:59:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Contreras </t>
-  </si>
-  <si>
-    <t>yessicaadriana1122@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-18 14:26:12</t>
-  </si>
-  <si>
-    <t>Lilia Turcott</t>
-  </si>
-  <si>
-    <t>liliaturcott@neximo.mx</t>
-  </si>
-  <si>
-    <t>2020-06-18 09:04:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Loaeza </t>
-  </si>
-  <si>
-    <t>mannolin140690@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-18 01:22:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernesto Terán </t>
-  </si>
-  <si>
-    <t>eteranest@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envían Cotizaciones de PH07A, PH01C, PH08C</t>
-  </si>
-  <si>
-    <t>2020-06-17 22:37:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esmeviverosmu@hotmail.com </t>
-  </si>
-  <si>
-    <t>esmeviverosmu@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dejo un teléfono equivocado y no dio su nombre, se le envió mail de presentación y 205B. </t>
-  </si>
-  <si>
-    <t>2020-06-17 19:39:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel iñiguez </t>
-  </si>
-  <si>
-    <t>jmike_@hotmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto, trae $5,000,000 de pesos</t>
-  </si>
-  <si>
-    <t>2020-06-17 12:53:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Castillo </t>
-  </si>
-  <si>
-    <t>carlos.castilloperera@gmail.com</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo $4M.</t>
-  </si>
-  <si>
-    <t>2020-06-17 12:53:00</t>
-  </si>
-  <si>
-    <t>Martha Escandon</t>
-  </si>
-  <si>
-    <t>martha.escandon@hotmail.com</t>
-  </si>
-  <si>
-    <t>Es corredora, traera clientes.</t>
-  </si>
-  <si>
-    <t>2020-06-17 12:50:08</t>
-  </si>
-  <si>
-    <t>Juan Manuel Alvarez</t>
-  </si>
-  <si>
-    <t>anlju_82@hotmail.m</t>
-  </si>
-  <si>
-    <t>Es corredor, traerá clientes.</t>
-  </si>
-  <si>
-    <t>2020-06-17 11:05:28</t>
-  </si>
-  <si>
-    <t>Ricardo Ponce</t>
-  </si>
-  <si>
-    <t>rponce.valero@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envia presentacion por whats</t>
-  </si>
-  <si>
-    <t>2020-06-17 10:18:32</t>
-  </si>
-  <si>
-    <t>Juan Pablo Trujillo</t>
-  </si>
-  <si>
-    <t>jptm01@hotmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-17 09:56:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar Franco </t>
-  </si>
-  <si>
-    <t>nutriologocesarfranco@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-17 00:19:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisol barrera </t>
-  </si>
-  <si>
-    <t>marisol.barrerao@outlook.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 23:42:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesús Fuentes </t>
-  </si>
-  <si>
-    <t>Bdjjdje@jdjejd.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dejó un numero telefónico inexistente, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-16 17:44:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zjp Loipza </t>
-  </si>
-  <si>
-    <t>loghj@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Telefono falso, se le envia presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-06-16 17:39:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Solis </t>
-  </si>
-  <si>
-    <t>eva.solis.baena@hotmail.com</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo pero solicitó se le enviara la cotización del 205A. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-16 17:23:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana Martínez </t>
-  </si>
-  <si>
-    <t>mariana_martinez294@hotmail.com</t>
-  </si>
-  <si>
-    <t>No contesta llamadas se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-06-16 16:53:44</t>
-  </si>
-  <si>
-    <t>Ruben Duran</t>
-  </si>
-  <si>
-    <t>rduran29@hotmail.com</t>
-  </si>
-  <si>
-    <t>Le envio presentacion via whatsapp.</t>
-  </si>
-  <si>
-    <t>2020-06-16 16:49:40</t>
-  </si>
-  <si>
-    <t>Scarlett Caneda</t>
-  </si>
-  <si>
-    <t>scarlett.1706@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envia presentación por whatsApp.</t>
-  </si>
-  <si>
-    <t>2020-06-16 16:48:47</t>
-  </si>
-  <si>
-    <t>paulirabotni@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 16:46:21</t>
-  </si>
-  <si>
-    <t>Carolina Reyes</t>
-  </si>
-  <si>
-    <t>real.mx@gmx.net</t>
-  </si>
-  <si>
-    <t>Teléfono no existe se le envia presentación por mail.</t>
-  </si>
-  <si>
-    <t>2020-06-16 16:44:29</t>
-  </si>
-  <si>
-    <t>Florencia Moye</t>
-  </si>
-  <si>
-    <t>pachalop99@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento.</t>
-  </si>
-  <si>
-    <t>2020-06-16 16:40:59</t>
-  </si>
-  <si>
-    <t>cynthiahs18@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra a buzón se envia presentación por mail.</t>
-  </si>
-  <si>
-    <t>2020-06-16 16:29:29</t>
-  </si>
-  <si>
-    <t>aristaolvera@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 14:50:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guillermo negrete </t>
-  </si>
-  <si>
-    <t>gnegrete@krystal-hotels.com</t>
-  </si>
-  <si>
-    <t>No contesta se le envía presentacion por mail</t>
-  </si>
-  <si>
-    <t>2020-06-16 13:46:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dianis Delgadilo </t>
-  </si>
-  <si>
-    <t>dianis.delgadilo@gmail.com</t>
-  </si>
-  <si>
-    <t>Dejo un teléfono equivocado, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-16 13:21:16</t>
-  </si>
-  <si>
-    <t>Annyy Vela</t>
-  </si>
-  <si>
-    <t>blogradarfashion@gmail.com</t>
-  </si>
-  <si>
-    <t>Le llamé y me dice que cambio su decisión de compra por una casa y no departamento.</t>
-  </si>
-  <si>
-    <t>2020-06-16 13:19:40</t>
-  </si>
-  <si>
-    <t>Gerardo Sordo Fernandez</t>
-  </si>
-  <si>
-    <t>gsordo0005@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra a buzón, se le envia presentación por mail.</t>
-  </si>
-  <si>
-    <t>2020-06-16 13:02:14</t>
-  </si>
-  <si>
-    <t>Antonio Sánchez Martínez</t>
-  </si>
-  <si>
-    <t>ansama1954@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 12:47:25</t>
-  </si>
-  <si>
-    <t>Leticia Diaz</t>
-  </si>
-  <si>
-    <t>juan_malvaez@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Datos falsos</t>
-  </si>
-  <si>
-    <t>2020-06-16 12:45:30</t>
-  </si>
-  <si>
-    <t>Jorge Ricardo Llanas Escobedo</t>
-  </si>
-  <si>
-    <t>dream_boyoung@hotmail.com</t>
-  </si>
-  <si>
-    <t>Dejo un numero telefónico inexistente, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-16 12:28:04</t>
-  </si>
-  <si>
-    <t>Jacobo.teran@hotmail.com</t>
-  </si>
-  <si>
-    <t>No entra llamada, se manda presentación por mail. Regresara llamada.</t>
-  </si>
-  <si>
-    <t>2020-06-16 12:27:12</t>
-  </si>
-  <si>
-    <t>andresfdzh@gmail.com</t>
-  </si>
-  <si>
-    <t>No dejo numero telefónico, se le envió mail de presentación y cotización del 205A y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-16 06:53:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Ríos </t>
-  </si>
-  <si>
-    <t>christianriosorbegozo@gmail.com</t>
-  </si>
-  <si>
-    <t>No es su telefono, se envia presentacion por mail</t>
-  </si>
-  <si>
-    <t>2020-06-15 21:22:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica Rodriguez Ficachi </t>
-  </si>
-  <si>
-    <t>Jessicarf6@gmail.com</t>
-  </si>
-  <si>
-    <t>No contesta, se le envió mail presentación y cotización del 205B y 403C. Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-15 19:19:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefan Alexis Jiménez Cortés </t>
-  </si>
-  <si>
-    <t>stefanalexisjimenez@hotmail.com</t>
-  </si>
-  <si>
-    <t>Busca en renta, sin presupuesto para compra</t>
-  </si>
-  <si>
-    <t>2020-06-15 17:20:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Isabel Saldaña Ponce </t>
-  </si>
-  <si>
-    <t>marlene_271@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera llamada, se le envió mail  presentación y cotización del 205B y 403C.
-Seguimiento  --  Entra buzón a la primera llamada, se le envió mail  presentación y cotización del 205B y 403C.
-Seguimiento</t>
-  </si>
-  <si>
-    <t>2020-06-15 14:38:33</t>
-  </si>
-  <si>
-    <t>Irvig Alarcon Sanchez</t>
-  </si>
-  <si>
-    <t>irving.alarcons@gmail.com</t>
-  </si>
-  <si>
-    <t>Busca en renta.</t>
-  </si>
-  <si>
-    <t>2020-06-15 14:34:43</t>
-  </si>
-  <si>
-    <t>Angelica Mendoza</t>
-  </si>
-  <si>
-    <t>(55) 3404-9258</t>
-  </si>
-  <si>
-    <t>angelicamendoza@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-15 12:20:57</t>
-  </si>
-  <si>
-    <t>Diana Itzel Rodriguez Espinoza</t>
-  </si>
-  <si>
-    <t>ditzel1@live.com.mx</t>
-  </si>
-  <si>
-    <t>Se envia presentación del proyecto, via Whats App.</t>
-  </si>
-  <si>
-    <t>2020-06-15 12:19:06</t>
-  </si>
-  <si>
-    <t>Karla Restrejo</t>
-  </si>
-  <si>
-    <t>karlaandrea21@hotmail.com</t>
-  </si>
-  <si>
-    <t>Busca renta.</t>
-  </si>
-  <si>
-    <t>2020-06-15 10:48:31</t>
-  </si>
-  <si>
-    <t>Lucia Barrera</t>
-  </si>
-  <si>
-    <t>lucia.barrera.tovar@gmail.com</t>
-  </si>
-  <si>
-    <t>Programa cita para el 20 de Junio.  --  Asistio a cita el 20 de Junio, esta empezando a ver, se llevo cotizacion del 507C, 209A, 203A</t>
+    <t>2020-06-22 03:45:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Hernandez Ojeda </t>
+  </si>
+  <si>
+    <t>robertpf7@hotmail.com</t>
+  </si>
+  <si>
+    <t>Buzón, se le envia presentación por mail con ejemplos de cotizaciones  --  Esta buscando renta.</t>
   </si>
   <si>
     <t>Código de clasificación</t>
@@ -764,56 +852,142 @@
     <t xml:space="preserve">Report Powered by KIPER </t>
   </si>
   <si>
-    <t>Visita el desarrollo, cotización 203B</t>
-  </si>
-  <si>
     <t>Vallas</t>
   </si>
   <si>
+    <t>Página web del Desarrollo</t>
+  </si>
+  <si>
+    <t>Referido</t>
+  </si>
+  <si>
     <t>Broker</t>
   </si>
   <si>
-    <t xml:space="preserve">Amado Salazar </t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Jacobo</t>
-  </si>
-  <si>
-    <t>Busca dos recamaras se le envía 205B</t>
-  </si>
-  <si>
-    <t>Diego Alejandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metros Cúbicos </t>
-  </si>
-  <si>
-    <t>Inmuebles 24</t>
-  </si>
-  <si>
-    <t>Página web del Desarrollo</t>
-  </si>
-  <si>
-    <t>Todavía no sabe si 2 o 3 recámaras, se le envió mail de presentación y cotización del 205A y 403C.</t>
-  </si>
-  <si>
-    <t>Judy Reyes</t>
-  </si>
-  <si>
-    <t>Edgar Anaya</t>
-  </si>
-  <si>
-    <t>Paula</t>
+    <t xml:space="preserve">Eric Morales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Agustin Andrade </t>
+  </si>
+  <si>
+    <t>No contesta llamadas  le envio presentacion con cotizaciones por mail  --  Se le envían cotizaciones por mail y por whats de garden house y pent house de 2 recamaras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dejo un telefono de conmutador de Medica Sur, no logre contactarla. Se le envió mail de presentación y cotización del 205B </t>
+  </si>
+  <si>
+    <t>Jimena Yael</t>
+  </si>
+  <si>
+    <t>Metros Cúbicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buzón se le envia presentacion con ejemplos de 2 y 3 recamaras por mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Se le envió mail de presentación y cotización del 205B y 403C. Seguimiento. 
+</t>
+  </si>
+  <si>
+    <t>Cotización del 403C</t>
+  </si>
+  <si>
+    <t>Se le envía presentación con ejemplos de 2 y 3 recamaras por whats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Se le llamó y entra buzón. Se le envió mail de presentación y cotización del 205B y 403C. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contesta se le envia presentación por mail </t>
+  </si>
+  <si>
+    <t>Cliente de facebook. Busca de dos recámaras, se le envió el 205B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contesta llamadas, se le envía presentación por mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Télefono incorrecto, se envió mail de presentación y cotización del 205B y 403C. Seguimiento por mail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefono fuera de servicio se envía presentación por mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corredora, se le envio info de nápoles y polanco para un cliente con presupuesto de 12 millones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vino a Cita el 26 de Junio se llevo Cotizaciones de PH PH05A, PH08C, PH04C, PH07A y Depto 307A </t>
+  </si>
+  <si>
+    <t>Cliente de facebook. Se le llamo y entra buzón Se envió mail de presentación y cotización del 205B y 403C.</t>
+  </si>
+  <si>
+    <t>Luis Diez Solano</t>
+  </si>
+  <si>
+    <t>Cotización del 205B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuera de presupuesto trae $5,000,000 </t>
+  </si>
+  <si>
+    <t>Cliente de facebook. Se le llamo y entra buzón Se le envió mail de presentación y cotización del 205B y 403C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Buzón, se le envió mail de presentación y cotización del 205B y 403C. Seguimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Buzón, se envió mail de presentación y cotización del 205B y 403C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuera de presupuesto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente de Facebook. entra buzón. Se le envió mail de presentación y cotización del 205B y 403C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buzón se envia presentación con ejemplos de cotizaciones por maIl </t>
+  </si>
+  <si>
+    <t>Alejandro Avila Galindo</t>
+  </si>
+  <si>
+    <t>Eduardo Eluit Soto Aolvera</t>
+  </si>
+  <si>
+    <t>Cotización del 205B y 403C</t>
+  </si>
+  <si>
+    <t>No deja teléfono, presentación por mail</t>
+  </si>
+  <si>
+    <t>Emmanuel Guzman</t>
+  </si>
+  <si>
+    <t>Cliente de Facebook. No contesta. Se le envió mail de presentación y cotización del 205B y 403C. Seguimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente de Facebook. Dejo telefono equivocado. Se le envió mail de presentación y cotización del 205B y 403C. Seguimiento  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rdrigo  Íñiguez </t>
+  </si>
+  <si>
+    <t>Marta Maria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -823,55 +997,41 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -894,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1043,29 +1203,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <left style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -1081,9 +1221,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -1102,6 +1254,19 @@
         <color indexed="10"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1177,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1207,6 +1372,10 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1217,9 +1386,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1233,6 +1400,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1249,29 +1417,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1496,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,54 +1507,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1497,13 +1665,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>13295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>203257</xdr:rowOff>
+      <xdr:rowOff>203852</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1526,7 +1694,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="23749000"/>
+          <a:off x="1054100" y="23731815"/>
           <a:ext cx="1308100" cy="790633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2622,10 +2790,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU275"/>
+  <dimension ref="A1:IN275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2634,11 +2802,12 @@
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="26.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="181.5" style="1" customWidth="1"/>
-    <col min="10" max="255" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="233.5" style="1" customWidth="1"/>
+    <col min="10" max="248" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2846,2038 +3015,2242 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="17"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="46"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="22">
-        <v>56</v>
-      </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="24">
+        <v>68</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="21" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="23">
-        <v>8</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="F21" s="24">
+        <v>16</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="21" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="23">
-        <v>10</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="24">
+        <v>37</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="21" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="23">
-        <v>38</v>
-      </c>
-      <c r="G23" s="24"/>
+      <c r="F23" s="24">
+        <v>15</v>
+      </c>
+      <c r="G23" s="26"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="46"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="17"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="46"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22">
-        <v>27</v>
-      </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="24">
+        <v>28</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="22">
-        <v>18</v>
-      </c>
-      <c r="G25" s="24"/>
+      <c r="F25" s="24">
+        <v>22</v>
+      </c>
+      <c r="G25" s="26"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="46"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="22">
-        <v>28</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="24">
+        <v>37</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="24">
+        <v>17</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="22">
-        <v>19</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="46"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="22">
+      <c r="C27" s="24">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="24">
+        <v>29</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="24">
         <v>1</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="22">
-        <v>6</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="46"/>
-    </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="22">
-        <v>4</v>
-      </c>
-      <c r="G28" s="24"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="46"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="23">
-        <v>1</v>
-      </c>
-      <c r="G29" s="24"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="46"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="F30" s="23">
-        <v>6</v>
-      </c>
-      <c r="G30" s="24"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="46"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="81" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" s="23">
-        <v>2</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="46"/>
-    </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="74"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="46"/>
-    </row>
-    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="17"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="46"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="11"/>
       <c r="G34" s="17"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="46"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="83" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="83" t="s">
+      <c r="G35" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="85" t="s">
+      <c r="I35" s="52" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86">
+      <c r="A36" s="53">
         <v>1</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="55">
+        <v>7226220093</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53">
+        <v>2</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="55">
+        <v>5528982803</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
+        <v>3</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="55">
+        <v>6681570578</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53">
+        <v>4</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="55">
+        <v>5532540195</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="53">
+        <v>5</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="55">
+        <v>5610965017</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="53">
+        <v>6</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="55">
+        <v>5531156587</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="53">
+        <v>7</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="55">
+        <v>5522996123</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53">
+        <v>8</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="55">
+        <v>5517470566</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53">
+        <v>9</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="55">
+        <v>5540246598</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
+        <v>10</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="55">
+        <v>5514517582</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53">
         <v>11</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="B46" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="55">
+        <v>5510698960</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="53">
+        <v>12</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="55">
+        <v>8114963609</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
+        <v>13</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="55">
+        <v>5518651684</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53">
+        <v>14</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D49" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" s="55">
+        <v>5541842278</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
+        <v>15</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="55">
+        <v>5523552035</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="I50" s="56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>16</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" s="55">
+        <v>5591975623</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>17</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="55">
+        <v>5554247200</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="53">
+        <v>18</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="55">
+        <v>5511225546</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="53">
+        <v>19</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="55">
+        <v>5548675079</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="53">
+        <v>20</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="55">
+        <v>5580490196</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="53">
+        <v>21</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" s="55">
+        <v>5551023151</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="53">
+        <v>22</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="55">
+        <v>5545664411</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="53">
+        <v>23</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="55">
+        <v>5530282819</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="53">
+        <v>24</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G59" s="55">
+        <v>9991443506</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I59" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53">
+        <v>25</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="55">
+        <v>5524269451</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="53">
+        <v>26</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="55">
+        <v>5513198730</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="53">
+        <v>27</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="55">
+        <v>5554383895</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="53">
+        <v>28</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="55">
+        <v>5532588486</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
+        <v>29</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="55">
+        <v>5558253711</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="53">
+        <v>30</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" s="55">
+        <v>5553979382</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I65" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="53">
+        <v>31</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="55">
+        <v>9514008179</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="53">
+        <v>32</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="55">
+        <v>5517214687</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I67" s="56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="53">
+        <v>33</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="55">
+        <v>5514610819</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="53">
+        <v>34</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" s="55">
+        <v>5523072400</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="53">
+        <v>35</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G70" s="55">
+        <v>7224059528</v>
+      </c>
+      <c r="H70" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="53">
+        <v>36</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="55">
+        <v>5580073637</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="53">
+        <v>37</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72" s="55">
+        <v>5519218414</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="53">
+        <v>38</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="55">
+        <v>2221619779</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="53">
+        <v>39</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="55">
+        <v>5529003828</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="53">
+        <v>40</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" s="55">
+        <v>5542383062</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="I75" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="53">
+        <v>41</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="G76" s="55">
+        <v>5539750191</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="53">
+        <v>42</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="55">
+        <v>5588045720</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="53">
+        <v>43</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="55">
+        <v>5521509076</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="53">
+        <v>44</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="55">
+        <v>4495441820</v>
+      </c>
+      <c r="H79" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I79" s="56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
+        <v>45</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="G80" s="55">
+        <v>5512257909</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="I80" s="38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="53">
+        <v>46</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="G81" s="55">
+        <v>4423801625</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="I81" s="38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="53">
+        <v>47</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G82" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="I82" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="53">
+        <v>48</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G83" s="55">
+        <v>5551606884</v>
+      </c>
+      <c r="H83" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I83" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="53">
+        <v>49</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G84" s="55">
+        <v>5591890675</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="53">
+        <v>50</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G85" s="55">
+        <v>5518590491</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="53">
+        <v>51</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="G86" s="55">
+        <v>5589149114</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="I86" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="53">
+        <v>52</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G87" s="55">
+        <v>5591901693</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="53">
+        <v>53</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G88" s="55">
+        <v>5525745497</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="I88" s="38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="53">
+        <v>54</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G89" s="55">
+        <v>5612938124</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" s="56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="53">
+        <v>55</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="55">
+        <v>5554532568</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="53">
+        <v>56</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G91" s="55">
+        <v>5547949854</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="I91" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="53">
+        <v>57</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="55">
+        <v>5545944995</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="53">
+        <v>58</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="55">
+        <v>5612591733</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93" s="56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="53">
+        <v>59</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G94" s="55">
+        <v>5565787754</v>
+      </c>
+      <c r="H94" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="53">
+        <v>60</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G95" s="55">
+        <v>5519133066</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="53">
+        <v>61</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I96" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="53">
+        <v>62</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G97" s="55">
+        <v>7712209609</v>
+      </c>
+      <c r="H97" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="I97" s="38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="53">
+        <v>63</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G98" s="55">
+        <v>5543900123</v>
+      </c>
+      <c r="H98" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="I98" s="38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="53">
+        <v>64</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G99" s="55">
+        <v>5536440473</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="I99" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="53">
+        <v>65</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G100" s="57"/>
+      <c r="H100" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="I100" s="38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="53">
+        <v>66</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G101" s="55">
+        <v>5527909831</v>
+      </c>
+      <c r="H101" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I101" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="53">
+        <v>67</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G102" s="57"/>
+      <c r="H102" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="I102" s="56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="53">
+        <v>68</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86">
-        <v>2</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="88">
-        <v>5537177660</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="89" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86">
-        <v>3</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="88">
-        <v>5543435041</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="90" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86">
-        <v>4</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="88">
-        <v>8112777687</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86">
-        <v>5</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="88">
-        <v>5591980406</v>
-      </c>
-      <c r="H40" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="89" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86">
-        <v>6</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="88">
-        <v>5533356980</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86">
-        <v>7</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="88">
-        <v>5543493294</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86">
-        <v>8</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="G43" s="88">
-        <v>5528624012</v>
-      </c>
-      <c r="H43" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="I43" s="89" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86">
-        <v>9</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="88">
-        <v>5530450789</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="86">
-        <v>10</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86">
-        <v>11</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="88">
-        <v>5527675397</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86">
-        <v>12</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="88">
-        <v>5513841159</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" s="89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="86">
-        <v>13</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" s="88">
-        <v>5543685801</v>
-      </c>
-      <c r="H48" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="86">
-        <v>14</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="88">
-        <v>5545250986</v>
-      </c>
-      <c r="H49" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="I49" s="89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86">
-        <v>15</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="88">
-        <v>5558220427</v>
-      </c>
-      <c r="H50" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" s="89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="86">
-        <v>16</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="88">
-        <v>5544431501</v>
-      </c>
-      <c r="H51" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I51" s="89" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="86">
-        <v>17</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="88">
-        <v>5545250773</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I52" s="89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="86">
-        <v>18</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="G53" s="88">
-        <v>5584556622</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="I53" s="89" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="86">
-        <v>19</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="G54" s="88">
-        <v>5548135785</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="I54" s="89" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="86">
-        <v>20</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="88">
-        <v>5560709080</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I55" s="90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86">
-        <v>21</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" s="88">
-        <v>5580309120</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I56" s="90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86">
-        <v>22</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" s="88">
-        <v>5534809082</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I57" s="89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="86">
-        <v>23</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="88">
-        <v>5591724213</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I58" s="89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86">
-        <v>24</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="88">
-        <v>5543796841</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" s="89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="86">
-        <v>25</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="88">
-        <v>5562727339</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" s="89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="86">
-        <v>26</v>
-      </c>
-      <c r="B61" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G61" s="88">
-        <v>5520244432</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I61" s="89" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="86">
-        <v>27</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="34" t="s">
+      <c r="G103" s="55">
+        <v>5543437500</v>
+      </c>
+      <c r="H103" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="G62" s="88">
-        <v>8341548906</v>
-      </c>
-      <c r="H62" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I62" s="89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86">
-        <v>28</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="G63" s="88">
-        <v>5584723999</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="I63" s="89" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86">
-        <v>29</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="88">
-        <v>5591956474</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I64" s="89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="86">
-        <v>30</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65" s="88">
-        <v>5585002867</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="I65" s="89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86">
-        <v>31</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G66" s="88">
-        <v>5530378217</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="I66" s="89" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="86">
-        <v>32</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="D67" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="G67" s="88">
-        <v>4444383096</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" s="90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86">
-        <v>33</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="88">
-        <v>5562461986</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I68" s="89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86">
-        <v>34</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="88">
-        <v>5514905312</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="86">
-        <v>35</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="88">
-        <v>22222222222</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I70" s="89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="86">
-        <v>36</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="88">
-        <v>4521531433</v>
-      </c>
-      <c r="H71" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" s="89" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="86">
-        <v>37</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E72" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" s="88">
-        <v>5528890752</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I72" s="89" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="86">
-        <v>38</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="88">
-        <v>5561330605</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" s="89" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86">
-        <v>39</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" s="88">
-        <v>5544944051</v>
-      </c>
-      <c r="H74" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" s="89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="86">
-        <v>40</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="G75" s="88">
-        <v>5520598350</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I75" s="89" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="86">
-        <v>41</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="G76" s="88">
-        <v>5567906493</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="I76" s="89" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="86">
-        <v>42</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" s="88">
-        <v>5519523464</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I77" s="89" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="86">
-        <v>43</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" s="88">
-        <v>5551889491</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I78" s="89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="86">
-        <v>44</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" s="88">
-        <v>2225818145</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="I79" s="89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="86">
-        <v>45</v>
-      </c>
-      <c r="B80" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="G80" s="88">
-        <v>5548116555</v>
-      </c>
-      <c r="H80" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I80" s="89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="86">
-        <v>46</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="G81" s="88">
-        <v>5513539088</v>
-      </c>
-      <c r="H81" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="I81" s="89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86">
-        <v>47</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F82" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="G82" s="88">
-        <v>5535550103</v>
-      </c>
-      <c r="H82" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I82" s="89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="86">
-        <v>48</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F83" s="80" t="s">
+      <c r="I103" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="G83" s="88">
-        <v>5523223204</v>
-      </c>
-      <c r="H83" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83" s="89" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="86">
-        <v>49</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D84" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="I84" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="86">
-        <v>50</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="G85" s="88">
-        <v>5533349536</v>
-      </c>
-      <c r="H85" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I85" s="89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="86">
-        <v>51</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G86" s="88">
-        <v>5557592730</v>
-      </c>
-      <c r="H86" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I86" s="89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="86">
-        <v>52</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G87" s="88">
-        <v>5584491961</v>
-      </c>
-      <c r="H87" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="I87" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="86">
-        <v>53</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D88" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="G88" s="88">
-        <v>7161220</v>
-      </c>
-      <c r="H88" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I88" s="89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="86">
-        <v>54</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="G89" s="88">
-        <v>5515910499</v>
-      </c>
-      <c r="H89" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I89" s="89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86">
-        <v>55</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="G90" s="88">
-        <v>5555753213</v>
-      </c>
-      <c r="H90" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="I90" s="89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="91">
-        <v>56</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="D91" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G91" s="88">
-        <v>4432353341</v>
-      </c>
-      <c r="H91" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I91" s="89" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="42"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="7"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="7"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="59"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="43"/>
+      <c r="D105" s="60"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -4888,7 +5261,7 @@
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
-      <c r="D106" s="43"/>
+      <c r="D106" s="60"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -4897,130 +5270,130 @@
     </row>
     <row r="107" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
       <c r="G107" s="13"/>
       <c r="H107" s="14"/>
-      <c r="I107" s="46"/>
+      <c r="I107" s="62"/>
     </row>
     <row r="108" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
       <c r="G108" s="13"/>
       <c r="H108" s="14"/>
-      <c r="I108" s="46"/>
+      <c r="I108" s="62"/>
     </row>
     <row r="109" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="B109" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
+      <c r="B109" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="64"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="50"/>
-      <c r="I109" s="51"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="67"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="51"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="67"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="52"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="51"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="68"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="71"/>
+      <c r="I111" s="67"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
-      <c r="B112" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="D112" s="58"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="63"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="74"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="79"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="D113" s="58"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="62"/>
-      <c r="I113" s="63"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="C113" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" s="74"/>
+      <c r="E113" s="75"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="79"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="C114" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="62"/>
-      <c r="I114" s="63"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" s="74"/>
+      <c r="E114" s="75"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="79"/>
     </row>
     <row r="115" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" s="58"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="66"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" s="74"/>
+      <c r="E115" s="75"/>
+      <c r="F115" s="75"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="81"/>
+      <c r="I115" s="82"/>
     </row>
     <row r="116" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="67"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
       <c r="I116" s="7"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,8 +5442,8 @@
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="69" t="s">
-        <v>241</v>
+      <c r="B121" s="84" t="s">
+        <v>267</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -6764,22 +7137,22 @@
       <c r="I274" s="7"/>
     </row>
     <row r="275" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="70"/>
-      <c r="B275" s="71"/>
-      <c r="C275" s="71"/>
-      <c r="D275" s="71"/>
-      <c r="E275" s="71"/>
-      <c r="F275" s="72"/>
-      <c r="G275" s="71"/>
-      <c r="H275" s="71"/>
-      <c r="I275" s="73"/>
+      <c r="A275" s="85"/>
+      <c r="B275" s="86"/>
+      <c r="C275" s="86"/>
+      <c r="D275" s="86"/>
+      <c r="E275" s="86"/>
+      <c r="F275" s="87"/>
+      <c r="G275" s="86"/>
+      <c r="H275" s="86"/>
+      <c r="I275" s="88"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A91">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:A103">
     <sortCondition ref="A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="80" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,32 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A9963C0-5E41-4741-8F9A-06339452DFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A0488-A7A6-1348-9DE4-1B762E690659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="213">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>27 de Julio a 2 de Agosto</t>
+    <t>3 al 9 de Agosto del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -63,7 +55,7 @@
     <t>Jose Luis Vaca Ramos</t>
   </si>
   <si>
-    <t>Pagina web</t>
+    <t>Referido</t>
   </si>
   <si>
     <t>Belora Abadi Husny</t>
@@ -75,25 +67,19 @@
     <t>Alejandra Campos García</t>
   </si>
   <si>
-    <t>Referido</t>
-  </si>
-  <si>
-    <t>María Patricia Cotreras Rodríguez</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Whatsapp</t>
+    <t>Pagina Web</t>
+  </si>
+  <si>
+    <t>Lamudi</t>
   </si>
   <si>
     <t>Detalle</t>
   </si>
   <si>
-    <t>Viva Anuncios</t>
-  </si>
-  <si>
-    <t>Lamudi</t>
+    <t>Broker</t>
   </si>
   <si>
     <t>Asesor</t>
@@ -120,859 +106,532 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>2020-08-01 22:13:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin nombre </t>
-  </si>
-  <si>
-    <t>9991164190@phonecall.com</t>
-  </si>
-  <si>
-    <t>2020-08-01 19:01:18</t>
+    <t>2020-08-09 09:30:46</t>
+  </si>
+  <si>
+    <t>David Loza</t>
+  </si>
+  <si>
+    <t>chen_86@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-09 09:29:55</t>
+  </si>
+  <si>
+    <t>Maria Guadalupe Queijeiro</t>
+  </si>
+  <si>
+    <t>officemgqf@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-09 01:16:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Ernesto Sánchez Mendoza </t>
+  </si>
+  <si>
+    <t>s14.llorch@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-09 00:30:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnolia Cedillo Hurtado </t>
+  </si>
+  <si>
+    <t>mach_0404@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-08 21:04:13</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Oscar Hsiung</t>
+  </si>
+  <si>
+    <t>hoccoscar@gmail.com</t>
+  </si>
+  <si>
+    <t>Le gusto el 509C, vino con su papa y mama</t>
+  </si>
+  <si>
+    <t>2020-08-08 18:06:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berenice juarez </t>
+  </si>
+  <si>
+    <t>hatsiryv@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-08 16:45:10</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citlaly Yadira Vazquez Díaz </t>
+  </si>
+  <si>
+    <t>shuskuta@gmail.com</t>
+  </si>
+  <si>
+    <t>Esta buscando casa en Chihuahua</t>
+  </si>
+  <si>
+    <t>2020-08-08 16:40:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Nieto </t>
+  </si>
+  <si>
+    <t>nietoalberto007@gmail.com</t>
+  </si>
+  <si>
+    <t>Solicitó info general y cotización del 205B Y 510A.</t>
+  </si>
+  <si>
+    <t>2020-08-08 08:00:10</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Edson laguna </t>
-  </si>
-  <si>
-    <t>ap13.laguna@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por whats</t>
-  </si>
-  <si>
-    <t>2020-08-01 18:55:01</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Eduardo Alvarez</t>
-  </si>
-  <si>
-    <t>eduardo.alvarez@corex.com.mx</t>
-  </si>
-  <si>
-    <t>VISITA quiere algo pequeño, solo tiene 3K y va a pedir crédito. Se lleva cotización de 7 y 8 A</t>
-  </si>
-  <si>
-    <t>2020-08-01 18:54:07</t>
-  </si>
-  <si>
-    <t>Jesus Torresbaca</t>
-  </si>
-  <si>
-    <t>josetorresbaca@gmail.com</t>
-  </si>
-  <si>
-    <t>VISITA Tienen pensado comprar para principio del siguiente año. Se lleva 209C 408A y 307 A, van a revisarlo y estaré en contacto</t>
-  </si>
-  <si>
-    <t>2020-08-01 18:35:12</t>
-  </si>
-  <si>
-    <t>Rolando Forte</t>
-  </si>
-  <si>
-    <t>roloforte@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se llevan cotizaciones del PH09A PH10A y PH06A</t>
-  </si>
-  <si>
-    <t>2020-08-01 17:24:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dafne Azeneth Martínez Rebolledo </t>
-  </si>
-  <si>
-    <t>dafne.azeneth.2003@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-01 15:51:33</t>
-  </si>
-  <si>
-    <t>Axel Dono</t>
-  </si>
-  <si>
-    <t>axeldono@hotmail.com</t>
-  </si>
-  <si>
-    <t>Envie correo de seguimiento de Nápoles</t>
-  </si>
-  <si>
-    <t>2020-08-01 15:18:59</t>
-  </si>
-  <si>
-    <t>Gabriela Ramirez</t>
-  </si>
-  <si>
-    <t>gabymk7612@gmail.com</t>
-  </si>
-  <si>
-    <t>VISITA el desarrollo pasando por fuera. Les interesa 3 recámaras, su presupuesto es para 2, les di opciones de ambos</t>
-  </si>
-  <si>
-    <t>2020-08-01 14:47:18</t>
-  </si>
-  <si>
-    <t>Jose Antonio Piedra</t>
-  </si>
-  <si>
-    <t>antoa_2208@hotmail.com</t>
-  </si>
-  <si>
-    <t>Prospecto anterior, interesado en nápoles, envie correo de seguimiento</t>
-  </si>
-  <si>
-    <t>2020-08-01 02:22:37</t>
-  </si>
-  <si>
-    <t>Fabiola Lucas</t>
-  </si>
-  <si>
-    <t>posgradosema@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación con cotizaciones de 3 recamaras</t>
-  </si>
-  <si>
-    <t>2020-07-31 22:29:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linzayd Navarrete Gutiérrez </t>
-  </si>
-  <si>
-    <t>carmenlinzaydn@gmail.com</t>
+    <t xml:space="preserve">mireya esparza </t>
+  </si>
+  <si>
+    <t>mireyaesparza@hotmail.com</t>
+  </si>
+  <si>
+    <t>Buzón le envío presentacion por mail y por whats</t>
+  </si>
+  <si>
+    <t>2020-08-07 20:37:59</t>
+  </si>
+  <si>
+    <t>Yojaina Arenas</t>
+  </si>
+  <si>
+    <t>yojaina51@hotmail.com</t>
   </si>
   <si>
     <t>Entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
   </si>
   <si>
-    <t>2020-07-31 22:06:22</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovanna Chacón </t>
-  </si>
-  <si>
-    <t>giovanna.chacn@gmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $4,000,000</t>
-  </si>
-  <si>
-    <t>2020-07-31 21:02:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEATRIZ </t>
-  </si>
-  <si>
-    <t>bettydancee44@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 17:29:51</t>
-  </si>
-  <si>
-    <t>Dra. Natalia Saldaña V. y Dr. Oscar</t>
-  </si>
-  <si>
-    <t>dranati@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se llevaron cotizaciones del PH06A PH07A PH05A haran nueva cita por que iban a sanitizar el showroom</t>
-  </si>
-  <si>
-    <t>2020-07-31 15:46:57</t>
-  </si>
-  <si>
-    <t>5588800802@phonecall.com</t>
-  </si>
-  <si>
-    <t>Telefono equivocad, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>2020-07-31 15:40:35</t>
-  </si>
-  <si>
-    <t>gisell martinez</t>
-  </si>
-  <si>
-    <t>giss.mr@hotmail.com</t>
-  </si>
-  <si>
-    <t>CORREO y WHAPP de primer contacto, quiere conocer el rango de precio</t>
-  </si>
-  <si>
-    <t>2020-07-31 14:56:37</t>
-  </si>
-  <si>
-    <t>Moises Romero</t>
-  </si>
-  <si>
-    <t>moiromerov@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 13:48:45</t>
-  </si>
-  <si>
-    <t>Raymundo Huerta</t>
-  </si>
-  <si>
-    <t>rayhg@me.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación y cotizaciones de Departamentos de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>2020-07-31 13:45:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Fuentes </t>
-  </si>
-  <si>
-    <t>fbraulio@gmail.com</t>
-  </si>
-  <si>
-    <t>Teléfono inexistente, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>2020-07-31 13:31:35</t>
-  </si>
-  <si>
-    <t>Salomon Kibrit</t>
-  </si>
-  <si>
-    <t>ceo18rs.skb@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 12:16:00</t>
-  </si>
-  <si>
-    <t>Noira Speeler</t>
-  </si>
-  <si>
-    <t>speelern@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 12:10:50</t>
-  </si>
-  <si>
-    <t>Sara Ruíz</t>
-  </si>
-  <si>
-    <t>unawera@gmail.com</t>
-  </si>
-  <si>
-    <t>Que no quiere información de todos modos le envia información por mail</t>
-  </si>
-  <si>
-    <t>2020-07-31 08:50:50</t>
-  </si>
-  <si>
-    <t>Michelle Lopez Guevara</t>
-  </si>
-  <si>
-    <t>mlscio@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Vino a cita con su hernana Grisell el 31 de Julio se llevaron cotizaciones del 405B y 505B, harán números</t>
-  </si>
-  <si>
-    <t>2020-07-30 22:13:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Acosta Herrera </t>
-  </si>
-  <si>
-    <t>samuelacostah@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Busca en renta</t>
-  </si>
-  <si>
-    <t>2020-07-30 20:48:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben Mora </t>
-  </si>
-  <si>
-    <t>r.mora@mundojoven.com</t>
-  </si>
-  <si>
-    <t>2020-07-30 19:48:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erika Alvarez </t>
-  </si>
-  <si>
-    <t>erixxyoko@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le enenvía presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-07-30 19:45:01</t>
-  </si>
-  <si>
-    <t>Luisa Ramirez</t>
-  </si>
-  <si>
-    <t>luisa.ramirez@gmail.com</t>
-  </si>
-  <si>
-    <t>LLAMADA de primer contacto, enviaré cotizaciones de 2 rec</t>
-  </si>
-  <si>
-    <t>2020-07-30 19:10:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Angel </t>
-  </si>
-  <si>
-    <t>mlluck@gmail.com</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo $5M</t>
-  </si>
-  <si>
-    <t>2020-07-30 16:29:07</t>
-  </si>
-  <si>
-    <t>Alejandro Arreola</t>
-  </si>
-  <si>
-    <t>alejandroarreolamx@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>No esta interesado en comprar en este momento</t>
-  </si>
-  <si>
-    <t>2020-07-30 16:22:50</t>
-  </si>
-  <si>
-    <t>David Carvajal</t>
-  </si>
-  <si>
-    <t>carvajalmoreno_david@hotmail.com</t>
-  </si>
-  <si>
-    <t>Estoy tratando de coordinar una nueva cita</t>
-  </si>
-  <si>
-    <t>2020-07-30 16:13:58</t>
-  </si>
-  <si>
-    <t>Ernesto Maldonado</t>
-  </si>
-  <si>
-    <t>dr_ernestomaldonado@aol.com</t>
-  </si>
-  <si>
-    <t>Estoy tratando de coordinar nueva cita</t>
-  </si>
-  <si>
-    <t>2020-07-30 15:55:20</t>
-  </si>
-  <si>
-    <t>Antonio Cuevas</t>
-  </si>
-  <si>
-    <t>acuevas@gmail.com</t>
-  </si>
-  <si>
-    <t>Estoy tratando de coordinar cita</t>
-  </si>
-  <si>
-    <t>2020-07-30 15:37:44</t>
-  </si>
-  <si>
-    <t>Janete Bisogno</t>
-  </si>
-  <si>
-    <t>jeanne_bj@yahoo.com</t>
-  </si>
-  <si>
-    <t>2020-07-30 15:33:42</t>
-  </si>
-  <si>
-    <t>Alejandro Rivera</t>
-  </si>
-  <si>
-    <t>aralatorre@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>2020-07-30 15:18:47</t>
-  </si>
-  <si>
-    <t>Agustin Montaño</t>
-  </si>
-  <si>
-    <t>agustio80@hotmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto, trae $4,000,000</t>
-  </si>
-  <si>
-    <t>2020-07-30 14:57:19</t>
-  </si>
-  <si>
-    <t>Imelda Navarrete</t>
-  </si>
-  <si>
-    <t>imeldaanavarrete2@gmail.com</t>
-  </si>
-  <si>
-    <t>Estoy tratando de coordinar una cita con ella y su esposo</t>
-  </si>
-  <si>
-    <t>2020-07-30 14:43:24</t>
-  </si>
-  <si>
-    <t>Jennifer Martinez</t>
-  </si>
-  <si>
-    <t>aileemax@hotmail.com</t>
-  </si>
-  <si>
-    <t>Esposa de Manuel Camargo interesados en el 309A</t>
-  </si>
-  <si>
-    <t>2020-07-30 13:55:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Héctor Mateo Olguín </t>
-  </si>
-  <si>
-    <t>krackmath@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-30 13:35:15</t>
-  </si>
-  <si>
-    <t>Alan Corro Garay</t>
-  </si>
-  <si>
-    <t>alan.garay@hotmail.com</t>
-  </si>
-  <si>
-    <t>Estoy coordinando cita en el Showroom</t>
-  </si>
-  <si>
-    <t>2020-07-30 10:24:11</t>
-  </si>
-  <si>
-    <t>Pablo Moreno</t>
-  </si>
-  <si>
-    <t>dirmarca.vw@grupoautofin.com</t>
-  </si>
-  <si>
-    <t>Se le envían opciones para su revisión</t>
-  </si>
-  <si>
-    <t>2020-07-30 06:08:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enrique aguirre </t>
-  </si>
-  <si>
-    <t>oepalacio@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-30 01:36:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulina Malo </t>
-  </si>
-  <si>
-    <t>Pamalo13@hotmail.com</t>
-  </si>
-  <si>
-    <t>No contesta se le envía información por mail y por whats</t>
-  </si>
-  <si>
-    <t>2020-07-29 21:34:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilar Campa </t>
-  </si>
-  <si>
-    <t>pmjcp.1970@gmail.com</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo $2.5 M</t>
-  </si>
-  <si>
-    <t>2020-07-29 17:38:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illian Marisol Morales Araiza </t>
-  </si>
-  <si>
-    <t>illian.araiza@outlook.com</t>
-  </si>
-  <si>
-    <t>Enviar rango de precio de Napoles porque su presup es mas bajo</t>
-  </si>
-  <si>
-    <t>2020-07-29 16:06:13</t>
-  </si>
-  <si>
-    <t>Gerardo De Valle González</t>
-  </si>
-  <si>
-    <t>gerardo.devalle@udem.edu</t>
-  </si>
-  <si>
-    <t>Busca en renta amueblado $15,000  pesos</t>
-  </si>
-  <si>
-    <t>2020-07-29 14:36:37</t>
-  </si>
-  <si>
-    <t>Andrés Vaca</t>
-  </si>
-  <si>
-    <t>andcow91@hotmail.com</t>
-  </si>
-  <si>
-    <t>Envié información por este medio, no ha respondido.</t>
-  </si>
-  <si>
-    <t>2020-07-29 13:31:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE martin mendez </t>
-  </si>
-  <si>
-    <t>isabelacatolica@gmail.com.mx</t>
-  </si>
-  <si>
-    <t>No es su telefono se envia presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-07-29 13:07:23</t>
-  </si>
-  <si>
-    <t>Guillermo Tena</t>
-  </si>
-  <si>
-    <t>easjestructuras@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Recomendado de un cliente, esta interesado en el GH02A y 202A.</t>
-  </si>
-  <si>
-    <t>2020-07-29 10:52:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pow GJ </t>
-  </si>
-  <si>
-    <t>claupao_1@hotmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón a la primera, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>2020-07-29 08:47:42</t>
-  </si>
-  <si>
-    <t>Alfredo Vazquez G</t>
-  </si>
-  <si>
-    <t>fredvazgon@hotmail.com</t>
-  </si>
-  <si>
-    <t>Trae presupuesto de $4,500,000</t>
-  </si>
-  <si>
-    <t>2020-07-28 23:27:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Ma </t>
-  </si>
-  <si>
-    <t>lic.habana@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C</t>
-  </si>
-  <si>
-    <t>2020-07-28 22:40:41</t>
-  </si>
-  <si>
-    <t>Fernando Mendez</t>
-  </si>
-  <si>
-    <t>fjmenros@gmail.com</t>
-  </si>
-  <si>
-    <t>Trae presupuesto de $3,000,000</t>
-  </si>
-  <si>
-    <t>2020-07-28 22:27:41</t>
-  </si>
-  <si>
-    <t>Antonio Zetina</t>
-  </si>
-  <si>
-    <t>comunicacion_continua@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-28 22:12:21</t>
-  </si>
-  <si>
-    <t>Óscar Cortes</t>
-  </si>
-  <si>
-    <t>o_cc89@hotmail.com</t>
-  </si>
-  <si>
-    <t>Trae presupuesto de $4,000,000</t>
-  </si>
-  <si>
-    <t>2020-07-28 21:06:48</t>
-  </si>
-  <si>
-    <t>Yolanda De Garay</t>
-  </si>
-  <si>
-    <t>yolandadega@hotmail.com</t>
-  </si>
-  <si>
-    <t>Cliente de Lamudi, entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C</t>
-  </si>
-  <si>
-    <t>2020-07-28 19:14:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Baquedano </t>
-  </si>
-  <si>
-    <t>baquedano.rodrigo@gmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $3,500,000</t>
-  </si>
-  <si>
-    <t>2020-07-28 16:26:07</t>
-  </si>
-  <si>
-    <t>Paulina Grande</t>
-  </si>
-  <si>
-    <t>paug8@hotmail.com</t>
-  </si>
-  <si>
-    <t>se cuelga la llamada envie correo con info general</t>
-  </si>
-  <si>
-    <t>2020-07-28 15:47:32</t>
-  </si>
-  <si>
-    <t>Ross Medina</t>
-  </si>
-  <si>
-    <t>rosspbl@hotmail.com</t>
-  </si>
-  <si>
-    <t>cotizaciones de 2 y 3 rec. Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>2020-07-28 14:15:51</t>
-  </si>
-  <si>
-    <t>Daniel Ramos</t>
-  </si>
-  <si>
-    <t>daniramos@phonecall.com</t>
-  </si>
-  <si>
-    <t>Enviar por WHAPP mas info del desarrollo. Prefiere no dar su correo. en espera de que vea la info que le envié para pedirme mas informacón</t>
-  </si>
-  <si>
-    <t>2020-07-28 13:50:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mónica Carbó </t>
-  </si>
-  <si>
-    <t>Monicacortes2017@gmail.com</t>
-  </si>
-  <si>
-    <t>Número inválido, se le envío mail de presentación y cotizaciones del 205B y 403C</t>
-  </si>
-  <si>
-    <t>2020-07-28 13:34:16</t>
-  </si>
-  <si>
-    <t>Erika Carmona Frankiz</t>
-  </si>
-  <si>
-    <t>eriksfrankiz28@gmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto, trae $3,500,000</t>
-  </si>
-  <si>
-    <t>2020-07-28 12:58:37</t>
-  </si>
-  <si>
-    <t>Monica Hernandez Lopez</t>
-  </si>
-  <si>
-    <t>msamanthahl@gmail.com</t>
-  </si>
-  <si>
-    <t>respondió por whatsapp, va a revisar info.</t>
-  </si>
-  <si>
-    <t>2020-07-28 08:22:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arlette </t>
-  </si>
-  <si>
-    <t>cara_2386@hotmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de presupuesto trae $2,500,000</t>
-  </si>
-  <si>
-    <t>2020-07-28 01:40:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Alberto Flores </t>
-  </si>
-  <si>
-    <t>cflores@uabc.edu.mx</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envío cotización del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>2020-07-27 23:07:26</t>
-  </si>
-  <si>
-    <t>Dra Dulce Paulina Gómez Joaquin Pulido</t>
-  </si>
-  <si>
-    <t>dpaulinap@icloud.com</t>
-  </si>
-  <si>
-    <t>Cita el 01 de agosto  se llevaron cotizaciones del GH02A y PH202A</t>
-  </si>
-  <si>
-    <t>2020-07-27 22:35:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Giron </t>
-  </si>
-  <si>
-    <t>norig_soad@hotmail.com</t>
-  </si>
-  <si>
-    <t>Solicitó informes de departamento de 3 recamaras, se le envío cotización del 403C.</t>
-  </si>
-  <si>
-    <t>2020-07-27 20:24:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">victor Garcia </t>
-  </si>
-  <si>
-    <t>vico_49@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación y cotizaciones por whats</t>
-  </si>
-  <si>
-    <t>2020-07-27 20:08:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thyakani Nicolini </t>
-  </si>
-  <si>
-    <t>thyakani@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-27 17:29:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Minjares Villanueva </t>
-  </si>
-  <si>
-    <t>alejandro.minjares@heavyporters.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación y cotizaciones de departamentos de 2 recamaras</t>
-  </si>
-  <si>
-    <t>2020-07-27 14:56:43</t>
-  </si>
-  <si>
-    <t>Mauricio Baldasarri</t>
-  </si>
-  <si>
-    <t>baldasarrimau@gmail.com</t>
-  </si>
-  <si>
-    <t>Esta vendiendo su casa, en cuanto la venda podra tomar una decision</t>
-  </si>
-  <si>
-    <t>2020-07-27 12:27:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio Tovar </t>
-  </si>
-  <si>
-    <t>omartovar2009@hotmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón. Se le envío cotización del 205B y 403C</t>
-  </si>
-  <si>
-    <t>2020-07-27 11:00:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben Moya </t>
-  </si>
-  <si>
-    <t>rumocha@hotmail.com</t>
-  </si>
-  <si>
-    <t>Vive en Puebla se le envía presentacion y cotizaciones de 2 y 3 recamaras</t>
-  </si>
-  <si>
-    <t>2020-07-27 08:12:45</t>
+    <t>2020-08-07 17:48:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magda Aguilar </t>
+  </si>
+  <si>
+    <t>magda_22kal@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-08-07 12:46:04</t>
+  </si>
+  <si>
+    <t>Stephanie Hernandez Cruz</t>
+  </si>
+  <si>
+    <t>steph.hernandezcruz@gmail.com</t>
+  </si>
+  <si>
+    <t>Corredora traera Clientes para Polanco y Nápoles</t>
+  </si>
+  <si>
+    <t>2020-08-07 10:53:42</t>
+  </si>
+  <si>
+    <t>Nohëmi Harris</t>
+  </si>
+  <si>
+    <t>nohemi.harris@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-07 10:52:29</t>
+  </si>
+  <si>
+    <t>Joc Pe</t>
+  </si>
+  <si>
+    <t>batz_maru_89@hotmail.com</t>
+  </si>
+  <si>
+    <t>Buzón se le envia presentacion por mail</t>
+  </si>
+  <si>
+    <t>2020-08-07 10:51:45</t>
+  </si>
+  <si>
+    <t>Mau Nieto</t>
+  </si>
+  <si>
+    <t>nietomr1@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca de 3 recamaras y tiene $7.5M. Se le envió el 202A</t>
+  </si>
+  <si>
+    <t>2020-08-07 10:17:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubén Mateo Desiderio Mateo </t>
+  </si>
+  <si>
+    <t>escuadronalfaml@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta le envio presentacion por whats y por mail</t>
+  </si>
+  <si>
+    <t>2020-08-06 19:40:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Cristina Urteaga Carreon </t>
+  </si>
+  <si>
+    <t>realtyhomemexico@gmail.com</t>
+  </si>
+  <si>
+    <t>La clienta se equivocó, ella esta buscando en Mazatlan.</t>
+  </si>
+  <si>
+    <t>2020-08-06 19:20:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria Lopez Carmona </t>
+  </si>
+  <si>
+    <t>victorialopezcarmona@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía Cotizaciones de Departamentos de  2 y 3 recamaras por mail,</t>
+  </si>
+  <si>
+    <t>2020-08-06 17:22:55</t>
+  </si>
+  <si>
+    <t>Paulette Malda</t>
+  </si>
+  <si>
+    <t>pmaldamaza@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-06 17:06:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria Alonso Romei </t>
+  </si>
+  <si>
+    <t>vale_romei@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca Renta sin presupuesto para compra</t>
+  </si>
+  <si>
+    <t>2020-08-06 14:58:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeudiel Escobedo </t>
+  </si>
+  <si>
+    <t>yeudiel7p@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-06 14:56:00</t>
+  </si>
+  <si>
+    <t>Lina Camargo</t>
+  </si>
+  <si>
+    <t>lmcalmca2@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Corredora Maayan Vainer programaremos cita</t>
+  </si>
+  <si>
+    <t>2020-08-06 00:23:47</t>
+  </si>
+  <si>
+    <t>Zelt Rodriguez</t>
+  </si>
+  <si>
+    <t>zelt_rdz@live.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail y por whats con cotizaciones de departamentos de 2 recamaras</t>
+  </si>
+  <si>
+    <t>2020-08-05 23:33:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t>hsjwhebd@hotmail.com</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C.  --  Se regreso el correo.</t>
+  </si>
+  <si>
+    <t>2020-08-05 21:05:49</t>
+  </si>
+  <si>
+    <t>Analá Minorcas</t>
+  </si>
+  <si>
+    <t>zarzamoris@hotmail.com</t>
+  </si>
+  <si>
+    <t>No contesta, se le envía presentacion por mail y por whats</t>
+  </si>
+  <si>
+    <t>2020-08-05 19:00:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idalia morales </t>
+  </si>
+  <si>
+    <t>Idalia007@gmail.com</t>
+  </si>
+  <si>
+    <t>Ofrece sus servicios de equipar albercas</t>
+  </si>
+  <si>
+    <t>2020-08-05 18:09:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irma García </t>
+  </si>
+  <si>
+    <t>carmina_07@hotmail.com</t>
+  </si>
+  <si>
+    <t>No contesta le envio presentación por mail y por whats</t>
+  </si>
+  <si>
+    <t>2020-08-05 16:15:08</t>
+  </si>
+  <si>
+    <t>Carolina Delsin</t>
+  </si>
+  <si>
+    <t>carolinadelsin@outlook.com</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.</t>
+  </si>
+  <si>
+    <t>2020-08-05 15:03:39</t>
+  </si>
+  <si>
+    <t>Enrique Rodríguez</t>
+  </si>
+  <si>
+    <t>irodriguez@infinitummail.com</t>
+  </si>
+  <si>
+    <t>Hable con el me pidio informes y cotizaciones que revisara para hacer una cita</t>
+  </si>
+  <si>
+    <t>2020-08-05 01:19:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senyade Franco </t>
+  </si>
+  <si>
+    <t>slyfranc@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-04 23:35:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martha Villegas </t>
+  </si>
+  <si>
+    <t>Mvilleg@scj.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vino a cita el 08 de agosto, esta vendiendo su Departamento</t>
+  </si>
+  <si>
+    <t>2020-08-04 22:31:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leticia Huerta </t>
+  </si>
+  <si>
+    <t>leticia.huerta@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Tiene presupuesto bajo.</t>
+  </si>
+  <si>
+    <t>2020-08-04 22:12:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erick Sanchez Olivares </t>
+  </si>
+  <si>
+    <t>Erick.sanchez.o@icloud.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación con cotizaciones de 2 recamaras</t>
+  </si>
+  <si>
+    <t>2020-08-04 16:50:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yareni </t>
+  </si>
+  <si>
+    <t>yareniavilalopez@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca departamento en Renra</t>
+  </si>
+  <si>
+    <t>2020-08-04 15:01:57</t>
+  </si>
+  <si>
+    <t>Ricardo Morales Tellez</t>
+  </si>
+  <si>
+    <t>richie.mt@gmail.com</t>
+  </si>
+  <si>
+    <t>Cotizaciones de Napoles 307 A y 301B enviadas para su revision,</t>
+  </si>
+  <si>
+    <t>2020-08-04 11:21:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">francisco sanchez rondero </t>
+  </si>
+  <si>
+    <t>fsanchezr43@gmail.com</t>
+  </si>
+  <si>
+    <t>Buzón se le envía presentacion por mail con ejemplos de cotizacion</t>
+  </si>
+  <si>
+    <t>2020-08-04 10:04:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Contreras </t>
+  </si>
+  <si>
+    <t>Global.jcb@gmail.com</t>
+  </si>
+  <si>
+    <t>Asistio a cita el 06 de agosto se llevó Cotizacion del PH06A</t>
+  </si>
+  <si>
+    <t>2020-08-04 09:24:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofía Rodríguez </t>
+  </si>
+  <si>
+    <t>sofiarguez.1@gmail.com</t>
+  </si>
+  <si>
+    <t>No dejo teléfono, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
+  </si>
+  <si>
+    <t>2020-08-03 22:00:49</t>
+  </si>
+  <si>
+    <t>Christina Bonelli</t>
+  </si>
+  <si>
+    <t>cristi_bonelli@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación  por mail con cotizaciones de 2 recamaras</t>
+  </si>
+  <si>
+    <t>2020-08-03 21:58:33</t>
   </si>
   <si>
     <t xml:space="preserve">Sin Nombre </t>
   </si>
   <si>
-    <t>+525516106119@phonecall.com</t>
-  </si>
-  <si>
-    <t>Presupuesto bajo.</t>
-  </si>
-  <si>
-    <t>2020-07-27 07:51:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shantal Sotomayor </t>
-  </si>
-  <si>
-    <t>shantalsotomayor518@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación con cotizaciones de 2 y 3 recamaras</t>
+    <t>+529841798868@phonecall.com</t>
+  </si>
+  <si>
+    <t>No deja datos, solo me comenta que sale de su presupuesto</t>
+  </si>
+  <si>
+    <t>2020-08-03 17:17:55</t>
+  </si>
+  <si>
+    <t>Luis Armando</t>
+  </si>
+  <si>
+    <t>armando.grupomandarin@gmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp primer contacto, enviar info general para revisar</t>
+  </si>
+  <si>
+    <t>2020-08-03 16:41:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Flores </t>
+  </si>
+  <si>
+    <t>miguelgoody81@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-03 16:36:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selene Sampson </t>
+  </si>
+  <si>
+    <t>selenesampson24@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta se le envía presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-08-03 12:54:47</t>
+  </si>
+  <si>
+    <t>LETICIA ANDAMIOS BRASIL</t>
+  </si>
+  <si>
+    <t>andamiosbrasil.lety@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail a la Señorita Lety , le estoy solicitando sus apellidos</t>
+  </si>
+  <si>
+    <t>2020-08-03 09:59:17</t>
+  </si>
+  <si>
+    <t>Naye Zazueta</t>
+  </si>
+  <si>
+    <t>nazazu@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-03 09:58:40</t>
+  </si>
+  <si>
+    <t>Paula Mejia Briz</t>
+  </si>
+  <si>
+    <t>paula_briz@hotmail.com</t>
+  </si>
+  <si>
+    <t>Buzón se le envía presentación por mail</t>
   </si>
   <si>
     <t>Código de clasificación</t>
@@ -996,23 +655,17 @@
     <t xml:space="preserve">Report Powered by KIPER </t>
   </si>
   <si>
-    <t>Corredora su cliente es el Dr. Luis Suárez Pérez enviaré las cotizaciones para que ella pueda dárselas a su clietne. Vive en Miami y estara en CDMX en dos semanas</t>
-  </si>
-  <si>
-    <t>Broker externo, el 25 de jun le envíe info para unos clientes</t>
-  </si>
-  <si>
-    <t>Pregunto precio de mantenimiento y de lugar de estacionamiento</t>
-  </si>
-  <si>
-    <t>No viable</t>
+    <t>Buzon se le envia presentacion por mail y por whats</t>
+  </si>
+  <si>
+    <t>Solicitó presentación y ejemplos de cotizaciones de 2 y 3 recamaras se le envían por whats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1022,46 +675,67 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Avenir Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="13"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Avenir Heavy"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1084,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1213,6 +887,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -1240,6 +960,15 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right/>
@@ -1262,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1297,75 +1026,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,37 +1144,35 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,7 +1194,7 @@
       <rgbColor rgb="FFAAAAAA"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="FF5D757F"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -1517,7 +1269,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209232</xdr:colOff>
+      <xdr:colOff>552132</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1559,16 +1311,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>11174</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>1706</xdr:rowOff>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>203257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1591,8 +1343,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1358900" y="44012229"/>
-          <a:ext cx="1308101" cy="790633"/>
+          <a:off x="1054100" y="23761700"/>
+          <a:ext cx="1308100" cy="790633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2687,23 +2439,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="159.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="103" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
@@ -2929,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="21">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="20" t="s">
@@ -2938,120 +2690,120 @@
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="67"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="29"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="21">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="21">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="68"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="68"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G25" s="24"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="68"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="21">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="24"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="68"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G27" s="24"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="68"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -3059,2290 +2811,1798 @@
         <v>14</v>
       </c>
       <c r="C28" s="21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="21">
+        <v>13</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="79"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="68"/>
-    </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="21">
-        <v>2</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="F29" s="21">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="68"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="35" t="s">
-        <v>18</v>
+      <c r="B30" s="25"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="F30" s="21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G30" s="24"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="68"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="35" t="s">
         <v>19</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="35" t="s">
-        <v>20</v>
       </c>
       <c r="F31" s="21">
         <v>2</v>
       </c>
       <c r="G31" s="24"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="68"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="79"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="21">
-        <v>4</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="68"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="68"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="79"/>
     </row>
     <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="68"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="E35" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="F35" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="G35" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="H35" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="I35" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+    </row>
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
         <v>1</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="G36" s="21">
-        <v>13053002449</v>
+        <v>5567673139</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" s="70" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
+        <v>55</v>
+      </c>
+      <c r="I36" s="81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
         <v>2</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="G37" s="21">
-        <v>5534345502</v>
+        <v>5621128348</v>
       </c>
       <c r="H37" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <v>3</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>3</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>39</v>
-      </c>
       <c r="E38" s="35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="G38" s="21">
-        <v>5554127448</v>
+        <v>5534889069</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I38" s="70" t="s">
-        <v>46</v>
+        <v>141</v>
+      </c>
+      <c r="I38" s="81" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
+      <c r="A39" s="43">
         <v>4</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="G39" s="21">
-        <v>5580106981</v>
+        <v>5571533649</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="70" t="s">
-        <v>61</v>
+        <v>113</v>
+      </c>
+      <c r="I39" s="81" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
+      <c r="A40" s="43">
         <v>5</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="G40" s="21">
-        <v>5554102971</v>
+        <v>5512244071</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I40" s="70" t="s">
-        <v>181</v>
+        <v>144</v>
+      </c>
+      <c r="I40" s="81" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
+      <c r="A41" s="43">
         <v>6</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="G41" s="21">
-        <v>5529695522</v>
+        <v>5611853696</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="I41" s="70" t="s">
-        <v>251</v>
+        <v>152</v>
+      </c>
+      <c r="I41" s="81" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
+      <c r="A42" s="43">
         <v>7</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="G42" s="21">
-        <v>5549373170</v>
+        <v>5531271377</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="I42" s="70" t="s">
-        <v>298</v>
+        <v>168</v>
+      </c>
+      <c r="I42" s="81" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
+      <c r="A43" s="43">
         <v>8</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>280</v>
+        <v>97</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="G43" s="21">
-        <v>5550687911</v>
+        <v>5554317285</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="I43" s="70" t="s">
-        <v>283</v>
+        <v>99</v>
+      </c>
+      <c r="I43" s="81" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
+      <c r="A44" s="43">
         <v>9</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="G44" s="21">
-        <v>55461162</v>
+        <v>5564681532</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="I44" s="70" t="s">
-        <v>212</v>
+        <v>106</v>
+      </c>
+      <c r="I44" s="81" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
+      <c r="A45" s="43">
         <v>10</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>291</v>
+        <v>62</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>292</v>
+        <v>63</v>
       </c>
       <c r="G45" s="21">
-        <v>5549925021</v>
+        <v>5575005245</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="I45" s="70" t="s">
-        <v>294</v>
+        <v>64</v>
+      </c>
+      <c r="I45" s="81" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
+      <c r="A46" s="43">
         <v>11</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="G46" s="21">
-        <v>9381199455</v>
+        <v>5573230180</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="I46" s="70" t="s">
-        <v>306</v>
+        <v>95</v>
+      </c>
+      <c r="I46" s="81" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
+      <c r="A47" s="43">
         <v>12</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="21">
+        <v>5548292506</v>
+      </c>
+      <c r="H47" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="21">
-        <v>9611993839</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="70" t="s">
-        <v>69</v>
+      <c r="I47" s="82" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40">
+      <c r="A48" s="43">
         <v>13</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="G48" s="21">
-        <v>6621568229</v>
+        <v>5518132320</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>279</v>
+        <v>83</v>
+      </c>
+      <c r="I48" s="81" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
+      <c r="A49" s="43">
         <v>14</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="G49" s="21">
-        <v>5530409360</v>
+        <v>5581885947</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="I49" s="70" t="s">
-        <v>287</v>
+        <v>76</v>
+      </c>
+      <c r="I49" s="81" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
+      <c r="A50" s="43">
         <v>15</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E50" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="G50" s="21">
-        <v>5534952516</v>
+        <v>9981519780</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="I50" s="70" t="s">
-        <v>314</v>
+        <v>199</v>
+      </c>
+      <c r="I50" s="81" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
+      <c r="A51" s="43">
         <v>16</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="G51" s="21">
-        <v>5543882150</v>
+        <v>5514422719</v>
       </c>
       <c r="H51" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" s="70" t="s">
-        <v>117</v>
+        <v>176</v>
+      </c>
+      <c r="I51" s="81" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
+      <c r="A52" s="43">
         <v>17</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="G52" s="21">
-        <v>5580776342</v>
+        <v>2223581736</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" s="70" t="s">
-        <v>50</v>
+        <v>160</v>
+      </c>
+      <c r="I52" s="81" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
+      <c r="A53" s="43">
         <v>18</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="G53" s="21">
-        <v>56820580</v>
+        <v>5543631975</v>
       </c>
       <c r="H53" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="I53" s="70" t="s">
-        <v>85</v>
+        <v>137</v>
+      </c>
+      <c r="I53" s="81" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
+      <c r="A54" s="43">
         <v>19</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G54" s="21">
-        <v>5551582602</v>
+        <v>5591994673</v>
       </c>
       <c r="H54" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="I54" s="70" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="I54" s="81" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
+      <c r="A55" s="43">
+        <v>20</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="21">
+        <v>5527505241</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" s="81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>21</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="21">
+        <v>5548443484</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
         <v>22</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="35" t="s">
+      <c r="B57" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" s="23">
+        <v>5555555555</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="I57" s="81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>23</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="21">
+        <v>5528851380</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>24</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="21">
+        <v>5555036120</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59" s="81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="43">
+        <v>25</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="21">
+        <v>5532751200</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="43">
+        <v>26</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="21">
+        <v>5536690848</v>
+      </c>
+      <c r="H61" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="35" t="s">
+      <c r="I61" s="81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="43">
+        <v>27</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G55" s="21">
-        <v>5583726364</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>20</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="21">
-        <v>6278895497</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="I56" s="70" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>21</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="21">
-        <v>7351794006</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
-        <v>23</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="G58" s="21">
-        <v>5554321272</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="I58" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>24</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="21">
-        <v>5585509281</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" s="70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
-        <v>25</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="21">
-        <v>7441356117</v>
-      </c>
-      <c r="H60" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I60" s="70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
-        <v>26</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="21">
-        <v>5538882161</v>
-      </c>
-      <c r="H61" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I61" s="70" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>27</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>13</v>
-      </c>
       <c r="F62" s="35" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="G62" s="21">
-        <v>5585562204</v>
+        <v>5530250226</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="70" t="s">
-        <v>324</v>
+        <v>36</v>
+      </c>
+      <c r="I62" s="82" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
+      <c r="A63" s="43">
         <v>28</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="G63" s="21">
-        <v>5522718121</v>
+        <v>3841046364</v>
       </c>
       <c r="H63" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="I63" s="70" t="s">
-        <v>166</v>
+        <v>68</v>
+      </c>
+      <c r="I63" s="81" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
+      <c r="A64" s="43">
         <v>29</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G64" s="21">
-        <v>5521284953</v>
+        <v>5554526440</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I64" s="70" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="I64" s="81" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
+      <c r="A65" s="43">
         <v>30</v>
       </c>
       <c r="B65" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G65" s="21">
-        <v>5536555495</v>
+        <v>7227893413</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="I65" s="70" t="s">
-        <v>177</v>
+        <v>191</v>
+      </c>
+      <c r="I65" s="81" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
+      <c r="A66" s="43">
         <v>31</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>142</v>
+        <v>15</v>
+      </c>
+      <c r="F66" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="G66" s="21">
-        <v>5522707368</v>
+        <v>2211125785</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I66" s="70" t="s">
-        <v>144</v>
+        <v>195</v>
+      </c>
+      <c r="I66" s="81" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
+      <c r="A67" s="43">
         <v>32</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="G67" s="21">
-        <v>5554195119</v>
+        <v>5558071379</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="I67" s="70" t="s">
-        <v>148</v>
+        <v>30</v>
+      </c>
+      <c r="I67" s="82" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
+      <c r="A68" s="43">
         <v>33</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="G68" s="21">
-        <v>5515113922</v>
+        <v>5539171095</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="I68" s="70" t="s">
-        <v>152</v>
+        <v>79</v>
+      </c>
+      <c r="I68" s="81" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
+      <c r="A69" s="43">
         <v>34</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="G69" s="21">
-        <v>5541732493</v>
+        <v>52015543546362</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="I69" s="70" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="I69" s="81" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
+      <c r="A70" s="43">
         <v>35</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="G70" s="21">
-        <v>5525871345</v>
+        <v>5544850480</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="I70" s="70" t="s">
-        <v>144</v>
+        <v>202</v>
+      </c>
+      <c r="I70" s="81" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
+      <c r="A71" s="43">
         <v>36</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="G71" s="21">
-        <v>50766258883</v>
+        <v>52015591102593</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="I71" s="70" t="s">
-        <v>267</v>
+        <v>33</v>
+      </c>
+      <c r="I71" s="82" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
+      <c r="A72" s="43">
         <v>37</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E72" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="21">
+        <v>2293318956</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I72" s="81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="43">
+        <v>38</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="G72" s="21">
-        <v>5537704708</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="I72" s="70" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
+      <c r="F73" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="G73" s="21">
+        <v>2211669148</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="I73" s="81" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="43">
         <v>39</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="G73" s="21">
-        <v>5566774352</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="I73" s="70" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>40</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E74" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="G74" s="21">
-        <v>5579036607</v>
+        <v>7221470573</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="I74" s="70" t="s">
-        <v>224</v>
+        <v>125</v>
+      </c>
+      <c r="I74" s="81" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>41</v>
+      <c r="A75" s="43">
+        <v>40</v>
       </c>
       <c r="B75" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E75" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="G75" s="21">
-        <v>6641207407</v>
+        <v>5532271171</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="I75" s="70" t="s">
-        <v>275</v>
+        <v>148</v>
+      </c>
+      <c r="I75" s="81" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>42</v>
+      <c r="A76" s="43">
+        <v>41</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E76" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="G76" s="21">
-        <v>5522726607</v>
+        <v>5532760036</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="I76" s="70" t="s">
-        <v>275</v>
+        <v>102</v>
+      </c>
+      <c r="I76" s="81" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>43</v>
+      <c r="A77" s="43">
+        <v>42</v>
       </c>
       <c r="B77" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="G77" s="21">
-        <v>5532591176</v>
+        <v>8118017506</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="I77" s="70" t="s">
-        <v>302</v>
+        <v>91</v>
+      </c>
+      <c r="I77" s="81" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>44</v>
+      <c r="A78" s="43">
+        <v>43</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E78" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G78" s="21">
+        <v>2221093140</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" s="81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="43">
+        <v>44</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="21">
+        <v>6564329955</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="43">
+        <v>45</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78" s="21">
-        <v>5612570477</v>
-      </c>
-      <c r="H78" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="I78" s="70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>45</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" s="21">
-        <v>5519694561</v>
-      </c>
-      <c r="H79" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79" s="70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
+      <c r="F80" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="21">
+        <v>9841798868</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I80" s="81" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="43">
         <v>46</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="G80" s="21">
-        <v>5534333434</v>
-      </c>
-      <c r="H80" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="I80" s="70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>47</v>
       </c>
       <c r="B81" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>236</v>
+        <v>115</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c r="G81" s="21">
-        <v>5554551891</v>
+        <v>5519443074</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="I81" s="70" t="s">
-        <v>239</v>
+        <v>117</v>
+      </c>
+      <c r="I81" s="81" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>48</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G82" s="21">
-        <v>5537157580</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="I82" s="70" t="s">
-        <v>37</v>
-      </c>
+      <c r="A82" s="45"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
+      <c r="A83" s="45"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="1:9" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="56"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="14"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="14"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="65"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="69"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
+      <c r="B100" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="65"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="69"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="65"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="69"/>
+    </row>
+    <row r="102" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+      <c r="B102" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B83" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D83" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" s="21">
-        <v>5554155393</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="I83" s="70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>50</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" s="21">
-        <v>5531204915</v>
-      </c>
-      <c r="H84" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I84" s="70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>51</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="G85" s="21">
-        <v>15559954433</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="I85" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>52</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="G86" s="21">
-        <v>5527375748</v>
-      </c>
-      <c r="H86" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="I86" s="70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>53</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G87" s="21">
-        <v>5530365008</v>
-      </c>
-      <c r="H87" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="I87" s="70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>54</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G88" s="21">
-        <v>5582311224</v>
-      </c>
-      <c r="H88" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I88" s="70" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>38</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" s="21">
-        <v>5522001812</v>
-      </c>
-      <c r="H89" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="I89" s="70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>55</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" s="21">
-        <v>9991164190</v>
-      </c>
-      <c r="H90" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I90" s="71" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>56</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="G91" s="21">
-        <v>6192083533</v>
-      </c>
-      <c r="H91" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="I91" s="70" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>57</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" s="21">
-        <v>5588800802</v>
-      </c>
-      <c r="H92" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="I92" s="70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>58</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E93" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="G93" s="21">
-        <v>5526625104</v>
-      </c>
-      <c r="H93" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="I93" s="70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>59</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E94" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="G94" s="21">
-        <v>5521378335</v>
-      </c>
-      <c r="H94" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="I94" s="70" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>60</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G95" s="21">
-        <v>5540888908</v>
-      </c>
-      <c r="H95" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="I95" s="70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>61</v>
-      </c>
-      <c r="B96" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="G96" s="21">
-        <v>5537272120</v>
-      </c>
-      <c r="H96" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="I96" s="70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>62</v>
-      </c>
-      <c r="B97" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="D97" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F97" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="G97" s="21">
-        <v>5516106119</v>
-      </c>
-      <c r="H97" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="I97" s="70" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>63</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D98" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E98" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G98" s="21">
-        <v>5522713605</v>
-      </c>
-      <c r="H98" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="I98" s="70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>64</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D99" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="G99" s="21">
-        <v>9999905435</v>
-      </c>
-      <c r="H99" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="I99" s="70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>65</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D100" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="G100" s="21">
-        <v>5534314546</v>
-      </c>
-      <c r="H100" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="I100" s="70" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>66</v>
-      </c>
-      <c r="B101" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D101" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" s="21">
-        <v>5521078281</v>
-      </c>
-      <c r="H101" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I101" s="70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>67</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D102" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" s="21">
-        <v>5527146430</v>
-      </c>
-      <c r="H102" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="I102" s="70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>68</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D103" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E103" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="G103" s="21">
-        <v>5554185117</v>
-      </c>
-      <c r="H103" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I103" s="70" t="s">
-        <v>228</v>
-      </c>
+      <c r="C102" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="65"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="70"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="72"/>
+    </row>
+    <row r="103" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="73"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>69</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D104" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="G104" s="21">
-        <v>5534393266</v>
-      </c>
-      <c r="H104" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="I104" s="70" t="s">
-        <v>235</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>70</v>
-      </c>
-      <c r="B105" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" s="21">
-        <v>5587953360</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="I105" s="70" t="s">
-        <v>113</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>71</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D106" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="G106" s="21">
-        <v>5554380501</v>
-      </c>
-      <c r="H106" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I106" s="70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>72</v>
-      </c>
-      <c r="B107" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D107" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="G107" s="21">
-        <v>8446098519</v>
-      </c>
-      <c r="H107" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="I107" s="70" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>73</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D108" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="G108" s="21">
-        <v>5514749819</v>
-      </c>
-      <c r="H108" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="I108" s="70" t="s">
-        <v>162</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>74</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D109" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="G109" s="21">
-        <v>5522143978</v>
-      </c>
-      <c r="H109" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="I109" s="70" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
@@ -5542,110 +4802,92 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="C129" s="45"/>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="14"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="47"/>
-      <c r="I130" s="14"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="48"/>
-      <c r="C131" s="49"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="51"/>
-      <c r="I131" s="14"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="19"/>
-      <c r="B132" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C132" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="D132" s="54"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="58"/>
-      <c r="I132" s="59"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="19"/>
-      <c r="B133" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C133" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="D133" s="54"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="58"/>
-      <c r="I133" s="59"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="19"/>
-      <c r="B134" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C134" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="D134" s="54"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="58"/>
-      <c r="I134" s="59"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="19"/>
-      <c r="B135" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C135" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="D135" s="54"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="55"/>
-      <c r="G135" s="60"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="62"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5694,9 +4936,7 @@
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="63" t="s">
-        <v>321</v>
-      </c>
+      <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -5716,16 +4956,16 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="6"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
@@ -6256,18 +5496,788 @@
       <c r="I191" s="5"/>
     </row>
     <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="64"/>
-      <c r="B192" s="65"/>
-      <c r="C192" s="65"/>
-      <c r="D192" s="65"/>
-      <c r="E192" s="65"/>
-      <c r="F192" s="66"/>
-      <c r="G192" s="65"/>
-      <c r="H192" s="65"/>
-      <c r="I192" s="65"/>
+      <c r="A192" s="4"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="8"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+    </row>
+    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+    </row>
+    <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="8"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="8"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+    </row>
+    <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="8"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="8"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+    </row>
+    <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+    </row>
+    <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+    </row>
+    <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+    </row>
+    <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+    </row>
+    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+    </row>
+    <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="8"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+    </row>
+    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+    </row>
+    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+    </row>
+    <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+    </row>
+    <row r="246" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+    </row>
+    <row r="247" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="8"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+    </row>
+    <row r="248" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="8"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+    </row>
+    <row r="249" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="8"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+    </row>
+    <row r="250" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="8"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+    </row>
+    <row r="251" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+    </row>
+    <row r="252" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="8"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
+    </row>
+    <row r="253" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="8"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+      <c r="I253" s="5"/>
+    </row>
+    <row r="254" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+    </row>
+    <row r="255" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+    </row>
+    <row r="256" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+    </row>
+    <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+      <c r="I257" s="5"/>
+    </row>
+    <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+    </row>
+    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+    </row>
+    <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="8"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+    </row>
+    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="8"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+    </row>
+    <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="75"/>
+      <c r="B262" s="76"/>
+      <c r="C262" s="76"/>
+      <c r="D262" s="76"/>
+      <c r="E262" s="76"/>
+      <c r="F262" s="77"/>
+      <c r="G262" s="76"/>
+      <c r="H262" s="76"/>
+      <c r="I262" s="76"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:I109">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:I81">
     <sortCondition ref="D36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/reports/Reporte_Avenue_Napoles.xlsx
+++ b/public/reports/Reporte_Avenue_Napoles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B711A8D7-8E5D-9A4B-94AB-BD169B7D2E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67252FD-14B4-EC43-A469-B4FEBA4B8C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="269">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>10 al 16 de Agosto</t>
+    <t>17 al 23 de Agosto</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -55,30 +55,39 @@
     <t>Jose Luis Vaca Ramos</t>
   </si>
   <si>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>Alejandra Campos García</t>
+  </si>
+  <si>
+    <t>Vallas</t>
+  </si>
+  <si>
+    <t>María Patricia Cotreras Rodríguez</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Belora Abadi Husny</t>
+  </si>
+  <si>
+    <t>Pagina Web</t>
+  </si>
+  <si>
     <t>Lamudi</t>
   </si>
   <si>
-    <t>Alejandra Campos García</t>
-  </si>
-  <si>
-    <t>Vallas</t>
-  </si>
-  <si>
-    <t>Belora Abadi Husny</t>
-  </si>
-  <si>
-    <t>Referido</t>
-  </si>
-  <si>
-    <t>María Patricia Cotreras Rodríguez</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
     <t>Detalle</t>
   </si>
   <si>
+    <t>Viva Anuncios</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
     <t>Asesor</t>
   </si>
   <si>
@@ -103,614 +112,700 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>2020-08-16 14:19:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin Nombre </t>
-  </si>
-  <si>
-    <t>+525554068011@phonecall.com</t>
-  </si>
-  <si>
-    <t>napoles</t>
-  </si>
-  <si>
-    <t>2020-08-16 13:45:10</t>
+    <t>2020-08-22 13:28:35</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Avenir Book"/>
-      </rPr>
-      <t>Judith Munguia Andres Isunza</t>
-    </r>
-  </si>
-  <si>
-    <t>jumunguia@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Se llevan cotizaciones de 203A y GH02B</t>
-  </si>
-  <si>
-    <t>napoles  --  napoles</t>
-  </si>
-  <si>
-    <t>2020-08-16 00:13:56</t>
+    <t>Deyanira Martinez</t>
+  </si>
+  <si>
+    <t>vive@bminmobiliaria.com</t>
+  </si>
+  <si>
+    <t>Esta vendiendo su casa y quiere ver si compra algo</t>
+  </si>
+  <si>
+    <t>2020-08-22 13:15:26</t>
+  </si>
+  <si>
+    <t>María Fernanda Millan</t>
+  </si>
+  <si>
+    <t>mafer_millan@hotmail.com</t>
+  </si>
+  <si>
+    <t>Visito la caseta junto con su esposo que viene de NY y se llevo cotización del GH03C y PH 06A Seguimiento</t>
+  </si>
+  <si>
+    <t>2020-08-20 17:53:30</t>
+  </si>
+  <si>
+    <t>María Luisa Hernández y José Luis Plaza García</t>
+  </si>
+  <si>
+    <t>clientesincorreo@hotmail.com</t>
+  </si>
+  <si>
+    <t>No dejaron mail ni telefono programarán nueva cita se llevó cotizaciones del GH02A y 205B</t>
+  </si>
+  <si>
+    <t>2020-08-20 17:01:29</t>
+  </si>
+  <si>
+    <t>Mariana Trejo</t>
+  </si>
+  <si>
+    <t>coordinacion@agravabr.com</t>
+  </si>
+  <si>
+    <t>Es corredora traerá Clientes para Polanco y Nápoles</t>
+  </si>
+  <si>
+    <t>2020-08-20 14:34:04</t>
+  </si>
+  <si>
+    <t>Consuelo Alvarez y Gustavo Vomend</t>
+  </si>
+  <si>
+    <t>gustavo.vomend@gmail.com</t>
+  </si>
+  <si>
+    <t>Son corredores se les envía presentación de Polanco y Nápoles, traerán clientes</t>
+  </si>
+  <si>
+    <t>2020-08-20 13:40:48</t>
+  </si>
+  <si>
+    <t>Jesus Valadez</t>
+  </si>
+  <si>
+    <t>5576632082@correo.com</t>
+  </si>
+  <si>
+    <t>Visita el desarrollo y le interesa tanto un GH o el PH 6A</t>
+  </si>
+  <si>
+    <t>2020-08-19 23:43:29</t>
+  </si>
+  <si>
+    <t>Jorge San</t>
+  </si>
+  <si>
+    <t>jorgesm2301@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca de 3 recamaras y tiene presupuesto de $6M se le envió el 205B.</t>
+  </si>
+  <si>
+    <t>2020-08-19 16:23:10</t>
+  </si>
+  <si>
+    <t>Karla Sabrina Perez Sanchez</t>
+  </si>
+  <si>
+    <t>karsab82@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cotizaciones de 2 recámaras 209C y 205B</t>
+  </si>
+  <si>
+    <t>2020-08-19 16:02:03</t>
+  </si>
+  <si>
+    <t>Humberto Carrillo Calvete</t>
+  </si>
+  <si>
+    <t>(55) 5568-5162</t>
+  </si>
+  <si>
+    <t>carr@unam.mx</t>
+  </si>
+  <si>
+    <t>Está buscando para su hija, más adelante agendamos una nueva reunion.  --  Envié cotizaciones 209A y G02A</t>
+  </si>
+  <si>
+    <t>2020-08-19 11:40:10</t>
+  </si>
+  <si>
+    <t>Mario Vega</t>
+  </si>
+  <si>
+    <t>mario818_805@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp de seguimiento</t>
+  </si>
+  <si>
+    <t>2020-08-17 12:10:02</t>
+  </si>
+  <si>
+    <t>Juan Manuel Garcia Simancas</t>
+  </si>
+  <si>
+    <t>jmanuel.simancas@gmail.com</t>
+  </si>
+  <si>
+    <t>Su presupuesto es menor, tiene 4 millones, pero va a revisar las propuestas que le envié</t>
+  </si>
+  <si>
+    <t>2020-08-23 06:05:47</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Adriana Avila </t>
-  </si>
-  <si>
-    <t>Noadavilaa@gmail.comm</t>
+    <t xml:space="preserve">ANTONIO </t>
+  </si>
+  <si>
+    <t>afloreshdz@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>CORREO primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-08-23 01:02:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emily Valdes solis </t>
+  </si>
+  <si>
+    <t>emilyvs98@gmail.com</t>
+  </si>
+  <si>
+    <t>Le envío presentación por mail y por whats</t>
+  </si>
+  <si>
+    <t>2020-08-22 20:38:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mel C. Ponce </t>
+  </si>
+  <si>
+    <t>melcponce@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-22 19:18:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar GaLvan </t>
+  </si>
+  <si>
+    <t>Os_edge_gaso@live.com.mx</t>
+  </si>
+  <si>
+    <t>Correo primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-08-22 19:03:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Camila Aguilar Aguilar </t>
+  </si>
+  <si>
+    <t>anacamilaaguilaraguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>Correoprimer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-08-22 16:39:56</t>
+  </si>
+  <si>
+    <t>Veronica Cruz Jimenez</t>
+  </si>
+  <si>
+    <t>jivecruz12@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-22 15:16:33</t>
+  </si>
+  <si>
+    <t>Marlon Sánchez Verliz</t>
+  </si>
+  <si>
+    <t>marlon.sanchez.mx@ajegroup.com</t>
+  </si>
+  <si>
+    <t>No contesta, le envío presentación por mail y por whats</t>
+  </si>
+  <si>
+    <t>2020-08-21 22:33:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alejandra </t>
+  </si>
+  <si>
+    <t>correo@gmail.com</t>
+  </si>
+  <si>
+    <t>Teléfono equivocado, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
+  </si>
+  <si>
+    <t>2020-08-21 20:21:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo </t>
+  </si>
+  <si>
+    <t>gustavo_casas@outlook.com</t>
+  </si>
+  <si>
+    <t>Se envía presentación por mail</t>
+  </si>
+  <si>
+    <t>2020-08-21 17:10:16</t>
+  </si>
+  <si>
+    <t>Elizabeth Rodriguez</t>
+  </si>
+  <si>
+    <t>elizabeth_gaiden@hotmail.com</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
+  </si>
+  <si>
+    <t>2020-08-21 15:38:06</t>
+  </si>
+  <si>
+    <t>Arturo Hernandez</t>
+  </si>
+  <si>
+    <t>nodejomail@yahoo.com</t>
+  </si>
+  <si>
+    <t>Se le envía información por whats</t>
+  </si>
+  <si>
+    <t>2020-08-21 13:18:10</t>
+  </si>
+  <si>
+    <t>Roushell Smith</t>
+  </si>
+  <si>
+    <t>rousshell_177@hotmail.com</t>
   </si>
   <si>
     <t>Se envió correo desde Kiper.</t>
   </si>
   <si>
-    <t>napoles  --  avenue_napoles_1</t>
-  </si>
-  <si>
-    <t>2020-08-15 19:31:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majo Ibq </t>
-  </si>
-  <si>
-    <t>majo.acev@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-15 16:36:09</t>
-  </si>
-  <si>
-    <t>Alex Rodolfo Aldave</t>
-  </si>
-  <si>
-    <t>aldavealonso@gmail.com</t>
-  </si>
-  <si>
-    <t>El Broker envió toda la informacion al cliente</t>
-  </si>
-  <si>
-    <t>2020-08-15 16:33:17</t>
-  </si>
-  <si>
-    <t>Helene Anne Marie Campech</t>
-  </si>
-  <si>
-    <t>helenecampech@gmail.com</t>
-  </si>
-  <si>
-    <t>El Broker envió la información al cliente</t>
-  </si>
-  <si>
-    <t>2020-08-15 11:58:37</t>
-  </si>
-  <si>
-    <t>Sissy Belis</t>
-  </si>
-  <si>
-    <t>sissy.slbbienesraices@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-15 11:51:45</t>
-  </si>
-  <si>
-    <t>Sonia Martinez</t>
-  </si>
-  <si>
-    <t>sonia@propiedadesmx.com</t>
-  </si>
-  <si>
-    <t>Envie correo con información para sus prospectos</t>
-  </si>
-  <si>
-    <t>napoles  --  napoles  --  napoles  --  napoles</t>
-  </si>
-  <si>
-    <t>2020-08-15 11:45:56</t>
-  </si>
-  <si>
-    <t>Catalina</t>
-  </si>
-  <si>
-    <t>catacacro@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-15 11:16:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvaro </t>
-  </si>
-  <si>
-    <t>alvaro.vasgom@hotmail.com</t>
-  </si>
-  <si>
-    <t>Correo se regresa envié Whatsapp</t>
-  </si>
-  <si>
-    <t>2020-08-15 00:07:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Rozen </t>
-  </si>
-  <si>
-    <t>diego_rs7@hotmail.com</t>
-  </si>
-  <si>
-    <t>Cotización 2 rec envié 307A para su revisión</t>
-  </si>
-  <si>
-    <t>napoles_web  --  napoles_web</t>
-  </si>
-  <si>
-    <t>2020-08-14 19:13:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy Montalvo </t>
-  </si>
-  <si>
-    <t>Montalvomnancy@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>2020-08-14 13:51:57</t>
+    <t>2020-08-21 11:32:44</t>
+  </si>
+  <si>
+    <t>Adelaida Arceo</t>
+  </si>
+  <si>
+    <t>enelorozco@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp de primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-08-21 10:58:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Tester] </t>
+  </si>
+  <si>
+    <t>j.test@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envie mail de informacion</t>
+  </si>
+  <si>
+    <t>2020-08-20 23:03:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinthya Urbina </t>
+  </si>
+  <si>
+    <t>Cinthyaurbina@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Envié cotizaciones por mail. No responde teléfono.</t>
+  </si>
+  <si>
+    <t>2020-08-20 17:41:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Gonzalez Escamilla </t>
+  </si>
+  <si>
+    <t>karenglez2@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-20 16:12:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Montaño </t>
+  </si>
+  <si>
+    <t>mogo_migel@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-20 16:12:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samantha Torres </t>
+  </si>
+  <si>
+    <t>timantha7@gmail.com</t>
+  </si>
+  <si>
+    <t>Correo de primer contacto enviado. El CEL no existe</t>
+  </si>
+  <si>
+    <t>2020-08-20 13:41:43</t>
+  </si>
+  <si>
+    <t>Alejandro Bojorquez</t>
+  </si>
+  <si>
+    <t>fatboy_jabc@outlook.com</t>
+  </si>
+  <si>
+    <t>2020-08-20 12:20:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo A. Becerra </t>
+  </si>
+  <si>
+    <t>altolalo_1992@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo con información general del proyecto.</t>
+  </si>
+  <si>
+    <t>2020-08-19 23:42:27</t>
+  </si>
+  <si>
+    <t>Paula Roldán</t>
+  </si>
+  <si>
+    <t>paula.roldan@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta la llamada</t>
+  </si>
+  <si>
+    <t>2020-08-19 18:58:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Colinas </t>
+  </si>
+  <si>
+    <t>claudiacolinas@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp  de primer contacto enviado. Llamada sale buzón</t>
+  </si>
+  <si>
+    <t>2020-08-19 16:53:52</t>
+  </si>
+  <si>
+    <t>Laura Flores</t>
+  </si>
+  <si>
+    <t>lau.fh.pt@gmail.com</t>
+  </si>
+  <si>
+    <t>Pidió información de Polanco y Napoles, doy seguimiento. Llamada sale buzón.</t>
+  </si>
+  <si>
+    <t>2020-08-19 09:28:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jessica Anaya Uriostegui </t>
+  </si>
+  <si>
+    <t>jessica.anayauriostegui@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-18 21:30:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amy Bernal Perez </t>
+  </si>
+  <si>
+    <t>amy_bepe@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-18 17:34:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Pablo Ortega Coello </t>
+  </si>
+  <si>
+    <t>pedro.pablo.ortega@gmail.com</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.  Llamada entra a buzón</t>
+  </si>
+  <si>
+    <t>2020-08-18 16:52:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Soriano </t>
+  </si>
+  <si>
+    <t>Arq.andressoriano@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-18 15:53:46</t>
+  </si>
+  <si>
+    <t>Vale Oest</t>
+  </si>
+  <si>
+    <t>vale_o1509@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-18 15:53:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaid </t>
+  </si>
+  <si>
+    <t>anaidsustaita@gmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Viva Anuncios. Entra buzón.</t>
+  </si>
+  <si>
+    <t>2020-08-18 15:51:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola </t>
+  </si>
+  <si>
+    <t>Prc@aliter.com.mx</t>
+  </si>
+  <si>
+    <t>WhatsApp de seguimiento</t>
+  </si>
+  <si>
+    <t>2020-08-18 10:18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jai Aguilar </t>
+  </si>
+  <si>
+    <t>Yoa@jauja.mx</t>
+  </si>
+  <si>
+    <t>2020-08-17 19:46:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judith Pelaez </t>
+  </si>
+  <si>
+    <t>judith.pelaez@outlook.es</t>
+  </si>
+  <si>
+    <t>2020-08-17 13:54:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katia </t>
+  </si>
+  <si>
+    <t>vincnav@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo con la información general del proyecto, no contesta tel.</t>
+  </si>
+  <si>
+    <t>2020-08-17 12:08:04</t>
+  </si>
+  <si>
+    <t>Anita Calixto Ríos</t>
+  </si>
+  <si>
+    <t>dganitacalixtorios@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-17 12:07:20</t>
+  </si>
+  <si>
+    <t>Guadalupe González</t>
+  </si>
+  <si>
+    <t>marygt9530@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-17 12:05:49</t>
+  </si>
+  <si>
+    <t>Brenda Rivera</t>
+  </si>
+  <si>
+    <t>bvrlara@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-17 02:07:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Orozco </t>
+  </si>
+  <si>
+    <t>andresoyapor@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-17 00:16:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viany Doroteo </t>
+  </si>
+  <si>
+    <t>Javi78@live.com.mx</t>
+  </si>
+  <si>
+    <t>2020-08-23 00:59:01</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t xml:space="preserve">Frida Gabriela Jiménez Jiménez </t>
-  </si>
-  <si>
-    <t>fridagab_03@hotmail.com</t>
-  </si>
-  <si>
-    <t>Busca Renta, presupuesto 8 mil pesos</t>
-  </si>
-  <si>
-    <t>napoles_web Napoles</t>
-  </si>
-  <si>
-    <t>2020-08-14 13:10:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Angel Martinez Villela </t>
-  </si>
-  <si>
-    <t>d_angelmtz@hotmail.com</t>
-  </si>
-  <si>
-    <t>Numero telefónico inexistente, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>2020-08-14 12:49:47</t>
-  </si>
-  <si>
-    <t>Lucero Zazueta</t>
-  </si>
-  <si>
-    <t>lucero.zazueta@gmail.com</t>
-  </si>
-  <si>
-    <t>Se llevo cotizacion del 207B</t>
-  </si>
-  <si>
-    <t>2020-08-14 12:12:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Bernal </t>
-  </si>
-  <si>
-    <t>Seik1999@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-14 11:10:09</t>
-  </si>
-  <si>
-    <t>David Rojas</t>
-  </si>
-  <si>
-    <t>drojasa@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>Leads Nápoles</t>
-  </si>
-  <si>
-    <t>2020-08-14 08:49:55</t>
-  </si>
-  <si>
-    <t>Luis Betancourt</t>
-  </si>
-  <si>
-    <t>luiscbetancourt@gmail.com</t>
-  </si>
-  <si>
-    <t>Este cliente ya conoce el Desarrollo, lo atendió Gerardo.</t>
-  </si>
-  <si>
-    <t>2020-08-13 22:48:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lalis Lau </t>
-  </si>
-  <si>
-    <t>laura050690@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía información por whats de 2 recamaras</t>
-  </si>
-  <si>
-    <t>2020-08-13 21:21:42</t>
-  </si>
-  <si>
-    <t>Edgar Lopez</t>
-  </si>
-  <si>
-    <t>edd_lopecha@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-13 17:43:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocio Tornes </t>
-  </si>
-  <si>
-    <t>mrta261075@live.com.mx</t>
-  </si>
-  <si>
-    <t>napoles  --  napoles  --  avenue_napoles_1  --  avenue_napoles_1</t>
-  </si>
-  <si>
-    <t>2020-08-13 16:59:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alisson -------- </t>
-  </si>
-  <si>
-    <t>palinelizeth@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía información por mail y por whats</t>
-  </si>
-  <si>
-    <t>2020-08-13 16:31:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imelda Claudia Urrutia Reyes </t>
-  </si>
-  <si>
-    <t>urrutia_ime@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Busca en renta</t>
-  </si>
-  <si>
-    <t>2020-08-13 15:31:10</t>
-  </si>
-  <si>
-    <t>Salvador Martínez</t>
-  </si>
-  <si>
-    <t>aboga_ius@hotmail.com</t>
-  </si>
-  <si>
-    <t>VISITA el desarrollo, quiere algo de 3 rec. No esta seguro si sera sujeto de crédito. Lo revisa con su familia y si si pide cita para volver con ellos. Se lleva Cotizaciones</t>
-  </si>
-  <si>
-    <t>2020-08-13 01:14:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Dominguez </t>
-  </si>
-  <si>
-    <t>josedomer@gmail.com</t>
-  </si>
-  <si>
-    <t>Correo y Whatsapp de primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-08-13 01:12:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marissa Velazquez </t>
-  </si>
-  <si>
-    <t>Monxcx7@gmail.com</t>
-  </si>
-  <si>
-    <t>Numero suspendido se envia información por mail</t>
-  </si>
-  <si>
-    <t>2020-08-12 19:52:50</t>
-  </si>
-  <si>
-    <t>Martin Rivera</t>
-  </si>
-  <si>
-    <t>martin_ellatin@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-12 19:52:26</t>
-  </si>
-  <si>
-    <t>Margarita Velasco Perroni</t>
-  </si>
-  <si>
-    <t>mvperro@hotmail.com</t>
-  </si>
-  <si>
-    <t>Le envío presentación por mail y por whats</t>
-  </si>
-  <si>
-    <t>2020-08-12 14:30:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Alberto López-García </t>
-  </si>
-  <si>
-    <t>dr.lopezgarcia_ent@hotmail.com</t>
-  </si>
-  <si>
-    <t>Fuera de su presupuesto.</t>
-  </si>
-  <si>
-    <t>avenue_napoles_1  --  avenue_napoles_1  --  napoles  --  napoles</t>
-  </si>
-  <si>
-    <t>2020-08-12 13:42:22</t>
-  </si>
-  <si>
-    <t>+525529319717@phonecall.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 20:19:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karelyn del Moral Guevara </t>
-  </si>
-  <si>
-    <t>karelyndelmoralg@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 19:33:52</t>
-  </si>
-  <si>
-    <t>Luis Jimenez</t>
-  </si>
-  <si>
-    <t>thapato@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail y por whats</t>
-  </si>
-  <si>
-    <t>2020-08-11 19:33:31</t>
-  </si>
-  <si>
-    <t>Alfredo Rubio</t>
-  </si>
-  <si>
-    <t>alfarubio@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 19:31:49</t>
-  </si>
-  <si>
-    <t>Charls Topete</t>
-  </si>
-  <si>
-    <t>caurelio05@hotmail.com</t>
-  </si>
-  <si>
-    <t>El número no existe, le envío presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-08-11 17:14:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana Marissa Aguilar </t>
-  </si>
-  <si>
-    <t>Diana.maa91@gmail.com</t>
-  </si>
-  <si>
-    <t>avenue_napoles_1  --  napoles</t>
-  </si>
-  <si>
-    <t>2020-08-11 15:18:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Riander </t>
-  </si>
-  <si>
-    <t>Christian.riander@gmail.com</t>
-  </si>
-  <si>
-    <t>Le envié presentacion por whats con ejemplos de cotizaciones de 3 recamaras</t>
-  </si>
-  <si>
-    <t>2020-08-11 15:06:23</t>
-  </si>
-  <si>
-    <t>Javier Zapata</t>
-  </si>
-  <si>
-    <t>javierzapata20@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Visito el showroom le gusto el 309A quiere venir con su esposa, Santa Ramirez</t>
-  </si>
-  <si>
-    <t>2020-08-11 12:04:00</t>
-  </si>
-  <si>
-    <t>Fernando Colin</t>
-  </si>
-  <si>
-    <t>fernandoalan87@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié COTIZACIONES 307A, 205B y 207C</t>
-  </si>
-  <si>
-    <t>napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles</t>
-  </si>
-  <si>
-    <t>2020-08-11 12:00:25</t>
-  </si>
-  <si>
-    <t>Yar Lopez</t>
-  </si>
-  <si>
-    <t>yaneriavilalopez@gmail.com</t>
-  </si>
-  <si>
-    <t>Quiere 2 rec. envié cotizacion del 307A y 301B</t>
-  </si>
-  <si>
-    <t>napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles  --  napoles</t>
-  </si>
-  <si>
-    <t>2020-08-11 10:55:50</t>
-  </si>
-  <si>
-    <t>Daniel Carrillo</t>
-  </si>
-  <si>
-    <t>carrillodanielmx@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 01:40:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brenda Flores </t>
-  </si>
-  <si>
-    <t>brenda_monik@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-10 21:43:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubén </t>
-  </si>
-  <si>
-    <t>rubenaff@yahoo.com</t>
-  </si>
-  <si>
-    <t>2020-08-10 20:15:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Vergara </t>
-  </si>
-  <si>
-    <t>dave_vergara@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-10 19:49:54</t>
-  </si>
-  <si>
-    <t>Vicks Soto</t>
-  </si>
-  <si>
-    <t>vms@live.com.mx</t>
+    <t xml:space="preserve">eeeeer </t>
+  </si>
+  <si>
+    <t>wwjdjsj@jsjshshks.com</t>
+  </si>
+  <si>
+    <t>Datos incorrectos</t>
+  </si>
+  <si>
+    <t>2020-08-22 15:53:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco J Labrador C </t>
+  </si>
+  <si>
+    <t>Fjlabrador@hotmail.com</t>
+  </si>
+  <si>
+    <t>Teléfono no existe. Envié correo de interés.</t>
+  </si>
+  <si>
+    <t>2020-08-22 11:54:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ericka Morales </t>
+  </si>
+  <si>
+    <t>erickamoralesdelacruz@g.com</t>
+  </si>
+  <si>
+    <t>Busca Renta</t>
+  </si>
+  <si>
+    <t>2020-08-21 22:49:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabina correa </t>
+  </si>
+  <si>
+    <t>sabina.correa@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca departamento en renta en Monterrey</t>
+  </si>
+  <si>
+    <t>2020-08-20 14:19:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAMILY AZUCENA CABRAL ACEVEDO </t>
+  </si>
+  <si>
+    <t>yamily.cabral@sazacatecas.gob.mx</t>
+  </si>
+  <si>
+    <t>Se confundío pensó que el desarrollo era en zacatecas, no le interesa mex</t>
+  </si>
+  <si>
+    <t>2020-08-19 22:11:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrián Torres </t>
+  </si>
+  <si>
+    <t>temma13@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sin presupuesto quiere ejercer su crédito trae $2,000,000 de pesos</t>
+  </si>
+  <si>
+    <t>2020-08-19 11:57:10</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>greybeaumont95@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca renta, estamos fuera de su presupuesto.</t>
+  </si>
+  <si>
+    <t>2020-08-19 01:10:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Piñera </t>
+  </si>
+  <si>
+    <t>Zark790@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se sale de su presupuesto trae $4,400,000</t>
+  </si>
+  <si>
+    <t>2020-08-17 12:08:31</t>
+  </si>
+  <si>
+    <t>Claudia Samperio</t>
+  </si>
+  <si>
+    <t>clausamat@gmail.com</t>
   </si>
   <si>
     <t>Trae bajo presupuesto $3,000,000</t>
   </si>
   <si>
-    <t>2020-08-10 19:49:28</t>
-  </si>
-  <si>
-    <t>Robert Roscorla</t>
-  </si>
-  <si>
-    <t>backstreetboy90210@hotmail.com</t>
-  </si>
-  <si>
-    <t>Numero teléfonico inexistente, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
-  </si>
-  <si>
-    <t>2020-08-10 19:48:37</t>
-  </si>
-  <si>
-    <t>Eva Barbosa</t>
-  </si>
-  <si>
-    <t>evola_23@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por whats</t>
-  </si>
-  <si>
-    <t>2020-08-10 19:47:55</t>
-  </si>
-  <si>
-    <t>Ana Romero</t>
-  </si>
-  <si>
-    <t>sirani.romero@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-10 19:47:23</t>
-  </si>
-  <si>
-    <t>Agus Murdoch</t>
-  </si>
-  <si>
-    <t>gordi33@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail.</t>
-  </si>
-  <si>
-    <t>2020-08-10 19:46:46</t>
-  </si>
-  <si>
-    <t>Ixchel Ramos</t>
-  </si>
-  <si>
-    <t>ixchel.ramos80@gmail.com</t>
-  </si>
-  <si>
-    <t>Quería ofrecer sus servicios de Adminisración de edificios.</t>
-  </si>
-  <si>
-    <t>2020-08-10 18:36:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Valverde </t>
-  </si>
-  <si>
-    <t>analaufv@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía preesentación con cotizaciones de 2 recamaras por mail y por whats</t>
-  </si>
-  <si>
-    <t>2020-08-10 00:15:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irma Garcia Zurita </t>
-  </si>
-  <si>
-    <t>Irmagarciaz@gmail.com</t>
-  </si>
-  <si>
-    <t>El telefomo solo cuenta con servicio para navegar en internet se le envia presentacion por mail</t>
+    <t>2020-08-17 12:06:43</t>
+  </si>
+  <si>
+    <t>Gisella Elizama Gutiérrez Andrade</t>
+  </si>
+  <si>
+    <t>gisella.elizama@hotmail.com</t>
+  </si>
+  <si>
+    <t>Esta buscando propiedades en New York se equivoco al solicitar los informes</t>
+  </si>
+  <si>
+    <t>2020-08-17 10:30:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pame Cuadros </t>
+  </si>
+  <si>
+    <t>pamecuadros@gmail.com</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto 4MDP</t>
+  </si>
+  <si>
+    <t>2020-08-17 07:35:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Gallardo </t>
+  </si>
+  <si>
+    <t>alexggard@gmail.com</t>
+  </si>
+  <si>
+    <t>Bajo presupuesto $5M</t>
   </si>
   <si>
     <t>Código de clasificación</t>
@@ -732,22 +827,13 @@
   </si>
   <si>
     <t xml:space="preserve">Report Powered by KIPER </t>
-  </si>
-  <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>No llegaron las personas del video y le ofreci hacer la llamada por WHAPP para no detenerlo mas tiempo. No se si no le gustó porque no contestó la llamada y tampoco los mensajes.</t>
-  </si>
-  <si>
-    <t>Sin seguimiento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -784,12 +870,12 @@
       <name val="Avenir Heavy"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
     </font>
@@ -797,18 +883,6 @@
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -831,7 +905,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -981,34 +1055,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -1057,6 +1103,17 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right/>
@@ -1086,39 +1143,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1130,17 +1159,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,97 +1177,94 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" apply